--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -8,45 +8,47 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D553166-BA7B-4EA9-8172-4297A6A1936E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAF6A39-DFAC-4EA0-8E45-5457D41B8399}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" firstSheet="8" activeTab="14" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" activeTab="2" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
     <sheet name="Mock Exam 3" sheetId="33" r:id="rId2"/>
-    <sheet name="Closing 4" sheetId="32" r:id="rId3"/>
-    <sheet name="quality" sheetId="31" r:id="rId4"/>
-    <sheet name="Resource" sheetId="30" r:id="rId5"/>
-    <sheet name="Mock Exam 10" sheetId="27" r:id="rId6"/>
-    <sheet name="Mock Exam 1" sheetId="25" r:id="rId7"/>
-    <sheet name="Planning 4" sheetId="24" r:id="rId8"/>
-    <sheet name="monitoring 3" sheetId="23" r:id="rId9"/>
-    <sheet name="Stakeholder" sheetId="1" r:id="rId10"/>
-    <sheet name="Communication" sheetId="29" r:id="rId11"/>
-    <sheet name="Risk" sheetId="28" r:id="rId12"/>
-    <sheet name="Procurement" sheetId="2" r:id="rId13"/>
-    <sheet name="Closing 1" sheetId="20" r:id="rId14"/>
-    <sheet name="Initiating 2" sheetId="34" r:id="rId15"/>
-    <sheet name="Initiating 1" sheetId="7" r:id="rId16"/>
-    <sheet name="scope" sheetId="10" r:id="rId17"/>
-    <sheet name="Planning5" sheetId="3" r:id="rId18"/>
-    <sheet name="Planning1" sheetId="11" r:id="rId19"/>
-    <sheet name="Planning3" sheetId="16" r:id="rId20"/>
-    <sheet name="Executing1" sheetId="15" r:id="rId21"/>
-    <sheet name="Executing 2" sheetId="17" r:id="rId22"/>
-    <sheet name="Domain-Initiating" sheetId="18" r:id="rId23"/>
-    <sheet name="Domain-Planning" sheetId="12" r:id="rId24"/>
-    <sheet name="Domain-Executing" sheetId="13" r:id="rId25"/>
-    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId26"/>
-    <sheet name="Domain-Closing" sheetId="19" r:id="rId27"/>
-    <sheet name="Executing" sheetId="4" r:id="rId28"/>
-    <sheet name="Monitoring" sheetId="5" r:id="rId29"/>
-    <sheet name="Closing" sheetId="6" r:id="rId30"/>
-    <sheet name="Mock" sheetId="8" r:id="rId31"/>
-    <sheet name="Full Test" sheetId="9" r:id="rId32"/>
+    <sheet name="Closing 2" sheetId="35" r:id="rId3"/>
+    <sheet name="Closing 4" sheetId="32" r:id="rId4"/>
+    <sheet name="quality" sheetId="31" r:id="rId5"/>
+    <sheet name="Resource" sheetId="30" r:id="rId6"/>
+    <sheet name="Mock Exam 10" sheetId="27" r:id="rId7"/>
+    <sheet name="Mock Exam 1" sheetId="25" r:id="rId8"/>
+    <sheet name="Planning 4" sheetId="24" r:id="rId9"/>
+    <sheet name="monitoring 3" sheetId="23" r:id="rId10"/>
+    <sheet name="Stakeholder" sheetId="1" r:id="rId11"/>
+    <sheet name="Communication" sheetId="29" r:id="rId12"/>
+    <sheet name="Risk" sheetId="28" r:id="rId13"/>
+    <sheet name="Procurement" sheetId="2" r:id="rId14"/>
+    <sheet name="Closing 1" sheetId="20" r:id="rId15"/>
+    <sheet name="Initiating 2" sheetId="34" r:id="rId16"/>
+    <sheet name="Initiating 1" sheetId="7" r:id="rId17"/>
+    <sheet name="scope" sheetId="10" r:id="rId18"/>
+    <sheet name="Planning5" sheetId="3" r:id="rId19"/>
+    <sheet name="Planning1" sheetId="11" r:id="rId20"/>
+    <sheet name="Planning3" sheetId="16" r:id="rId21"/>
+    <sheet name="Executing1" sheetId="15" r:id="rId22"/>
+    <sheet name="Executing 2" sheetId="17" r:id="rId23"/>
+    <sheet name="Domain-Initiating" sheetId="18" r:id="rId24"/>
+    <sheet name="Domain-Planning" sheetId="12" r:id="rId25"/>
+    <sheet name="Domain-Executing" sheetId="13" r:id="rId26"/>
+    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId27"/>
+    <sheet name="Domain-Closing" sheetId="19" r:id="rId28"/>
+    <sheet name="Executing" sheetId="4" r:id="rId29"/>
+    <sheet name="Monitoring" sheetId="5" r:id="rId30"/>
+    <sheet name="Closing" sheetId="6" r:id="rId31"/>
+    <sheet name="Mock" sheetId="8" r:id="rId32"/>
+    <sheet name="Full Test" sheetId="9" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="629">
   <si>
     <t>No</t>
   </si>
@@ -2072,6 +2074,33 @@
   </si>
   <si>
     <t>Trong weak matrix power nằm trong tay function manager, khi mà chuyển weak matrix sang strong matrix thì function manager -&gt; PM</t>
+  </si>
+  <si>
+    <t>note: định nghĩa của project là temporary and unique. Operations and maintain được xem là ongoing activities -&gt; hoạt động liên tục không phải temporary nên nó không phải là 1 phần của project</t>
+  </si>
+  <si>
+    <t>Note: operation and maintenance activities không là 1 phần của project. Nhưng những việc như collect data, meet with operation and maintenance to explain  the project nên include vào project</t>
+  </si>
+  <si>
+    <t>Note: in weak matrix the project coordinator reports to higher - level manager and has authority make some decisions, the project expediter has no authority to make decisions</t>
+  </si>
+  <si>
+    <t>Note: lưu ý strong matrix thì PM mới có power . Không có khái niệm functionn matrix, tight matrix. Trong weak matrix thì function manager là có power hơn</t>
+  </si>
+  <si>
+    <t>Note: role của PMO là determining priorities between projects</t>
+  </si>
+  <si>
+    <t>keyword là authority by function manager là biết được đang nằm trong function organization. Coordinator or expediter trong weak matrix, strong matrix thì PM có power, trong matrix thì có 2 role PM và function manager. Weak matrix thì PM không có authority</t>
+  </si>
+  <si>
+    <t>Note: offering to pay cho official country mà không clear là bribe</t>
+  </si>
+  <si>
+    <t>PM là phải tôn trọng pháp luật nước sở tại, trung thực…</t>
+  </si>
+  <si>
+    <t>Cần phải thỏa mãn đáp ứng nhu cầu, mục tiêu ở nước sở tại</t>
   </si>
 </sst>
 </file>
@@ -2754,6 +2783,12 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2779,12 +2814,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3107,8 +3136,8 @@
   </sheetPr>
   <dimension ref="A1:Z1328"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3585,7 +3614,7 @@
       <c r="Z12" s="56"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="105" t="s">
         <v>396</v>
       </c>
       <c r="B13" s="89">
@@ -3627,7 +3656,7 @@
       <c r="Z13" s="56"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="105" t="s">
         <v>397</v>
       </c>
       <c r="B14" s="89">
@@ -3667,13 +3696,13 @@
       <c r="Z14" s="56"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="105" t="s">
         <v>372</v>
       </c>
-      <c r="B15" s="107">
+      <c r="B15" s="109">
         <v>43473</v>
       </c>
-      <c r="C15" s="107" t="str">
+      <c r="C15" s="109" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -3707,11 +3736,11 @@
       <c r="Z15" s="56"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="106" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
       <c r="D16" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3744,11 +3773,11 @@
       <c r="Z16" s="56"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="106" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3862,11 +3891,11 @@
       <c r="A20" s="97" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="107">
+      <c r="B20" s="109">
         <f>B19+1</f>
         <v>43474</v>
       </c>
-      <c r="C20" s="107" t="str">
+      <c r="C20" s="109" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 4</v>
       </c>
@@ -3901,8 +3930,8 @@
       <c r="A21" s="97" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
       <c r="D21" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3934,8 +3963,8 @@
       <c r="A22" s="97" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
       <c r="D22" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4051,11 +4080,11 @@
       <c r="A25" s="86" t="s">
         <v>374</v>
       </c>
-      <c r="B25" s="107">
+      <c r="B25" s="109">
         <f>B24+1</f>
         <v>43476</v>
       </c>
-      <c r="C25" s="107" t="str">
+      <c r="C25" s="109" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 6</v>
       </c>
@@ -4095,8 +4124,8 @@
       <c r="A26" s="86" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
       <c r="D26" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4131,8 +4160,8 @@
       <c r="A27" s="101" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
       <c r="D27" s="102">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4322,11 +4351,11 @@
       <c r="A32" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="105">
+      <c r="B32" s="107">
         <f>B31+1</f>
         <v>43479</v>
       </c>
-      <c r="C32" s="105" t="str">
+      <c r="C32" s="107" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 2</v>
       </c>
@@ -4361,8 +4390,8 @@
       <c r="A33" s="72" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
       <c r="D33" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4394,8 +4423,8 @@
       <c r="A34" s="72" t="s">
         <v>405</v>
       </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
       <c r="D34" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4507,11 +4536,11 @@
       <c r="A37" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="B37" s="105">
+      <c r="B37" s="107">
         <f>B36+1</f>
         <v>43481</v>
       </c>
-      <c r="C37" s="105" t="str">
+      <c r="C37" s="107" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 4</v>
       </c>
@@ -4548,8 +4577,8 @@
       <c r="A38" s="72" t="s">
         <v>406</v>
       </c>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4577,8 +4606,8 @@
       <c r="A39" s="72" t="s">
         <v>407</v>
       </c>
-      <c r="B39" s="106"/>
-      <c r="C39" s="106"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
       <c r="D39" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4676,11 +4705,11 @@
       <c r="A42" s="72" t="s">
         <v>371</v>
       </c>
-      <c r="B42" s="105">
+      <c r="B42" s="107">
         <f>B36+3</f>
         <v>43483</v>
       </c>
-      <c r="C42" s="105" t="str">
+      <c r="C42" s="107" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 6</v>
       </c>
@@ -4711,8 +4740,8 @@
       <c r="A43" s="72" t="s">
         <v>408</v>
       </c>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="108"/>
       <c r="D43" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4740,8 +4769,8 @@
       <c r="A44" s="72" t="s">
         <v>409</v>
       </c>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
       <c r="D44" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -32833,6 +32862,7 @@
     <hyperlink ref="A14" location="'Planning 4'!A1" display="Planning 4 - 50" xr:uid="{18BC169C-EA36-4A5E-87CF-F9CC3AF21B74}"/>
     <hyperlink ref="A15" location="'Mock Exam 1'!A1" display="Mock Exam 1" xr:uid="{ED73D508-42DE-4E42-8850-8D0CF2D7669D}"/>
     <hyperlink ref="A16" location="'Initiating 2'!A1" display="Initiating 2 - 25" xr:uid="{D0F5A929-0007-4C6B-BA77-71ABA422B1B7}"/>
+    <hyperlink ref="A17" location="'Closing 2'!A1" display="Closing 2 - 10" xr:uid="{78482600-96D5-49BD-A0FB-EDB80FD8AA8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32841,6 +32871,688 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BF44A-91AF-4F6D-AE5E-E58F57961686}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="6" max="6" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="28"/>
+      <c r="G3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:8" ht="75">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="73" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:8" ht="30">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:8" ht="75">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="87" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="90">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="H11" s="87" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:8" ht="60">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" ht="30">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" ht="60">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" ht="45">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" ht="60">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:7" ht="60">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:7" ht="30">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:7" ht="30">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:7" ht="30">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="1:6" ht="60">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="1:6" ht="45">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" spans="1:6" ht="45">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="F39" s="28"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="28"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="28"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="28"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="28"/>
+    </row>
+    <row r="47" spans="1:6" ht="30">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="F47" s="28"/>
+    </row>
+    <row r="48" spans="1:6" ht="60">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="28"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="F49" s="28"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="28"/>
+    </row>
+    <row r="51" spans="1:6" ht="60">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="F51" s="28"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{53439D12-EE9C-4BFC-9A9B-EACD6CB75790}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{8BBB2C28-1059-4A8B-8B86-AF8D463FC543}">
+      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Monitoring &amp; Controlling'!A1" display="Domain" xr:uid="{02E982C3-0B60-4830-9489-423F31FCBAB9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FD89E-6595-4ED6-8407-B1A3D616014F}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H52"/>
@@ -33221,7 +33933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34A5403-C026-4AEF-975E-5986F7A3547D}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -33368,7 +34080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9696DCF4-14CB-44B7-90D8-B8204394C5DB}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -33507,7 +34219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3370A11-AD88-47EC-B564-C7B459D1B3C6}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E11"/>
@@ -33661,7 +34373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3E9025-2166-405B-928B-811F653123F3}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:F26"/>
@@ -34002,12 +34714,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FC4E90-A86A-42A7-A5A8-760D17A592B6}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34106,33 +34818,46 @@
       <c r="E6" s="84"/>
       <c r="F6" s="85"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="75">
       <c r="A7" s="81">
         <v>6</v>
       </c>
       <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
+      <c r="C7" s="81" t="s">
+        <v>4</v>
+      </c>
       <c r="D7" s="81"/>
+      <c r="E7" s="80" t="s">
+        <v>620</v>
+      </c>
       <c r="F7" s="85"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="75">
       <c r="A8" s="81">
         <v>7</v>
       </c>
       <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
+      <c r="C8" s="81" t="s">
+        <v>4</v>
+      </c>
       <c r="D8" s="81"/>
-      <c r="E8" s="84"/>
+      <c r="E8" s="84" t="s">
+        <v>621</v>
+      </c>
       <c r="F8" s="85"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="60">
       <c r="A9" s="81">
         <v>8</v>
       </c>
       <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
+      <c r="C9" s="81" t="s">
+        <v>4</v>
+      </c>
       <c r="D9" s="81"/>
-      <c r="E9" s="84"/>
+      <c r="E9" s="84" t="s">
+        <v>622</v>
+      </c>
       <c r="F9" s="85"/>
     </row>
     <row r="10" spans="1:6">
@@ -34175,13 +34900,17 @@
       <c r="E13" s="84"/>
       <c r="F13" s="85"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="60">
       <c r="A14" s="81">
         <v>13</v>
       </c>
       <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="E14" s="81"/>
+      <c r="C14" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>623</v>
+      </c>
       <c r="F14" s="85"/>
     </row>
     <row r="15" spans="1:6">
@@ -34193,24 +34922,28 @@
       <c r="E15" s="81"/>
       <c r="F15" s="85"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="81">
         <v>15</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
       <c r="D16" s="81"/>
-      <c r="E16" s="84"/>
+      <c r="E16" s="84" t="s">
+        <v>624</v>
+      </c>
       <c r="F16" s="85"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="105">
       <c r="A17" s="81">
         <v>16</v>
       </c>
       <c r="B17" s="81"/>
       <c r="C17" s="81"/>
       <c r="D17" s="81"/>
-      <c r="E17" s="84"/>
+      <c r="E17" s="84" t="s">
+        <v>625</v>
+      </c>
       <c r="F17" s="85"/>
     </row>
     <row r="18" spans="1:6">
@@ -34233,24 +34966,30 @@
       <c r="E19" s="84"/>
       <c r="F19" s="85"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="81">
         <v>19</v>
       </c>
       <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
+      <c r="C20" s="81" t="s">
+        <v>4</v>
+      </c>
       <c r="D20" s="81"/>
-      <c r="E20" s="84"/>
+      <c r="E20" s="84" t="s">
+        <v>626</v>
+      </c>
       <c r="F20" s="85"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="81">
         <v>20</v>
       </c>
       <c r="B21" s="81"/>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
-      <c r="E21" s="84"/>
+      <c r="E21" s="84" t="s">
+        <v>627</v>
+      </c>
       <c r="F21" s="85"/>
     </row>
     <row r="22" spans="1:6">
@@ -34283,14 +35022,18 @@
       <c r="E24" s="84"/>
       <c r="F24" s="85"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="30">
       <c r="A25" s="81">
         <v>24</v>
       </c>
       <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
+      <c r="C25" s="81" t="s">
+        <v>4</v>
+      </c>
       <c r="D25" s="81"/>
-      <c r="E25" s="84"/>
+      <c r="E25" s="84" t="s">
+        <v>628</v>
+      </c>
       <c r="F25" s="85"/>
     </row>
     <row r="26" spans="1:6">
@@ -34320,7 +35063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67830A5-61CE-4324-A223-E0E1F9224A73}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
@@ -34713,7 +35456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F5D74C-E5D9-45C3-98E4-07977C9F0161}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
@@ -34734,7 +35477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C982353-CA8A-4388-8859-7413C89A9E50}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E26"/>
@@ -35077,7 +35820,561 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03EE777-7A71-4ABF-B428-9DD9FC79554D}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="77"/>
+    <col min="2" max="2" width="33.140625" style="77" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="77" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="77" customWidth="1"/>
+    <col min="6" max="6" width="79" style="77" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="81">
+        <v>1</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="81"/>
+      <c r="E2" s="84" t="s">
+        <v>584</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="90">
+      <c r="A3" s="81">
+        <v>2</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="84" t="s">
+        <v>586</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="81">
+        <v>3</v>
+      </c>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>588</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>589</v>
+      </c>
+      <c r="F4" s="87" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="81">
+        <v>4</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="84"/>
+    </row>
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6" s="81">
+        <v>5</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="81"/>
+      <c r="E6" s="84" t="s">
+        <v>590</v>
+      </c>
+      <c r="F6" s="92" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="81">
+        <v>6</v>
+      </c>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="92" t="s">
+        <v>591</v>
+      </c>
+      <c r="G7" s="87"/>
+    </row>
+    <row r="8" spans="1:7" ht="45">
+      <c r="A8" s="81">
+        <v>7</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="81"/>
+      <c r="E8" s="84" t="s">
+        <v>592</v>
+      </c>
+      <c r="F8" s="92"/>
+    </row>
+    <row r="9" spans="1:7" ht="60">
+      <c r="A9" s="81">
+        <v>8</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>593</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="81">
+        <v>9</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="87"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="81">
+        <v>10</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="92"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="81">
+        <v>11</v>
+      </c>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="87"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="81">
+        <v>12</v>
+      </c>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="92"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="81">
+        <v>13</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="84"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="81">
+        <v>14</v>
+      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="92"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="81">
+        <v>15</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="92"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="81">
+        <v>16</v>
+      </c>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="84"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="81">
+        <v>17</v>
+      </c>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="84"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="81">
+        <v>18</v>
+      </c>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="93"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="81">
+        <v>19</v>
+      </c>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="84"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="81">
+        <v>20</v>
+      </c>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="84"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="81">
+        <v>21</v>
+      </c>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="84"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="81">
+        <v>22</v>
+      </c>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="84"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="81">
+        <v>23</v>
+      </c>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="84"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="81">
+        <v>24</v>
+      </c>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="84"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="81">
+        <v>25</v>
+      </c>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="84"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="81">
+        <v>26</v>
+      </c>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="84"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="81">
+        <v>27</v>
+      </c>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="84"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="81">
+        <v>28</v>
+      </c>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="84"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="81">
+        <v>29</v>
+      </c>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="84"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="81">
+        <v>30</v>
+      </c>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="84"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="81">
+        <v>31</v>
+      </c>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="84"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="81">
+        <v>32</v>
+      </c>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="84"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="81">
+        <v>33</v>
+      </c>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="84"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="81">
+        <v>34</v>
+      </c>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="84"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="81">
+        <v>35</v>
+      </c>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="84"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="81">
+        <v>36</v>
+      </c>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="84"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="81">
+        <v>37</v>
+      </c>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="84"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="81">
+        <v>38</v>
+      </c>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="84"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="81">
+        <v>39</v>
+      </c>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="84"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="81">
+        <v>40</v>
+      </c>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="84"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="81">
+        <v>41</v>
+      </c>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="84"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="81">
+        <v>42</v>
+      </c>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="84"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="81">
+        <v>43</v>
+      </c>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="84"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="81">
+        <v>44</v>
+      </c>
+      <c r="B45" s="81"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="84"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="81">
+        <v>45</v>
+      </c>
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="84"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="81">
+        <v>46</v>
+      </c>
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="84"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="81">
+        <v>47</v>
+      </c>
+      <c r="B48" s="81"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="84"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="81">
+        <v>48</v>
+      </c>
+      <c r="B49" s="81"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="84"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="81">
+        <v>49</v>
+      </c>
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="84"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="81">
+        <v>50</v>
+      </c>
+      <c r="B51" s="81"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="84"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{4FE8A252-954C-419D-A8FB-D3F34E393847}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{C77349D5-2B19-498C-A49A-53558815CFE2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E4B6E-32AB-4F9F-9656-4C5398F92691}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L52"/>
@@ -36056,561 +37353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03EE777-7A71-4ABF-B428-9DD9FC79554D}">
-  <dimension ref="A1:G51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="77"/>
-    <col min="2" max="2" width="33.140625" style="77" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="77" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="77" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" style="77" customWidth="1"/>
-    <col min="6" max="6" width="79" style="77" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="77"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="83" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="81">
-        <v>1</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="84" t="s">
-        <v>584</v>
-      </c>
-      <c r="F2" s="77" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="90">
-      <c r="A3" s="81">
-        <v>2</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="84" t="s">
-        <v>586</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="81">
-        <v>3</v>
-      </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>588</v>
-      </c>
-      <c r="E4" s="84" t="s">
-        <v>589</v>
-      </c>
-      <c r="F4" s="87" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="81">
-        <v>4</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="84"/>
-    </row>
-    <row r="6" spans="1:7" ht="45">
-      <c r="A6" s="81">
-        <v>5</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="84" t="s">
-        <v>590</v>
-      </c>
-      <c r="F6" s="92" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="81">
-        <v>6</v>
-      </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="92" t="s">
-        <v>591</v>
-      </c>
-      <c r="G7" s="87"/>
-    </row>
-    <row r="8" spans="1:7" ht="45">
-      <c r="A8" s="81">
-        <v>7</v>
-      </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="84" t="s">
-        <v>592</v>
-      </c>
-      <c r="F8" s="92"/>
-    </row>
-    <row r="9" spans="1:7" ht="60">
-      <c r="A9" s="81">
-        <v>8</v>
-      </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>593</v>
-      </c>
-      <c r="E9" s="84" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="81">
-        <v>9</v>
-      </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="87"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="81">
-        <v>10</v>
-      </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="92"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="81">
-        <v>11</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="87"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="81">
-        <v>12</v>
-      </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="92"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="81">
-        <v>13</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="84"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="81">
-        <v>14</v>
-      </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="92"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="81">
-        <v>15</v>
-      </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="92"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="81">
-        <v>16</v>
-      </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="84"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="81">
-        <v>17</v>
-      </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="84"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="81">
-        <v>18</v>
-      </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="93"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="81">
-        <v>19</v>
-      </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="84"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="81">
-        <v>20</v>
-      </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="84"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="81">
-        <v>21</v>
-      </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="84"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="81">
-        <v>22</v>
-      </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="84"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="81">
-        <v>23</v>
-      </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="84"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="81">
-        <v>24</v>
-      </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="84"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="81">
-        <v>25</v>
-      </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="84"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="81">
-        <v>26</v>
-      </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="84"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="81">
-        <v>27</v>
-      </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="84"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="81">
-        <v>28</v>
-      </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="84"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="81">
-        <v>29</v>
-      </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="84"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="81">
-        <v>30</v>
-      </c>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="84"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="81">
-        <v>31</v>
-      </c>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="84"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="81">
-        <v>32</v>
-      </c>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="84"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="81">
-        <v>33</v>
-      </c>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="84"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="81">
-        <v>34</v>
-      </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="84"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="81">
-        <v>35</v>
-      </c>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="84"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="81">
-        <v>36</v>
-      </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="84"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="81">
-        <v>37</v>
-      </c>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="84"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="81">
-        <v>38</v>
-      </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="84"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="81">
-        <v>39</v>
-      </c>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="84"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="81">
-        <v>40</v>
-      </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="84"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="81">
-        <v>41</v>
-      </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="84"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="81">
-        <v>42</v>
-      </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="84"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="81">
-        <v>43</v>
-      </c>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="84"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="81">
-        <v>44</v>
-      </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="84"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="81">
-        <v>45</v>
-      </c>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="84"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="81">
-        <v>46</v>
-      </c>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="84"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="81">
-        <v>47</v>
-      </c>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="84"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="81">
-        <v>48</v>
-      </c>
-      <c r="B49" s="81"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="84"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="81">
-        <v>49</v>
-      </c>
-      <c r="B50" s="81"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="84"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="81">
-        <v>50</v>
-      </c>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="84"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{4FE8A252-954C-419D-A8FB-D3F34E393847}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{C77349D5-2B19-498C-A49A-53558815CFE2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC2793-45B1-4029-830E-35CE2386D9D1}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J51"/>
@@ -37649,7 +38392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0762741B-203C-43CC-95E6-55D0B96E24E3}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F51"/>
@@ -38353,7 +39096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFD739-AF93-4AA7-A2F1-3E80882A8922}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F51"/>
@@ -39052,7 +39795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475F131D-CBCC-4B8F-BDF4-B1E2E34C7098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K9"/>
@@ -39067,152 +39810,152 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="111" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="111"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="113"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="111" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="111"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="113"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="111" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="111"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="113"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="111"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="113"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="113"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="111" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="111"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="113"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="114"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -39230,7 +39973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K13"/>
@@ -39243,222 +39986,222 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="111"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="113"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="111"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="113"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="111" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="111"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="113"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="111"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="113"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="113"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="111"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="113"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="111"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="113"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="113"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="113"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="111"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="113"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="111"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -39480,7 +40223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3A676-4755-49BB-A0B9-3FC0BA4B80B3}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:K7"/>
@@ -39493,265 +40236,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="111"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="113"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="111" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="111"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="113"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="111"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="113"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="111" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="111"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="113"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="111" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="111"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="109" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="111"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="109" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="111"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="109" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="111"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="109" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="111"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="109" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="111"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="109" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="111"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -39769,6 +40367,151 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="111" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="113"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="111" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="113"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="113"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="113"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="113"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="111" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="113"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC2900-1516-4D11-BB5E-CB91221B0668}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K8"/>
@@ -39783,135 +40526,135 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="111" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="111"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="113"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="111" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="111"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="113"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="111" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="111"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="113"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="111" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="111"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="113"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="111" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="113"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -39928,7 +40671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8370EABC-5FB0-46E3-AC0D-18A12C9132DD}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E26"/>
@@ -40215,7 +40958,142 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B5154B-FB7F-4C88-AD8C-C645C7E775BC}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="77"/>
+    <col min="2" max="2" width="21.42578125" style="77" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="77" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="77" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="77" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{9FC3A50F-2D3E-4ACB-A502-5909BAB5A31B}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C828-5E38-4F9B-89F5-DE7664E9E60A}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1"/>
@@ -40230,7 +41108,56 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDFCA0E-15B1-4FCC-89C5-A148D6AA017A}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -40396,56 +41323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
-  <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
-  <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F25227D-57C1-4CE8-91AC-A7B1D986105A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -40596,7 +41474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7AA35E-BA94-465D-947F-048E2F692024}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -40767,7 +41645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A78EF31-A47F-4412-A3CA-C438D7816DE2}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -41378,7 +42256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50057963-75E5-4253-A7F5-E58A81C4C7B8}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -41978,7 +42856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB690D-227C-45AA-9C93-A22E8FEE0210}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -42580,686 +43458,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BF44A-91AF-4F6D-AE5E-E58F57961686}">
-  <dimension ref="A1:H51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" customWidth="1"/>
-    <col min="6" max="6" width="79" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="G2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="28"/>
-      <c r="G3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="28"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" ht="75">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="73" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="45">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" spans="1:8" ht="30">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F9" s="28"/>
-    </row>
-    <row r="10" spans="1:8" ht="75">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="87" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="90">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>599</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="H11" s="87" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" spans="1:8" ht="60">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="28"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="1:7" ht="60">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="F19" s="28"/>
-    </row>
-    <row r="20" spans="1:7" ht="45">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="15" t="s">
-        <v>605</v>
-      </c>
-      <c r="F20" s="28"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="1:7" ht="60">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="15" t="s">
-        <v>606</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="45">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="F24" s="28"/>
-      <c r="G24" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="60">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="F25" s="28"/>
-    </row>
-    <row r="26" spans="1:7" ht="60">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="F26" s="28"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="28"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="F29" s="28"/>
-    </row>
-    <row r="30" spans="1:7" ht="30">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" spans="1:7" ht="30">
-      <c r="A32" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="F32" s="28"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="28"/>
-    </row>
-    <row r="34" spans="1:6" ht="60">
-      <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="F34" s="28"/>
-    </row>
-    <row r="35" spans="1:6" ht="45">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="F35" s="28"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="F36" s="28"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="28"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="28"/>
-    </row>
-    <row r="39" spans="1:6" ht="45">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F39" s="28"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="8">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="28"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="8">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="28"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="28"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="28"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="28"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="28"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="28"/>
-    </row>
-    <row r="47" spans="1:6" ht="30">
-      <c r="A47" s="8">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="F47" s="28"/>
-    </row>
-    <row r="48" spans="1:6" ht="60">
-      <c r="A48" s="8">
-        <v>47</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="28"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="8">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="F49" s="28"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="8">
-        <v>49</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="28"/>
-    </row>
-    <row r="51" spans="1:6" ht="60">
-      <c r="A51" s="8">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F51" s="28"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{53439D12-EE9C-4BFC-9A9B-EACD6CB75790}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{8BBB2C28-1059-4A8B-8B86-AF8D463FC543}">
-      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F1" location="'Domain-Monitoring &amp; Controlling'!A1" display="Domain" xr:uid="{02E982C3-0B60-4830-9489-423F31FCBAB9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAF6A39-DFAC-4EA0-8E45-5457D41B8399}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C9D54A-1B4A-4BCF-8398-8F337547D0CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" activeTab="2" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
@@ -48,7 +48,6 @@
     <sheet name="Full Test" sheetId="9" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -87,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="630">
   <si>
     <t>No</t>
   </si>
@@ -2101,6 +2100,9 @@
   </si>
   <si>
     <t>Cần phải thỏa mãn đáp ứng nhu cầu, mục tiêu ở nước sở tại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: collect historical informaion and determine acceptance criteria là thuộc về phần initing </t>
   </si>
 </sst>
 </file>
@@ -2789,14 +2791,14 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3699,10 +3701,10 @@
       <c r="A15" s="105" t="s">
         <v>372</v>
       </c>
-      <c r="B15" s="109">
+      <c r="B15" s="107">
         <v>43473</v>
       </c>
-      <c r="C15" s="109" t="str">
+      <c r="C15" s="107" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -3739,8 +3741,8 @@
       <c r="A16" s="106" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3776,8 +3778,8 @@
       <c r="A17" s="106" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3891,11 +3893,11 @@
       <c r="A20" s="97" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="109">
+      <c r="B20" s="107">
         <f>B19+1</f>
         <v>43474</v>
       </c>
-      <c r="C20" s="109" t="str">
+      <c r="C20" s="107" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 4</v>
       </c>
@@ -3930,8 +3932,8 @@
       <c r="A21" s="97" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
       <c r="D21" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3963,8 +3965,8 @@
       <c r="A22" s="97" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4080,11 +4082,11 @@
       <c r="A25" s="86" t="s">
         <v>374</v>
       </c>
-      <c r="B25" s="109">
+      <c r="B25" s="107">
         <f>B24+1</f>
         <v>43476</v>
       </c>
-      <c r="C25" s="109" t="str">
+      <c r="C25" s="107" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 6</v>
       </c>
@@ -4124,8 +4126,8 @@
       <c r="A26" s="86" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="75">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4160,8 +4162,8 @@
       <c r="A27" s="101" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="102">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4351,11 +4353,11 @@
       <c r="A32" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="107">
+      <c r="B32" s="109">
         <f>B31+1</f>
         <v>43479</v>
       </c>
-      <c r="C32" s="107" t="str">
+      <c r="C32" s="109" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 2</v>
       </c>
@@ -4390,8 +4392,8 @@
       <c r="A33" s="72" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
       <c r="D33" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4423,8 +4425,8 @@
       <c r="A34" s="72" t="s">
         <v>405</v>
       </c>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
       <c r="D34" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4536,11 +4538,11 @@
       <c r="A37" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="B37" s="107">
+      <c r="B37" s="109">
         <f>B36+1</f>
         <v>43481</v>
       </c>
-      <c r="C37" s="107" t="str">
+      <c r="C37" s="109" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 4</v>
       </c>
@@ -4577,8 +4579,8 @@
       <c r="A38" s="72" t="s">
         <v>406</v>
       </c>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="110"/>
       <c r="D38" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4606,8 +4608,8 @@
       <c r="A39" s="72" t="s">
         <v>407</v>
       </c>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
       <c r="D39" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4705,11 +4707,11 @@
       <c r="A42" s="72" t="s">
         <v>371</v>
       </c>
-      <c r="B42" s="107">
+      <c r="B42" s="109">
         <f>B36+3</f>
         <v>43483</v>
       </c>
-      <c r="C42" s="107" t="str">
+      <c r="C42" s="109" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 6</v>
       </c>
@@ -4740,8 +4742,8 @@
       <c r="A43" s="72" t="s">
         <v>408</v>
       </c>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
       <c r="D43" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4769,8 +4771,8 @@
       <c r="A44" s="72" t="s">
         <v>409</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="110"/>
       <c r="D44" s="69">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -32825,18 +32827,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -34718,9 +34720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FC4E90-A86A-42A7-A5A8-760D17A592B6}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -40205,6 +40205,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -40212,12 +40218,6 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40963,7 +40963,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40998,9 +40998,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="C2" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="E2" s="27" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="27">

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9946EE6-8DBB-4203-A6B4-ADC965C02A2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266E7CFF-9466-4627-BEDD-481B6DB3F6FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" firstSheet="8" activeTab="13" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="753">
   <si>
     <t>No</t>
   </si>
@@ -2487,6 +2487,18 @@
   </si>
   <si>
     <t>control scope process</t>
+  </si>
+  <si>
+    <t>Note để nhớ</t>
+  </si>
+  <si>
+    <t>bạn sẽ làm gì khi có change request. Evaluate first. Bạn sẽ không có action nào trc khi được approval, nên việc compress schedule hay cut scope là sẽ không có. Bạn cũng sẽ không advise the client of the impact trước khi meeting internal</t>
+  </si>
+  <si>
+    <t>việc yêu cầu change request cần phải được formal change request and then follow the integrated change control process</t>
+  </si>
+  <si>
+    <t>monitor and control project work vs perform integrated change control</t>
   </si>
 </sst>
 </file>
@@ -3193,18 +3205,21 @@
     <xf numFmtId="14" fontId="13" fillId="12" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="13" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3222,9 +3237,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3767,7 +3779,7 @@
       <c r="E6" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="109" t="s">
         <v>747</v>
       </c>
       <c r="G6" s="92" t="s">
@@ -3844,7 +3856,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E8" s="63"/>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="109" t="s">
         <v>747</v>
       </c>
       <c r="G8" s="56" t="s">
@@ -3886,7 +3898,7 @@
       <c r="E9" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="F9" s="121" t="s">
+      <c r="F9" s="109" t="s">
         <v>747</v>
       </c>
       <c r="G9" s="56" t="s">
@@ -4121,10 +4133,10 @@
       <c r="A15" s="99" t="s">
         <v>372</v>
       </c>
-      <c r="B15" s="113">
+      <c r="B15" s="110">
         <v>43473</v>
       </c>
-      <c r="C15" s="113" t="str">
+      <c r="C15" s="110" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -4161,8 +4173,8 @@
       <c r="A16" s="99" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4198,8 +4210,8 @@
       <c r="A17" s="99" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4314,11 +4326,11 @@
       <c r="A20" s="99" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="113">
+      <c r="B20" s="110">
         <f>B19+1</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="113" t="str">
+      <c r="C20" s="110" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -4355,8 +4367,8 @@
       <c r="A21" s="99" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="114"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4391,8 +4403,8 @@
       <c r="A22" s="99" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4510,11 +4522,11 @@
       <c r="A25" s="101" t="s">
         <v>374</v>
       </c>
-      <c r="B25" s="111">
+      <c r="B25" s="112">
         <f>B24+1</f>
         <v>43481</v>
       </c>
-      <c r="C25" s="111" t="str">
+      <c r="C25" s="112" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 4</v>
       </c>
@@ -4554,8 +4566,8 @@
       <c r="A26" s="101" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="103">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4590,8 +4602,8 @@
       <c r="A27" s="106" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="103">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4784,11 +4796,11 @@
       <c r="A32" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="109">
+      <c r="B32" s="114">
         <f>B31+1</f>
         <v>43484</v>
       </c>
-      <c r="C32" s="109" t="str">
+      <c r="C32" s="114" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
@@ -4823,8 +4835,8 @@
       <c r="A33" s="71" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="110"/>
-      <c r="C33" s="110"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
       <c r="D33" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4856,8 +4868,8 @@
       <c r="A34" s="71" t="s">
         <v>405</v>
       </c>
-      <c r="B34" s="110"/>
-      <c r="C34" s="110"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4971,11 +4983,11 @@
       <c r="A37" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="B37" s="109">
+      <c r="B37" s="114">
         <f>B36+1</f>
         <v>43486</v>
       </c>
-      <c r="C37" s="109" t="str">
+      <c r="C37" s="114" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 2</v>
       </c>
@@ -5012,8 +5024,8 @@
       <c r="A38" s="71" t="s">
         <v>406</v>
       </c>
-      <c r="B38" s="110"/>
-      <c r="C38" s="110"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5041,8 +5053,8 @@
       <c r="A39" s="71" t="s">
         <v>407</v>
       </c>
-      <c r="B39" s="110"/>
-      <c r="C39" s="110"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5140,11 +5152,11 @@
       <c r="A42" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="B42" s="109">
+      <c r="B42" s="114">
         <f>B36+3</f>
         <v>43488</v>
       </c>
-      <c r="C42" s="109" t="str">
+      <c r="C42" s="114" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 4</v>
       </c>
@@ -5175,8 +5187,8 @@
       <c r="A43" s="71" t="s">
         <v>408</v>
       </c>
-      <c r="B43" s="110"/>
-      <c r="C43" s="110"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
       <c r="D43" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5204,8 +5216,8 @@
       <c r="A44" s="71" t="s">
         <v>409</v>
       </c>
-      <c r="B44" s="110"/>
-      <c r="C44" s="110"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -33260,18 +33272,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -35755,8 +35767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7271A84-E4BF-4C3C-A529-C79AE0E90AA3}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35766,8 +35778,9 @@
     <col min="3" max="3" width="28.140625" style="76" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" style="76" customWidth="1"/>
     <col min="5" max="5" width="43.85546875" style="76" customWidth="1"/>
-    <col min="6" max="6" width="79" style="76" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="76"/>
+    <col min="6" max="6" width="26.28515625" style="76" customWidth="1"/>
+    <col min="7" max="7" width="27" style="76" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
@@ -35801,9 +35814,6 @@
         <v>729</v>
       </c>
       <c r="F2" s="84"/>
-      <c r="G2" s="76" t="s">
-        <v>436</v>
-      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="80">
@@ -35816,9 +35826,6 @@
         <v>730</v>
       </c>
       <c r="F3" s="84"/>
-      <c r="G3" s="76" t="s">
-        <v>595</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="80">
@@ -35869,9 +35876,7 @@
         <v>746</v>
       </c>
       <c r="F7" s="84"/>
-      <c r="G7" s="85" t="s">
-        <v>430</v>
-      </c>
+      <c r="G7" s="85"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="80">
@@ -35895,7 +35900,7 @@
       </c>
       <c r="F9" s="84"/>
     </row>
-    <row r="10" spans="1:8" ht="60">
+    <row r="10" spans="1:8">
       <c r="A10" s="80">
         <v>9</v>
       </c>
@@ -35904,32 +35909,41 @@
       <c r="D10" s="80"/>
       <c r="E10" s="83"/>
       <c r="F10" s="84"/>
-      <c r="G10" s="85" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30">
+      <c r="G10" s="85"/>
+    </row>
+    <row r="11" spans="1:8" ht="90">
       <c r="A11" s="80">
         <v>10</v>
       </c>
       <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="83"/>
+      <c r="C11" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>749</v>
+      </c>
+      <c r="E11" s="83" t="s">
+        <v>750</v>
+      </c>
       <c r="F11" s="84"/>
-      <c r="H11" s="85" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" s="85"/>
+    </row>
+    <row r="12" spans="1:8" ht="135">
       <c r="A12" s="80">
         <v>11</v>
       </c>
       <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
+      <c r="C12" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="D12" s="80"/>
-      <c r="E12" s="83"/>
+      <c r="E12" s="83" t="s">
+        <v>751</v>
+      </c>
       <c r="F12" s="84"/>
+      <c r="G12" s="83" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="80">
@@ -35940,9 +35954,6 @@
       <c r="D13" s="80"/>
       <c r="E13" s="83"/>
       <c r="F13" s="84"/>
-      <c r="G13" s="76" t="s">
-        <v>601</v>
-      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="80">
@@ -35953,9 +35964,6 @@
       <c r="D14" s="79"/>
       <c r="E14" s="83"/>
       <c r="F14" s="84"/>
-      <c r="G14" s="76" t="s">
-        <v>601</v>
-      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="80">
@@ -35977,7 +35985,7 @@
       <c r="E16" s="83"/>
       <c r="F16" s="84"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:6">
       <c r="A17" s="80">
         <v>16</v>
       </c>
@@ -35987,7 +35995,7 @@
       <c r="E17" s="83"/>
       <c r="F17" s="84"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:6">
       <c r="A18" s="80">
         <v>17</v>
       </c>
@@ -35997,7 +36005,7 @@
       <c r="E18" s="83"/>
       <c r="F18" s="84"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:6">
       <c r="A19" s="80">
         <v>18</v>
       </c>
@@ -36007,7 +36015,7 @@
       <c r="E19" s="83"/>
       <c r="F19" s="84"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:6">
       <c r="A20" s="80">
         <v>19</v>
       </c>
@@ -36017,7 +36025,7 @@
       <c r="E20" s="83"/>
       <c r="F20" s="84"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:6">
       <c r="A21" s="80">
         <v>20</v>
       </c>
@@ -36027,7 +36035,7 @@
       <c r="E21" s="83"/>
       <c r="F21" s="84"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:6">
       <c r="A22" s="80">
         <v>21</v>
       </c>
@@ -36037,7 +36045,7 @@
       <c r="E22" s="83"/>
       <c r="F22" s="84"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:6">
       <c r="A23" s="80">
         <v>22</v>
       </c>
@@ -36046,11 +36054,8 @@
       <c r="D23" s="80"/>
       <c r="E23" s="83"/>
       <c r="F23" s="84"/>
-      <c r="G23" s="76" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="80">
         <v>23</v>
       </c>
@@ -36059,11 +36064,8 @@
       <c r="D24" s="80"/>
       <c r="E24" s="83"/>
       <c r="F24" s="84"/>
-      <c r="G24" s="76" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="80">
         <v>24</v>
       </c>
@@ -36073,7 +36075,7 @@
       <c r="E25" s="83"/>
       <c r="F25" s="84"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:6">
       <c r="A26" s="80">
         <v>25</v>
       </c>
@@ -36083,7 +36085,7 @@
       <c r="E26" s="83"/>
       <c r="F26" s="84"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:6">
       <c r="A27" s="80">
         <v>26</v>
       </c>
@@ -36093,7 +36095,7 @@
       <c r="E27" s="83"/>
       <c r="F27" s="84"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:6">
       <c r="A28" s="80">
         <v>27</v>
       </c>
@@ -36103,7 +36105,7 @@
       <c r="E28" s="83"/>
       <c r="F28" s="84"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:6">
       <c r="A29" s="80">
         <v>28</v>
       </c>
@@ -36113,7 +36115,7 @@
       <c r="E29" s="83"/>
       <c r="F29" s="84"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:6">
       <c r="A30" s="80">
         <v>29</v>
       </c>
@@ -36123,7 +36125,7 @@
       <c r="E30" s="83"/>
       <c r="F30" s="84"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:6">
       <c r="A31" s="80">
         <v>30</v>
       </c>
@@ -36133,7 +36135,7 @@
       <c r="E31" s="83"/>
       <c r="F31" s="84"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:6">
       <c r="A32" s="80">
         <v>31</v>
       </c>
@@ -44464,152 +44466,152 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="116" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="116" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="116" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="118"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="116" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="116" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="116" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="118"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="116" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="118"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="119" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -44640,225 +44642,231 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="118"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="118"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="118"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="118"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="118"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="116" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="118"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="115" t="s">
+      <c r="B12" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="118"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="116" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -44866,12 +44874,6 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44890,120 +44892,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="116" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="118"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="116" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="116" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="116" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -45035,120 +45037,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="116" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="118"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="116" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="116" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -45180,135 +45182,135 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="116" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="116" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="118"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="116" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="116" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="118"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="119" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266E7CFF-9466-4627-BEDD-481B6DB3F6FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9625D7A8-EA48-4962-97BC-B8716E9EA1F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" firstSheet="8" activeTab="13" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="762">
   <si>
     <t>No</t>
   </si>
@@ -2499,6 +2499,33 @@
   </si>
   <si>
     <t>monitor and control project work vs perform integrated change control</t>
+  </si>
+  <si>
+    <t>Việc đã xác định change request rồi thì các tài liệu (the project management plan and/or project document) must be update</t>
+  </si>
+  <si>
+    <t>Khái niệm của work authorization. Manage who does each activity with the responsibility assignment matrix, manage when each activity done is schedule. A work authorization system is used to coordinate what and when sequence work is done</t>
+  </si>
+  <si>
+    <t>Note: role PM liên quan tới change tức là PM cần phải làm nhiều hơn việc monitor and track changes. Do đó PM cần phải influence the factors that cause changes</t>
+  </si>
+  <si>
+    <t>Cần phải nắm dc tình hình biết dc việc thay đổi đó có ảnh hưởng tới time, cost, quality hay không</t>
+  </si>
+  <si>
+    <t>Note: sự ảnh hưởng của change request bao gồm: schedule, cost, quality, risk, resource and customer satifaction</t>
+  </si>
+  <si>
+    <t>là ví dụ của việc gold plating do team member đầu tiên là cần phải biết là làm gì sau đó evaluation impact</t>
+  </si>
+  <si>
+    <t>analysis benefit-cost trong planning, 1 sponsor thường k liên quan tới change trong dự án. Team member nên làm những cái được yêu cầu</t>
+  </si>
+  <si>
+    <t>project baselines include approved management plan. Baselines useful in detecting variance from project management plan</t>
+  </si>
+  <si>
+    <t>Việc approve change dc reflect trong project management plan</t>
   </si>
 </sst>
 </file>
@@ -3208,6 +3235,10 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3216,10 +3247,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3559,7 +3586,7 @@
   </sheetPr>
   <dimension ref="A1:Z1328"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -4133,10 +4160,10 @@
       <c r="A15" s="99" t="s">
         <v>372</v>
       </c>
-      <c r="B15" s="110">
+      <c r="B15" s="112">
         <v>43473</v>
       </c>
-      <c r="C15" s="110" t="str">
+      <c r="C15" s="112" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -4173,8 +4200,8 @@
       <c r="A16" s="99" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4210,8 +4237,8 @@
       <c r="A17" s="99" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4326,11 +4353,11 @@
       <c r="A20" s="99" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="110">
+      <c r="B20" s="112">
         <f>B19+1</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="110" t="str">
+      <c r="C20" s="112" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -4367,8 +4394,8 @@
       <c r="A21" s="99" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4403,8 +4430,8 @@
       <c r="A22" s="99" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4522,11 +4549,11 @@
       <c r="A25" s="101" t="s">
         <v>374</v>
       </c>
-      <c r="B25" s="112">
+      <c r="B25" s="114">
         <f>B24+1</f>
         <v>43481</v>
       </c>
-      <c r="C25" s="112" t="str">
+      <c r="C25" s="114" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 4</v>
       </c>
@@ -4566,8 +4593,8 @@
       <c r="A26" s="101" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="103">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4602,8 +4629,8 @@
       <c r="A27" s="106" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="103">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4796,11 +4823,11 @@
       <c r="A32" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="114">
+      <c r="B32" s="110">
         <f>B31+1</f>
         <v>43484</v>
       </c>
-      <c r="C32" s="114" t="str">
+      <c r="C32" s="110" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
@@ -4835,8 +4862,8 @@
       <c r="A33" s="71" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
       <c r="D33" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4868,8 +4895,8 @@
       <c r="A34" s="71" t="s">
         <v>405</v>
       </c>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
       <c r="D34" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4983,11 +5010,11 @@
       <c r="A37" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="B37" s="114">
+      <c r="B37" s="110">
         <f>B36+1</f>
         <v>43486</v>
       </c>
-      <c r="C37" s="114" t="str">
+      <c r="C37" s="110" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 2</v>
       </c>
@@ -5024,8 +5051,8 @@
       <c r="A38" s="71" t="s">
         <v>406</v>
       </c>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
       <c r="D38" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5053,8 +5080,8 @@
       <c r="A39" s="71" t="s">
         <v>407</v>
       </c>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
       <c r="D39" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5152,11 +5179,11 @@
       <c r="A42" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="B42" s="114">
+      <c r="B42" s="110">
         <f>B36+3</f>
         <v>43488</v>
       </c>
-      <c r="C42" s="114" t="str">
+      <c r="C42" s="110" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 4</v>
       </c>
@@ -5187,8 +5214,8 @@
       <c r="A43" s="71" t="s">
         <v>408</v>
       </c>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5216,8 +5243,8 @@
       <c r="A44" s="71" t="s">
         <v>409</v>
       </c>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -33272,18 +33299,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -35767,8 +35794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7271A84-E4BF-4C3C-A529-C79AE0E90AA3}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35928,7 +35955,7 @@
       <c r="F11" s="84"/>
       <c r="H11" s="85"/>
     </row>
-    <row r="12" spans="1:8" ht="135">
+    <row r="12" spans="1:8" ht="45">
       <c r="A12" s="80">
         <v>11</v>
       </c>
@@ -35945,44 +35972,58 @@
         <v>752</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="45">
       <c r="A13" s="80">
         <v>12</v>
       </c>
       <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
+      <c r="C13" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="D13" s="80"/>
-      <c r="E13" s="83"/>
+      <c r="E13" s="83" t="s">
+        <v>753</v>
+      </c>
       <c r="F13" s="84"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="90">
       <c r="A14" s="80">
         <v>13</v>
       </c>
       <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
+      <c r="C14" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="D14" s="79"/>
-      <c r="E14" s="83"/>
+      <c r="E14" s="83" t="s">
+        <v>754</v>
+      </c>
       <c r="F14" s="84"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="60">
       <c r="A15" s="80">
         <v>14</v>
       </c>
       <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
+      <c r="C15" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="D15" s="80"/>
-      <c r="E15" s="83"/>
+      <c r="E15" s="83" t="s">
+        <v>755</v>
+      </c>
       <c r="F15" s="84"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="45">
       <c r="A16" s="80">
         <v>15</v>
       </c>
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
       <c r="D16" s="80"/>
-      <c r="E16" s="83"/>
+      <c r="E16" s="83" t="s">
+        <v>756</v>
+      </c>
       <c r="F16" s="84"/>
     </row>
     <row r="17" spans="1:6">
@@ -35995,54 +36036,70 @@
       <c r="E17" s="83"/>
       <c r="F17" s="84"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="45">
       <c r="A18" s="80">
         <v>17</v>
       </c>
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
       <c r="D18" s="80"/>
-      <c r="E18" s="83"/>
+      <c r="E18" s="83" t="s">
+        <v>757</v>
+      </c>
       <c r="F18" s="84"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="45">
       <c r="A19" s="80">
         <v>18</v>
       </c>
       <c r="B19" s="80"/>
       <c r="C19" s="80"/>
       <c r="D19" s="80"/>
-      <c r="E19" s="83"/>
+      <c r="E19" s="83" t="s">
+        <v>758</v>
+      </c>
       <c r="F19" s="84"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="45">
       <c r="A20" s="80">
         <v>19</v>
       </c>
       <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
+      <c r="C20" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="D20" s="80"/>
-      <c r="E20" s="83"/>
+      <c r="E20" s="83" t="s">
+        <v>759</v>
+      </c>
       <c r="F20" s="84"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="60">
       <c r="A21" s="80">
         <v>20</v>
       </c>
       <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
+      <c r="C21" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="D21" s="80"/>
-      <c r="E21" s="83"/>
+      <c r="E21" s="83" t="s">
+        <v>760</v>
+      </c>
       <c r="F21" s="84"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="30">
       <c r="A22" s="80">
         <v>21</v>
       </c>
       <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
+      <c r="C22" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="D22" s="80"/>
-      <c r="E22" s="83"/>
+      <c r="E22" s="83" t="s">
+        <v>761</v>
+      </c>
       <c r="F22" s="84"/>
     </row>
     <row r="23" spans="1:6">
@@ -44861,12 +44918,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -44874,6 +44925,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45662,7 +45719,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9625D7A8-EA48-4962-97BC-B8716E9EA1F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F8E8E4-8937-4880-8189-F8CE93FFFE5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" firstSheet="8" activeTab="13" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="771">
   <si>
     <t>No</t>
   </si>
@@ -2526,6 +2526,33 @@
   </si>
   <si>
     <t>Việc approve change dc reflect trong project management plan</t>
+  </si>
+  <si>
+    <t>the change is not expected to effect the end product cho nên không cần phải ask customer opinion of this change</t>
+  </si>
+  <si>
+    <t>the scope management plan describe how request scope changes will be managed</t>
+  </si>
+  <si>
+    <t>dự án của bạn không dựa vào mục tiêu của công ty. Nên làm gì tốt nhất</t>
+  </si>
+  <si>
+    <t>Ý nghĩa của câu hỏi này là dự án của bạn giờ đang đc đưa vào mức độ ưu tiên thấp của công ty, vì thế chỉ đơn giản là cho dự án ấy flexible nên chỉ cần extend the schedule</t>
+  </si>
+  <si>
+    <t>mày dc assign PM cho dự án đã kết thúc trc đó 2 tuần. Mày gặp thằng leadership của phòng đó để thu thập requirement, mày có project charter, project scope statement và project management plan dc approved. Mày nói với kh để demo xem nó chạy thế nào? Khi mày demo thì thấy yêu cầu của kh đang khác so với lúc đầu. việc tốt nhất mà mày làm giờ là gì?</t>
+  </si>
+  <si>
+    <t>change request là output của verify scope process. Change request nhằm giải quyết việc làm sai requirement. Nên đáp án là cần phải làm rõ vấn đề change request với khách hàng: Generate a change request for the user's requirements.</t>
+  </si>
+  <si>
+    <t>validate scope closely related to (liên quan chặt chẽ) với control quality. Control quality check for correctness (tính chính xác) còn validate scope check for acceptance</t>
+  </si>
+  <si>
+    <t>keyword của validate scope là acceptance of the deliverable</t>
+  </si>
+  <si>
+    <t>cần phải review compare the deliverable to the requirement and then get acceptance. Để tránh misunderstand trc khi nói chuyện với team member hoặc khách hàng thì cần phải validate scope</t>
   </si>
 </sst>
 </file>
@@ -3235,10 +3262,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3247,6 +3270,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4160,10 +4187,10 @@
       <c r="A15" s="99" t="s">
         <v>372</v>
       </c>
-      <c r="B15" s="112">
+      <c r="B15" s="110">
         <v>43473</v>
       </c>
-      <c r="C15" s="112" t="str">
+      <c r="C15" s="110" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -4200,8 +4227,8 @@
       <c r="A16" s="99" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4237,8 +4264,8 @@
       <c r="A17" s="99" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4353,11 +4380,11 @@
       <c r="A20" s="99" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="112">
+      <c r="B20" s="110">
         <f>B19+1</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="112" t="str">
+      <c r="C20" s="110" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -4394,8 +4421,8 @@
       <c r="A21" s="99" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4430,8 +4457,8 @@
       <c r="A22" s="99" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4549,11 +4576,11 @@
       <c r="A25" s="101" t="s">
         <v>374</v>
       </c>
-      <c r="B25" s="114">
+      <c r="B25" s="112">
         <f>B24+1</f>
         <v>43481</v>
       </c>
-      <c r="C25" s="114" t="str">
+      <c r="C25" s="112" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 4</v>
       </c>
@@ -4593,8 +4620,8 @@
       <c r="A26" s="101" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="103">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4629,8 +4656,8 @@
       <c r="A27" s="106" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="103">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4823,11 +4850,11 @@
       <c r="A32" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="110">
+      <c r="B32" s="114">
         <f>B31+1</f>
         <v>43484</v>
       </c>
-      <c r="C32" s="110" t="str">
+      <c r="C32" s="114" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
@@ -4862,8 +4889,8 @@
       <c r="A33" s="71" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
       <c r="D33" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4895,8 +4922,8 @@
       <c r="A34" s="71" t="s">
         <v>405</v>
       </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5010,11 +5037,11 @@
       <c r="A37" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="B37" s="110">
+      <c r="B37" s="114">
         <f>B36+1</f>
         <v>43486</v>
       </c>
-      <c r="C37" s="110" t="str">
+      <c r="C37" s="114" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 2</v>
       </c>
@@ -5051,8 +5078,8 @@
       <c r="A38" s="71" t="s">
         <v>406</v>
       </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5080,8 +5107,8 @@
       <c r="A39" s="71" t="s">
         <v>407</v>
       </c>
-      <c r="B39" s="111"/>
-      <c r="C39" s="111"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5179,11 +5206,11 @@
       <c r="A42" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="B42" s="110">
+      <c r="B42" s="114">
         <f>B36+3</f>
         <v>43488</v>
       </c>
-      <c r="C42" s="110" t="str">
+      <c r="C42" s="114" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 4</v>
       </c>
@@ -5214,8 +5241,8 @@
       <c r="A43" s="71" t="s">
         <v>408</v>
       </c>
-      <c r="B43" s="111"/>
-      <c r="C43" s="111"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
       <c r="D43" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5243,8 +5270,8 @@
       <c r="A44" s="71" t="s">
         <v>409</v>
       </c>
-      <c r="B44" s="111"/>
-      <c r="C44" s="111"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -33299,18 +33326,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -35794,8 +35821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7271A84-E4BF-4C3C-A529-C79AE0E90AA3}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36112,74 +36139,98 @@
       <c r="E23" s="83"/>
       <c r="F23" s="84"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="45">
       <c r="A24" s="80">
         <v>23</v>
       </c>
       <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
+      <c r="C24" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="D24" s="80"/>
-      <c r="E24" s="83"/>
+      <c r="E24" s="83" t="s">
+        <v>762</v>
+      </c>
       <c r="F24" s="84"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="30">
       <c r="A25" s="80">
         <v>24</v>
       </c>
       <c r="B25" s="80"/>
       <c r="C25" s="80"/>
       <c r="D25" s="80"/>
-      <c r="E25" s="83"/>
+      <c r="E25" s="83" t="s">
+        <v>763</v>
+      </c>
       <c r="F25" s="84"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="60">
       <c r="A26" s="80">
         <v>25</v>
       </c>
       <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="83"/>
+      <c r="C26" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="80" t="s">
+        <v>764</v>
+      </c>
+      <c r="E26" s="83" t="s">
+        <v>765</v>
+      </c>
       <c r="F26" s="84"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="120">
       <c r="A27" s="80">
         <v>26</v>
       </c>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="83"/>
+      <c r="D27" s="80" t="s">
+        <v>766</v>
+      </c>
+      <c r="E27" s="83" t="s">
+        <v>767</v>
+      </c>
       <c r="F27" s="84"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="60">
       <c r="A28" s="80">
         <v>27</v>
       </c>
       <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
+      <c r="C28" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="D28" s="80"/>
-      <c r="E28" s="83"/>
+      <c r="E28" s="83" t="s">
+        <v>768</v>
+      </c>
       <c r="F28" s="84"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="30">
       <c r="A29" s="80">
         <v>28</v>
       </c>
       <c r="B29" s="80"/>
       <c r="C29" s="80"/>
       <c r="D29" s="80"/>
-      <c r="E29" s="83"/>
+      <c r="E29" s="83" t="s">
+        <v>769</v>
+      </c>
       <c r="F29" s="84"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="75">
       <c r="A30" s="80">
         <v>29</v>
       </c>
       <c r="B30" s="80"/>
       <c r="C30" s="80"/>
       <c r="D30" s="80"/>
-      <c r="E30" s="83"/>
+      <c r="E30" s="83" t="s">
+        <v>770</v>
+      </c>
       <c r="F30" s="84"/>
     </row>
     <row r="31" spans="1:6">
@@ -44918,6 +44969,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -44925,12 +44982,6 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F8E8E4-8937-4880-8189-F8CE93FFFE5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5A4E54-A72F-4B15-9D31-85F499C5E8B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" firstSheet="8" activeTab="13" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="783">
   <si>
     <t>No</t>
   </si>
@@ -2553,6 +2553,42 @@
   </si>
   <si>
     <t>cần phải review compare the deliverable to the requirement and then get acceptance. Để tránh misunderstand trc khi nói chuyện với team member hoặc khách hàng thì cần phải validate scope</t>
+  </si>
+  <si>
+    <t>product review, audits, walkthrough are all form of inspection</t>
+  </si>
+  <si>
+    <t>dùng loại trừ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nên nhớ validate scope does not deal with time mà là acceptance. Validate scope sau project management plan </t>
+  </si>
+  <si>
+    <t>PM concern nhất khi next phase là validate scope process deals with acceptance by customer. Không có acceptance sẽ k có phase tiếp theo</t>
+  </si>
+  <si>
+    <t>Đối với những thay đổi có thể là nguyên nhân đến từ schedule slippage, cost overrun. Để xác định dc vấn đề này cần phải control scope</t>
+  </si>
+  <si>
+    <t>Câu hỏi về input của validate scope</t>
+  </si>
+  <si>
+    <t>lưu ý: Organizational process assets là input của nhiều process nhưng k phải của validate scope. Accepted deliverable, change request là output của validate scope chỉ riêng có verified deliverabe là input của validate scope (output của control scope process)</t>
+  </si>
+  <si>
+    <t>đọc hiểu câu hỏi. Đại loại là thằng PM này muốn thêm một vài request nên phải thay đổi scope nhưng k nắm dc chính xác là scope thế nào.</t>
+  </si>
+  <si>
+    <t>the first understand, nên cần phải gặp kh để hỏi thêm mày cần add thêm những gì. Contact the customer to determine if the change adds value</t>
+  </si>
+  <si>
+    <t>Lưu ý là đang hỏi về knownledge area, wbs, requirement traceability management là tool trong determine scope</t>
+  </si>
+  <si>
+    <t>validate scope during project monitoring vs controlling, it done at the end of each phase of the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Văn cảnh này là một procurement statement of work với 1 project complex,scope có few unknows,trong trường hợp này thì mình đang là seller nên cần validate scope nhưng throughout với kh thỉnh thoảng </t>
   </si>
 </sst>
 </file>
@@ -3262,6 +3298,10 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3270,10 +3310,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4187,10 +4223,10 @@
       <c r="A15" s="99" t="s">
         <v>372</v>
       </c>
-      <c r="B15" s="110">
+      <c r="B15" s="112">
         <v>43473</v>
       </c>
-      <c r="C15" s="110" t="str">
+      <c r="C15" s="112" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -4227,8 +4263,8 @@
       <c r="A16" s="99" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4264,8 +4300,8 @@
       <c r="A17" s="99" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4380,11 +4416,11 @@
       <c r="A20" s="99" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="110">
+      <c r="B20" s="112">
         <f>B19+1</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="110" t="str">
+      <c r="C20" s="112" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -4421,8 +4457,8 @@
       <c r="A21" s="99" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4457,8 +4493,8 @@
       <c r="A22" s="99" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4576,11 +4612,11 @@
       <c r="A25" s="101" t="s">
         <v>374</v>
       </c>
-      <c r="B25" s="112">
+      <c r="B25" s="114">
         <f>B24+1</f>
         <v>43481</v>
       </c>
-      <c r="C25" s="112" t="str">
+      <c r="C25" s="114" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 4</v>
       </c>
@@ -4620,8 +4656,8 @@
       <c r="A26" s="101" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="103">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4656,8 +4692,8 @@
       <c r="A27" s="106" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="103">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4850,11 +4886,11 @@
       <c r="A32" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="114">
+      <c r="B32" s="110">
         <f>B31+1</f>
         <v>43484</v>
       </c>
-      <c r="C32" s="114" t="str">
+      <c r="C32" s="110" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
@@ -4889,8 +4925,8 @@
       <c r="A33" s="71" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
       <c r="D33" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4922,8 +4958,8 @@
       <c r="A34" s="71" t="s">
         <v>405</v>
       </c>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
       <c r="D34" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5037,11 +5073,11 @@
       <c r="A37" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="B37" s="114">
+      <c r="B37" s="110">
         <f>B36+1</f>
         <v>43486</v>
       </c>
-      <c r="C37" s="114" t="str">
+      <c r="C37" s="110" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 2</v>
       </c>
@@ -5078,8 +5114,8 @@
       <c r="A38" s="71" t="s">
         <v>406</v>
       </c>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
       <c r="D38" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5107,8 +5143,8 @@
       <c r="A39" s="71" t="s">
         <v>407</v>
       </c>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
       <c r="D39" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5206,11 +5242,11 @@
       <c r="A42" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="B42" s="114">
+      <c r="B42" s="110">
         <f>B36+3</f>
         <v>43488</v>
       </c>
-      <c r="C42" s="114" t="str">
+      <c r="C42" s="110" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 4</v>
       </c>
@@ -5241,8 +5277,8 @@
       <c r="A43" s="71" t="s">
         <v>408</v>
       </c>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5270,8 +5306,8 @@
       <c r="A44" s="71" t="s">
         <v>409</v>
       </c>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -33326,18 +33362,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -35821,8 +35857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7271A84-E4BF-4C3C-A529-C79AE0E90AA3}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36243,24 +36279,32 @@
       <c r="E31" s="83"/>
       <c r="F31" s="84"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="30">
       <c r="A32" s="80">
         <v>31</v>
       </c>
       <c r="B32" s="80"/>
       <c r="C32" s="80"/>
       <c r="D32" s="80"/>
-      <c r="E32" s="83"/>
+      <c r="E32" s="83" t="s">
+        <v>771</v>
+      </c>
       <c r="F32" s="84"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="45">
       <c r="A33" s="80">
         <v>32</v>
       </c>
       <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="83"/>
+      <c r="C33" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="80" t="s">
+        <v>772</v>
+      </c>
+      <c r="E33" s="83" t="s">
+        <v>773</v>
+      </c>
       <c r="F33" s="84"/>
     </row>
     <row r="34" spans="1:6">
@@ -36273,14 +36317,16 @@
       <c r="E34" s="83"/>
       <c r="F34" s="84"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="60">
       <c r="A35" s="80">
         <v>34</v>
       </c>
       <c r="B35" s="80"/>
       <c r="C35" s="80"/>
       <c r="D35" s="80"/>
-      <c r="E35" s="83"/>
+      <c r="E35" s="83" t="s">
+        <v>774</v>
+      </c>
       <c r="F35" s="84"/>
     </row>
     <row r="36" spans="1:6">
@@ -36293,64 +36339,87 @@
       <c r="E36" s="83"/>
       <c r="F36" s="84"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="45">
       <c r="A37" s="80">
         <v>36</v>
       </c>
       <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
+      <c r="C37" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="D37" s="80"/>
-      <c r="E37" s="83"/>
+      <c r="E37" s="83" t="s">
+        <v>775</v>
+      </c>
       <c r="F37" s="84"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="90">
       <c r="A38" s="80">
         <v>37</v>
       </c>
       <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="83"/>
+      <c r="C38" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="80" t="s">
+        <v>776</v>
+      </c>
+      <c r="E38" s="83" t="s">
+        <v>777</v>
+      </c>
       <c r="F38" s="84"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="60">
       <c r="A39" s="80">
         <v>38</v>
       </c>
       <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="83"/>
+      <c r="C39" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="80" t="s">
+        <v>778</v>
+      </c>
+      <c r="E39" s="83" t="s">
+        <v>779</v>
+      </c>
       <c r="F39" s="84"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="45">
       <c r="A40" s="80">
         <v>39</v>
       </c>
       <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="83"/>
+      <c r="C40" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="80" t="s">
+        <v>780</v>
+      </c>
       <c r="F40" s="84"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="45">
       <c r="A41" s="80">
         <v>40</v>
       </c>
       <c r="B41" s="80"/>
       <c r="C41" s="80"/>
       <c r="D41" s="80"/>
-      <c r="E41" s="83"/>
+      <c r="E41" s="83" t="s">
+        <v>781</v>
+      </c>
       <c r="F41" s="84"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="75">
       <c r="A42" s="80">
         <v>41</v>
       </c>
       <c r="B42" s="80"/>
       <c r="C42" s="80"/>
       <c r="D42" s="80"/>
-      <c r="E42" s="83"/>
+      <c r="E42" s="83" t="s">
+        <v>782</v>
+      </c>
       <c r="F42" s="84"/>
     </row>
     <row r="43" spans="1:6">
@@ -44969,12 +45038,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -44982,6 +45045,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5A4E54-A72F-4B15-9D31-85F499C5E8B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72518EC8-C7CE-47DC-BCC1-4D698CC5B28E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" firstSheet="8" activeTab="13" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="791">
   <si>
     <t>No</t>
   </si>
@@ -2483,9 +2483,6 @@
     <t>sponsor issue the project charter. Nên sponsor sẽ có trách nhiệm chính cho viêc decide if these change are necessary. Note nếu mà có bất kỳ thay đổi nào trong project charter thì nên đặt câu hỏi là dự án có nên tiếp tục hay không</t>
   </si>
   <si>
-    <t>review lại vì bỏ qua trc đây</t>
-  </si>
-  <si>
     <t>control scope process</t>
   </si>
   <si>
@@ -2589,6 +2586,34 @@
   </si>
   <si>
     <t xml:space="preserve">Văn cảnh này là một procurement statement of work với 1 project complex,scope có few unknows,trong trường hợp này thì mình đang là seller nên cần validate scope nhưng throughout với kh thỉnh thoảng </t>
+  </si>
+  <si>
+    <t>Cần đọc kỹ câu hỏi</t>
+  </si>
+  <si>
+    <t>cần phải review lại requirement trc để hiểu vấn đề trc khi làm việc khác. Nếu 1 vấn đề không ổn phát sinh cần phải xem lại wbs, wbs dictionary hoặc how the team member complete the work.
+Review the requirements, and meet with the responsible team member to review the wbs dictionary</t>
+  </si>
+  <si>
+    <t>the validate scope process is done at the end of each phase or project. If it is not done, có risk có thể bạn deliverable mà khách hàng k acceptance. Nguyên nhân của nó là gì, cần phải review scope và hiểu vấn đề trc khi làm những việc khác</t>
+  </si>
+  <si>
+    <t>Cần xác định nguyên nhân tại sao khách hàng không happy với deliverable</t>
+  </si>
+  <si>
+    <t>Cẩn thận với câu trả lời "prevent more change from occuring" -&gt; change không phải là xấu nói chung là không nên chặn. Make sure the change are reflected in the project scope baseline là lựa chọn đúng vì cần phải verify xem việc thay đổi này có ảnh hưởng tới scope baseline không</t>
+  </si>
+  <si>
+    <t>Vẫn là việc xác định xem defect của việc change on the project. Determine the effects of the change on the project</t>
+  </si>
+  <si>
+    <t>A project manager must always evaluate the situation and identify options before a decision can be made. If it is determined that a change is needed, a change request must be processed through integrated change control</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>cần xem lại</t>
   </si>
 </sst>
 </file>
@@ -2705,7 +2730,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2752,12 +2777,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -3262,54 +3281,54 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="8" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="12" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="13" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3649,8 +3668,8 @@
   </sheetPr>
   <dimension ref="A1:Z1328"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -3853,14 +3872,14 @@
       <c r="Y5" s="56"/>
       <c r="Z5" s="56"/>
     </row>
-    <row r="6" spans="1:26" ht="45">
+    <row r="6" spans="1:26">
       <c r="A6" s="93" t="s">
         <v>692</v>
       </c>
       <c r="B6" s="65">
         <v>43441</v>
       </c>
-      <c r="C6" s="108">
+      <c r="C6" s="107">
         <v>43479</v>
       </c>
       <c r="D6" s="62">
@@ -3869,8 +3888,8 @@
       <c r="E6" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="F6" s="109" t="s">
-        <v>747</v>
+      <c r="F6" s="108" t="s">
+        <v>548</v>
       </c>
       <c r="G6" s="92" t="s">
         <v>468</v>
@@ -3932,22 +3951,24 @@
       <c r="Y7" s="56"/>
       <c r="Z7" s="56"/>
     </row>
-    <row r="8" spans="1:26" ht="45">
+    <row r="8" spans="1:26">
       <c r="A8" s="93" t="s">
         <v>694</v>
       </c>
       <c r="B8" s="65">
         <v>43443</v>
       </c>
-      <c r="C8" s="108">
+      <c r="C8" s="107">
         <v>43479</v>
       </c>
       <c r="D8" s="62">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="109" t="s">
-        <v>747</v>
+      <c r="E8" s="63" t="s">
+        <v>395</v>
+      </c>
+      <c r="F8" s="108" t="s">
+        <v>548</v>
       </c>
       <c r="G8" s="56" t="s">
         <v>470</v>
@@ -3972,14 +3993,14 @@
       <c r="Y8" s="56"/>
       <c r="Z8" s="56"/>
     </row>
-    <row r="9" spans="1:26" ht="45">
+    <row r="9" spans="1:26">
       <c r="A9" s="93" t="s">
         <v>695</v>
       </c>
       <c r="B9" s="65">
         <v>43451</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="107">
         <v>43479</v>
       </c>
       <c r="D9" s="62">
@@ -3988,8 +4009,8 @@
       <c r="E9" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="F9" s="109" t="s">
-        <v>747</v>
+      <c r="F9" s="108" t="s">
+        <v>548</v>
       </c>
       <c r="G9" s="56" t="s">
         <v>471</v>
@@ -4138,7 +4159,7 @@
       <c r="Z12" s="56"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="98" t="s">
         <v>396</v>
       </c>
       <c r="B13" s="87">
@@ -4180,7 +4201,7 @@
       <c r="Z13" s="56"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="98" t="s">
         <v>397</v>
       </c>
       <c r="B14" s="87">
@@ -4220,13 +4241,13 @@
       <c r="Z14" s="56"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="98" t="s">
         <v>372</v>
       </c>
-      <c r="B15" s="112">
+      <c r="B15" s="110">
         <v>43473</v>
       </c>
-      <c r="C15" s="112" t="str">
+      <c r="C15" s="110" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -4239,7 +4260,9 @@
       <c r="G15" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="H15" s="56"/>
+      <c r="H15" s="56" t="s">
+        <v>553</v>
+      </c>
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
@@ -4260,11 +4283,11 @@
       <c r="Z15" s="56"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4297,11 +4320,11 @@
       <c r="Z16" s="56"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="98" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4332,13 +4355,13 @@
       <c r="Z17" s="56"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="98" t="s">
         <v>398</v>
       </c>
-      <c r="B18" s="107">
+      <c r="B18" s="106">
         <v>43478</v>
       </c>
-      <c r="C18" s="107" t="str">
+      <c r="C18" s="106" t="str">
         <f t="shared" ref="C18:C20" si="2">IF(WEEKDAY(B18,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B18,1))</f>
         <v>Chủ nhật</v>
       </c>
@@ -4372,7 +4395,7 @@
       <c r="Z18" s="56"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="99" t="s">
         <v>399</v>
       </c>
       <c r="B19" s="73">
@@ -4392,7 +4415,9 @@
       <c r="G19" s="56" t="s">
         <v>477</v>
       </c>
-      <c r="H19" s="56"/>
+      <c r="H19" s="56" t="s">
+        <v>553</v>
+      </c>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
       <c r="K19" s="56"/>
@@ -4413,14 +4438,14 @@
       <c r="Z19" s="56"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="98" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="112">
+      <c r="B20" s="110">
         <f>B19+1</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="112" t="str">
+      <c r="C20" s="110" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -4433,7 +4458,9 @@
       <c r="G20" s="56" t="s">
         <v>478</v>
       </c>
-      <c r="H20" s="56"/>
+      <c r="H20" s="56" t="s">
+        <v>553</v>
+      </c>
       <c r="I20" s="56"/>
       <c r="J20" s="56"/>
       <c r="K20" s="56"/>
@@ -4454,15 +4481,17 @@
       <c r="Z20" s="56"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="98" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E21" s="89"/>
+      <c r="E21" s="89" t="s">
+        <v>395</v>
+      </c>
       <c r="F21" s="60" t="s">
         <v>548</v>
       </c>
@@ -4490,11 +4519,11 @@
       <c r="Z21" s="56"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="98" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4527,26 +4556,32 @@
       <c r="Z22" s="56"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="98" t="s">
         <v>400</v>
       </c>
-      <c r="B23" s="95">
+      <c r="B23" s="109">
         <f>B20 + 1</f>
         <v>43480</v>
       </c>
-      <c r="C23" s="95" t="str">
+      <c r="C23" s="109" t="str">
         <f t="shared" ref="C23:C25" si="3">IF(WEEKDAY(B23,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B23,1))</f>
         <v>Thứ 3</v>
       </c>
-      <c r="D23" s="96">
+      <c r="D23" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E23" s="97"/>
-      <c r="F23" s="98"/>
+      <c r="E23" s="89" t="s">
+        <v>395</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>790</v>
+      </c>
       <c r="G23" s="56" t="s">
         <v>481</v>
       </c>
-      <c r="H23" s="56"/>
+      <c r="H23" s="56" t="s">
+        <v>789</v>
+      </c>
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
       <c r="K23" s="56"/>
@@ -4567,22 +4602,22 @@
       <c r="Z23" s="56"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="100" t="s">
         <v>401</v>
       </c>
-      <c r="B24" s="102">
+      <c r="B24" s="101">
         <f>B20 + 1</f>
         <v>43480</v>
       </c>
-      <c r="C24" s="102" t="str">
+      <c r="C24" s="101" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D24" s="103">
+      <c r="D24" s="102">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E24" s="104"/>
-      <c r="F24" s="105" t="s">
+      <c r="E24" s="103"/>
+      <c r="F24" s="104" t="s">
         <v>581</v>
       </c>
       <c r="G24" s="56" t="s">
@@ -4609,24 +4644,24 @@
       <c r="Z24" s="56"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="100" t="s">
         <v>374</v>
       </c>
-      <c r="B25" s="114">
+      <c r="B25" s="112">
         <f>B24+1</f>
         <v>43481</v>
       </c>
-      <c r="C25" s="114" t="str">
+      <c r="C25" s="112" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 4</v>
       </c>
-      <c r="D25" s="103">
+      <c r="D25" s="102">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E25" s="104" t="s">
+      <c r="E25" s="103" t="s">
         <v>395</v>
       </c>
-      <c r="F25" s="105" t="s">
+      <c r="F25" s="104" t="s">
         <v>582</v>
       </c>
       <c r="G25" s="56" t="s">
@@ -4653,16 +4688,16 @@
       <c r="Z25" s="56"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="101" t="s">
+      <c r="A26" s="100" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="103">
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="102">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E26" s="104"/>
-      <c r="F26" s="105" t="s">
+      <c r="E26" s="103"/>
+      <c r="F26" s="104" t="s">
         <v>581</v>
       </c>
       <c r="G26" s="56" t="s">
@@ -4689,18 +4724,18 @@
       <c r="Z26" s="56"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="106" t="s">
+      <c r="A27" s="105" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="103">
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="102">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E27" s="104" t="s">
+      <c r="E27" s="103" t="s">
         <v>395</v>
       </c>
-      <c r="F27" s="105"/>
+      <c r="F27" s="104"/>
       <c r="G27" s="56" t="s">
         <v>485</v>
       </c>
@@ -4725,22 +4760,22 @@
       <c r="Z27" s="56"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="100" t="s">
         <v>402</v>
       </c>
-      <c r="B28" s="102">
+      <c r="B28" s="101">
         <f>B25 + 1</f>
         <v>43482</v>
       </c>
-      <c r="C28" s="102" t="str">
+      <c r="C28" s="101" t="str">
         <f t="shared" ref="C28:C32" si="4">IF(WEEKDAY(B28,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B28,1))</f>
         <v>Thứ 5</v>
       </c>
-      <c r="D28" s="103">
+      <c r="D28" s="102">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E28" s="104"/>
-      <c r="F28" s="105"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="56" t="s">
         <v>486</v>
       </c>
@@ -4765,22 +4800,22 @@
       <c r="Z28" s="56"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="100" t="s">
         <v>403</v>
       </c>
-      <c r="B29" s="102">
+      <c r="B29" s="101">
         <f>B25 + 1</f>
         <v>43482</v>
       </c>
-      <c r="C29" s="102" t="str">
+      <c r="C29" s="101" t="str">
         <f>IF(WEEKDAY(B29,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B29,1))</f>
         <v>Thứ 5</v>
       </c>
-      <c r="D29" s="103">
+      <c r="D29" s="102">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E29" s="104"/>
-      <c r="F29" s="105"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="104"/>
       <c r="G29" s="56" t="s">
         <v>487</v>
       </c>
@@ -4886,11 +4921,11 @@
       <c r="A32" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="110">
+      <c r="B32" s="114">
         <f>B31+1</f>
         <v>43484</v>
       </c>
-      <c r="C32" s="110" t="str">
+      <c r="C32" s="114" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
@@ -4925,8 +4960,8 @@
       <c r="A33" s="71" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
       <c r="D33" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4958,8 +4993,8 @@
       <c r="A34" s="71" t="s">
         <v>405</v>
       </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5073,11 +5108,11 @@
       <c r="A37" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="B37" s="110">
+      <c r="B37" s="114">
         <f>B36+1</f>
         <v>43486</v>
       </c>
-      <c r="C37" s="110" t="str">
+      <c r="C37" s="114" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 2</v>
       </c>
@@ -5114,8 +5149,8 @@
       <c r="A38" s="71" t="s">
         <v>406</v>
       </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5143,8 +5178,8 @@
       <c r="A39" s="71" t="s">
         <v>407</v>
       </c>
-      <c r="B39" s="111"/>
-      <c r="C39" s="111"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5242,11 +5277,11 @@
       <c r="A42" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="B42" s="110">
+      <c r="B42" s="114">
         <f>B36+3</f>
         <v>43488</v>
       </c>
-      <c r="C42" s="110" t="str">
+      <c r="C42" s="114" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 4</v>
       </c>
@@ -5277,8 +5312,8 @@
       <c r="A43" s="71" t="s">
         <v>408</v>
       </c>
-      <c r="B43" s="111"/>
-      <c r="C43" s="111"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
       <c r="D43" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5306,8 +5341,8 @@
       <c r="A44" s="71" t="s">
         <v>409</v>
       </c>
-      <c r="B44" s="111"/>
-      <c r="C44" s="111"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -33362,18 +33397,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -33412,6 +33447,7 @@
     <hyperlink ref="A8" location="'monitoring 2'!A1" display="Monitoring 2 - 50" xr:uid="{9FCBE67F-A749-453B-8500-BDA02545C1FF}"/>
     <hyperlink ref="A9" location="Planning3!A1" display="Planning 3 - 50" xr:uid="{5F1839DC-44AE-49FA-BE26-189FA80827AD}"/>
     <hyperlink ref="A21" location="'Initiating 3'!A1" display="Initiating 3 - 25" xr:uid="{ABB2EBF6-06EA-4A58-845C-455A9C6EAA08}"/>
+    <hyperlink ref="A23" location="Planning5!A1" display="Planning 5 - 50" xr:uid="{4772EB50-0166-4D44-832B-71936E92634F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -34023,7 +34059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF518E94-DEA8-4256-BBA2-A9B8503A0CD1}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -35857,8 +35893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7271A84-E4BF-4C3C-A529-C79AE0E90AA3}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35986,7 +36022,7 @@
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
       <c r="E9" s="83" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F9" s="84"/>
     </row>
@@ -36010,10 +36046,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="80" t="s">
+        <v>748</v>
+      </c>
+      <c r="E11" s="83" t="s">
         <v>749</v>
-      </c>
-      <c r="E11" s="83" t="s">
-        <v>750</v>
       </c>
       <c r="F11" s="84"/>
       <c r="H11" s="85"/>
@@ -36028,11 +36064,11 @@
       </c>
       <c r="D12" s="80"/>
       <c r="E12" s="83" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F12" s="84"/>
       <c r="G12" s="83" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45">
@@ -36045,7 +36081,7 @@
       </c>
       <c r="D13" s="80"/>
       <c r="E13" s="83" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F13" s="84"/>
     </row>
@@ -36059,7 +36095,7 @@
       </c>
       <c r="D14" s="79"/>
       <c r="E14" s="83" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F14" s="84"/>
     </row>
@@ -36073,7 +36109,7 @@
       </c>
       <c r="D15" s="80"/>
       <c r="E15" s="83" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F15" s="84"/>
     </row>
@@ -36085,7 +36121,7 @@
       <c r="C16" s="80"/>
       <c r="D16" s="80"/>
       <c r="E16" s="83" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F16" s="84"/>
     </row>
@@ -36107,7 +36143,7 @@
       <c r="C18" s="80"/>
       <c r="D18" s="80"/>
       <c r="E18" s="83" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F18" s="84"/>
     </row>
@@ -36119,7 +36155,7 @@
       <c r="C19" s="80"/>
       <c r="D19" s="80"/>
       <c r="E19" s="83" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F19" s="84"/>
     </row>
@@ -36133,7 +36169,7 @@
       </c>
       <c r="D20" s="80"/>
       <c r="E20" s="83" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F20" s="84"/>
     </row>
@@ -36147,7 +36183,7 @@
       </c>
       <c r="D21" s="80"/>
       <c r="E21" s="83" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F21" s="84"/>
     </row>
@@ -36161,7 +36197,7 @@
       </c>
       <c r="D22" s="80"/>
       <c r="E22" s="83" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F22" s="84"/>
     </row>
@@ -36185,7 +36221,7 @@
       </c>
       <c r="D24" s="80"/>
       <c r="E24" s="83" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F24" s="84"/>
     </row>
@@ -36197,7 +36233,7 @@
       <c r="C25" s="80"/>
       <c r="D25" s="80"/>
       <c r="E25" s="83" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F25" s="84"/>
     </row>
@@ -36210,10 +36246,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="80" t="s">
+        <v>763</v>
+      </c>
+      <c r="E26" s="83" t="s">
         <v>764</v>
-      </c>
-      <c r="E26" s="83" t="s">
-        <v>765</v>
       </c>
       <c r="F26" s="84"/>
     </row>
@@ -36224,10 +36260,10 @@
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
       <c r="D27" s="80" t="s">
+        <v>765</v>
+      </c>
+      <c r="E27" s="83" t="s">
         <v>766</v>
-      </c>
-      <c r="E27" s="83" t="s">
-        <v>767</v>
       </c>
       <c r="F27" s="84"/>
     </row>
@@ -36241,7 +36277,7 @@
       </c>
       <c r="D28" s="80"/>
       <c r="E28" s="83" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F28" s="84"/>
     </row>
@@ -36253,7 +36289,7 @@
       <c r="C29" s="80"/>
       <c r="D29" s="80"/>
       <c r="E29" s="83" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F29" s="84"/>
     </row>
@@ -36265,7 +36301,7 @@
       <c r="C30" s="80"/>
       <c r="D30" s="80"/>
       <c r="E30" s="83" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F30" s="84"/>
     </row>
@@ -36287,7 +36323,7 @@
       <c r="C32" s="80"/>
       <c r="D32" s="80"/>
       <c r="E32" s="83" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F32" s="84"/>
     </row>
@@ -36300,10 +36336,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="80" t="s">
+        <v>771</v>
+      </c>
+      <c r="E33" s="83" t="s">
         <v>772</v>
-      </c>
-      <c r="E33" s="83" t="s">
-        <v>773</v>
       </c>
       <c r="F33" s="84"/>
     </row>
@@ -36325,7 +36361,7 @@
       <c r="C35" s="80"/>
       <c r="D35" s="80"/>
       <c r="E35" s="83" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F35" s="84"/>
     </row>
@@ -36349,7 +36385,7 @@
       </c>
       <c r="D37" s="80"/>
       <c r="E37" s="83" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F37" s="84"/>
     </row>
@@ -36362,10 +36398,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="80" t="s">
+        <v>775</v>
+      </c>
+      <c r="E38" s="83" t="s">
         <v>776</v>
-      </c>
-      <c r="E38" s="83" t="s">
-        <v>777</v>
       </c>
       <c r="F38" s="84"/>
     </row>
@@ -36378,10 +36414,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="80" t="s">
+        <v>777</v>
+      </c>
+      <c r="E39" s="83" t="s">
         <v>778</v>
-      </c>
-      <c r="E39" s="83" t="s">
-        <v>779</v>
       </c>
       <c r="F39" s="84"/>
     </row>
@@ -36394,7 +36430,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="80" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F40" s="84"/>
     </row>
@@ -36406,7 +36442,7 @@
       <c r="C41" s="80"/>
       <c r="D41" s="80"/>
       <c r="E41" s="83" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F41" s="84"/>
     </row>
@@ -36418,18 +36454,22 @@
       <c r="C42" s="80"/>
       <c r="D42" s="80"/>
       <c r="E42" s="83" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F42" s="84"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="120">
       <c r="A43" s="80">
         <v>42</v>
       </c>
       <c r="B43" s="80"/>
       <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="83"/>
+      <c r="D43" s="80" t="s">
+        <v>782</v>
+      </c>
+      <c r="E43" s="83" t="s">
+        <v>783</v>
+      </c>
       <c r="F43" s="84"/>
     </row>
     <row r="44" spans="1:6">
@@ -36442,24 +36482,30 @@
       <c r="E44" s="83"/>
       <c r="F44" s="84"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="90">
       <c r="A45" s="80">
         <v>44</v>
       </c>
       <c r="B45" s="80"/>
       <c r="C45" s="80"/>
       <c r="D45" s="80"/>
-      <c r="E45" s="83"/>
+      <c r="E45" s="83" t="s">
+        <v>784</v>
+      </c>
       <c r="F45" s="84"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="30">
       <c r="A46" s="80">
         <v>45</v>
       </c>
       <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
+      <c r="C46" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="D46" s="80"/>
-      <c r="E46" s="83"/>
+      <c r="E46" s="83" t="s">
+        <v>785</v>
+      </c>
       <c r="F46" s="84"/>
     </row>
     <row r="47" spans="1:6">
@@ -36482,34 +36528,46 @@
       <c r="E48" s="83"/>
       <c r="F48" s="84"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="75">
       <c r="A49" s="80">
         <v>48</v>
       </c>
       <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
+      <c r="C49" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="D49" s="80"/>
-      <c r="E49" s="83"/>
+      <c r="E49" s="83" t="s">
+        <v>788</v>
+      </c>
       <c r="F49" s="84"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="45">
       <c r="A50" s="80">
         <v>49</v>
       </c>
       <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
+      <c r="C50" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="D50" s="80"/>
-      <c r="E50" s="83"/>
+      <c r="E50" s="83" t="s">
+        <v>787</v>
+      </c>
       <c r="F50" s="84"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" ht="105">
       <c r="A51" s="80">
         <v>50</v>
       </c>
       <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
+      <c r="C51" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="D51" s="80"/>
-      <c r="E51" s="83"/>
+      <c r="E51" s="83" t="s">
+        <v>786</v>
+      </c>
       <c r="F51" s="84"/>
     </row>
   </sheetData>
@@ -39277,9 +39335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5096C7F6-304A-4696-AB04-B782ECAE35C0}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -39619,9 +39675,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -40033,8 +40087,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40376,9 +40430,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -42392,7 +42444,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -43936,7 +43988,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -45038,6 +45090,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -45045,12 +45103,6 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45797,7 +45849,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47117,9 +47169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2583E3-9850-4500-BEA4-2CD763A9903C}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
-    </sheetView>
+    <sheetView topLeftCell="A40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72518EC8-C7CE-47DC-BCC1-4D698CC5B28E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF288325-07A7-4097-8DC1-6612D88F40F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" activeTab="3" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="795">
   <si>
     <t>No</t>
   </si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>Đáp án A</t>
-  </si>
-  <si>
-    <t>sunk cost là một khoản chi phí chìm không lấy lại được</t>
   </si>
   <si>
     <t xml:space="preserve"> In which process is the cost baseline developed</t>
@@ -2615,12 +2612,27 @@
   <si>
     <t>cần xem lại</t>
   </si>
+  <si>
+    <t>sunk cost là một khoản chi phí chìm không lấy lại được. Rule là không nên xem xét quyết định việc tiếp tục đối với nhưng dự án dd]ơcj cho là đang khó khăn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lưu ý: resource histogram thể hiện resource used per time period. The responsibility assignment matrix cross-reference resource with the activities work package they are to accomplish give clarity </t>
+  </si>
+  <si>
+    <t>Không hiểu nội dung câu hỏi lắm</t>
+  </si>
+  <si>
+    <t>the cose performance index determine based on performance. Therefore, it would never be determined during project planning</t>
+  </si>
+  <si>
+    <t>Lưu ý: procurement are closed in monitoring vs controlling, not as part of close project or phase</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2722,15 +2734,8 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2795,6 +2800,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -3018,7 +3029,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3302,9 +3313,6 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3317,18 +3325,14 @@
     <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3346,6 +3350,19 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3668,8 +3685,8 @@
   </sheetPr>
   <dimension ref="A1:Z1328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -3682,28 +3699,28 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="59" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="C1" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="D1" s="60" t="s">
         <v>353</v>
       </c>
-      <c r="D1" s="60" t="s">
-        <v>354</v>
-      </c>
       <c r="E1" s="60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G1" s="92" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I1" s="56"/>
       <c r="J1" s="56"/>
@@ -3726,7 +3743,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="93" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B2" s="61">
         <v>43437</v>
@@ -3737,10 +3754,10 @@
       </c>
       <c r="E2" s="63"/>
       <c r="G2" s="92" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
@@ -3763,7 +3780,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="93" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B3" s="61">
         <v>43438</v>
@@ -3774,10 +3791,10 @@
       </c>
       <c r="E3" s="63"/>
       <c r="G3" s="92" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I3" s="56"/>
       <c r="J3" s="56"/>
@@ -3800,7 +3817,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B4" s="65">
         <v>43439</v>
@@ -3811,10 +3828,10 @@
       </c>
       <c r="E4" s="63"/>
       <c r="G4" s="92" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I4" s="56"/>
       <c r="J4" s="56"/>
@@ -3837,7 +3854,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B5" s="65">
         <v>43440</v>
@@ -3848,10 +3865,10 @@
       </c>
       <c r="E5" s="63"/>
       <c r="G5" s="92" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
@@ -3874,28 +3891,28 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="93" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B6" s="65">
         <v>43441</v>
       </c>
-      <c r="C6" s="107">
+      <c r="C6" s="106">
         <v>43479</v>
       </c>
       <c r="D6" s="62">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="F6" s="108" t="s">
-        <v>548</v>
+        <v>394</v>
+      </c>
+      <c r="F6" s="107" t="s">
+        <v>547</v>
       </c>
       <c r="G6" s="92" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
@@ -3918,7 +3935,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="93" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B7" s="65">
         <v>43442</v>
@@ -3929,7 +3946,7 @@
       </c>
       <c r="E7" s="63"/>
       <c r="G7" s="56" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
@@ -3953,25 +3970,25 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="93" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B8" s="65">
         <v>43443</v>
       </c>
-      <c r="C8" s="107">
+      <c r="C8" s="106">
         <v>43479</v>
       </c>
       <c r="D8" s="62">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="F8" s="108" t="s">
-        <v>548</v>
+        <v>394</v>
+      </c>
+      <c r="F8" s="107" t="s">
+        <v>547</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
@@ -3995,25 +4012,25 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="93" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B9" s="65">
         <v>43451</v>
       </c>
-      <c r="C9" s="107">
+      <c r="C9" s="106">
         <v>43479</v>
       </c>
       <c r="D9" s="62">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="F9" s="108" t="s">
-        <v>548</v>
+        <v>394</v>
+      </c>
+      <c r="F9" s="107" t="s">
+        <v>547</v>
       </c>
       <c r="G9" s="56" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
@@ -4037,7 +4054,7 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="93" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B10" s="65">
         <f>B9+1</f>
@@ -4051,10 +4068,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
@@ -4078,7 +4095,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="93" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B11" s="65">
         <f>B10+1</f>
@@ -4092,10 +4109,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
@@ -4119,7 +4136,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="93" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B12" s="65">
         <f>B11+1</f>
@@ -4133,10 +4150,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G12" s="56" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
@@ -4160,7 +4177,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B13" s="87">
         <v>43473</v>
@@ -4173,13 +4190,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E13" s="89" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G13" s="56" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
@@ -4202,7 +4219,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="98" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B14" s="87">
         <v>43473</v>
@@ -4215,10 +4232,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E14" s="89" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G14" s="56" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
@@ -4242,12 +4259,12 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="98" t="s">
-        <v>372</v>
-      </c>
-      <c r="B15" s="110">
+        <v>371</v>
+      </c>
+      <c r="B15" s="111">
         <v>43473</v>
       </c>
-      <c r="C15" s="110" t="str">
+      <c r="C15" s="111" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -4255,13 +4272,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E15" s="89" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H15" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
@@ -4284,21 +4301,21 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="98" t="s">
-        <v>360</v>
-      </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
+        <v>359</v>
+      </c>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E16" s="89" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G16" s="56" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H16" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
@@ -4321,18 +4338,18 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="98" t="s">
-        <v>361</v>
-      </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
+        <v>360</v>
+      </c>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E17" s="89" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G17" s="56" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H17" s="56"/>
       <c r="I17" s="56"/>
@@ -4356,12 +4373,12 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="98" t="s">
-        <v>398</v>
-      </c>
-      <c r="B18" s="106">
+        <v>397</v>
+      </c>
+      <c r="B18" s="105">
         <v>43478</v>
       </c>
-      <c r="C18" s="106" t="str">
+      <c r="C18" s="105" t="str">
         <f t="shared" ref="C18:C20" si="2">IF(WEEKDAY(B18,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B18,1))</f>
         <v>Chủ nhật</v>
       </c>
@@ -4369,10 +4386,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E18" s="89" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G18" s="56" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H18" s="56"/>
       <c r="I18" s="56"/>
@@ -4396,7 +4413,7 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B19" s="73">
         <v>43478</v>
@@ -4410,13 +4427,13 @@
       </c>
       <c r="E19" s="75"/>
       <c r="F19" s="60" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G19" s="56" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H19" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
@@ -4439,13 +4456,13 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="98" t="s">
-        <v>373</v>
-      </c>
-      <c r="B20" s="110">
+        <v>372</v>
+      </c>
+      <c r="B20" s="111">
         <f>B19+1</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="110" t="str">
+      <c r="C20" s="111" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -4453,13 +4470,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E20" s="89" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G20" s="56" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H20" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I20" s="56"/>
       <c r="J20" s="56"/>
@@ -4482,21 +4499,21 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="98" t="s">
-        <v>362</v>
-      </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
+        <v>361</v>
+      </c>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E21" s="89" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F21" s="60" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G21" s="56" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
@@ -4520,21 +4537,21 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="98" t="s">
-        <v>363</v>
-      </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
+        <v>362</v>
+      </c>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E22" s="89" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G22" s="56" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H22" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
@@ -4557,13 +4574,13 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="98" t="s">
-        <v>400</v>
-      </c>
-      <c r="B23" s="109">
+        <v>399</v>
+      </c>
+      <c r="B23" s="108">
         <f>B20 + 1</f>
         <v>43480</v>
       </c>
-      <c r="C23" s="109" t="str">
+      <c r="C23" s="108" t="str">
         <f t="shared" ref="C23:C25" si="3">IF(WEEKDAY(B23,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B23,1))</f>
         <v>Thứ 3</v>
       </c>
@@ -4571,16 +4588,16 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E23" s="89" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F23" s="60" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G23" s="56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H23" s="56" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
@@ -4603,7 +4620,7 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="100" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B24" s="101">
         <f>B20 + 1</f>
@@ -4618,10 +4635,10 @@
       </c>
       <c r="E24" s="103"/>
       <c r="F24" s="104" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G24" s="56" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H24" s="56"/>
       <c r="I24" s="56"/>
@@ -4644,28 +4661,28 @@
       <c r="Z24" s="56"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="B25" s="112">
+      <c r="A25" s="123" t="s">
+        <v>373</v>
+      </c>
+      <c r="B25" s="120">
         <f>B24+1</f>
         <v>43481</v>
       </c>
-      <c r="C25" s="112" t="str">
+      <c r="C25" s="120" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 4</v>
       </c>
-      <c r="D25" s="102">
+      <c r="D25" s="74">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E25" s="103" t="s">
-        <v>395</v>
-      </c>
-      <c r="F25" s="104" t="s">
-        <v>582</v>
+      <c r="E25" s="75" t="s">
+        <v>394</v>
+      </c>
+      <c r="F25" s="121" t="s">
+        <v>581</v>
       </c>
       <c r="G25" s="56" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H25" s="56"/>
       <c r="I25" s="56"/>
@@ -4688,20 +4705,20 @@
       <c r="Z25" s="56"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="100" t="s">
-        <v>364</v>
-      </c>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="102">
+      <c r="A26" s="119" t="s">
+        <v>363</v>
+      </c>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="74">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E26" s="103"/>
-      <c r="F26" s="104" t="s">
-        <v>581</v>
+      <c r="E26" s="75"/>
+      <c r="F26" s="121" t="s">
+        <v>580</v>
       </c>
       <c r="G26" s="56" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H26" s="56"/>
       <c r="I26" s="56"/>
@@ -4724,20 +4741,19 @@
       <c r="Z26" s="56"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="105" t="s">
-        <v>365</v>
-      </c>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="102">
+      <c r="A27" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="88">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E27" s="103" t="s">
-        <v>395</v>
-      </c>
-      <c r="F27" s="104"/>
+      <c r="E27" s="88" t="s">
+        <v>394</v>
+      </c>
       <c r="G27" s="56" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H27" s="56"/>
       <c r="I27" s="56"/>
@@ -4761,7 +4777,7 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="100" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B28" s="101">
         <f>B25 + 1</f>
@@ -4777,7 +4793,7 @@
       <c r="E28" s="103"/>
       <c r="F28" s="104"/>
       <c r="G28" s="56" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
@@ -4801,7 +4817,7 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="100" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B29" s="101">
         <f>B25 + 1</f>
@@ -4817,7 +4833,7 @@
       <c r="E29" s="103"/>
       <c r="F29" s="104"/>
       <c r="G29" s="56" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
@@ -4841,7 +4857,7 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="94" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B30" s="95">
         <f>B28 + 1</f>
@@ -4856,7 +4872,7 @@
       </c>
       <c r="E30" s="97"/>
       <c r="G30" s="56" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
@@ -4880,7 +4896,7 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="94" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B31" s="95">
         <f>B29 + 1</f>
@@ -4895,7 +4911,7 @@
       </c>
       <c r="E31" s="97"/>
       <c r="G31" s="56" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
@@ -4919,13 +4935,13 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="71" t="s">
-        <v>367</v>
-      </c>
-      <c r="B32" s="114">
+        <v>366</v>
+      </c>
+      <c r="B32" s="109">
         <f>B31+1</f>
         <v>43484</v>
       </c>
-      <c r="C32" s="114" t="str">
+      <c r="C32" s="109" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
@@ -4934,7 +4950,7 @@
       </c>
       <c r="E32" s="70"/>
       <c r="G32" s="56" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H32" s="56"/>
       <c r="I32" s="56"/>
@@ -4958,16 +4974,16 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
+        <v>403</v>
+      </c>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
       <c r="D33" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E33" s="70"/>
       <c r="G33" s="56" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
@@ -4991,19 +5007,19 @@
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="71" t="s">
-        <v>405</v>
-      </c>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
+        <v>404</v>
+      </c>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
       <c r="D34" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E34" s="70"/>
       <c r="G34" s="56" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H34" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
@@ -5026,7 +5042,7 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="71" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B35" s="67">
         <f>B31+ 2</f>
@@ -5041,7 +5057,7 @@
       </c>
       <c r="E35" s="70"/>
       <c r="G35" s="56" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H35" s="56"/>
       <c r="I35" s="56"/>
@@ -5065,7 +5081,7 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="71" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B36" s="69">
         <f>B31+ 2</f>
@@ -5080,10 +5096,10 @@
       </c>
       <c r="E36" s="70"/>
       <c r="G36" s="56" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H36" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I36" s="56"/>
       <c r="J36" s="56"/>
@@ -5106,13 +5122,13 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="71" t="s">
-        <v>369</v>
-      </c>
-      <c r="B37" s="114">
+        <v>368</v>
+      </c>
+      <c r="B37" s="109">
         <f>B36+1</f>
         <v>43486</v>
       </c>
-      <c r="C37" s="114" t="str">
+      <c r="C37" s="109" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 2</v>
       </c>
@@ -5121,10 +5137,10 @@
       </c>
       <c r="E37" s="70"/>
       <c r="G37" s="56" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H37" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I37" s="56"/>
       <c r="J37" s="56"/>
@@ -5147,10 +5163,10 @@
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="71" t="s">
-        <v>406</v>
-      </c>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
+        <v>405</v>
+      </c>
+      <c r="B38" s="110"/>
+      <c r="C38" s="110"/>
       <c r="D38" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5176,10 +5192,10 @@
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="71" t="s">
-        <v>407</v>
-      </c>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
+        <v>406</v>
+      </c>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
       <c r="D39" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5205,7 +5221,7 @@
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="71" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B40" s="67">
         <f>B36 + 2</f>
@@ -5240,7 +5256,7 @@
     </row>
     <row r="41" spans="1:26">
       <c r="A41" s="71" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B41" s="67">
         <f>B36 + 2</f>
@@ -5275,13 +5291,13 @@
     </row>
     <row r="42" spans="1:26">
       <c r="A42" s="71" t="s">
-        <v>371</v>
-      </c>
-      <c r="B42" s="114">
+        <v>370</v>
+      </c>
+      <c r="B42" s="109">
         <f>B36+3</f>
         <v>43488</v>
       </c>
-      <c r="C42" s="114" t="str">
+      <c r="C42" s="109" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 4</v>
       </c>
@@ -5310,10 +5326,10 @@
     </row>
     <row r="43" spans="1:26">
       <c r="A43" s="71" t="s">
-        <v>408</v>
-      </c>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
+        <v>407</v>
+      </c>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
       <c r="D43" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5339,10 +5355,10 @@
     </row>
     <row r="44" spans="1:26">
       <c r="A44" s="71" t="s">
-        <v>409</v>
-      </c>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
+        <v>408</v>
+      </c>
+      <c r="B44" s="110"/>
+      <c r="C44" s="110"/>
       <c r="D44" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5370,7 +5386,7 @@
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="71" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B45" s="67">
         <f>B42 + 1</f>
@@ -5407,7 +5423,7 @@
     </row>
     <row r="46" spans="1:26">
       <c r="A46" s="71" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B46" s="69">
         <f>B42 + 1</f>
@@ -5444,7 +5460,7 @@
     </row>
     <row r="47" spans="1:26">
       <c r="A47" s="71" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B47" s="69">
         <f>B46 + 1</f>
@@ -5481,7 +5497,7 @@
     </row>
     <row r="48" spans="1:26">
       <c r="A48" s="71" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B48" s="69">
         <f>B46 + 1</f>
@@ -5518,7 +5534,7 @@
     </row>
     <row r="49" spans="1:26">
       <c r="A49" s="71" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B49" s="69">
         <f>B46 +2</f>
@@ -5555,7 +5571,7 @@
     </row>
     <row r="50" spans="1:26">
       <c r="A50" s="86" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B50" s="87">
         <f>B46 +2</f>
@@ -5569,7 +5585,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E50" s="89" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G50" s="56"/>
       <c r="H50" s="56"/>
@@ -5594,7 +5610,7 @@
     </row>
     <row r="51" spans="1:26">
       <c r="A51" s="71" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B51" s="69">
         <f>B47 + 2</f>
@@ -5631,7 +5647,7 @@
     </row>
     <row r="52" spans="1:26">
       <c r="A52" s="71" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B52" s="69">
         <f>B47 + 2</f>
@@ -5668,7 +5684,7 @@
     </row>
     <row r="53" spans="1:26">
       <c r="A53" s="71" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B53" s="69">
         <f t="shared" ref="B53:B61" si="9">B49 + 2</f>
@@ -5705,7 +5721,7 @@
     </row>
     <row r="54" spans="1:26">
       <c r="A54" s="71" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B54" s="69">
         <f t="shared" si="9"/>
@@ -5742,7 +5758,7 @@
     </row>
     <row r="55" spans="1:26">
       <c r="A55" s="71" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B55" s="69">
         <f t="shared" si="9"/>
@@ -5779,7 +5795,7 @@
     </row>
     <row r="56" spans="1:26">
       <c r="A56" s="71" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B56" s="69">
         <f t="shared" si="9"/>
@@ -5816,7 +5832,7 @@
     </row>
     <row r="57" spans="1:26">
       <c r="A57" s="71" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B57" s="69">
         <f t="shared" si="9"/>
@@ -5853,7 +5869,7 @@
     </row>
     <row r="58" spans="1:26">
       <c r="A58" s="71" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B58" s="69">
         <f t="shared" si="9"/>
@@ -5890,7 +5906,7 @@
     </row>
     <row r="59" spans="1:26">
       <c r="A59" s="71" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B59" s="69">
         <f t="shared" si="9"/>
@@ -5927,7 +5943,7 @@
     </row>
     <row r="60" spans="1:26">
       <c r="A60" s="71" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B60" s="69">
         <f t="shared" si="9"/>
@@ -5964,7 +5980,7 @@
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="71" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B61" s="69">
         <f t="shared" si="9"/>
@@ -6001,7 +6017,7 @@
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B62" s="69">
         <f>B58 + 3</f>
@@ -6038,7 +6054,7 @@
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B63" s="69">
         <f>B59 +3</f>
@@ -6075,7 +6091,7 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B64" s="69">
         <f>B60 + 4</f>
@@ -6112,7 +6128,7 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="71" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B65" s="69">
         <f>B61 + 4</f>
@@ -6149,7 +6165,7 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="71" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B66" s="69">
         <f>B62 + 4</f>
@@ -33397,18 +33413,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -33448,6 +33464,7 @@
     <hyperlink ref="A9" location="Planning3!A1" display="Planning 3 - 50" xr:uid="{5F1839DC-44AE-49FA-BE26-189FA80827AD}"/>
     <hyperlink ref="A21" location="'Initiating 3'!A1" display="Initiating 3 - 25" xr:uid="{ABB2EBF6-06EA-4A58-845C-455A9C6EAA08}"/>
     <hyperlink ref="A23" location="Planning5!A1" display="Planning 5 - 50" xr:uid="{4772EB50-0166-4D44-832B-71936E92634F}"/>
+    <hyperlink ref="A25" location="'Mock Exam 3'!A1" display="Mock Exam 3" xr:uid="{A43AC668-83A0-406A-A21E-8FD23DA4836E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33491,7 +33508,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="225">
@@ -33504,7 +33521,7 @@
       </c>
       <c r="D2" s="80"/>
       <c r="E2" s="83" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -33526,7 +33543,7 @@
       </c>
       <c r="D4" s="80"/>
       <c r="E4" s="83" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -33557,7 +33574,7 @@
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
       <c r="E7" s="83" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G7" s="85"/>
     </row>
@@ -33569,7 +33586,7 @@
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
       <c r="E8" s="83" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
@@ -33581,10 +33598,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E9" s="83" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -33595,7 +33612,7 @@
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
       <c r="E10" s="83" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G10" s="85"/>
     </row>
@@ -33690,7 +33707,7 @@
       </c>
       <c r="D20" s="80"/>
       <c r="E20" s="83" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -33703,7 +33720,7 @@
       </c>
       <c r="D21" s="80"/>
       <c r="E21" s="83" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -33716,7 +33733,7 @@
       </c>
       <c r="D22" s="80"/>
       <c r="E22" s="83" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -33755,7 +33772,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="80" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E26" s="83"/>
     </row>
@@ -33777,10 +33794,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E28" s="83" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -33802,7 +33819,7 @@
       </c>
       <c r="D30" s="80"/>
       <c r="E30" s="83" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -33814,10 +33831,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="E31" s="83" t="s">
         <v>511</v>
-      </c>
-      <c r="E31" s="83" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -33840,10 +33857,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="E33" s="83" t="s">
         <v>513</v>
-      </c>
-      <c r="E33" s="83" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -33883,7 +33900,7 @@
       </c>
       <c r="D37" s="80"/>
       <c r="E37" s="83" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -33896,7 +33913,7 @@
       </c>
       <c r="D38" s="80"/>
       <c r="E38" s="83" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -33933,7 +33950,7 @@
       <c r="B42" s="80"/>
       <c r="C42" s="80"/>
       <c r="D42" s="80" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E42" s="83"/>
     </row>
@@ -33964,10 +33981,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E45" s="83" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30">
@@ -33980,7 +33997,7 @@
       </c>
       <c r="D46" s="80"/>
       <c r="E46" s="83" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="105">
@@ -33992,10 +34009,10 @@
         <v>4</v>
       </c>
       <c r="D47" s="80" t="s">
+        <v>458</v>
+      </c>
+      <c r="E47" s="83" t="s">
         <v>459</v>
-      </c>
-      <c r="E47" s="83" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -34006,7 +34023,7 @@
       <c r="C48" s="80"/>
       <c r="D48" s="80"/>
       <c r="E48" s="83" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -34028,7 +34045,7 @@
       </c>
       <c r="D50" s="80"/>
       <c r="E50" s="83" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="75">
@@ -34039,7 +34056,7 @@
       <c r="C51" s="80"/>
       <c r="D51" s="80"/>
       <c r="E51" s="83" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -34089,7 +34106,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60">
@@ -34101,14 +34118,14 @@
         <v>4</v>
       </c>
       <c r="D2" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="E2" s="83" t="s">
         <v>697</v>
-      </c>
-      <c r="E2" s="83" t="s">
-        <v>698</v>
       </c>
       <c r="F2" s="84"/>
       <c r="G2" s="85" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -34130,10 +34147,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="80" t="s">
+        <v>699</v>
+      </c>
+      <c r="E4" s="83" t="s">
         <v>700</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>701</v>
       </c>
       <c r="F4" s="84"/>
     </row>
@@ -34146,10 +34163,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="80" t="s">
+        <v>701</v>
+      </c>
+      <c r="E5" s="83" t="s">
         <v>702</v>
-      </c>
-      <c r="E5" s="83" t="s">
-        <v>703</v>
       </c>
       <c r="F5" s="84"/>
     </row>
@@ -34162,10 +34179,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="80" t="s">
+        <v>703</v>
+      </c>
+      <c r="E6" s="83" t="s">
         <v>704</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>705</v>
       </c>
       <c r="F6" s="84"/>
     </row>
@@ -34179,7 +34196,7 @@
       </c>
       <c r="D7" s="80"/>
       <c r="E7" s="83" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F7" s="84"/>
       <c r="G7" s="85"/>
@@ -34192,7 +34209,7 @@
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
       <c r="E8" s="83" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F8" s="84"/>
     </row>
@@ -34225,7 +34242,7 @@
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
       <c r="E11" s="83" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F11" s="84"/>
     </row>
@@ -34249,7 +34266,7 @@
       </c>
       <c r="D13" s="80"/>
       <c r="E13" s="83" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F13" s="84"/>
     </row>
@@ -34273,7 +34290,7 @@
       </c>
       <c r="D15" s="80"/>
       <c r="E15" s="83" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F15" s="84"/>
     </row>
@@ -34287,7 +34304,7 @@
       </c>
       <c r="D16" s="80"/>
       <c r="E16" s="83" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F16" s="84"/>
     </row>
@@ -34299,7 +34316,7 @@
       <c r="C17" s="80"/>
       <c r="D17" s="80"/>
       <c r="E17" s="83" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F17" s="84"/>
     </row>
@@ -34351,7 +34368,7 @@
       <c r="C22" s="80"/>
       <c r="D22" s="80"/>
       <c r="E22" s="83" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F22" s="84"/>
     </row>
@@ -34363,7 +34380,7 @@
       <c r="C23" s="80"/>
       <c r="D23" s="80"/>
       <c r="E23" s="83" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F23" s="84"/>
     </row>
@@ -34395,7 +34412,7 @@
       <c r="C26" s="80"/>
       <c r="D26" s="80"/>
       <c r="E26" s="83" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F26" s="84"/>
     </row>
@@ -34418,10 +34435,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="80" t="s">
+        <v>715</v>
+      </c>
+      <c r="E28" s="83" t="s">
         <v>716</v>
-      </c>
-      <c r="E28" s="83" t="s">
-        <v>717</v>
       </c>
       <c r="F28" s="84"/>
     </row>
@@ -34445,7 +34462,7 @@
       </c>
       <c r="D30" s="80"/>
       <c r="E30" s="83" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F30" s="84"/>
     </row>
@@ -34457,7 +34474,7 @@
       <c r="C31" s="80"/>
       <c r="D31" s="80"/>
       <c r="E31" s="83" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F31" s="84"/>
     </row>
@@ -34479,7 +34496,7 @@
       <c r="C33" s="80"/>
       <c r="D33" s="80"/>
       <c r="E33" s="83" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F33" s="84"/>
     </row>
@@ -34501,7 +34518,7 @@
       <c r="C35" s="80"/>
       <c r="D35" s="80"/>
       <c r="E35" s="83" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F35" s="84"/>
     </row>
@@ -34513,7 +34530,7 @@
       <c r="C36" s="80"/>
       <c r="D36" s="80"/>
       <c r="E36" s="83" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F36" s="84"/>
     </row>
@@ -34525,7 +34542,7 @@
       <c r="C37" s="80"/>
       <c r="D37" s="80"/>
       <c r="E37" s="83" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F37" s="84"/>
     </row>
@@ -34568,7 +34585,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="80" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E41" s="83"/>
       <c r="F41" s="84"/>
@@ -34583,7 +34600,7 @@
       </c>
       <c r="D42" s="80"/>
       <c r="E42" s="83" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F42" s="84"/>
     </row>
@@ -34597,7 +34614,7 @@
       </c>
       <c r="D43" s="80"/>
       <c r="E43" s="83" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F43" s="84"/>
     </row>
@@ -34611,7 +34628,7 @@
       </c>
       <c r="D44" s="80"/>
       <c r="E44" s="83" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F44" s="84"/>
     </row>
@@ -34623,7 +34640,7 @@
       <c r="C45" s="80"/>
       <c r="D45" s="80"/>
       <c r="E45" s="83" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F45" s="84"/>
     </row>
@@ -34739,7 +34756,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
@@ -34752,7 +34769,7 @@
       </c>
       <c r="D2" s="80"/>
       <c r="E2" s="83" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F2" s="84"/>
     </row>
@@ -34833,17 +34850,17 @@
       </c>
       <c r="B10" s="80"/>
       <c r="C10" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="80" t="s">
+        <v>443</v>
+      </c>
+      <c r="E10" s="83" t="s">
         <v>444</v>
-      </c>
-      <c r="E10" s="83" t="s">
-        <v>445</v>
       </c>
       <c r="F10" s="84"/>
       <c r="G10" s="85" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -34865,10 +34882,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="80" t="s">
+        <v>446</v>
+      </c>
+      <c r="E12" s="83" t="s">
         <v>447</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>448</v>
       </c>
       <c r="F12" s="84"/>
     </row>
@@ -34912,11 +34929,11 @@
       </c>
       <c r="D16" s="80"/>
       <c r="E16" s="83" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F16" s="84"/>
       <c r="G16" s="76" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -34979,7 +34996,7 @@
       </c>
       <c r="D22" s="80"/>
       <c r="E22" s="83" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F22" s="84"/>
     </row>
@@ -35003,7 +35020,7 @@
       </c>
       <c r="D24" s="80"/>
       <c r="E24" s="83" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F24" s="84"/>
     </row>
@@ -35099,7 +35116,7 @@
       </c>
       <c r="D33" s="80"/>
       <c r="E33" s="83" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F33" s="84"/>
     </row>
@@ -35153,7 +35170,7 @@
       </c>
       <c r="D38" s="80"/>
       <c r="E38" s="83" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F38" s="84"/>
     </row>
@@ -35277,7 +35294,7 @@
       </c>
       <c r="D50" s="80"/>
       <c r="E50" s="83" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F50" s="84"/>
     </row>
@@ -35343,7 +35360,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -35356,7 +35373,7 @@
       <c r="E2" s="83"/>
       <c r="F2" s="84"/>
       <c r="G2" s="76" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -35369,7 +35386,7 @@
       <c r="E3" s="83"/>
       <c r="F3" s="84"/>
       <c r="G3" s="76" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -35412,7 +35429,7 @@
       <c r="E7" s="83"/>
       <c r="F7" s="84"/>
       <c r="G7" s="85" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -35445,7 +35462,7 @@
       <c r="E10" s="83"/>
       <c r="F10" s="84"/>
       <c r="G10" s="85" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
@@ -35458,7 +35475,7 @@
       <c r="E11" s="83"/>
       <c r="F11" s="84"/>
       <c r="H11" s="85" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -35481,7 +35498,7 @@
       <c r="E13" s="83"/>
       <c r="F13" s="84"/>
       <c r="G13" s="76" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -35494,7 +35511,7 @@
       <c r="E14" s="83"/>
       <c r="F14" s="84"/>
       <c r="G14" s="76" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -35587,7 +35604,7 @@
       <c r="E23" s="83"/>
       <c r="F23" s="84"/>
       <c r="G23" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -35600,7 +35617,7 @@
       <c r="E24" s="83"/>
       <c r="F24" s="84"/>
       <c r="G24" s="76" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -35926,7 +35943,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30">
@@ -35937,7 +35954,7 @@
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
       <c r="E2" s="83" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F2" s="84"/>
     </row>
@@ -35949,7 +35966,7 @@
       <c r="C3" s="80"/>
       <c r="D3" s="80"/>
       <c r="E3" s="83" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F3" s="84"/>
     </row>
@@ -35971,7 +35988,7 @@
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="83" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F5" s="84"/>
     </row>
@@ -35985,7 +36002,7 @@
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="83" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F6" s="84"/>
     </row>
@@ -35999,7 +36016,7 @@
       </c>
       <c r="D7" s="80"/>
       <c r="E7" s="83" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F7" s="84"/>
       <c r="G7" s="85"/>
@@ -36022,7 +36039,7 @@
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
       <c r="E9" s="83" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F9" s="84"/>
     </row>
@@ -36046,10 +36063,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="80" t="s">
+        <v>747</v>
+      </c>
+      <c r="E11" s="83" t="s">
         <v>748</v>
-      </c>
-      <c r="E11" s="83" t="s">
-        <v>749</v>
       </c>
       <c r="F11" s="84"/>
       <c r="H11" s="85"/>
@@ -36064,11 +36081,11 @@
       </c>
       <c r="D12" s="80"/>
       <c r="E12" s="83" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F12" s="84"/>
       <c r="G12" s="83" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45">
@@ -36081,7 +36098,7 @@
       </c>
       <c r="D13" s="80"/>
       <c r="E13" s="83" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F13" s="84"/>
     </row>
@@ -36095,7 +36112,7 @@
       </c>
       <c r="D14" s="79"/>
       <c r="E14" s="83" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F14" s="84"/>
     </row>
@@ -36109,7 +36126,7 @@
       </c>
       <c r="D15" s="80"/>
       <c r="E15" s="83" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F15" s="84"/>
     </row>
@@ -36121,7 +36138,7 @@
       <c r="C16" s="80"/>
       <c r="D16" s="80"/>
       <c r="E16" s="83" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F16" s="84"/>
     </row>
@@ -36143,7 +36160,7 @@
       <c r="C18" s="80"/>
       <c r="D18" s="80"/>
       <c r="E18" s="83" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F18" s="84"/>
     </row>
@@ -36155,7 +36172,7 @@
       <c r="C19" s="80"/>
       <c r="D19" s="80"/>
       <c r="E19" s="83" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F19" s="84"/>
     </row>
@@ -36169,7 +36186,7 @@
       </c>
       <c r="D20" s="80"/>
       <c r="E20" s="83" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F20" s="84"/>
     </row>
@@ -36183,7 +36200,7 @@
       </c>
       <c r="D21" s="80"/>
       <c r="E21" s="83" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F21" s="84"/>
     </row>
@@ -36197,7 +36214,7 @@
       </c>
       <c r="D22" s="80"/>
       <c r="E22" s="83" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F22" s="84"/>
     </row>
@@ -36221,7 +36238,7 @@
       </c>
       <c r="D24" s="80"/>
       <c r="E24" s="83" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F24" s="84"/>
     </row>
@@ -36233,7 +36250,7 @@
       <c r="C25" s="80"/>
       <c r="D25" s="80"/>
       <c r="E25" s="83" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F25" s="84"/>
     </row>
@@ -36246,10 +36263,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="80" t="s">
+        <v>762</v>
+      </c>
+      <c r="E26" s="83" t="s">
         <v>763</v>
-      </c>
-      <c r="E26" s="83" t="s">
-        <v>764</v>
       </c>
       <c r="F26" s="84"/>
     </row>
@@ -36260,10 +36277,10 @@
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
       <c r="D27" s="80" t="s">
+        <v>764</v>
+      </c>
+      <c r="E27" s="83" t="s">
         <v>765</v>
-      </c>
-      <c r="E27" s="83" t="s">
-        <v>766</v>
       </c>
       <c r="F27" s="84"/>
     </row>
@@ -36277,7 +36294,7 @@
       </c>
       <c r="D28" s="80"/>
       <c r="E28" s="83" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F28" s="84"/>
     </row>
@@ -36289,7 +36306,7 @@
       <c r="C29" s="80"/>
       <c r="D29" s="80"/>
       <c r="E29" s="83" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F29" s="84"/>
     </row>
@@ -36301,7 +36318,7 @@
       <c r="C30" s="80"/>
       <c r="D30" s="80"/>
       <c r="E30" s="83" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F30" s="84"/>
     </row>
@@ -36323,7 +36340,7 @@
       <c r="C32" s="80"/>
       <c r="D32" s="80"/>
       <c r="E32" s="83" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F32" s="84"/>
     </row>
@@ -36336,10 +36353,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="80" t="s">
+        <v>770</v>
+      </c>
+      <c r="E33" s="83" t="s">
         <v>771</v>
-      </c>
-      <c r="E33" s="83" t="s">
-        <v>772</v>
       </c>
       <c r="F33" s="84"/>
     </row>
@@ -36361,7 +36378,7 @@
       <c r="C35" s="80"/>
       <c r="D35" s="80"/>
       <c r="E35" s="83" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F35" s="84"/>
     </row>
@@ -36385,7 +36402,7 @@
       </c>
       <c r="D37" s="80"/>
       <c r="E37" s="83" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F37" s="84"/>
     </row>
@@ -36398,10 +36415,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="80" t="s">
+        <v>774</v>
+      </c>
+      <c r="E38" s="83" t="s">
         <v>775</v>
-      </c>
-      <c r="E38" s="83" t="s">
-        <v>776</v>
       </c>
       <c r="F38" s="84"/>
     </row>
@@ -36414,10 +36431,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="80" t="s">
+        <v>776</v>
+      </c>
+      <c r="E39" s="83" t="s">
         <v>777</v>
-      </c>
-      <c r="E39" s="83" t="s">
-        <v>778</v>
       </c>
       <c r="F39" s="84"/>
     </row>
@@ -36430,7 +36447,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="80" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F40" s="84"/>
     </row>
@@ -36442,7 +36459,7 @@
       <c r="C41" s="80"/>
       <c r="D41" s="80"/>
       <c r="E41" s="83" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F41" s="84"/>
     </row>
@@ -36454,7 +36471,7 @@
       <c r="C42" s="80"/>
       <c r="D42" s="80"/>
       <c r="E42" s="83" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F42" s="84"/>
     </row>
@@ -36465,10 +36482,10 @@
       <c r="B43" s="80"/>
       <c r="C43" s="80"/>
       <c r="D43" s="80" t="s">
+        <v>781</v>
+      </c>
+      <c r="E43" s="83" t="s">
         <v>782</v>
-      </c>
-      <c r="E43" s="83" t="s">
-        <v>783</v>
       </c>
       <c r="F43" s="84"/>
     </row>
@@ -36490,7 +36507,7 @@
       <c r="C45" s="80"/>
       <c r="D45" s="80"/>
       <c r="E45" s="83" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F45" s="84"/>
     </row>
@@ -36504,7 +36521,7 @@
       </c>
       <c r="D46" s="80"/>
       <c r="E46" s="83" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F46" s="84"/>
     </row>
@@ -36538,7 +36555,7 @@
       </c>
       <c r="D49" s="80"/>
       <c r="E49" s="83" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F49" s="84"/>
     </row>
@@ -36552,7 +36569,7 @@
       </c>
       <c r="D50" s="80"/>
       <c r="E50" s="83" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F50" s="84"/>
     </row>
@@ -36566,7 +36583,7 @@
       </c>
       <c r="D51" s="80"/>
       <c r="E51" s="83" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F51" s="84"/>
     </row>
@@ -36620,7 +36637,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30">
@@ -36631,11 +36648,11 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -36648,7 +36665,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="28"/>
       <c r="G3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -36690,14 +36707,14 @@
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>428</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>429</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="72" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45">
@@ -36709,10 +36726,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>431</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>432</v>
       </c>
       <c r="F8" s="28"/>
     </row>
@@ -36722,13 +36739,13 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F9" s="28"/>
     </row>
@@ -36738,17 +36755,17 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>434</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>435</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="85" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="90">
@@ -36760,14 +36777,14 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>598</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>599</v>
       </c>
       <c r="F11" s="28"/>
       <c r="H11" s="85" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -36790,11 +36807,11 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30">
@@ -36807,11 +36824,11 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -36834,7 +36851,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F16" s="28"/>
     </row>
@@ -36866,7 +36883,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F19" s="28"/>
     </row>
@@ -36880,7 +36897,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F20" s="28"/>
     </row>
@@ -36914,11 +36931,11 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45">
@@ -36929,11 +36946,11 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="60">
@@ -36946,7 +36963,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F25" s="28"/>
     </row>
@@ -36960,7 +36977,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F26" s="28"/>
     </row>
@@ -36992,7 +37009,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F29" s="28"/>
     </row>
@@ -37006,7 +37023,7 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F30" s="28"/>
     </row>
@@ -37030,7 +37047,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F32" s="28"/>
     </row>
@@ -37054,7 +37071,7 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F34" s="28"/>
     </row>
@@ -37068,7 +37085,7 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F35" s="28"/>
     </row>
@@ -37082,7 +37099,7 @@
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F36" s="28"/>
     </row>
@@ -37116,7 +37133,7 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F39" s="28"/>
     </row>
@@ -37198,7 +37215,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F47" s="28"/>
     </row>
@@ -37209,7 +37226,7 @@
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="28"/>
@@ -37224,7 +37241,7 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F49" s="28"/>
     </row>
@@ -37244,11 +37261,11 @@
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F51" s="28"/>
     </row>
@@ -37300,7 +37317,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
@@ -37314,10 +37331,10 @@
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="F2" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H2" s="24"/>
     </row>
@@ -37336,10 +37353,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H3" s="24"/>
     </row>
@@ -37393,7 +37410,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="24"/>
@@ -37407,16 +37424,16 @@
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="24" t="s">
+      <c r="H8" s="24" t="s">
         <v>237</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -37428,13 +37445,13 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -37446,13 +37463,13 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -37465,16 +37482,16 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G11" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="33" t="s">
         <v>241</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -37692,7 +37709,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -37703,7 +37720,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -37716,7 +37733,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -37738,7 +37755,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -37912,7 +37929,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E10" s="27"/>
     </row>
@@ -37997,7 +38014,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -38093,8 +38110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03EE777-7A71-4ABF-B428-9DD9FC79554D}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38125,7 +38142,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
@@ -38138,10 +38155,10 @@
       </c>
       <c r="D2" s="80"/>
       <c r="E2" s="83" t="s">
+        <v>583</v>
+      </c>
+      <c r="F2" s="76" t="s">
         <v>584</v>
-      </c>
-      <c r="F2" s="76" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="90">
@@ -38152,10 +38169,10 @@
       <c r="C3" s="80"/>
       <c r="D3" s="80"/>
       <c r="E3" s="83" t="s">
+        <v>585</v>
+      </c>
+      <c r="F3" s="76" t="s">
         <v>586</v>
-      </c>
-      <c r="F3" s="76" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
@@ -38167,13 +38184,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="80" t="s">
+        <v>587</v>
+      </c>
+      <c r="E4" s="83" t="s">
         <v>588</v>
       </c>
-      <c r="E4" s="83" t="s">
-        <v>589</v>
-      </c>
       <c r="F4" s="85" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -38195,10 +38212,10 @@
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="83" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -38210,7 +38227,7 @@
       <c r="D7" s="80"/>
       <c r="E7" s="83"/>
       <c r="F7" s="90" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G7" s="85"/>
     </row>
@@ -38224,7 +38241,7 @@
       </c>
       <c r="D8" s="80"/>
       <c r="E8" s="83" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F8" s="90"/>
     </row>
@@ -38237,10 +38254,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="80" t="s">
+        <v>592</v>
+      </c>
+      <c r="E9" s="83" t="s">
         <v>593</v>
-      </c>
-      <c r="E9" s="83" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -38681,7 +38698,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -38702,7 +38719,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F3" s="28"/>
     </row>
@@ -38732,13 +38749,13 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>312</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>313</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -38757,11 +38774,11 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F8" s="28"/>
     </row>
@@ -38775,7 +38792,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F9" s="28"/>
     </row>
@@ -38787,7 +38804,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F10" s="28"/>
     </row>
@@ -38797,13 +38814,13 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>309</v>
       </c>
       <c r="F11" s="28"/>
     </row>
@@ -38847,7 +38864,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F15" s="28"/>
     </row>
@@ -38860,7 +38877,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="28"/>
@@ -39019,7 +39036,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
@@ -39032,7 +39049,7 @@
       </c>
       <c r="D2" s="80"/>
       <c r="E2" s="83" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F2" s="84"/>
     </row>
@@ -39046,7 +39063,7 @@
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="83" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F3" s="84"/>
     </row>
@@ -39058,7 +39075,7 @@
       <c r="C4" s="80"/>
       <c r="D4" s="80"/>
       <c r="E4" s="83" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F4" s="84"/>
     </row>
@@ -39072,7 +39089,7 @@
       </c>
       <c r="D5" s="80"/>
       <c r="E5" s="83" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F5" s="84"/>
     </row>
@@ -39096,7 +39113,7 @@
       </c>
       <c r="D7" s="80"/>
       <c r="E7" s="79" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F7" s="84"/>
     </row>
@@ -39110,7 +39127,7 @@
       </c>
       <c r="D8" s="80"/>
       <c r="E8" s="83" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F8" s="84"/>
     </row>
@@ -39124,7 +39141,7 @@
       </c>
       <c r="D9" s="80"/>
       <c r="E9" s="83" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F9" s="84"/>
     </row>
@@ -39177,7 +39194,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="80" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F14" s="84"/>
     </row>
@@ -39198,7 +39215,7 @@
       <c r="C16" s="80"/>
       <c r="D16" s="80"/>
       <c r="E16" s="83" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F16" s="84"/>
     </row>
@@ -39210,7 +39227,7 @@
       <c r="C17" s="80"/>
       <c r="D17" s="80"/>
       <c r="E17" s="83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F17" s="84"/>
     </row>
@@ -39244,7 +39261,7 @@
       </c>
       <c r="D20" s="80"/>
       <c r="E20" s="83" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F20" s="84"/>
     </row>
@@ -39256,7 +39273,7 @@
       <c r="C21" s="80"/>
       <c r="D21" s="80"/>
       <c r="E21" s="83" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F21" s="84"/>
     </row>
@@ -39300,7 +39317,7 @@
       </c>
       <c r="D25" s="80"/>
       <c r="E25" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F25" s="84"/>
     </row>
@@ -39366,7 +39383,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -39385,13 +39402,13 @@
       </c>
       <c r="B3" s="80"/>
       <c r="C3" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="80" t="s">
+        <v>731</v>
+      </c>
+      <c r="E3" s="83" t="s">
         <v>732</v>
-      </c>
-      <c r="E3" s="83" t="s">
-        <v>733</v>
       </c>
       <c r="F3" s="84"/>
     </row>
@@ -39403,7 +39420,7 @@
       <c r="C4" s="80"/>
       <c r="D4" s="80"/>
       <c r="E4" s="83" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F4" s="84"/>
     </row>
@@ -39415,7 +39432,7 @@
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="83" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F5" s="84"/>
     </row>
@@ -39439,7 +39456,7 @@
       </c>
       <c r="D7" s="80"/>
       <c r="E7" s="79" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F7" s="84"/>
     </row>
@@ -39451,7 +39468,7 @@
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
       <c r="E8" s="83" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F8" s="84"/>
     </row>
@@ -39465,7 +39482,7 @@
       </c>
       <c r="D9" s="80"/>
       <c r="E9" s="83" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F9" s="84"/>
     </row>
@@ -39499,7 +39516,7 @@
       </c>
       <c r="D12" s="80"/>
       <c r="E12" s="83" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F12" s="84"/>
     </row>
@@ -39531,7 +39548,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="80" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F15" s="84"/>
     </row>
@@ -39553,7 +39570,7 @@
       <c r="C17" s="80"/>
       <c r="D17" s="80"/>
       <c r="E17" s="83" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F17" s="84"/>
     </row>
@@ -39565,7 +39582,7 @@
       <c r="C18" s="80"/>
       <c r="D18" s="80"/>
       <c r="E18" s="83" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F18" s="84"/>
     </row>
@@ -39587,7 +39604,7 @@
       <c r="C20" s="80"/>
       <c r="D20" s="80"/>
       <c r="E20" s="83" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F20" s="84"/>
     </row>
@@ -39609,7 +39626,7 @@
       <c r="C22" s="80"/>
       <c r="D22" s="80"/>
       <c r="E22" s="83" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F22" s="84"/>
     </row>
@@ -39706,7 +39723,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
@@ -39717,10 +39734,10 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -39732,7 +39749,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -39762,10 +39779,10 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -39786,7 +39803,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -39798,7 +39815,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -39811,10 +39828,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -39826,7 +39843,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -39837,7 +39854,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
@@ -39851,10 +39868,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F13" s="16"/>
     </row>
@@ -39865,7 +39882,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F14" s="16"/>
     </row>
@@ -39878,16 +39895,16 @@
         <v>4</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45">
@@ -39899,10 +39916,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>297</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>298</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -39914,7 +39931,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -39927,10 +39944,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>294</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>295</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -39942,7 +39959,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F19" s="16"/>
     </row>
@@ -39964,7 +39981,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -39976,7 +39993,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -39989,10 +40006,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>289</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>290</v>
       </c>
       <c r="F23" s="16"/>
     </row>
@@ -40003,10 +40020,10 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F24" s="16"/>
     </row>
@@ -40019,10 +40036,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -40035,13 +40052,13 @@
         <v>4</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -40074,7 +40091,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -40087,337 +40104,347 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="65.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="9.140625" style="79"/>
+    <col min="2" max="2" width="65.85546875" style="79" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="79" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="79" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="79" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="78" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8">
+      <c r="A2" s="80">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:5" ht="409.5">
-      <c r="A3" s="8">
+      <c r="A3" s="80">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="80"/>
     </row>
     <row r="4" spans="1:5" ht="60">
-      <c r="A4" s="8">
+      <c r="A4" s="80">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="80"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8">
+      <c r="A5" s="80">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8">
+      <c r="A6" s="80">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8">
+      <c r="A7" s="80">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="8">
+      <c r="A8" s="80">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="80" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="93" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="80">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="80">
+        <v>9</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+    </row>
+    <row r="11" spans="1:5" ht="165">
+      <c r="A11" s="80">
+        <v>10</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="80">
+        <v>11</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+    </row>
+    <row r="13" spans="1:5" ht="60">
+      <c r="A13" s="80">
+        <v>12</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80" t="s">
+        <v>790</v>
+      </c>
+      <c r="E13" s="80"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="80">
+        <v>13</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="80">
+        <v>14</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="80"/>
+    </row>
+    <row r="16" spans="1:5" ht="90">
+      <c r="A16" s="80">
+        <v>15</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>791</v>
+      </c>
+      <c r="E16" s="80"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="80">
+        <v>16</v>
+      </c>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+    </row>
+    <row r="18" spans="1:5" ht="90">
+      <c r="A18" s="80">
+        <v>17</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="80"/>
+    </row>
+    <row r="19" spans="1:5" ht="30">
+      <c r="A19" s="80">
+        <v>18</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="80"/>
+    </row>
+    <row r="20" spans="1:5" ht="75">
+      <c r="A20" s="80">
+        <v>19</v>
+      </c>
+      <c r="B20" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="165">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="C20" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="80"/>
+    </row>
+    <row r="21" spans="1:5" ht="30">
+      <c r="A21" s="80">
+        <v>20</v>
+      </c>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="90">
+      <c r="A22" s="80">
+        <v>21</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="80"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="80">
         <v>22</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="B23" s="80"/>
+      <c r="C23" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="80" t="s">
+        <v>792</v>
+      </c>
+      <c r="E23" s="80"/>
+    </row>
+    <row r="24" spans="1:5" ht="75">
+      <c r="A24" s="80">
         <v>23</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="B24" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="60">
+      <c r="A25" s="80">
         <v>24</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="B25" s="80"/>
+      <c r="C25" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="80">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="90">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="30">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="75">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="90">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="75">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C28" xr:uid="{527BEA14-3279-4F17-AA9E-BD8564CDD3E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C28" xr:uid="{C431A6A7-2546-456B-BF6A-486130D8167B}">
       <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
     </dataValidation>
   </dataValidations>
@@ -40452,15 +40479,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
@@ -40484,7 +40511,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>1</v>
@@ -40504,19 +40531,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>4</v>
@@ -40533,10 +40560,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>4</v>
@@ -40550,20 +40577,20 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="60">
@@ -40574,26 +40601,26 @@
         <v>23</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="H6" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30">
@@ -40604,23 +40631,23 @@
         <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="75">
@@ -40631,12 +40658,12 @@
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="H8" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="93" customHeight="1">
@@ -40644,26 +40671,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -40675,10 +40702,10 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="H10" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -40690,7 +40717,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="H11" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="90">
@@ -40701,25 +40728,25 @@
         <v>4</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -40731,10 +40758,10 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="H13" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30">
@@ -40745,18 +40772,18 @@
         <v>23</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="H14" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -40768,7 +40795,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="H15" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -40780,7 +40807,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="H16" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="60">
@@ -40792,13 +40819,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="H17" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="45">
@@ -40809,28 +40836,28 @@
         <v>23</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -40841,14 +40868,14 @@
         <v>23</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="8"/>
       <c r="H19" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="45">
@@ -40860,13 +40887,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="H20" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45">
@@ -40878,11 +40905,11 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="8"/>
       <c r="H21" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="240">
@@ -40893,19 +40920,19 @@
         <v>4</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30">
@@ -40919,19 +40946,19 @@
         <v>23</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30">
@@ -40943,16 +40970,16 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -40964,7 +40991,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="H25" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45">
@@ -40975,19 +41002,19 @@
         <v>4</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -40998,10 +41025,10 @@
         <v>4</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="45">
@@ -41012,19 +41039,19 @@
         <v>4</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>4</v>
@@ -41035,7 +41062,7 @@
         <v>27</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -41043,7 +41070,7 @@
         <v>28</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -41051,7 +41078,7 @@
         <v>29</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="45">
@@ -41059,16 +41086,16 @@
         <v>30</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="75">
@@ -41079,16 +41106,16 @@
         <v>4</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30">
@@ -41096,10 +41123,10 @@
         <v>32</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="75">
@@ -41107,16 +41134,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -41127,10 +41154,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30">
@@ -41141,13 +41168,13 @@
         <v>4</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="75">
@@ -41158,25 +41185,25 @@
         <v>4</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="120">
@@ -41187,13 +41214,13 @@
         <v>4</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="195">
@@ -41204,13 +41231,13 @@
         <v>4</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -41218,7 +41245,7 @@
         <v>39</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -41226,10 +41253,10 @@
         <v>40</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="60">
@@ -41240,16 +41267,16 @@
         <v>4</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="105">
@@ -41260,19 +41287,19 @@
         <v>4</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="60">
@@ -41283,10 +41310,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="60">
@@ -41297,16 +41324,16 @@
         <v>4</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>4</v>
@@ -41320,10 +41347,10 @@
         <v>4</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="60">
@@ -41334,13 +41361,13 @@
         <v>4</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -41348,7 +41375,7 @@
         <v>47</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="45">
@@ -41359,16 +41386,16 @@
         <v>4</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H50" s="11"/>
     </row>
@@ -41377,7 +41404,7 @@
         <v>49</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -41461,7 +41488,7 @@
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F2" s="36"/>
       <c r="G2" s="37">
@@ -41471,10 +41498,10 @@
         <v>4</v>
       </c>
       <c r="I2" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" s="36" t="s">
         <v>244</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1">
@@ -41518,7 +41545,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="32"/>
@@ -41529,10 +41556,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="J5" s="32" t="s">
         <v>246</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51.75" thickBot="1">
@@ -41552,7 +41579,7 @@
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="204.75" thickBot="1">
@@ -41571,10 +41598,10 @@
         <v>4</v>
       </c>
       <c r="I7" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J7" s="32" t="s">
         <v>249</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45.75" thickBot="1">
@@ -41614,13 +41641,13 @@
         <v>8</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="J9" s="32" t="s">
         <v>251</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="39" thickBot="1">
@@ -41636,10 +41663,10 @@
         <v>9</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -41678,7 +41705,7 @@
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="157.5" thickBot="1">
@@ -41691,7 +41718,7 @@
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="40">
@@ -41702,7 +41729,7 @@
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1">
@@ -41747,20 +41774,20 @@
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="43">
         <v>15</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1">
@@ -41844,7 +41871,7 @@
       </c>
       <c r="I21" s="32"/>
       <c r="J21" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
@@ -41856,7 +41883,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E22" s="42"/>
       <c r="F22" s="30"/>
@@ -41896,13 +41923,13 @@
         <v>23</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="51.75" thickBot="1">
@@ -41914,7 +41941,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="32"/>
@@ -41926,7 +41953,7 @@
       </c>
       <c r="I25" s="32"/>
       <c r="J25" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
@@ -41954,7 +41981,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="32"/>
@@ -41965,7 +41992,7 @@
         <v>4</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J27" s="32"/>
     </row>
@@ -41978,7 +42005,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E28" s="42"/>
       <c r="F28" s="30"/>
@@ -41989,10 +42016,10 @@
         <v>4</v>
       </c>
       <c r="I28" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" s="30" t="s">
         <v>265</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="204.75" thickBot="1">
@@ -42005,7 +42032,7 @@
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="40">
@@ -42015,10 +42042,10 @@
         <v>4</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="255.75" thickBot="1">
@@ -42035,10 +42062,10 @@
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="J30" s="30" t="s">
         <v>269</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1">
@@ -42075,10 +42102,10 @@
         <v>4</v>
       </c>
       <c r="I32" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J32" s="30" t="s">
         <v>271</v>
-      </c>
-      <c r="J32" s="30" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1">
@@ -42107,7 +42134,7 @@
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="43">
@@ -42159,7 +42186,7 @@
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="40">
@@ -42177,7 +42204,7 @@
       <c r="C38" s="29"/>
       <c r="D38" s="30"/>
       <c r="E38" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="43">
@@ -42197,7 +42224,7 @@
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="40">
@@ -42216,10 +42243,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="E40" s="30" t="s">
         <v>277</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>278</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="43">
@@ -42271,7 +42298,7 @@
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="40">
@@ -42281,10 +42308,10 @@
         <v>4</v>
       </c>
       <c r="I43" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="J43" s="32" t="s">
         <v>280</v>
-      </c>
-      <c r="J43" s="32" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="39" thickBot="1">
@@ -42303,10 +42330,10 @@
         <v>4</v>
       </c>
       <c r="I44" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="J44" s="30" t="s">
         <v>282</v>
-      </c>
-      <c r="J44" s="30" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1">
@@ -42367,7 +42394,7 @@
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="43">
@@ -42403,7 +42430,7 @@
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="43">
@@ -42419,10 +42446,10 @@
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>
@@ -42473,7 +42500,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.75" thickBot="1">
@@ -42485,11 +42512,11 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.25" thickBot="1">
@@ -42501,10 +42528,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>176</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>177</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -42517,10 +42544,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>179</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -42533,10 +42560,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>180</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>181</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -42550,7 +42577,7 @@
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -42574,7 +42601,7 @@
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -42588,7 +42615,7 @@
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -42602,7 +42629,7 @@
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -42616,7 +42643,7 @@
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -42630,7 +42657,7 @@
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -42763,7 +42790,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="15"/>
       <c r="F25" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -42775,7 +42802,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="15"/>
       <c r="F26" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -42787,7 +42814,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="15"/>
       <c r="F27" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -42799,7 +42826,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -42811,7 +42838,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="15"/>
       <c r="F29" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -42825,7 +42852,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -42837,7 +42864,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="15"/>
       <c r="F31" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -42849,7 +42876,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="15"/>
       <c r="F32" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30">
@@ -42861,13 +42888,13 @@
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>189</v>
-      </c>
       <c r="F33" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -42878,10 +42905,10 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -42893,7 +42920,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="60">
@@ -42905,11 +42932,11 @@
         <v>4</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30">
@@ -42921,13 +42948,13 @@
         <v>4</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>193</v>
-      </c>
       <c r="F37" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30">
@@ -42940,10 +42967,10 @@
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -42955,7 +42982,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30">
@@ -42968,10 +42995,10 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="45">
@@ -42984,10 +43011,10 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30">
@@ -43000,7 +43027,7 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F42" s="16"/>
     </row>
@@ -43013,13 +43040,13 @@
         <v>23</v>
       </c>
       <c r="D43" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>199</v>
-      </c>
       <c r="F43" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -43062,7 +43089,7 @@
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F47" s="16"/>
     </row>
@@ -43073,10 +43100,10 @@
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="F48" s="16"/>
     </row>
@@ -43089,13 +43116,13 @@
         <v>4</v>
       </c>
       <c r="D49" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E49" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="F49" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30">
@@ -43108,7 +43135,7 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F50" s="16"/>
     </row>
@@ -43121,7 +43148,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -43174,7 +43201,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -43206,14 +43233,14 @@
         <v>4</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E4" s="83" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F4" s="84"/>
       <c r="G4" s="79" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="75">
@@ -43224,11 +43251,11 @@
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="83" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F5" s="84"/>
       <c r="G5" s="79" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
@@ -43241,7 +43268,7 @@
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="83" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F6" s="84"/>
     </row>
@@ -43265,7 +43292,7 @@
       </c>
       <c r="D8" s="80"/>
       <c r="E8" s="83" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F8" s="84"/>
     </row>
@@ -43279,7 +43306,7 @@
       </c>
       <c r="D9" s="80"/>
       <c r="E9" s="83" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F9" s="84"/>
     </row>
@@ -43290,10 +43317,10 @@
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
       <c r="D10" s="80" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F10" s="84"/>
     </row>
@@ -43305,7 +43332,7 @@
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
       <c r="E11" s="83" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F11" s="84"/>
     </row>
@@ -43319,7 +43346,7 @@
       </c>
       <c r="D12" s="80"/>
       <c r="E12" s="83" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F12" s="84"/>
     </row>
@@ -43331,7 +43358,7 @@
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
       <c r="E13" s="83" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F13" s="84"/>
     </row>
@@ -43352,7 +43379,7 @@
       <c r="C15" s="80"/>
       <c r="D15" s="80"/>
       <c r="E15" s="83" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F15" s="84"/>
     </row>
@@ -43366,7 +43393,7 @@
       </c>
       <c r="D16" s="80"/>
       <c r="E16" s="83" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F16" s="84"/>
     </row>
@@ -43380,7 +43407,7 @@
       </c>
       <c r="D17" s="80"/>
       <c r="E17" s="83" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F17" s="84"/>
     </row>
@@ -43414,7 +43441,7 @@
       </c>
       <c r="D20" s="80"/>
       <c r="E20" s="83" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F20" s="84"/>
     </row>
@@ -43428,7 +43455,7 @@
       </c>
       <c r="D21" s="80"/>
       <c r="E21" s="83" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F21" s="84"/>
     </row>
@@ -43440,7 +43467,7 @@
       <c r="C22" s="80"/>
       <c r="D22" s="80"/>
       <c r="E22" s="83" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F22" s="84"/>
     </row>
@@ -43474,7 +43501,7 @@
       </c>
       <c r="D25" s="80"/>
       <c r="E25" s="83" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F25" s="84"/>
     </row>
@@ -43516,7 +43543,7 @@
       <c r="C29" s="80"/>
       <c r="D29" s="80"/>
       <c r="E29" s="83" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F29" s="84"/>
     </row>
@@ -43528,7 +43555,7 @@
       <c r="C30" s="80"/>
       <c r="D30" s="80"/>
       <c r="E30" s="83" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F30" s="84"/>
     </row>
@@ -43542,7 +43569,7 @@
       </c>
       <c r="D31" s="80"/>
       <c r="E31" s="83" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F31" s="84"/>
     </row>
@@ -43554,7 +43581,7 @@
       <c r="C32" s="80"/>
       <c r="D32" s="80"/>
       <c r="E32" s="83" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F32" s="84"/>
     </row>
@@ -43568,7 +43595,7 @@
       </c>
       <c r="D33" s="80"/>
       <c r="E33" s="83" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F33" s="84"/>
     </row>
@@ -43582,7 +43609,7 @@
       <c r="E34" s="83"/>
       <c r="F34" s="84"/>
       <c r="G34" s="79" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -43605,7 +43632,7 @@
       </c>
       <c r="D36" s="80"/>
       <c r="E36" s="83" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F36" s="84"/>
     </row>
@@ -43617,7 +43644,7 @@
       <c r="C37" s="80"/>
       <c r="D37" s="80"/>
       <c r="E37" s="83" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F37" s="84"/>
     </row>
@@ -43631,7 +43658,7 @@
       </c>
       <c r="D38" s="80"/>
       <c r="E38" s="83" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F38" s="84"/>
     </row>
@@ -43655,7 +43682,7 @@
       </c>
       <c r="D40" s="80"/>
       <c r="E40" s="83" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F40" s="84"/>
     </row>
@@ -43669,7 +43696,7 @@
       </c>
       <c r="D41" s="80"/>
       <c r="E41" s="83" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F41" s="84"/>
     </row>
@@ -43683,7 +43710,7 @@
       </c>
       <c r="D42" s="80"/>
       <c r="E42" s="83" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F42" s="84"/>
     </row>
@@ -43695,7 +43722,7 @@
       <c r="C43" s="80"/>
       <c r="D43" s="80"/>
       <c r="E43" s="83" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F43" s="84"/>
     </row>
@@ -43709,7 +43736,7 @@
       </c>
       <c r="D44" s="80"/>
       <c r="E44" s="83" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F44" s="84"/>
     </row>
@@ -43733,7 +43760,7 @@
       </c>
       <c r="D46" s="80"/>
       <c r="E46" s="83" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F46" s="84"/>
     </row>
@@ -43745,7 +43772,7 @@
       <c r="C47" s="80"/>
       <c r="D47" s="80"/>
       <c r="E47" s="83" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F47" s="84"/>
     </row>
@@ -43759,7 +43786,7 @@
       </c>
       <c r="D48" s="80"/>
       <c r="E48" s="83" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F48" s="84"/>
     </row>
@@ -43772,7 +43799,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="80" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E49" s="83"/>
       <c r="F49" s="84"/>
@@ -43787,7 +43814,7 @@
       </c>
       <c r="D50" s="80"/>
       <c r="E50" s="83" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F50" s="84"/>
     </row>
@@ -43863,7 +43890,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -43884,10 +43911,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -43907,7 +43934,7 @@
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -43919,10 +43946,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -43935,7 +43962,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60">
@@ -43948,7 +43975,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -43961,7 +43988,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -44017,7 +44044,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -44029,7 +44056,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="15"/>
       <c r="F2" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -44041,7 +44068,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="105">
@@ -44052,7 +44079,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -44065,7 +44092,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
@@ -44089,10 +44116,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -44106,7 +44133,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -44120,7 +44147,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -44133,10 +44160,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -44159,10 +44186,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -44175,10 +44202,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>416</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>417</v>
       </c>
       <c r="F13" s="16"/>
     </row>
@@ -44210,10 +44237,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>418</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>419</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -44224,10 +44251,10 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>420</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>421</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -44241,7 +44268,7 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -44255,7 +44282,7 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F19" s="16"/>
     </row>
@@ -44267,7 +44294,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -44279,7 +44306,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -44303,7 +44330,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F23" s="16"/>
     </row>
@@ -44316,10 +44343,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>332</v>
       </c>
       <c r="F24" s="16"/>
     </row>
@@ -44332,10 +44359,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -44347,7 +44374,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F26" s="16"/>
     </row>
@@ -44360,13 +44387,13 @@
         <v>4</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>327</v>
-      </c>
       <c r="F27" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="60">
@@ -44377,7 +44404,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -44389,7 +44416,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -44403,7 +44430,7 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -44415,10 +44442,10 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45">
@@ -44430,13 +44457,13 @@
         <v>4</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>321</v>
-      </c>
       <c r="F32" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -44457,7 +44484,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F34" s="16"/>
     </row>
@@ -44469,7 +44496,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F35" s="16"/>
     </row>
@@ -44482,10 +44509,10 @@
         <v>4</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F36" s="16"/>
     </row>
@@ -44499,10 +44526,10 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30">
@@ -44513,7 +44540,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F38" s="16"/>
     </row>
@@ -44547,7 +44574,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F41" s="16"/>
     </row>
@@ -44569,7 +44596,7 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F43" s="16"/>
     </row>
@@ -44581,7 +44608,7 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F44" s="16"/>
     </row>
@@ -44605,7 +44632,7 @@
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F46" s="16"/>
     </row>
@@ -44629,7 +44656,7 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F48" s="16"/>
     </row>
@@ -44693,154 +44720,154 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="116" t="s">
-        <v>215</v>
-      </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="118"/>
+        <v>125</v>
+      </c>
+      <c r="B1" s="113" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="115"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="116" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+        <v>127</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="115"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="116" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="118"/>
+        <v>129</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="115"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="116" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="118"/>
+        <v>131</v>
+      </c>
+      <c r="B4" s="113" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="115"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="116" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="118"/>
+        <v>133</v>
+      </c>
+      <c r="B5" s="113" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
+        <v>135</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="115"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="116" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118"/>
+        <v>137</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="115"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="116" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="118"/>
+        <v>139</v>
+      </c>
+      <c r="B8" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="115"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="119" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="121"/>
+      <c r="B9" s="116" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -44869,233 +44896,227 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="113" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="116" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="118"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="115"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="116" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="115"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="116" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="118"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="115"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="116" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="118"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="115"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="116" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="118"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="116" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="115"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="116" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="115"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="116" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="118"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="115"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="116" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="118"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="115"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="116" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="118"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="115"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="116" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="118"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="115"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="116" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="118"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="115"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="116" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="118"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -45103,6 +45124,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45119,122 +45146,122 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="116" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="118"/>
+        <v>125</v>
+      </c>
+      <c r="B1" s="113" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="115"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="116" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+        <v>127</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="115"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="116" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="118"/>
+        <v>129</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="115"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="116" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="118"/>
+        <v>131</v>
+      </c>
+      <c r="B4" s="113" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="115"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="116" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="118"/>
+        <v>133</v>
+      </c>
+      <c r="B5" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="116" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
+        <v>135</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="115"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="116" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118"/>
+        <v>137</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -45264,122 +45291,122 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="116" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="118"/>
+        <v>125</v>
+      </c>
+      <c r="B1" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="115"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="116" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+        <v>127</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="115"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="116" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="118"/>
+        <v>129</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="115"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="116" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="118"/>
+        <v>131</v>
+      </c>
+      <c r="B4" s="113" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="115"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="116" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="118"/>
+        <v>133</v>
+      </c>
+      <c r="B5" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="116" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
+        <v>135</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="115"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="116" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118"/>
+        <v>137</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -45409,137 +45436,137 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="116" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="118"/>
+        <v>125</v>
+      </c>
+      <c r="B1" s="113" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="115"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="116" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+        <v>127</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="115"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="116" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="118"/>
+        <v>129</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="115"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="116" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="118"/>
+        <v>131</v>
+      </c>
+      <c r="B4" s="113" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="115"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="116" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="118"/>
+        <v>133</v>
+      </c>
+      <c r="B5" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="116" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
+        <v>135</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="115"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="116" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118"/>
+        <v>137</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="115"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="119" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="121"/>
+      <c r="B8" s="116" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -45624,16 +45651,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="180">
@@ -45641,16 +45668,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -45890,8 +45917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E23C0DE-7C2A-4965-86C8-62DEFBCE1853}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45929,7 +45956,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -45950,10 +45977,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
@@ -45964,7 +45991,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
@@ -45977,7 +46004,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -45990,7 +46017,7 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -46001,21 +46028,21 @@
       <c r="C8" s="27"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45">
       <c r="A9" s="27">
         <v>8</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="27" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="E9" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60">
       <c r="A10" s="27">
         <v>9</v>
       </c>
@@ -46024,11 +46051,11 @@
         <v>4</v>
       </c>
       <c r="D10" s="27"/>
-      <c r="E10" s="27" t="s">
-        <v>572</v>
+      <c r="E10" s="4" t="s">
+        <v>571</v>
       </c>
       <c r="F10" s="76" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -46038,9 +46065,11 @@
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27" t="s">
-        <v>570</v>
-      </c>
-      <c r="E11" s="27"/>
+        <v>569</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>794</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -46065,7 +46094,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -46116,7 +46145,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -46138,7 +46167,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90">
@@ -46151,7 +46180,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -46173,7 +46202,7 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -46186,7 +46215,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -46216,10 +46245,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>690</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -46275,7 +46304,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -46286,7 +46315,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -46344,7 +46373,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -46357,7 +46386,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -46370,7 +46399,7 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -46428,7 +46457,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -46441,7 +46470,7 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -46454,7 +46483,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -46467,7 +46496,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
@@ -46480,10 +46509,10 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="F6" s="76" t="s">
         <v>559</v>
-      </c>
-      <c r="F6" s="76" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -46496,10 +46525,10 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F7" s="76" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="120">
@@ -46512,7 +46541,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -46541,7 +46570,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -46590,7 +46619,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -46604,7 +46633,7 @@
       <c r="D2" s="80"/>
       <c r="E2" s="83"/>
       <c r="F2" s="76" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
@@ -46617,10 +46646,10 @@
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="83" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F3" s="76" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -46630,11 +46659,11 @@
       <c r="B4" s="80"/>
       <c r="C4" s="80"/>
       <c r="D4" s="80" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E4" s="83"/>
       <c r="F4" s="76" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -46646,7 +46675,7 @@
       <c r="D5" s="80"/>
       <c r="E5" s="83"/>
       <c r="F5" s="76" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -46657,10 +46686,10 @@
       <c r="C6" s="80"/>
       <c r="D6" s="80"/>
       <c r="E6" s="83" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F6" s="76" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -46672,7 +46701,7 @@
       <c r="D7" s="80"/>
       <c r="E7" s="83"/>
       <c r="F7" s="76" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G7" s="85"/>
     </row>
@@ -46685,7 +46714,7 @@
       <c r="D8" s="80"/>
       <c r="E8" s="83"/>
       <c r="F8" s="90" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -46706,11 +46735,11 @@
         <v>4</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E10" s="83"/>
       <c r="F10" s="90" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G10" s="85"/>
     </row>
@@ -46723,7 +46752,7 @@
       <c r="D11" s="80"/>
       <c r="E11" s="83"/>
       <c r="F11" s="90" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -46735,13 +46764,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="80" t="s">
+        <v>530</v>
+      </c>
+      <c r="E12" s="83" t="s">
         <v>531</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="F12" s="85" t="s">
         <v>532</v>
-      </c>
-      <c r="F12" s="85" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -46755,7 +46784,7 @@
       <c r="D13" s="80"/>
       <c r="E13" s="83"/>
       <c r="F13" s="90" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -46767,7 +46796,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="79" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E14" s="83"/>
     </row>
@@ -46782,7 +46811,7 @@
       <c r="D15" s="80"/>
       <c r="E15" s="83"/>
       <c r="F15" s="90" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -46796,7 +46825,7 @@
       <c r="D16" s="80"/>
       <c r="E16" s="83"/>
       <c r="F16" s="90" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -46809,7 +46838,7 @@
       </c>
       <c r="D17" s="80"/>
       <c r="E17" s="83" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -46822,10 +46851,10 @@
       </c>
       <c r="D18" s="80"/>
       <c r="E18" s="83" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F18" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -46837,7 +46866,7 @@
       <c r="D19" s="80"/>
       <c r="E19" s="83"/>
       <c r="F19" s="91" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -46849,7 +46878,7 @@
       <c r="D20" s="80"/>
       <c r="E20" s="83"/>
       <c r="F20" s="76" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -46861,11 +46890,11 @@
         <v>4</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E21" s="83"/>
       <c r="F21" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -46879,7 +46908,7 @@
       <c r="D22" s="80"/>
       <c r="E22" s="83"/>
       <c r="F22" s="76" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30">
@@ -46890,10 +46919,10 @@
       <c r="C23" s="80"/>
       <c r="D23" s="80"/>
       <c r="E23" s="83" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F23" s="76" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -46905,7 +46934,7 @@
       <c r="D24" s="80"/>
       <c r="E24" s="83"/>
       <c r="F24" s="76" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -47199,7 +47228,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="240">
@@ -47212,7 +47241,7 @@
       </c>
       <c r="D2" s="80"/>
       <c r="E2" s="83" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -47234,7 +47263,7 @@
       </c>
       <c r="D4" s="80"/>
       <c r="E4" s="83" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -47265,7 +47294,7 @@
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
       <c r="E7" s="83" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G7" s="85"/>
     </row>
@@ -47277,7 +47306,7 @@
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
       <c r="E8" s="83" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
@@ -47289,10 +47318,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E9" s="83" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -47303,7 +47332,7 @@
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
       <c r="E10" s="83" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G10" s="85"/>
     </row>
@@ -47334,10 +47363,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="80" t="s">
+        <v>677</v>
+      </c>
+      <c r="E13" s="83" t="s">
         <v>678</v>
-      </c>
-      <c r="E13" s="83" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -47358,10 +47387,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="80" t="s">
+        <v>679</v>
+      </c>
+      <c r="E15" s="83" t="s">
         <v>680</v>
-      </c>
-      <c r="E15" s="83" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
@@ -47374,7 +47403,7 @@
       </c>
       <c r="D16" s="80"/>
       <c r="E16" s="83" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -47401,11 +47430,11 @@
       </c>
       <c r="B19" s="80"/>
       <c r="C19" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="80"/>
       <c r="E19" s="83" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -47418,7 +47447,7 @@
       </c>
       <c r="D20" s="80"/>
       <c r="E20" s="83" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -47431,7 +47460,7 @@
       </c>
       <c r="D21" s="80"/>
       <c r="E21" s="83" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -47444,7 +47473,7 @@
       </c>
       <c r="D22" s="80"/>
       <c r="E22" s="83" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -47483,7 +47512,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="80" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E26" s="83"/>
     </row>
@@ -47505,10 +47534,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E28" s="83" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -47530,7 +47559,7 @@
       </c>
       <c r="D30" s="80"/>
       <c r="E30" s="83" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -47542,10 +47571,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="E31" s="83" t="s">
         <v>511</v>
-      </c>
-      <c r="E31" s="83" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -47568,10 +47597,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="E33" s="83" t="s">
         <v>513</v>
-      </c>
-      <c r="E33" s="83" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -47611,7 +47640,7 @@
       </c>
       <c r="D37" s="80"/>
       <c r="E37" s="83" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -47624,7 +47653,7 @@
       </c>
       <c r="D38" s="80"/>
       <c r="E38" s="83" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -47661,7 +47690,7 @@
       <c r="B42" s="80"/>
       <c r="C42" s="80"/>
       <c r="D42" s="80" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E42" s="83"/>
     </row>
@@ -47692,10 +47721,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E45" s="83" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30">
@@ -47708,7 +47737,7 @@
       </c>
       <c r="D46" s="80"/>
       <c r="E46" s="83" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="105">
@@ -47720,10 +47749,10 @@
         <v>4</v>
       </c>
       <c r="D47" s="80" t="s">
+        <v>458</v>
+      </c>
+      <c r="E47" s="83" t="s">
         <v>459</v>
-      </c>
-      <c r="E47" s="83" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -47734,7 +47763,7 @@
       <c r="C48" s="80"/>
       <c r="D48" s="80"/>
       <c r="E48" s="83" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -47756,7 +47785,7 @@
       </c>
       <c r="D50" s="80"/>
       <c r="E50" s="83" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="75">
@@ -47767,7 +47796,7 @@
       <c r="C51" s="80"/>
       <c r="D51" s="80"/>
       <c r="E51" s="83" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A88EDB4-DFD1-4578-822D-D4C529214A42}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F79B3F-361A-404A-BD81-1B2CCBF05870}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" activeTab="1" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="822">
   <si>
     <t>No</t>
   </si>
@@ -2708,6 +2708,12 @@
   </si>
   <si>
     <t xml:space="preserve">thuộc process develop charter. </t>
+  </si>
+  <si>
+    <t>Data on status of deliverables progress là 1 phần của work performance information and not work performance data</t>
+  </si>
+  <si>
+    <t>control procurement process</t>
   </si>
 </sst>
 </file>
@@ -3395,10 +3401,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3407,6 +3409,14 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3425,10 +3435,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4326,10 +4332,10 @@
       <c r="A15" s="93" t="s">
         <v>371</v>
       </c>
-      <c r="B15" s="109">
+      <c r="B15" s="107">
         <v>43473</v>
       </c>
-      <c r="C15" s="109" t="str">
+      <c r="C15" s="107" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -4368,8 +4374,8 @@
       <c r="A16" s="93" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4405,8 +4411,8 @@
       <c r="A17" s="93" t="s">
         <v>360</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4523,11 +4529,11 @@
       <c r="A20" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="B20" s="109">
+      <c r="B20" s="107">
         <f>B19+1</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="109" t="str">
+      <c r="C20" s="107" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -4566,8 +4572,8 @@
       <c r="A21" s="93" t="s">
         <v>361</v>
       </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
       <c r="D21" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4604,8 +4610,8 @@
       <c r="A22" s="93" t="s">
         <v>362</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4726,11 +4732,11 @@
       <c r="A25" s="105" t="s">
         <v>373</v>
       </c>
-      <c r="B25" s="111">
+      <c r="B25" s="109">
         <f>B24+1</f>
         <v>43481</v>
       </c>
-      <c r="C25" s="111" t="str">
+      <c r="C25" s="109" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 4</v>
       </c>
@@ -4770,8 +4776,8 @@
       <c r="A26" s="103" t="s">
         <v>363</v>
       </c>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
       <c r="D26" s="73">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4806,8 +4812,8 @@
       <c r="A27" s="93" t="s">
         <v>364</v>
       </c>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
       <c r="D27" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5001,11 +5007,11 @@
       <c r="A32" s="94" t="s">
         <v>366</v>
       </c>
-      <c r="B32" s="119">
+      <c r="B32" s="113">
         <f>B31+1</f>
         <v>43484</v>
       </c>
-      <c r="C32" s="119" t="str">
+      <c r="C32" s="113" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
@@ -5041,8 +5047,8 @@
       <c r="A33" s="94" t="s">
         <v>403</v>
       </c>
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
       <c r="D33" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5075,8 +5081,8 @@
       <c r="A34" s="94" t="s">
         <v>404</v>
       </c>
-      <c r="B34" s="120"/>
-      <c r="C34" s="120"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
       <c r="D34" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5193,11 +5199,11 @@
       <c r="A37" s="71" t="s">
         <v>368</v>
       </c>
-      <c r="B37" s="107">
+      <c r="B37" s="111">
         <f>B36+1</f>
         <v>43486</v>
       </c>
-      <c r="C37" s="107" t="str">
+      <c r="C37" s="111" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 2</v>
       </c>
@@ -5234,8 +5240,8 @@
       <c r="A38" s="71" t="s">
         <v>405</v>
       </c>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="112"/>
       <c r="D38" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5263,8 +5269,8 @@
       <c r="A39" s="71" t="s">
         <v>406</v>
       </c>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
       <c r="D39" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5362,11 +5368,11 @@
       <c r="A42" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="B42" s="107">
+      <c r="B42" s="111">
         <f>B36+3</f>
         <v>43488</v>
       </c>
-      <c r="C42" s="107" t="str">
+      <c r="C42" s="111" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 4</v>
       </c>
@@ -5397,8 +5403,8 @@
       <c r="A43" s="71" t="s">
         <v>407</v>
       </c>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
       <c r="D43" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5426,8 +5432,8 @@
       <c r="A44" s="71" t="s">
         <v>408</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
       <c r="D44" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -33482,18 +33488,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -38179,8 +38185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03EE777-7A71-4ABF-B428-9DD9FC79554D}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38624,7 +38630,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30">
+    <row r="33" spans="1:6" ht="30">
       <c r="A33" s="79">
         <v>32</v>
       </c>
@@ -38635,7 +38641,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="60">
+    <row r="34" spans="1:6" ht="60">
       <c r="A34" s="79">
         <v>33</v>
       </c>
@@ -38646,7 +38652,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="79">
         <v>34</v>
       </c>
@@ -38659,7 +38665,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="79">
         <v>35</v>
       </c>
@@ -38668,7 +38674,7 @@
       <c r="D36" s="79"/>
       <c r="E36" s="82"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="79">
         <v>36</v>
       </c>
@@ -38677,16 +38683,21 @@
       <c r="D37" s="79"/>
       <c r="E37" s="82"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6" ht="45">
       <c r="A38" s="79">
         <v>37</v>
       </c>
       <c r="B38" s="79"/>
       <c r="C38" s="79"/>
       <c r="D38" s="79"/>
-      <c r="E38" s="82"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38" s="82" t="s">
+        <v>820</v>
+      </c>
+      <c r="F38" s="75" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="79">
         <v>38</v>
       </c>
@@ -38695,7 +38706,7 @@
       <c r="D39" s="79"/>
       <c r="E39" s="82"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" s="79">
         <v>39</v>
       </c>
@@ -38704,7 +38715,7 @@
       <c r="D40" s="79"/>
       <c r="E40" s="82"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="79">
         <v>40</v>
       </c>
@@ -38713,7 +38724,7 @@
       <c r="D41" s="79"/>
       <c r="E41" s="82"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="79">
         <v>41</v>
       </c>
@@ -38722,7 +38733,7 @@
       <c r="D42" s="79"/>
       <c r="E42" s="82"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="79">
         <v>42</v>
       </c>
@@ -38731,7 +38742,7 @@
       <c r="D43" s="79"/>
       <c r="E43" s="82"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" s="79">
         <v>43</v>
       </c>
@@ -38740,7 +38751,7 @@
       <c r="D44" s="79"/>
       <c r="E44" s="82"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="79">
         <v>44</v>
       </c>
@@ -38749,7 +38760,7 @@
       <c r="D45" s="79"/>
       <c r="E45" s="82"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="79">
         <v>45</v>
       </c>
@@ -38758,7 +38769,7 @@
       <c r="D46" s="79"/>
       <c r="E46" s="82"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="79">
         <v>46</v>
       </c>
@@ -38767,7 +38778,7 @@
       <c r="D47" s="79"/>
       <c r="E47" s="82"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="79">
         <v>47</v>
       </c>
@@ -44879,152 +44890,152 @@
       <c r="A1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="115"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="117"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="117"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="117"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="117"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="115" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="115"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="115"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="115"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="118" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="118"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -45055,225 +45066,231 @@
       <c r="A1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="115"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="117"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="115" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="117"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="117"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="117"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="115"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="115"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="115"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="115"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="117"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="115"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -45281,12 +45298,6 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45305,120 +45316,120 @@
       <c r="A1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="115"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="117"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="115" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="117"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="117"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="117"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="115"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="115" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="115"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -45450,120 +45461,120 @@
       <c r="A1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="115"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="117"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="117"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="117"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="117"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="115"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="115"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -45595,135 +45606,135 @@
       <c r="A1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="115"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="117"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="115" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="117"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="115" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="117"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="115" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="117"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="115" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="115"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="115" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="115"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="115" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="118" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="118"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -5,54 +5,55 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F79B3F-361A-404A-BD81-1B2CCBF05870}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8DEB3C-072D-413F-A1FC-29F518181FEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" activeTab="1" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" activeTab="3" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
     <sheet name="Mock Exam 3" sheetId="33" r:id="rId2"/>
     <sheet name="Closing 2" sheetId="35" r:id="rId3"/>
-    <sheet name="Closing 4" sheetId="39" r:id="rId4"/>
-    <sheet name="Closing 3" sheetId="32" r:id="rId5"/>
-    <sheet name="quality" sheetId="31" r:id="rId6"/>
-    <sheet name="Resource" sheetId="30" r:id="rId7"/>
-    <sheet name="Mock Exam 10" sheetId="27" r:id="rId8"/>
-    <sheet name="Mock Exam 2" sheetId="38" r:id="rId9"/>
-    <sheet name="Mock Exam 1" sheetId="25" r:id="rId10"/>
-    <sheet name="Planning 2" sheetId="40" r:id="rId11"/>
-    <sheet name="Planning 4" sheetId="24" r:id="rId12"/>
-    <sheet name="monitoring 4" sheetId="37" r:id="rId13"/>
-    <sheet name="monitoring 2" sheetId="41" r:id="rId14"/>
-    <sheet name="monitoring 3" sheetId="23" r:id="rId15"/>
-    <sheet name="Stakeholder" sheetId="1" r:id="rId16"/>
-    <sheet name="Communication" sheetId="29" r:id="rId17"/>
-    <sheet name="Risk" sheetId="28" r:id="rId18"/>
-    <sheet name="Procurement" sheetId="2" r:id="rId19"/>
-    <sheet name="Closing 1" sheetId="20" r:id="rId20"/>
-    <sheet name="Initiating 2" sheetId="34" r:id="rId21"/>
-    <sheet name="Initiating 3" sheetId="42" r:id="rId22"/>
-    <sheet name="Initiating 1" sheetId="7" r:id="rId23"/>
-    <sheet name="scope" sheetId="10" r:id="rId24"/>
-    <sheet name="Planning5" sheetId="3" r:id="rId25"/>
-    <sheet name="Planning1" sheetId="11" r:id="rId26"/>
-    <sheet name="Planning3" sheetId="16" r:id="rId27"/>
-    <sheet name="Executing1" sheetId="15" r:id="rId28"/>
-    <sheet name="Executing 3" sheetId="36" r:id="rId29"/>
-    <sheet name="Executing 2" sheetId="17" r:id="rId30"/>
-    <sheet name="Domain-Initiating" sheetId="18" r:id="rId31"/>
-    <sheet name="Domain-Planning" sheetId="12" r:id="rId32"/>
-    <sheet name="Domain-Executing" sheetId="13" r:id="rId33"/>
-    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId34"/>
-    <sheet name="Domain-Closing" sheetId="19" r:id="rId35"/>
-    <sheet name="Executing" sheetId="4" r:id="rId36"/>
-    <sheet name="Monitoring" sheetId="5" r:id="rId37"/>
-    <sheet name="Closing" sheetId="6" r:id="rId38"/>
-    <sheet name="Mock" sheetId="8" r:id="rId39"/>
-    <sheet name="Full Test" sheetId="9" r:id="rId40"/>
+    <sheet name="Closing 5" sheetId="43" r:id="rId4"/>
+    <sheet name="Closing 4" sheetId="39" r:id="rId5"/>
+    <sheet name="Closing 3" sheetId="32" r:id="rId6"/>
+    <sheet name="quality" sheetId="31" r:id="rId7"/>
+    <sheet name="Resource" sheetId="30" r:id="rId8"/>
+    <sheet name="Mock Exam 10" sheetId="27" r:id="rId9"/>
+    <sheet name="Mock Exam 2" sheetId="38" r:id="rId10"/>
+    <sheet name="Mock Exam 1" sheetId="25" r:id="rId11"/>
+    <sheet name="Planning 2" sheetId="40" r:id="rId12"/>
+    <sheet name="Planning 4" sheetId="24" r:id="rId13"/>
+    <sheet name="monitoring 4" sheetId="37" r:id="rId14"/>
+    <sheet name="monitoring 2" sheetId="41" r:id="rId15"/>
+    <sheet name="monitoring 3" sheetId="23" r:id="rId16"/>
+    <sheet name="Stakeholder" sheetId="1" r:id="rId17"/>
+    <sheet name="Communication" sheetId="29" r:id="rId18"/>
+    <sheet name="Risk" sheetId="28" r:id="rId19"/>
+    <sheet name="Procurement" sheetId="2" r:id="rId20"/>
+    <sheet name="Closing 1" sheetId="20" r:id="rId21"/>
+    <sheet name="Initiating 2" sheetId="34" r:id="rId22"/>
+    <sheet name="Initiating 3" sheetId="42" r:id="rId23"/>
+    <sheet name="Initiating 1" sheetId="7" r:id="rId24"/>
+    <sheet name="scope" sheetId="10" r:id="rId25"/>
+    <sheet name="Planning5" sheetId="3" r:id="rId26"/>
+    <sheet name="Planning1" sheetId="11" r:id="rId27"/>
+    <sheet name="Planning3" sheetId="16" r:id="rId28"/>
+    <sheet name="Executing1" sheetId="15" r:id="rId29"/>
+    <sheet name="Executing 3" sheetId="36" r:id="rId30"/>
+    <sheet name="Executing 2" sheetId="17" r:id="rId31"/>
+    <sheet name="Domain-Initiating" sheetId="18" r:id="rId32"/>
+    <sheet name="Domain-Planning" sheetId="12" r:id="rId33"/>
+    <sheet name="Domain-Executing" sheetId="13" r:id="rId34"/>
+    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId35"/>
+    <sheet name="Domain-Closing" sheetId="19" r:id="rId36"/>
+    <sheet name="Executing" sheetId="4" r:id="rId37"/>
+    <sheet name="Monitoring" sheetId="5" r:id="rId38"/>
+    <sheet name="Closing" sheetId="6" r:id="rId39"/>
+    <sheet name="Mock" sheetId="8" r:id="rId40"/>
+    <sheet name="Full Test" sheetId="9" r:id="rId41"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="835">
   <si>
     <t>No</t>
   </si>
@@ -1963,9 +1964,6 @@
     <t>chưa làm</t>
   </si>
   <si>
-    <t>Đang ở đây</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -2604,9 +2602,6 @@
     <t>A project manager must always evaluate the situation and identify options before a decision can be made. If it is determined that a change is needed, a change request must be processed through integrated change control</t>
   </si>
   <si>
-    <t>Doing</t>
-  </si>
-  <si>
     <t>sunk cost là một khoản chi phí chìm không lấy lại được. Rule là không nên xem xét quyết định việc tiếp tục đối với nhưng dự án dd]ơcj cho là đang khó khăn</t>
   </si>
   <si>
@@ -2714,6 +2709,51 @@
   </si>
   <si>
     <t>control procurement process</t>
+  </si>
+  <si>
+    <t>decision tree là tool support dạng UML, decision  including chance event outcomes, resource cost, and utility</t>
+  </si>
+  <si>
+    <t>Note: During the Direct and Manage Project Work process, new assumptions and constraints are added to the assumption log, and the status of existing assumptions and constraints may be updated and closed out</t>
+  </si>
+  <si>
+    <t>meeting management skill that include preparing agenda, timekeeping, dealing with conflicts, and recording, distributing minutes</t>
+  </si>
+  <si>
+    <t>process plan communication management</t>
+  </si>
+  <si>
+    <t>Hiểu câu hỏi</t>
+  </si>
+  <si>
+    <t>Việc completion of the successor phụ thuộc vào completion of its predecussor =&gt; Finish - to - Finish</t>
+  </si>
+  <si>
+    <t>the requirement traceability matrix là output của collect requirement process, không phải là tool and techniques</t>
+  </si>
+  <si>
+    <t>In adaptive life cycles, the requirements are documented in user stories that are then prioritized and refined. The product features are developed using time-boxed periods of work</t>
+  </si>
+  <si>
+    <t>RAM (responsibility assignment matrix ) -&gt; RACI</t>
+  </si>
+  <si>
+    <t>formal acceptance,lesson learned, transition of the product là occur in the Close project or phase. Cost - benefit analysis là phân tích của management nhằm compare potential project</t>
+  </si>
+  <si>
+    <t>dạng câu hỏi what do you do next. Với 1 dự án đang complete thì the best practice sẽ là analyze project success or failure sau đó sẽ có throw a party for team member</t>
+  </si>
+  <si>
+    <t>Lưu ý: product verification thì nó sẽ nằm ở closing process còn validate scope process sẽ nằm ở control vs monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note: chú ý việc closing process group mà thích hợp nhất không phải là obtain formal acceptance of the project scope from customer, cái này có thể throwough cả project. Closing involves formal acceptance of product of the project. Project performance appraisals are done in project executing. chỉ có only archive project document mới là closing </t>
+  </si>
+  <si>
+    <t>Work for each phase must be inspected and accepted before the phase can be closed out.</t>
+  </si>
+  <si>
+    <t>procurement được closed là 1 phần của monitoring and controlling</t>
   </si>
 </sst>
 </file>
@@ -3395,12 +3435,20 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3409,14 +3457,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3756,8 +3796,8 @@
   </sheetPr>
   <dimension ref="A1:Z1328"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:C39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -3785,7 +3825,7 @@
         <v>393</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G1" s="91" t="s">
         <v>462</v>
@@ -3962,7 +4002,7 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="92" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B6" s="65">
         <v>43441</v>
@@ -4006,7 +4046,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="92" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B7" s="65">
         <v>43442</v>
@@ -4041,7 +4081,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="92" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B8" s="65">
         <v>43443</v>
@@ -4083,7 +4123,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="92" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B9" s="65">
         <v>43451</v>
@@ -4125,7 +4165,7 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="92" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B10" s="65">
         <f>B9+1</f>
@@ -4308,7 +4348,9 @@
       <c r="G14" s="56" t="s">
         <v>473</v>
       </c>
-      <c r="H14" s="56"/>
+      <c r="H14" s="56" t="s">
+        <v>552</v>
+      </c>
       <c r="I14" s="56"/>
       <c r="J14" s="56"/>
       <c r="K14" s="56"/>
@@ -4332,10 +4374,10 @@
       <c r="A15" s="93" t="s">
         <v>371</v>
       </c>
-      <c r="B15" s="107">
+      <c r="B15" s="111">
         <v>43473</v>
       </c>
-      <c r="C15" s="107" t="str">
+      <c r="C15" s="111" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -4374,8 +4416,8 @@
       <c r="A16" s="93" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4411,8 +4453,8 @@
       <c r="A17" s="93" t="s">
         <v>360</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4462,7 +4504,9 @@
       <c r="G18" s="56" t="s">
         <v>475</v>
       </c>
-      <c r="H18" s="56"/>
+      <c r="H18" s="56" t="s">
+        <v>552</v>
+      </c>
       <c r="I18" s="56"/>
       <c r="J18" s="56"/>
       <c r="K18" s="56"/>
@@ -4483,7 +4527,7 @@
       <c r="Z18" s="56"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="105" t="s">
         <v>398</v>
       </c>
       <c r="B19" s="95">
@@ -4498,7 +4542,7 @@
       </c>
       <c r="E19" s="97"/>
       <c r="F19" s="98" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G19" s="56" t="s">
         <v>476</v>
@@ -4529,11 +4573,11 @@
       <c r="A20" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="B20" s="107">
+      <c r="B20" s="111">
         <f>B19+1</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="107" t="str">
+      <c r="C20" s="111" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -4572,8 +4616,8 @@
       <c r="A21" s="93" t="s">
         <v>361</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4610,8 +4654,8 @@
       <c r="A22" s="93" t="s">
         <v>362</v>
       </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4665,7 +4709,7 @@
         <v>480</v>
       </c>
       <c r="H23" s="56" t="s">
-        <v>787</v>
+        <v>552</v>
       </c>
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
@@ -4708,7 +4752,9 @@
       <c r="G24" s="56" t="s">
         <v>481</v>
       </c>
-      <c r="H24" s="56"/>
+      <c r="H24" s="56" t="s">
+        <v>552</v>
+      </c>
       <c r="I24" s="56"/>
       <c r="J24" s="56"/>
       <c r="K24" s="56"/>
@@ -4729,30 +4775,29 @@
       <c r="Z24" s="56"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="105" t="s">
+      <c r="A25" s="93" t="s">
         <v>373</v>
       </c>
-      <c r="B25" s="109">
+      <c r="B25" s="113">
         <f>B24+1</f>
         <v>43481</v>
       </c>
-      <c r="C25" s="109" t="str">
+      <c r="C25" s="113" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 4</v>
       </c>
-      <c r="D25" s="73">
+      <c r="D25" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E25" s="74" t="s">
+      <c r="E25" s="87" t="s">
         <v>394</v>
-      </c>
-      <c r="F25" s="104" t="s">
-        <v>581</v>
       </c>
       <c r="G25" s="56" t="s">
         <v>482</v>
       </c>
-      <c r="H25" s="56"/>
+      <c r="H25" s="56" t="s">
+        <v>552</v>
+      </c>
       <c r="I25" s="56"/>
       <c r="J25" s="56"/>
       <c r="K25" s="56"/>
@@ -4776,8 +4821,8 @@
       <c r="A26" s="103" t="s">
         <v>363</v>
       </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="73">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4812,8 +4857,8 @@
       <c r="A27" s="93" t="s">
         <v>364</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4823,7 +4868,9 @@
       <c r="G27" s="56" t="s">
         <v>484</v>
       </c>
-      <c r="H27" s="56"/>
+      <c r="H27" s="56" t="s">
+        <v>552</v>
+      </c>
       <c r="I27" s="56"/>
       <c r="J27" s="56"/>
       <c r="K27" s="56"/>
@@ -4859,11 +4906,15 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E28" s="97"/>
-      <c r="F28" s="98"/>
+      <c r="F28" s="98" t="s">
+        <v>580</v>
+      </c>
       <c r="G28" s="56" t="s">
         <v>485</v>
       </c>
-      <c r="H28" s="56"/>
+      <c r="H28" s="56" t="s">
+        <v>552</v>
+      </c>
       <c r="I28" s="56"/>
       <c r="J28" s="56"/>
       <c r="K28" s="56"/>
@@ -4899,7 +4950,9 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E29" s="97"/>
-      <c r="F29" s="98"/>
+      <c r="F29" s="98" t="s">
+        <v>580</v>
+      </c>
       <c r="G29" s="56" t="s">
         <v>486</v>
       </c>
@@ -4939,11 +4992,15 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E30" s="97"/>
-      <c r="F30" s="98"/>
+      <c r="F30" s="98" t="s">
+        <v>580</v>
+      </c>
       <c r="G30" s="56" t="s">
         <v>487</v>
       </c>
-      <c r="H30" s="56"/>
+      <c r="H30" s="56" t="s">
+        <v>552</v>
+      </c>
       <c r="I30" s="56"/>
       <c r="J30" s="56"/>
       <c r="K30" s="56"/>
@@ -4979,11 +5036,15 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E31" s="97"/>
-      <c r="F31" s="98"/>
+      <c r="F31" s="98" t="s">
+        <v>580</v>
+      </c>
       <c r="G31" s="56" t="s">
         <v>488</v>
       </c>
-      <c r="H31" s="56"/>
+      <c r="H31" s="56" t="s">
+        <v>552</v>
+      </c>
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
       <c r="K31" s="56"/>
@@ -5004,26 +5065,27 @@
       <c r="Z31" s="56"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="93" t="s">
         <v>366</v>
       </c>
-      <c r="B32" s="113">
+      <c r="B32" s="109">
         <f>B31+1</f>
         <v>43484</v>
       </c>
-      <c r="C32" s="113" t="str">
+      <c r="C32" s="109" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
-      <c r="D32" s="96">
+      <c r="D32" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E32" s="97"/>
-      <c r="F32" s="98"/>
+      <c r="E32" s="87"/>
       <c r="G32" s="56" t="s">
         <v>489</v>
       </c>
-      <c r="H32" s="56"/>
+      <c r="H32" s="56" t="s">
+        <v>552</v>
+      </c>
       <c r="I32" s="56"/>
       <c r="J32" s="56"/>
       <c r="K32" s="56"/>
@@ -5047,17 +5109,21 @@
       <c r="A33" s="94" t="s">
         <v>403</v>
       </c>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
       <c r="D33" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E33" s="97"/>
-      <c r="F33" s="98"/>
+      <c r="F33" s="98" t="s">
+        <v>580</v>
+      </c>
       <c r="G33" s="56" t="s">
         <v>490</v>
       </c>
-      <c r="H33" s="56"/>
+      <c r="H33" s="56" t="s">
+        <v>552</v>
+      </c>
       <c r="I33" s="56"/>
       <c r="J33" s="56"/>
       <c r="K33" s="56"/>
@@ -5081,13 +5147,15 @@
       <c r="A34" s="94" t="s">
         <v>404</v>
       </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
       <c r="D34" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E34" s="97"/>
-      <c r="F34" s="98"/>
+      <c r="F34" s="98" t="s">
+        <v>580</v>
+      </c>
       <c r="G34" s="56" t="s">
         <v>491</v>
       </c>
@@ -5129,7 +5197,9 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E35" s="97"/>
-      <c r="F35" s="98"/>
+      <c r="F35" s="98" t="s">
+        <v>580</v>
+      </c>
       <c r="G35" s="56" t="s">
         <v>492</v>
       </c>
@@ -5169,7 +5239,9 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E36" s="97"/>
-      <c r="F36" s="98"/>
+      <c r="F36" s="98" t="s">
+        <v>580</v>
+      </c>
       <c r="G36" s="56" t="s">
         <v>493</v>
       </c>
@@ -5196,21 +5268,22 @@
       <c r="Z36" s="56"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="94" t="s">
         <v>368</v>
       </c>
-      <c r="B37" s="111">
+      <c r="B37" s="109">
         <f>B36+1</f>
         <v>43486</v>
       </c>
-      <c r="C37" s="111" t="str">
+      <c r="C37" s="109" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 2</v>
       </c>
-      <c r="D37" s="68">
+      <c r="D37" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E37" s="70"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="98"/>
       <c r="G37" s="56" t="s">
         <v>494</v>
       </c>
@@ -5237,15 +5310,16 @@
       <c r="Z37" s="56"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="94" t="s">
         <v>405</v>
       </c>
-      <c r="B38" s="112"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="68">
+      <c r="B38" s="110"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E38" s="70"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="98"/>
       <c r="I38" s="56"/>
       <c r="J38" s="56"/>
       <c r="K38" s="56"/>
@@ -5266,15 +5340,16 @@
       <c r="Z38" s="56"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="94" t="s">
         <v>406</v>
       </c>
-      <c r="B39" s="112"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="68">
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E39" s="70"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="98"/>
       <c r="I39" s="56"/>
       <c r="J39" s="56"/>
       <c r="K39" s="56"/>
@@ -5295,21 +5370,22 @@
       <c r="Z39" s="56"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="71" t="s">
+      <c r="A40" s="94" t="s">
         <v>376</v>
       </c>
-      <c r="B40" s="67">
+      <c r="B40" s="106">
         <f>B36 + 2</f>
         <v>43487</v>
       </c>
-      <c r="C40" s="67" t="str">
+      <c r="C40" s="106" t="str">
         <f t="shared" ref="C40:C42" si="7">IF(WEEKDAY(B40,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B40,1))</f>
         <v>Thứ 3</v>
       </c>
-      <c r="D40" s="68">
+      <c r="D40" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E40" s="70"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="98"/>
       <c r="I40" s="56"/>
       <c r="J40" s="56"/>
       <c r="K40" s="56"/>
@@ -5330,21 +5406,22 @@
       <c r="Z40" s="56"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="94" t="s">
         <v>369</v>
       </c>
-      <c r="B41" s="67">
+      <c r="B41" s="106">
         <f>B36 + 2</f>
         <v>43487</v>
       </c>
-      <c r="C41" s="67" t="str">
+      <c r="C41" s="106" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D41" s="68">
+      <c r="D41" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E41" s="70"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="98"/>
       <c r="I41" s="56"/>
       <c r="J41" s="56"/>
       <c r="K41" s="56"/>
@@ -5368,11 +5445,11 @@
       <c r="A42" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="B42" s="111">
+      <c r="B42" s="107">
         <f>B36+3</f>
         <v>43488</v>
       </c>
-      <c r="C42" s="111" t="str">
+      <c r="C42" s="107" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 4</v>
       </c>
@@ -5403,8 +5480,8 @@
       <c r="A43" s="71" t="s">
         <v>407</v>
       </c>
-      <c r="B43" s="112"/>
-      <c r="C43" s="112"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="108"/>
       <c r="D43" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5432,8 +5509,8 @@
       <c r="A44" s="71" t="s">
         <v>408</v>
       </c>
-      <c r="B44" s="112"/>
-      <c r="C44" s="112"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
       <c r="D44" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -33488,18 +33565,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -33540,6 +33617,7 @@
     <hyperlink ref="A21" location="'Initiating 3'!A1" display="Initiating 3 - 25" xr:uid="{ABB2EBF6-06EA-4A58-845C-455A9C6EAA08}"/>
     <hyperlink ref="A23" location="Planning5!A1" display="Planning 5 - 50" xr:uid="{4772EB50-0166-4D44-832B-71936E92634F}"/>
     <hyperlink ref="A25" location="'Mock Exam 3'!A1" display="Mock Exam 3" xr:uid="{A43AC668-83A0-406A-A21E-8FD23DA4836E}"/>
+    <hyperlink ref="A32" location="'Closing 5'!A1" display="Closing 5 - 10" xr:uid="{D4A605B4-4AEA-46A5-A4BE-8B2110AF06EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33548,6 +33626,624 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2583E3-9850-4500-BEA4-2CD763A9903C}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="75"/>
+    <col min="2" max="2" width="33.140625" style="75" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="75" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="75" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="75" customWidth="1"/>
+    <col min="6" max="6" width="79" style="75" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="240">
+      <c r="A2" s="79">
+        <v>1</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="79"/>
+      <c r="E2" s="82" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="79">
+        <v>2</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="82"/>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="79">
+        <v>3</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="79"/>
+      <c r="E4" s="82" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="79">
+        <v>4</v>
+      </c>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="82"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="79">
+        <v>5</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="82"/>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="79">
+        <v>6</v>
+      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="82" t="s">
+        <v>498</v>
+      </c>
+      <c r="G7" s="84"/>
+    </row>
+    <row r="8" spans="1:7" ht="45">
+      <c r="A8" s="79">
+        <v>7</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="82" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="79">
+        <v>8</v>
+      </c>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>501</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="79">
+        <v>9</v>
+      </c>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="82" t="s">
+        <v>502</v>
+      </c>
+      <c r="G10" s="84"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="79">
+        <v>10</v>
+      </c>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="82"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="79">
+        <v>11</v>
+      </c>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="82"/>
+    </row>
+    <row r="13" spans="1:7" ht="75">
+      <c r="A13" s="79">
+        <v>12</v>
+      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="79" t="s">
+        <v>675</v>
+      </c>
+      <c r="E13" s="82" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="79">
+        <v>13</v>
+      </c>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="82"/>
+    </row>
+    <row r="15" spans="1:7" ht="45">
+      <c r="A15" s="79">
+        <v>14</v>
+      </c>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="79" t="s">
+        <v>677</v>
+      </c>
+      <c r="E15" s="82" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30">
+      <c r="A16" s="79">
+        <v>15</v>
+      </c>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="79"/>
+      <c r="E16" s="82" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="79">
+        <v>16</v>
+      </c>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="82"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="79">
+        <v>17</v>
+      </c>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="82"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="79">
+        <v>18</v>
+      </c>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="79"/>
+      <c r="E19" s="82" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="79">
+        <v>19</v>
+      </c>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="79"/>
+      <c r="E20" s="82" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="79">
+        <v>20</v>
+      </c>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="79"/>
+      <c r="E21" s="82" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="79">
+        <v>21</v>
+      </c>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="79"/>
+      <c r="E22" s="82" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="79">
+        <v>22</v>
+      </c>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="82"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="79">
+        <v>23</v>
+      </c>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="82"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="79">
+        <v>24</v>
+      </c>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="82"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="79">
+        <v>25</v>
+      </c>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>506</v>
+      </c>
+      <c r="E26" s="82"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="79">
+        <v>26</v>
+      </c>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="82"/>
+    </row>
+    <row r="28" spans="1:5" ht="75">
+      <c r="A28" s="79">
+        <v>27</v>
+      </c>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="79" t="s">
+        <v>508</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="79">
+        <v>28</v>
+      </c>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="82"/>
+    </row>
+    <row r="30" spans="1:5" ht="30">
+      <c r="A30" s="79">
+        <v>29</v>
+      </c>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="79"/>
+      <c r="E30" s="82" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="79">
+        <v>30</v>
+      </c>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>510</v>
+      </c>
+      <c r="E31" s="82" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="79">
+        <v>31</v>
+      </c>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="79"/>
+      <c r="E32" s="82"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="79">
+        <v>32</v>
+      </c>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>512</v>
+      </c>
+      <c r="E33" s="82" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="79">
+        <v>33</v>
+      </c>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="82"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="79">
+        <v>34</v>
+      </c>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="82"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="79">
+        <v>35</v>
+      </c>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="82"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="79">
+        <v>36</v>
+      </c>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="79"/>
+      <c r="E37" s="82" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="79">
+        <v>37</v>
+      </c>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="79"/>
+      <c r="E38" s="82" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="79">
+        <v>38</v>
+      </c>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="82"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="79">
+        <v>39</v>
+      </c>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="82"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="79">
+        <v>40</v>
+      </c>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="82"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="79">
+        <v>41</v>
+      </c>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79" t="s">
+        <v>516</v>
+      </c>
+      <c r="E42" s="82"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="79">
+        <v>42</v>
+      </c>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="82"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="79">
+        <v>43</v>
+      </c>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="82"/>
+    </row>
+    <row r="45" spans="1:5" ht="30">
+      <c r="A45" s="79">
+        <v>44</v>
+      </c>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="79" t="s">
+        <v>517</v>
+      </c>
+      <c r="E45" s="82" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30">
+      <c r="A46" s="79">
+        <v>45</v>
+      </c>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="79"/>
+      <c r="E46" s="82" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="105">
+      <c r="A47" s="79">
+        <v>46</v>
+      </c>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="79" t="s">
+        <v>458</v>
+      </c>
+      <c r="E47" s="82" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="79">
+        <v>47</v>
+      </c>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="82" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="79">
+        <v>48</v>
+      </c>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="82"/>
+    </row>
+    <row r="50" spans="1:5" ht="30">
+      <c r="A50" s="79">
+        <v>49</v>
+      </c>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="79"/>
+      <c r="E50" s="82" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="75">
+      <c r="A51" s="79">
+        <v>50</v>
+      </c>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="82" t="s">
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{5F7649BD-9B09-443B-A15E-279FA1245F38}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{5163A8F5-A10F-4EC3-A469-77136D6F7127}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50057963-75E5-4253-A7F5-E58A81C4C7B8}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -34147,11 +34843,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF518E94-DEA8-4256-BBA2-A9B8503A0CD1}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -34193,14 +34889,14 @@
         <v>4</v>
       </c>
       <c r="D2" s="79" t="s">
+        <v>694</v>
+      </c>
+      <c r="E2" s="82" t="s">
         <v>695</v>
-      </c>
-      <c r="E2" s="82" t="s">
-        <v>696</v>
       </c>
       <c r="F2" s="83"/>
       <c r="G2" s="84" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -34222,10 +34918,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="79" t="s">
+        <v>697</v>
+      </c>
+      <c r="E4" s="82" t="s">
         <v>698</v>
-      </c>
-      <c r="E4" s="82" t="s">
-        <v>699</v>
       </c>
       <c r="F4" s="83"/>
     </row>
@@ -34238,10 +34934,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="79" t="s">
+        <v>699</v>
+      </c>
+      <c r="E5" s="82" t="s">
         <v>700</v>
-      </c>
-      <c r="E5" s="82" t="s">
-        <v>701</v>
       </c>
       <c r="F5" s="83"/>
     </row>
@@ -34254,10 +34950,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="79" t="s">
+        <v>701</v>
+      </c>
+      <c r="E6" s="82" t="s">
         <v>702</v>
-      </c>
-      <c r="E6" s="82" t="s">
-        <v>703</v>
       </c>
       <c r="F6" s="83"/>
     </row>
@@ -34271,7 +34967,7 @@
       </c>
       <c r="D7" s="79"/>
       <c r="E7" s="82" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F7" s="83"/>
       <c r="G7" s="84"/>
@@ -34284,7 +34980,7 @@
       <c r="C8" s="79"/>
       <c r="D8" s="79"/>
       <c r="E8" s="82" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F8" s="83"/>
     </row>
@@ -34317,7 +35013,7 @@
       <c r="C11" s="79"/>
       <c r="D11" s="79"/>
       <c r="E11" s="82" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F11" s="83"/>
     </row>
@@ -34341,7 +35037,7 @@
       </c>
       <c r="D13" s="79"/>
       <c r="E13" s="82" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F13" s="83"/>
     </row>
@@ -34365,7 +35061,7 @@
       </c>
       <c r="D15" s="79"/>
       <c r="E15" s="82" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F15" s="83"/>
     </row>
@@ -34379,7 +35075,7 @@
       </c>
       <c r="D16" s="79"/>
       <c r="E16" s="82" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F16" s="83"/>
     </row>
@@ -34391,7 +35087,7 @@
       <c r="C17" s="79"/>
       <c r="D17" s="79"/>
       <c r="E17" s="82" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F17" s="83"/>
     </row>
@@ -34443,7 +35139,7 @@
       <c r="C22" s="79"/>
       <c r="D22" s="79"/>
       <c r="E22" s="82" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F22" s="83"/>
     </row>
@@ -34455,7 +35151,7 @@
       <c r="C23" s="79"/>
       <c r="D23" s="79"/>
       <c r="E23" s="82" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F23" s="83"/>
     </row>
@@ -34487,7 +35183,7 @@
       <c r="C26" s="79"/>
       <c r="D26" s="79"/>
       <c r="E26" s="82" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F26" s="83"/>
     </row>
@@ -34510,10 +35206,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="79" t="s">
+        <v>713</v>
+      </c>
+      <c r="E28" s="82" t="s">
         <v>714</v>
-      </c>
-      <c r="E28" s="82" t="s">
-        <v>715</v>
       </c>
       <c r="F28" s="83"/>
     </row>
@@ -34537,7 +35233,7 @@
       </c>
       <c r="D30" s="79"/>
       <c r="E30" s="82" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F30" s="83"/>
     </row>
@@ -34549,7 +35245,7 @@
       <c r="C31" s="79"/>
       <c r="D31" s="79"/>
       <c r="E31" s="82" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F31" s="83"/>
     </row>
@@ -34571,7 +35267,7 @@
       <c r="C33" s="79"/>
       <c r="D33" s="79"/>
       <c r="E33" s="82" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F33" s="83"/>
     </row>
@@ -34593,7 +35289,7 @@
       <c r="C35" s="79"/>
       <c r="D35" s="79"/>
       <c r="E35" s="82" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F35" s="83"/>
     </row>
@@ -34605,7 +35301,7 @@
       <c r="C36" s="79"/>
       <c r="D36" s="79"/>
       <c r="E36" s="82" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F36" s="83"/>
     </row>
@@ -34617,7 +35313,7 @@
       <c r="C37" s="79"/>
       <c r="D37" s="79"/>
       <c r="E37" s="82" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F37" s="83"/>
     </row>
@@ -34660,7 +35356,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="79" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E41" s="82"/>
       <c r="F41" s="83"/>
@@ -34675,7 +35371,7 @@
       </c>
       <c r="D42" s="79"/>
       <c r="E42" s="82" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F42" s="83"/>
     </row>
@@ -34689,7 +35385,7 @@
       </c>
       <c r="D43" s="79"/>
       <c r="E43" s="82" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F43" s="83"/>
     </row>
@@ -34703,7 +35399,7 @@
       </c>
       <c r="D44" s="79"/>
       <c r="E44" s="82" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F44" s="83"/>
     </row>
@@ -34715,7 +35411,7 @@
       <c r="C45" s="79"/>
       <c r="D45" s="79"/>
       <c r="E45" s="82" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F45" s="83"/>
     </row>
@@ -34795,13 +35491,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB690D-227C-45AA-9C93-A22E8FEE0210}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
+    <sheetView topLeftCell="A49" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -35399,7 +36093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AD6CE4-A652-4BA6-AF5B-7B55F9607709}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -35461,7 +36155,7 @@
       <c r="E3" s="82"/>
       <c r="F3" s="83"/>
       <c r="G3" s="75" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -35537,7 +36231,7 @@
       <c r="E10" s="82"/>
       <c r="F10" s="83"/>
       <c r="G10" s="84" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
@@ -35573,7 +36267,7 @@
       <c r="E13" s="82"/>
       <c r="F13" s="83"/>
       <c r="G13" s="75" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -35586,7 +36280,7 @@
       <c r="E14" s="82"/>
       <c r="F14" s="83"/>
       <c r="G14" s="75" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -35692,7 +36386,7 @@
       <c r="E24" s="82"/>
       <c r="F24" s="83"/>
       <c r="G24" s="75" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -35981,13 +36675,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7271A84-E4BF-4C3C-A529-C79AE0E90AA3}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -36029,7 +36721,7 @@
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
       <c r="E2" s="82" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F2" s="83"/>
     </row>
@@ -36041,7 +36733,7 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="82" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F3" s="83"/>
     </row>
@@ -36063,7 +36755,7 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="82" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F5" s="83"/>
     </row>
@@ -36077,7 +36769,7 @@
       </c>
       <c r="D6" s="79"/>
       <c r="E6" s="82" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F6" s="83"/>
     </row>
@@ -36091,7 +36783,7 @@
       </c>
       <c r="D7" s="79"/>
       <c r="E7" s="82" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F7" s="83"/>
       <c r="G7" s="84"/>
@@ -36114,7 +36806,7 @@
       <c r="C9" s="79"/>
       <c r="D9" s="79"/>
       <c r="E9" s="82" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F9" s="83"/>
     </row>
@@ -36138,10 +36830,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="79" t="s">
+        <v>745</v>
+      </c>
+      <c r="E11" s="82" t="s">
         <v>746</v>
-      </c>
-      <c r="E11" s="82" t="s">
-        <v>747</v>
       </c>
       <c r="F11" s="83"/>
       <c r="H11" s="84"/>
@@ -36156,11 +36848,11 @@
       </c>
       <c r="D12" s="79"/>
       <c r="E12" s="82" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F12" s="83"/>
       <c r="G12" s="82" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45">
@@ -36173,7 +36865,7 @@
       </c>
       <c r="D13" s="79"/>
       <c r="E13" s="82" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F13" s="83"/>
     </row>
@@ -36187,7 +36879,7 @@
       </c>
       <c r="D14" s="78"/>
       <c r="E14" s="82" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F14" s="83"/>
     </row>
@@ -36201,7 +36893,7 @@
       </c>
       <c r="D15" s="79"/>
       <c r="E15" s="82" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F15" s="83"/>
     </row>
@@ -36213,7 +36905,7 @@
       <c r="C16" s="79"/>
       <c r="D16" s="79"/>
       <c r="E16" s="82" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F16" s="83"/>
     </row>
@@ -36235,7 +36927,7 @@
       <c r="C18" s="79"/>
       <c r="D18" s="79"/>
       <c r="E18" s="82" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F18" s="83"/>
     </row>
@@ -36247,7 +36939,7 @@
       <c r="C19" s="79"/>
       <c r="D19" s="79"/>
       <c r="E19" s="82" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F19" s="83"/>
     </row>
@@ -36261,7 +36953,7 @@
       </c>
       <c r="D20" s="79"/>
       <c r="E20" s="82" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F20" s="83"/>
     </row>
@@ -36275,7 +36967,7 @@
       </c>
       <c r="D21" s="79"/>
       <c r="E21" s="82" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F21" s="83"/>
     </row>
@@ -36289,7 +36981,7 @@
       </c>
       <c r="D22" s="79"/>
       <c r="E22" s="82" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F22" s="83"/>
     </row>
@@ -36313,7 +37005,7 @@
       </c>
       <c r="D24" s="79"/>
       <c r="E24" s="82" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F24" s="83"/>
     </row>
@@ -36325,7 +37017,7 @@
       <c r="C25" s="79"/>
       <c r="D25" s="79"/>
       <c r="E25" s="82" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F25" s="83"/>
     </row>
@@ -36338,10 +37030,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="79" t="s">
+        <v>760</v>
+      </c>
+      <c r="E26" s="82" t="s">
         <v>761</v>
-      </c>
-      <c r="E26" s="82" t="s">
-        <v>762</v>
       </c>
       <c r="F26" s="83"/>
     </row>
@@ -36352,10 +37044,10 @@
       <c r="B27" s="79"/>
       <c r="C27" s="79"/>
       <c r="D27" s="79" t="s">
+        <v>762</v>
+      </c>
+      <c r="E27" s="82" t="s">
         <v>763</v>
-      </c>
-      <c r="E27" s="82" t="s">
-        <v>764</v>
       </c>
       <c r="F27" s="83"/>
     </row>
@@ -36369,7 +37061,7 @@
       </c>
       <c r="D28" s="79"/>
       <c r="E28" s="82" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F28" s="83"/>
     </row>
@@ -36381,7 +37073,7 @@
       <c r="C29" s="79"/>
       <c r="D29" s="79"/>
       <c r="E29" s="82" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F29" s="83"/>
     </row>
@@ -36393,7 +37085,7 @@
       <c r="C30" s="79"/>
       <c r="D30" s="79"/>
       <c r="E30" s="82" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F30" s="83"/>
     </row>
@@ -36415,7 +37107,7 @@
       <c r="C32" s="79"/>
       <c r="D32" s="79"/>
       <c r="E32" s="82" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F32" s="83"/>
     </row>
@@ -36428,10 +37120,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="79" t="s">
+        <v>768</v>
+      </c>
+      <c r="E33" s="82" t="s">
         <v>769</v>
-      </c>
-      <c r="E33" s="82" t="s">
-        <v>770</v>
       </c>
       <c r="F33" s="83"/>
     </row>
@@ -36453,7 +37145,7 @@
       <c r="C35" s="79"/>
       <c r="D35" s="79"/>
       <c r="E35" s="82" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F35" s="83"/>
     </row>
@@ -36477,7 +37169,7 @@
       </c>
       <c r="D37" s="79"/>
       <c r="E37" s="82" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F37" s="83"/>
     </row>
@@ -36490,10 +37182,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="79" t="s">
+        <v>772</v>
+      </c>
+      <c r="E38" s="82" t="s">
         <v>773</v>
-      </c>
-      <c r="E38" s="82" t="s">
-        <v>774</v>
       </c>
       <c r="F38" s="83"/>
     </row>
@@ -36506,10 +37198,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="79" t="s">
+        <v>774</v>
+      </c>
+      <c r="E39" s="82" t="s">
         <v>775</v>
-      </c>
-      <c r="E39" s="82" t="s">
-        <v>776</v>
       </c>
       <c r="F39" s="83"/>
     </row>
@@ -36522,7 +37214,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="79" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F40" s="83"/>
     </row>
@@ -36534,7 +37226,7 @@
       <c r="C41" s="79"/>
       <c r="D41" s="79"/>
       <c r="E41" s="82" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F41" s="83"/>
     </row>
@@ -36546,7 +37238,7 @@
       <c r="C42" s="79"/>
       <c r="D42" s="79"/>
       <c r="E42" s="82" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F42" s="83"/>
     </row>
@@ -36557,10 +37249,10 @@
       <c r="B43" s="79"/>
       <c r="C43" s="79"/>
       <c r="D43" s="79" t="s">
+        <v>779</v>
+      </c>
+      <c r="E43" s="82" t="s">
         <v>780</v>
-      </c>
-      <c r="E43" s="82" t="s">
-        <v>781</v>
       </c>
       <c r="F43" s="83"/>
     </row>
@@ -36582,7 +37274,7 @@
       <c r="C45" s="79"/>
       <c r="D45" s="79"/>
       <c r="E45" s="82" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F45" s="83"/>
     </row>
@@ -36596,7 +37288,7 @@
       </c>
       <c r="D46" s="79"/>
       <c r="E46" s="82" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F46" s="83"/>
     </row>
@@ -36630,7 +37322,7 @@
       </c>
       <c r="D49" s="79"/>
       <c r="E49" s="82" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F49" s="83"/>
     </row>
@@ -36644,7 +37336,7 @@
       </c>
       <c r="D50" s="79"/>
       <c r="E50" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F50" s="83"/>
     </row>
@@ -36658,7 +37350,7 @@
       </c>
       <c r="D51" s="79"/>
       <c r="E51" s="82" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F51" s="83"/>
     </row>
@@ -36678,13 +37370,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BF44A-91AF-4F6D-AE5E-E58F57961686}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -36740,7 +37430,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="28"/>
       <c r="G3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -36817,7 +37507,7 @@
         <v>59</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>432</v>
@@ -36840,7 +37530,7 @@
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="84" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="90">
@@ -36852,10 +37542,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>596</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>597</v>
       </c>
       <c r="F11" s="28"/>
       <c r="H11" s="84" t="s">
@@ -36882,11 +37572,11 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30">
@@ -36899,11 +37589,11 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -36926,7 +37616,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F16" s="28"/>
     </row>
@@ -36958,7 +37648,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F19" s="28"/>
     </row>
@@ -36972,7 +37662,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F20" s="28"/>
     </row>
@@ -37006,7 +37696,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" t="s">
@@ -37021,11 +37711,11 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="60">
@@ -37038,7 +37728,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F25" s="28"/>
     </row>
@@ -37052,7 +37742,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F26" s="28"/>
     </row>
@@ -37084,7 +37774,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F29" s="28"/>
     </row>
@@ -37098,7 +37788,7 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F30" s="28"/>
     </row>
@@ -37122,7 +37812,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F32" s="28"/>
     </row>
@@ -37146,7 +37836,7 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F34" s="28"/>
     </row>
@@ -37160,7 +37850,7 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F35" s="28"/>
     </row>
@@ -37360,7 +38050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FD89E-6595-4ED6-8407-B1A3D616014F}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H52"/>
@@ -37741,7 +38431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34A5403-C026-4AEF-975E-5986F7A3547D}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -37888,7 +38578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9696DCF4-14CB-44B7-90D8-B8204394C5DB}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -38027,7 +38717,681 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03EE777-7A71-4ABF-B428-9DD9FC79554D}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="75"/>
+    <col min="2" max="2" width="33.140625" style="75" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="75" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="75" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="75" customWidth="1"/>
+    <col min="6" max="6" width="79" style="75" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="79">
+        <v>1</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="79"/>
+      <c r="E2" s="82" t="s">
+        <v>582</v>
+      </c>
+      <c r="F2" s="75" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="90">
+      <c r="A3" s="79">
+        <v>2</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="82" t="s">
+        <v>584</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="79">
+        <v>3</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>586</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>587</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="79">
+        <v>4</v>
+      </c>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="82"/>
+    </row>
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6" s="79">
+        <v>5</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="82" t="s">
+        <v>588</v>
+      </c>
+      <c r="F6" s="89" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="79">
+        <v>6</v>
+      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="89" t="s">
+        <v>589</v>
+      </c>
+      <c r="G7" s="84"/>
+    </row>
+    <row r="8" spans="1:7" ht="45">
+      <c r="A8" s="79">
+        <v>7</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="79"/>
+      <c r="E8" s="82" t="s">
+        <v>590</v>
+      </c>
+      <c r="F8" s="89"/>
+    </row>
+    <row r="9" spans="1:7" ht="60">
+      <c r="A9" s="79">
+        <v>8</v>
+      </c>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>792</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="79">
+        <v>9</v>
+      </c>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>694</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>793</v>
+      </c>
+      <c r="F10" s="89"/>
+      <c r="G10" s="84"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="79">
+        <v>10</v>
+      </c>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="89"/>
+    </row>
+    <row r="12" spans="1:7" ht="165">
+      <c r="A12" s="79">
+        <v>11</v>
+      </c>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="79" t="s">
+        <v>794</v>
+      </c>
+      <c r="E12" s="82" t="s">
+        <v>795</v>
+      </c>
+      <c r="F12" s="84"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="79">
+        <v>12</v>
+      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="89"/>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="79">
+        <v>13</v>
+      </c>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="78"/>
+      <c r="E14" s="82" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30">
+      <c r="A15" s="79">
+        <v>14</v>
+      </c>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="79"/>
+      <c r="E15" s="82" t="s">
+        <v>797</v>
+      </c>
+      <c r="F15" s="89" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="79">
+        <v>15</v>
+      </c>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="89"/>
+    </row>
+    <row r="17" spans="1:6" ht="90">
+      <c r="A17" s="79">
+        <v>16</v>
+      </c>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="82" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45">
+      <c r="A18" s="79">
+        <v>17</v>
+      </c>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="82" t="s">
+        <v>799</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45">
+      <c r="A19" s="79">
+        <v>18</v>
+      </c>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="82" t="s">
+        <v>801</v>
+      </c>
+      <c r="F19" s="90" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="75">
+      <c r="A20" s="79">
+        <v>19</v>
+      </c>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="79"/>
+      <c r="E20" s="82" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="60">
+      <c r="A21" s="79">
+        <v>20</v>
+      </c>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>803</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="79">
+        <v>21</v>
+      </c>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="82"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="79">
+        <v>22</v>
+      </c>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="82"/>
+    </row>
+    <row r="24" spans="1:6" ht="30">
+      <c r="A24" s="79">
+        <v>23</v>
+      </c>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="82" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30">
+      <c r="A25" s="79">
+        <v>24</v>
+      </c>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="79"/>
+      <c r="E25" s="82" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45">
+      <c r="A26" s="79">
+        <v>25</v>
+      </c>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="79"/>
+      <c r="E26" s="82" t="s">
+        <v>807</v>
+      </c>
+      <c r="F26" s="75" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="75">
+      <c r="A27" s="79">
+        <v>26</v>
+      </c>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="79"/>
+      <c r="E27" s="82" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45">
+      <c r="A28" s="79">
+        <v>27</v>
+      </c>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="82" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30">
+      <c r="A29" s="79">
+        <v>28</v>
+      </c>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="79"/>
+      <c r="E29" s="82" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="79">
+        <v>29</v>
+      </c>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="82"/>
+    </row>
+    <row r="31" spans="1:6" ht="60">
+      <c r="A31" s="79">
+        <v>30</v>
+      </c>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="79"/>
+      <c r="E31" s="82" t="s">
+        <v>812</v>
+      </c>
+      <c r="F31" s="75" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="90">
+      <c r="A32" s="79">
+        <v>31</v>
+      </c>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="79"/>
+      <c r="E32" s="82" t="s">
+        <v>814</v>
+      </c>
+      <c r="F32" s="75" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30">
+      <c r="A33" s="79">
+        <v>32</v>
+      </c>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="82" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="60">
+      <c r="A34" s="79">
+        <v>33</v>
+      </c>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="82" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="79">
+        <v>34</v>
+      </c>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="79"/>
+      <c r="E35" s="82" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="79">
+        <v>35</v>
+      </c>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="82"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="79">
+        <v>36</v>
+      </c>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="82"/>
+    </row>
+    <row r="38" spans="1:6" ht="45">
+      <c r="A38" s="79">
+        <v>37</v>
+      </c>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="82" t="s">
+        <v>818</v>
+      </c>
+      <c r="F38" s="75" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="45">
+      <c r="A39" s="79">
+        <v>38</v>
+      </c>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="79"/>
+      <c r="E39" s="82" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="79">
+        <v>39</v>
+      </c>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="82"/>
+    </row>
+    <row r="41" spans="1:6" ht="75">
+      <c r="A41" s="79">
+        <v>40</v>
+      </c>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="79"/>
+      <c r="E41" s="82" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="79">
+        <v>41</v>
+      </c>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="82"/>
+    </row>
+    <row r="43" spans="1:6" ht="45">
+      <c r="A43" s="79">
+        <v>42</v>
+      </c>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="79"/>
+      <c r="E43" s="82" t="s">
+        <v>822</v>
+      </c>
+      <c r="F43" s="75" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="79">
+        <v>43</v>
+      </c>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="82"/>
+    </row>
+    <row r="45" spans="1:6" ht="45">
+      <c r="A45" s="79">
+        <v>44</v>
+      </c>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="79" t="s">
+        <v>824</v>
+      </c>
+      <c r="E45" s="82" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="45">
+      <c r="A46" s="79">
+        <v>45</v>
+      </c>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="82" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="75">
+      <c r="A47" s="79">
+        <v>46</v>
+      </c>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="82" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30">
+      <c r="A48" s="79">
+        <v>47</v>
+      </c>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="82" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="79">
+        <v>48</v>
+      </c>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="82"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="79">
+        <v>49</v>
+      </c>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="82"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="79">
+        <v>50</v>
+      </c>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="82"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{4FE8A252-954C-419D-A8FB-D3F34E393847}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{C77349D5-2B19-498C-A49A-53558815CFE2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3370A11-AD88-47EC-B564-C7B459D1B3C6}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E11"/>
@@ -38181,654 +39545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03EE777-7A71-4ABF-B428-9DD9FC79554D}">
-  <dimension ref="A1:G51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="75"/>
-    <col min="2" max="2" width="33.140625" style="75" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="75" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="75" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" style="75" customWidth="1"/>
-    <col min="6" max="6" width="79" style="75" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="75"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="81" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="79">
-        <v>1</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="82" t="s">
-        <v>583</v>
-      </c>
-      <c r="F2" s="75" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="90">
-      <c r="A3" s="79">
-        <v>2</v>
-      </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="82" t="s">
-        <v>585</v>
-      </c>
-      <c r="F3" s="75" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="79">
-        <v>3</v>
-      </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="79" t="s">
-        <v>587</v>
-      </c>
-      <c r="E4" s="82" t="s">
-        <v>588</v>
-      </c>
-      <c r="F4" s="84" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="79">
-        <v>4</v>
-      </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="82"/>
-    </row>
-    <row r="6" spans="1:7" ht="45">
-      <c r="A6" s="79">
-        <v>5</v>
-      </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="82" t="s">
-        <v>589</v>
-      </c>
-      <c r="F6" s="89" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="79">
-        <v>6</v>
-      </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="89" t="s">
-        <v>590</v>
-      </c>
-      <c r="G7" s="84"/>
-    </row>
-    <row r="8" spans="1:7" ht="45">
-      <c r="A8" s="79">
-        <v>7</v>
-      </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="82" t="s">
-        <v>591</v>
-      </c>
-      <c r="F8" s="89"/>
-    </row>
-    <row r="9" spans="1:7" ht="60">
-      <c r="A9" s="79">
-        <v>8</v>
-      </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>794</v>
-      </c>
-      <c r="E9" s="82" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="79">
-        <v>9</v>
-      </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>695</v>
-      </c>
-      <c r="E10" s="82" t="s">
-        <v>795</v>
-      </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="84"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="79">
-        <v>10</v>
-      </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="89"/>
-    </row>
-    <row r="12" spans="1:7" ht="165">
-      <c r="A12" s="79">
-        <v>11</v>
-      </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="79" t="s">
-        <v>796</v>
-      </c>
-      <c r="E12" s="82" t="s">
-        <v>797</v>
-      </c>
-      <c r="F12" s="84"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="79">
-        <v>12</v>
-      </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="89"/>
-    </row>
-    <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="79">
-        <v>13</v>
-      </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="78"/>
-      <c r="E14" s="82" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30">
-      <c r="A15" s="79">
-        <v>14</v>
-      </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="82" t="s">
-        <v>799</v>
-      </c>
-      <c r="F15" s="89" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="79">
-        <v>15</v>
-      </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="89"/>
-    </row>
-    <row r="17" spans="1:6" ht="90">
-      <c r="A17" s="79">
-        <v>16</v>
-      </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="82" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45">
-      <c r="A18" s="79">
-        <v>17</v>
-      </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="82" t="s">
-        <v>801</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45">
-      <c r="A19" s="79">
-        <v>18</v>
-      </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="82" t="s">
-        <v>803</v>
-      </c>
-      <c r="F19" s="90" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="75">
-      <c r="A20" s="79">
-        <v>19</v>
-      </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="82" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="60">
-      <c r="A21" s="79">
-        <v>20</v>
-      </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="79" t="s">
-        <v>805</v>
-      </c>
-      <c r="E21" s="82" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="79">
-        <v>21</v>
-      </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="82"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="79">
-        <v>22</v>
-      </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="82"/>
-    </row>
-    <row r="24" spans="1:6" ht="30">
-      <c r="A24" s="79">
-        <v>23</v>
-      </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="82" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="79">
-        <v>24</v>
-      </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="82" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="45">
-      <c r="A26" s="79">
-        <v>25</v>
-      </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="82" t="s">
-        <v>809</v>
-      </c>
-      <c r="F26" s="75" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="75">
-      <c r="A27" s="79">
-        <v>26</v>
-      </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="82" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="45">
-      <c r="A28" s="79">
-        <v>27</v>
-      </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="82" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30">
-      <c r="A29" s="79">
-        <v>28</v>
-      </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="82" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="79">
-        <v>29</v>
-      </c>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="82"/>
-    </row>
-    <row r="31" spans="1:6" ht="60">
-      <c r="A31" s="79">
-        <v>30</v>
-      </c>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="82" t="s">
-        <v>814</v>
-      </c>
-      <c r="F31" s="75" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="90">
-      <c r="A32" s="79">
-        <v>31</v>
-      </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="82" t="s">
-        <v>816</v>
-      </c>
-      <c r="F32" s="75" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30">
-      <c r="A33" s="79">
-        <v>32</v>
-      </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="82" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="60">
-      <c r="A34" s="79">
-        <v>33</v>
-      </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="82" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="79">
-        <v>34</v>
-      </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="79"/>
-      <c r="E35" s="82" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="79">
-        <v>35</v>
-      </c>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="82"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="79">
-        <v>36</v>
-      </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="82"/>
-    </row>
-    <row r="38" spans="1:6" ht="45">
-      <c r="A38" s="79">
-        <v>37</v>
-      </c>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="82" t="s">
-        <v>820</v>
-      </c>
-      <c r="F38" s="75" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="79">
-        <v>38</v>
-      </c>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="82"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="79">
-        <v>39</v>
-      </c>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="82"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="79">
-        <v>40</v>
-      </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="82"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="79">
-        <v>41</v>
-      </c>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="82"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="79">
-        <v>42</v>
-      </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="82"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="79">
-        <v>43</v>
-      </c>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="82"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="79">
-        <v>44</v>
-      </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="82"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="79">
-        <v>45</v>
-      </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="82"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="79">
-        <v>46</v>
-      </c>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="82"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="79">
-        <v>47</v>
-      </c>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="82"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="79">
-        <v>48</v>
-      </c>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="82"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="79">
-        <v>49</v>
-      </c>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="82"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="79">
-        <v>50</v>
-      </c>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="82"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{4FE8A252-954C-419D-A8FB-D3F34E393847}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{C77349D5-2B19-498C-A49A-53558815CFE2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3E9025-2166-405B-928B-811F653123F3}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:F26"/>
@@ -39169,7 +39886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FC4E90-A86A-42A7-A5A8-760D17A592B6}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -39217,7 +39934,7 @@
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="82" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F2" s="83"/>
     </row>
@@ -39231,7 +39948,7 @@
       </c>
       <c r="D3" s="79"/>
       <c r="E3" s="82" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F3" s="83"/>
     </row>
@@ -39243,7 +39960,7 @@
       <c r="C4" s="79"/>
       <c r="D4" s="79"/>
       <c r="E4" s="82" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F4" s="83"/>
     </row>
@@ -39257,7 +39974,7 @@
       </c>
       <c r="D5" s="79"/>
       <c r="E5" s="82" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F5" s="83"/>
     </row>
@@ -39281,7 +39998,7 @@
       </c>
       <c r="D7" s="79"/>
       <c r="E7" s="78" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F7" s="83"/>
     </row>
@@ -39295,7 +40012,7 @@
       </c>
       <c r="D8" s="79"/>
       <c r="E8" s="82" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F8" s="83"/>
     </row>
@@ -39309,7 +40026,7 @@
       </c>
       <c r="D9" s="79"/>
       <c r="E9" s="82" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F9" s="83"/>
     </row>
@@ -39362,7 +40079,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="79" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F14" s="83"/>
     </row>
@@ -39383,7 +40100,7 @@
       <c r="C16" s="79"/>
       <c r="D16" s="79"/>
       <c r="E16" s="82" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F16" s="83"/>
     </row>
@@ -39395,7 +40112,7 @@
       <c r="C17" s="79"/>
       <c r="D17" s="79"/>
       <c r="E17" s="82" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F17" s="83"/>
     </row>
@@ -39429,7 +40146,7 @@
       </c>
       <c r="D20" s="79"/>
       <c r="E20" s="82" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F20" s="83"/>
     </row>
@@ -39441,7 +40158,7 @@
       <c r="C21" s="79"/>
       <c r="D21" s="79"/>
       <c r="E21" s="82" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F21" s="83"/>
     </row>
@@ -39485,7 +40202,7 @@
       </c>
       <c r="D25" s="79"/>
       <c r="E25" s="82" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F25" s="83"/>
     </row>
@@ -39516,7 +40233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5096C7F6-304A-4696-AB04-B782ECAE35C0}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -39573,10 +40290,10 @@
         <v>59</v>
       </c>
       <c r="D3" s="79" t="s">
+        <v>729</v>
+      </c>
+      <c r="E3" s="82" t="s">
         <v>730</v>
-      </c>
-      <c r="E3" s="82" t="s">
-        <v>731</v>
       </c>
       <c r="F3" s="83"/>
     </row>
@@ -39588,7 +40305,7 @@
       <c r="C4" s="79"/>
       <c r="D4" s="79"/>
       <c r="E4" s="82" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F4" s="83"/>
     </row>
@@ -39600,7 +40317,7 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="82" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F5" s="83"/>
     </row>
@@ -39624,7 +40341,7 @@
       </c>
       <c r="D7" s="79"/>
       <c r="E7" s="78" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F7" s="83"/>
     </row>
@@ -39636,7 +40353,7 @@
       <c r="C8" s="79"/>
       <c r="D8" s="79"/>
       <c r="E8" s="82" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F8" s="83"/>
     </row>
@@ -39650,7 +40367,7 @@
       </c>
       <c r="D9" s="79"/>
       <c r="E9" s="82" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F9" s="83"/>
     </row>
@@ -39684,7 +40401,7 @@
       </c>
       <c r="D12" s="79"/>
       <c r="E12" s="82" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F12" s="83"/>
     </row>
@@ -39716,7 +40433,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="79" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F15" s="83"/>
     </row>
@@ -39738,7 +40455,7 @@
       <c r="C17" s="79"/>
       <c r="D17" s="79"/>
       <c r="E17" s="82" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F17" s="83"/>
     </row>
@@ -39750,7 +40467,7 @@
       <c r="C18" s="79"/>
       <c r="D18" s="79"/>
       <c r="E18" s="82" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F18" s="83"/>
     </row>
@@ -39772,7 +40489,7 @@
       <c r="C20" s="79"/>
       <c r="D20" s="79"/>
       <c r="E20" s="82" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F20" s="83"/>
     </row>
@@ -39794,7 +40511,7 @@
       <c r="C22" s="79"/>
       <c r="D22" s="79"/>
       <c r="E22" s="82" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F22" s="83"/>
     </row>
@@ -39855,7 +40572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67830A5-61CE-4324-A223-E0E1F9224A73}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
@@ -40246,7 +40963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F5D74C-E5D9-45C3-98E4-07977C9F0161}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
@@ -40267,12 +40984,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C982353-CA8A-4388-8859-7413C89A9E50}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -40441,7 +41158,7 @@
       <c r="B13" s="79"/>
       <c r="C13" s="79"/>
       <c r="D13" s="79" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E13" s="79"/>
     </row>
@@ -40478,7 +41195,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="79" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E16" s="79"/>
     </row>
@@ -40569,7 +41286,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="79" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E23" s="79"/>
     </row>
@@ -40598,7 +41315,7 @@
       </c>
       <c r="D25" s="79"/>
       <c r="E25" s="79" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -40620,7 +41337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E4B6E-32AB-4F9F-9656-4C5398F92691}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L52"/>
@@ -41597,7 +42314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC2793-45B1-4029-830E-35CE2386D9D1}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J51"/>
@@ -42634,7 +43351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0762741B-203C-43CC-95E6-55D0B96E24E3}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F51"/>
@@ -43333,683 +44050,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B485323A-E48D-48D5-A059-00902955E19C}">
-  <dimension ref="A1:G51"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="78"/>
-    <col min="2" max="2" width="65.85546875" style="78" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="78" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" style="78" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" style="78" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="78"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="81" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="79">
-        <v>1</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="79">
-        <v>2</v>
-      </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-    </row>
-    <row r="4" spans="1:7" ht="90">
-      <c r="A4" s="79">
-        <v>3</v>
-      </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="79" t="s">
-        <v>637</v>
-      </c>
-      <c r="E4" s="82" t="s">
-        <v>636</v>
-      </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="78" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="75">
-      <c r="A5" s="79">
-        <v>4</v>
-      </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="82" t="s">
-        <v>639</v>
-      </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="78" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="79">
-        <v>5</v>
-      </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="82" t="s">
-        <v>640</v>
-      </c>
-      <c r="F6" s="83"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="79">
-        <v>6</v>
-      </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
-    </row>
-    <row r="8" spans="1:7" ht="45">
-      <c r="A8" s="79">
-        <v>7</v>
-      </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="82" t="s">
-        <v>641</v>
-      </c>
-      <c r="F8" s="83"/>
-    </row>
-    <row r="9" spans="1:7" ht="75">
-      <c r="A9" s="79">
-        <v>8</v>
-      </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="82" t="s">
-        <v>642</v>
-      </c>
-      <c r="F9" s="83"/>
-    </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="79">
-        <v>9</v>
-      </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79" t="s">
-        <v>644</v>
-      </c>
-      <c r="E10" s="82" t="s">
-        <v>643</v>
-      </c>
-      <c r="F10" s="83"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="79">
-        <v>10</v>
-      </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="82" t="s">
-        <v>645</v>
-      </c>
-      <c r="F11" s="83"/>
-    </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="79">
-        <v>11</v>
-      </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="82" t="s">
-        <v>646</v>
-      </c>
-      <c r="F12" s="83"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="79">
-        <v>12</v>
-      </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="82" t="s">
-        <v>647</v>
-      </c>
-      <c r="F13" s="83"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="79">
-        <v>13</v>
-      </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="83"/>
-    </row>
-    <row r="15" spans="1:7" ht="75">
-      <c r="A15" s="79">
-        <v>14</v>
-      </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="82" t="s">
-        <v>648</v>
-      </c>
-      <c r="F15" s="83"/>
-    </row>
-    <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="79">
-        <v>15</v>
-      </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="82" t="s">
-        <v>649</v>
-      </c>
-      <c r="F16" s="83"/>
-    </row>
-    <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="79">
-        <v>16</v>
-      </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="82" t="s">
-        <v>650</v>
-      </c>
-      <c r="F17" s="83"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="79">
-        <v>17</v>
-      </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="83"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="79">
-        <v>18</v>
-      </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="83"/>
-    </row>
-    <row r="20" spans="1:6" ht="45">
-      <c r="A20" s="79">
-        <v>19</v>
-      </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="82" t="s">
-        <v>651</v>
-      </c>
-      <c r="F20" s="83"/>
-    </row>
-    <row r="21" spans="1:6" ht="45">
-      <c r="A21" s="79">
-        <v>20</v>
-      </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="82" t="s">
-        <v>652</v>
-      </c>
-      <c r="F21" s="83"/>
-    </row>
-    <row r="22" spans="1:6" ht="45">
-      <c r="A22" s="79">
-        <v>21</v>
-      </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="82" t="s">
-        <v>653</v>
-      </c>
-      <c r="F22" s="83"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="79">
-        <v>22</v>
-      </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="79">
-        <v>23</v>
-      </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="83"/>
-    </row>
-    <row r="25" spans="1:6" ht="60">
-      <c r="A25" s="79">
-        <v>24</v>
-      </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="82" t="s">
-        <v>654</v>
-      </c>
-      <c r="F25" s="83"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="79">
-        <v>25</v>
-      </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="83"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="79">
-        <v>26</v>
-      </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="83"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="79">
-        <v>27</v>
-      </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="83"/>
-    </row>
-    <row r="29" spans="1:6" ht="45">
-      <c r="A29" s="79">
-        <v>28</v>
-      </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="82" t="s">
-        <v>655</v>
-      </c>
-      <c r="F29" s="83"/>
-    </row>
-    <row r="30" spans="1:6" ht="30">
-      <c r="A30" s="79">
-        <v>29</v>
-      </c>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="82" t="s">
-        <v>656</v>
-      </c>
-      <c r="F30" s="83"/>
-    </row>
-    <row r="31" spans="1:6" ht="30">
-      <c r="A31" s="79">
-        <v>30</v>
-      </c>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="82" t="s">
-        <v>657</v>
-      </c>
-      <c r="F31" s="83"/>
-    </row>
-    <row r="32" spans="1:6" ht="225">
-      <c r="A32" s="79">
-        <v>31</v>
-      </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="82" t="s">
-        <v>658</v>
-      </c>
-      <c r="F32" s="83"/>
-    </row>
-    <row r="33" spans="1:7" ht="30">
-      <c r="A33" s="79">
-        <v>32</v>
-      </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="79"/>
-      <c r="E33" s="82" t="s">
-        <v>659</v>
-      </c>
-      <c r="F33" s="83"/>
-    </row>
-    <row r="34" spans="1:7" ht="60">
-      <c r="A34" s="79">
-        <v>33</v>
-      </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="78" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="79">
-        <v>34</v>
-      </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="83"/>
-    </row>
-    <row r="36" spans="1:7" ht="60">
-      <c r="A36" s="79">
-        <v>35</v>
-      </c>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="82" t="s">
-        <v>661</v>
-      </c>
-      <c r="F36" s="83"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="79">
-        <v>36</v>
-      </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="82" t="s">
-        <v>662</v>
-      </c>
-      <c r="F37" s="83"/>
-    </row>
-    <row r="38" spans="1:7" ht="150">
-      <c r="A38" s="79">
-        <v>37</v>
-      </c>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="82" t="s">
-        <v>663</v>
-      </c>
-      <c r="F38" s="83"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="79">
-        <v>38</v>
-      </c>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="83"/>
-    </row>
-    <row r="40" spans="1:7" ht="75">
-      <c r="A40" s="79">
-        <v>39</v>
-      </c>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="82" t="s">
-        <v>664</v>
-      </c>
-      <c r="F40" s="83"/>
-    </row>
-    <row r="41" spans="1:7" ht="60">
-      <c r="A41" s="79">
-        <v>40</v>
-      </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="79"/>
-      <c r="E41" s="82" t="s">
-        <v>665</v>
-      </c>
-      <c r="F41" s="83"/>
-    </row>
-    <row r="42" spans="1:7" ht="45">
-      <c r="A42" s="79">
-        <v>41</v>
-      </c>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="79"/>
-      <c r="E42" s="82" t="s">
-        <v>666</v>
-      </c>
-      <c r="F42" s="83"/>
-    </row>
-    <row r="43" spans="1:7" ht="60">
-      <c r="A43" s="79">
-        <v>42</v>
-      </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="82" t="s">
-        <v>667</v>
-      </c>
-      <c r="F43" s="83"/>
-    </row>
-    <row r="44" spans="1:7" ht="105">
-      <c r="A44" s="79">
-        <v>43</v>
-      </c>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="79"/>
-      <c r="E44" s="82" t="s">
-        <v>668</v>
-      </c>
-      <c r="F44" s="83"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="79">
-        <v>44</v>
-      </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="83"/>
-    </row>
-    <row r="46" spans="1:7" ht="60">
-      <c r="A46" s="79">
-        <v>45</v>
-      </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="79"/>
-      <c r="E46" s="82" t="s">
-        <v>669</v>
-      </c>
-      <c r="F46" s="83"/>
-    </row>
-    <row r="47" spans="1:7" ht="45">
-      <c r="A47" s="79">
-        <v>46</v>
-      </c>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="82" t="s">
-        <v>670</v>
-      </c>
-      <c r="F47" s="83"/>
-    </row>
-    <row r="48" spans="1:7" ht="60">
-      <c r="A48" s="79">
-        <v>47</v>
-      </c>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="79"/>
-      <c r="E48" s="82" t="s">
-        <v>671</v>
-      </c>
-      <c r="F48" s="83"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="79">
-        <v>48</v>
-      </c>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="79" t="s">
-        <v>672</v>
-      </c>
-      <c r="E49" s="82"/>
-      <c r="F49" s="83"/>
-    </row>
-    <row r="50" spans="1:6" ht="60">
-      <c r="A50" s="79">
-        <v>49</v>
-      </c>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="79"/>
-      <c r="E50" s="82" t="s">
-        <v>673</v>
-      </c>
-      <c r="F50" s="83"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="79">
-        <v>50</v>
-      </c>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="83"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{E3C8B091-10FB-498A-B9B6-15AD1C8536FA}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{4828D9F5-D814-4C9F-A7C4-FEE7330795E6}">
-      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F1" location="'Domain-Executing'!A1" display="Domain" xr:uid="{FA414B23-132E-4E85-BB92-1FCA34291998}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -44058,7 +44098,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -44079,10 +44119,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -44102,7 +44142,7 @@
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -44114,10 +44154,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -44130,7 +44170,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60">
@@ -44143,7 +44183,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -44156,7 +44196,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -44179,6 +44219,685 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B485323A-E48D-48D5-A059-00902955E19C}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="78"/>
+    <col min="2" max="2" width="65.85546875" style="78" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="78" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="78" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="78" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="78"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="79">
+        <v>1</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="79">
+        <v>2</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+    </row>
+    <row r="4" spans="1:7" ht="90">
+      <c r="A4" s="79">
+        <v>3</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>636</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>635</v>
+      </c>
+      <c r="F4" s="83"/>
+      <c r="G4" s="78" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75">
+      <c r="A5" s="79">
+        <v>4</v>
+      </c>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="82" t="s">
+        <v>638</v>
+      </c>
+      <c r="F5" s="83"/>
+      <c r="G5" s="78" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="79">
+        <v>5</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="82" t="s">
+        <v>639</v>
+      </c>
+      <c r="F6" s="83"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="79">
+        <v>6</v>
+      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
+    </row>
+    <row r="8" spans="1:7" ht="45">
+      <c r="A8" s="79">
+        <v>7</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="79"/>
+      <c r="E8" s="82" t="s">
+        <v>640</v>
+      </c>
+      <c r="F8" s="83"/>
+    </row>
+    <row r="9" spans="1:7" ht="75">
+      <c r="A9" s="79">
+        <v>8</v>
+      </c>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="79"/>
+      <c r="E9" s="82" t="s">
+        <v>641</v>
+      </c>
+      <c r="F9" s="83"/>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="79">
+        <v>9</v>
+      </c>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79" t="s">
+        <v>643</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>642</v>
+      </c>
+      <c r="F10" s="83"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="79">
+        <v>10</v>
+      </c>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="82" t="s">
+        <v>644</v>
+      </c>
+      <c r="F11" s="83"/>
+    </row>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="79">
+        <v>11</v>
+      </c>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="79"/>
+      <c r="E12" s="82" t="s">
+        <v>645</v>
+      </c>
+      <c r="F12" s="83"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="79">
+        <v>12</v>
+      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="82" t="s">
+        <v>646</v>
+      </c>
+      <c r="F13" s="83"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="79">
+        <v>13</v>
+      </c>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
+    </row>
+    <row r="15" spans="1:7" ht="75">
+      <c r="A15" s="79">
+        <v>14</v>
+      </c>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="82" t="s">
+        <v>647</v>
+      </c>
+      <c r="F15" s="83"/>
+    </row>
+    <row r="16" spans="1:7" ht="30">
+      <c r="A16" s="79">
+        <v>15</v>
+      </c>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="79"/>
+      <c r="E16" s="82" t="s">
+        <v>648</v>
+      </c>
+      <c r="F16" s="83"/>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="79">
+        <v>16</v>
+      </c>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="79"/>
+      <c r="E17" s="82" t="s">
+        <v>649</v>
+      </c>
+      <c r="F17" s="83"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="79">
+        <v>17</v>
+      </c>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="79">
+        <v>18</v>
+      </c>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
+    </row>
+    <row r="20" spans="1:6" ht="45">
+      <c r="A20" s="79">
+        <v>19</v>
+      </c>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="79"/>
+      <c r="E20" s="82" t="s">
+        <v>650</v>
+      </c>
+      <c r="F20" s="83"/>
+    </row>
+    <row r="21" spans="1:6" ht="45">
+      <c r="A21" s="79">
+        <v>20</v>
+      </c>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="79"/>
+      <c r="E21" s="82" t="s">
+        <v>651</v>
+      </c>
+      <c r="F21" s="83"/>
+    </row>
+    <row r="22" spans="1:6" ht="45">
+      <c r="A22" s="79">
+        <v>21</v>
+      </c>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="82" t="s">
+        <v>652</v>
+      </c>
+      <c r="F22" s="83"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="79">
+        <v>22</v>
+      </c>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="79">
+        <v>23</v>
+      </c>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+    </row>
+    <row r="25" spans="1:6" ht="60">
+      <c r="A25" s="79">
+        <v>24</v>
+      </c>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="79"/>
+      <c r="E25" s="82" t="s">
+        <v>653</v>
+      </c>
+      <c r="F25" s="83"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="79">
+        <v>25</v>
+      </c>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="83"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="79">
+        <v>26</v>
+      </c>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="83"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="79">
+        <v>27</v>
+      </c>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="83"/>
+    </row>
+    <row r="29" spans="1:6" ht="45">
+      <c r="A29" s="79">
+        <v>28</v>
+      </c>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="82" t="s">
+        <v>654</v>
+      </c>
+      <c r="F29" s="83"/>
+    </row>
+    <row r="30" spans="1:6" ht="30">
+      <c r="A30" s="79">
+        <v>29</v>
+      </c>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="82" t="s">
+        <v>655</v>
+      </c>
+      <c r="F30" s="83"/>
+    </row>
+    <row r="31" spans="1:6" ht="30">
+      <c r="A31" s="79">
+        <v>30</v>
+      </c>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="79"/>
+      <c r="E31" s="82" t="s">
+        <v>656</v>
+      </c>
+      <c r="F31" s="83"/>
+    </row>
+    <row r="32" spans="1:6" ht="225">
+      <c r="A32" s="79">
+        <v>31</v>
+      </c>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="82" t="s">
+        <v>657</v>
+      </c>
+      <c r="F32" s="83"/>
+    </row>
+    <row r="33" spans="1:7" ht="30">
+      <c r="A33" s="79">
+        <v>32</v>
+      </c>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="79"/>
+      <c r="E33" s="82" t="s">
+        <v>658</v>
+      </c>
+      <c r="F33" s="83"/>
+    </row>
+    <row r="34" spans="1:7" ht="60">
+      <c r="A34" s="79">
+        <v>33</v>
+      </c>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="78" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="79">
+        <v>34</v>
+      </c>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="83"/>
+    </row>
+    <row r="36" spans="1:7" ht="60">
+      <c r="A36" s="79">
+        <v>35</v>
+      </c>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="79"/>
+      <c r="E36" s="82" t="s">
+        <v>660</v>
+      </c>
+      <c r="F36" s="83"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="79">
+        <v>36</v>
+      </c>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="82" t="s">
+        <v>661</v>
+      </c>
+      <c r="F37" s="83"/>
+    </row>
+    <row r="38" spans="1:7" ht="150">
+      <c r="A38" s="79">
+        <v>37</v>
+      </c>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="79"/>
+      <c r="E38" s="82" t="s">
+        <v>662</v>
+      </c>
+      <c r="F38" s="83"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="79">
+        <v>38</v>
+      </c>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="83"/>
+    </row>
+    <row r="40" spans="1:7" ht="75">
+      <c r="A40" s="79">
+        <v>39</v>
+      </c>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="79"/>
+      <c r="E40" s="82" t="s">
+        <v>663</v>
+      </c>
+      <c r="F40" s="83"/>
+    </row>
+    <row r="41" spans="1:7" ht="60">
+      <c r="A41" s="79">
+        <v>40</v>
+      </c>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="79"/>
+      <c r="E41" s="82" t="s">
+        <v>664</v>
+      </c>
+      <c r="F41" s="83"/>
+    </row>
+    <row r="42" spans="1:7" ht="45">
+      <c r="A42" s="79">
+        <v>41</v>
+      </c>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="79"/>
+      <c r="E42" s="82" t="s">
+        <v>665</v>
+      </c>
+      <c r="F42" s="83"/>
+    </row>
+    <row r="43" spans="1:7" ht="60">
+      <c r="A43" s="79">
+        <v>42</v>
+      </c>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="82" t="s">
+        <v>666</v>
+      </c>
+      <c r="F43" s="83"/>
+    </row>
+    <row r="44" spans="1:7" ht="105">
+      <c r="A44" s="79">
+        <v>43</v>
+      </c>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="79"/>
+      <c r="E44" s="82" t="s">
+        <v>667</v>
+      </c>
+      <c r="F44" s="83"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="79">
+        <v>44</v>
+      </c>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="83"/>
+    </row>
+    <row r="46" spans="1:7" ht="60">
+      <c r="A46" s="79">
+        <v>45</v>
+      </c>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="79"/>
+      <c r="E46" s="82" t="s">
+        <v>668</v>
+      </c>
+      <c r="F46" s="83"/>
+    </row>
+    <row r="47" spans="1:7" ht="45">
+      <c r="A47" s="79">
+        <v>46</v>
+      </c>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="82" t="s">
+        <v>669</v>
+      </c>
+      <c r="F47" s="83"/>
+    </row>
+    <row r="48" spans="1:7" ht="60">
+      <c r="A48" s="79">
+        <v>47</v>
+      </c>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="79"/>
+      <c r="E48" s="82" t="s">
+        <v>670</v>
+      </c>
+      <c r="F48" s="83"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="79">
+        <v>48</v>
+      </c>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="79" t="s">
+        <v>671</v>
+      </c>
+      <c r="E49" s="82"/>
+      <c r="F49" s="83"/>
+    </row>
+    <row r="50" spans="1:6" ht="60">
+      <c r="A50" s="79">
+        <v>49</v>
+      </c>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="79"/>
+      <c r="E50" s="82" t="s">
+        <v>672</v>
+      </c>
+      <c r="F50" s="83"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="79">
+        <v>50</v>
+      </c>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="83"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{E3C8B091-10FB-498A-B9B6-15AD1C8536FA}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{4828D9F5-D814-4C9F-A7C4-FEE7330795E6}">
+      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Executing'!A1" display="Domain" xr:uid="{FA414B23-132E-4E85-BB92-1FCA34291998}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFD739-AF93-4AA7-A2F1-3E80882A8922}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F51"/>
@@ -44875,7 +45594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475F131D-CBCC-4B8F-BDF4-B1E2E34C7098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K9"/>
@@ -45053,7 +45772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K13"/>
@@ -45285,12 +46004,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -45298,12 +46011,18 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3A676-4755-49BB-A0B9-3FC0BA4B80B3}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:K7"/>
@@ -45420,151 +46139,6 @@
       </c>
       <c r="B7" s="115" t="s">
         <v>156</v>
-      </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="115" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="115" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="117"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="115" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="117"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="115" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="117"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="115" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="117"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="117"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="115" t="s">
-        <v>164</v>
       </c>
       <c r="C7" s="116"/>
       <c r="D7" s="116"/>
@@ -45592,6 +46166,151 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="117"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="117"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="117"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="115" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="117"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="115" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="117"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC2900-1516-4D11-BB5E-CB91221B0668}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K8"/>
@@ -45751,7 +46470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8370EABC-5FB0-46E3-AC0D-18A12C9132DD}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E26"/>
@@ -46038,7 +46757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C828-5E38-4F9B-89F5-DE7664E9E60A}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1"/>
@@ -46053,7 +46772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1"/>
@@ -46068,7 +46787,160 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD3A80B-5C92-444C-86E6-05BC29695160}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="75"/>
+    <col min="2" max="2" width="21.42578125" style="75" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="75" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="75" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="75" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{A5DEE7C1-57C2-47E9-BB78-F7A901A4DFD7}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1"/>
@@ -46081,11 +46953,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E23C0DE-7C2A-4965-86C8-62DEFBCE1853}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView topLeftCell="B4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -46234,7 +47127,7 @@
         <v>569</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -46247,28 +47140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
-  <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDFCA0E-15B1-4FCC-89C5-A148D6AA017A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -46311,7 +47183,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -46333,7 +47205,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90">
@@ -46346,7 +47218,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -46368,7 +47240,7 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -46381,7 +47253,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -46411,10 +47283,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>688</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -46427,7 +47299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F25227D-57C1-4CE8-91AC-A7B1D986105A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -46578,7 +47450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7AA35E-BA94-465D-947F-048E2F692024}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -46749,7 +47621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A78EF31-A47F-4412-A3CA-C438D7816DE2}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -47358,622 +48230,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2583E3-9850-4500-BEA4-2CD763A9903C}">
-  <dimension ref="A1:G51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="75"/>
-    <col min="2" max="2" width="33.140625" style="75" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="75" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="75" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" style="75" customWidth="1"/>
-    <col min="6" max="6" width="79" style="75" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="75"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="81" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="240">
-      <c r="A2" s="79">
-        <v>1</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="82" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="79">
-        <v>2</v>
-      </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="82"/>
-    </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="79">
-        <v>3</v>
-      </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="82" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="79">
-        <v>4</v>
-      </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="82"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="79">
-        <v>5</v>
-      </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="82"/>
-    </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="79">
-        <v>6</v>
-      </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="82" t="s">
-        <v>498</v>
-      </c>
-      <c r="G7" s="84"/>
-    </row>
-    <row r="8" spans="1:7" ht="45">
-      <c r="A8" s="79">
-        <v>7</v>
-      </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="82" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="79">
-        <v>8</v>
-      </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>501</v>
-      </c>
-      <c r="E9" s="82" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="79">
-        <v>9</v>
-      </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="82" t="s">
-        <v>502</v>
-      </c>
-      <c r="G10" s="84"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="79">
-        <v>10</v>
-      </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="82"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="79">
-        <v>11</v>
-      </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="82"/>
-    </row>
-    <row r="13" spans="1:7" ht="75">
-      <c r="A13" s="79">
-        <v>12</v>
-      </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="79" t="s">
-        <v>676</v>
-      </c>
-      <c r="E13" s="82" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="79">
-        <v>13</v>
-      </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="82"/>
-    </row>
-    <row r="15" spans="1:7" ht="45">
-      <c r="A15" s="79">
-        <v>14</v>
-      </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="79" t="s">
-        <v>678</v>
-      </c>
-      <c r="E15" s="82" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="79">
-        <v>15</v>
-      </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="82" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="79">
-        <v>16</v>
-      </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="82"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="79">
-        <v>17</v>
-      </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="82"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="79">
-        <v>18</v>
-      </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="82" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="79">
-        <v>19</v>
-      </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="82" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="79">
-        <v>20</v>
-      </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="82" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="79">
-        <v>21</v>
-      </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="82" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="79">
-        <v>22</v>
-      </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="82"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="79">
-        <v>23</v>
-      </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="82"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="79">
-        <v>24</v>
-      </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="82"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="79">
-        <v>25</v>
-      </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>506</v>
-      </c>
-      <c r="E26" s="82"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="79">
-        <v>26</v>
-      </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="82"/>
-    </row>
-    <row r="28" spans="1:5" ht="75">
-      <c r="A28" s="79">
-        <v>27</v>
-      </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="79" t="s">
-        <v>508</v>
-      </c>
-      <c r="E28" s="82" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="79">
-        <v>28</v>
-      </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="82"/>
-    </row>
-    <row r="30" spans="1:5" ht="30">
-      <c r="A30" s="79">
-        <v>29</v>
-      </c>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="82" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="79">
-        <v>30</v>
-      </c>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="79" t="s">
-        <v>510</v>
-      </c>
-      <c r="E31" s="82" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="79">
-        <v>31</v>
-      </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="82"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="79">
-        <v>32</v>
-      </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="79" t="s">
-        <v>512</v>
-      </c>
-      <c r="E33" s="82" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="79">
-        <v>33</v>
-      </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="82"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="79">
-        <v>34</v>
-      </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="82"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="79">
-        <v>35</v>
-      </c>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="82"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="79">
-        <v>36</v>
-      </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="82" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="79">
-        <v>37</v>
-      </c>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="82" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="79">
-        <v>38</v>
-      </c>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="82"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="79">
-        <v>39</v>
-      </c>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="82"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="79">
-        <v>40</v>
-      </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="82"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="79">
-        <v>41</v>
-      </c>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79" t="s">
-        <v>516</v>
-      </c>
-      <c r="E42" s="82"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="79">
-        <v>42</v>
-      </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="82"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="79">
-        <v>43</v>
-      </c>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="82"/>
-    </row>
-    <row r="45" spans="1:5" ht="30">
-      <c r="A45" s="79">
-        <v>44</v>
-      </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="79" t="s">
-        <v>517</v>
-      </c>
-      <c r="E45" s="82" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="30">
-      <c r="A46" s="79">
-        <v>45</v>
-      </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="79"/>
-      <c r="E46" s="82" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="105">
-      <c r="A47" s="79">
-        <v>46</v>
-      </c>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="79" t="s">
-        <v>458</v>
-      </c>
-      <c r="E47" s="82" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="79">
-        <v>47</v>
-      </c>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="82" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="79">
-        <v>48</v>
-      </c>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="82"/>
-    </row>
-    <row r="50" spans="1:5" ht="30">
-      <c r="A50" s="79">
-        <v>49</v>
-      </c>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="79"/>
-      <c r="E50" s="82" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="75">
-      <c r="A51" s="79">
-        <v>50</v>
-      </c>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="82" t="s">
-        <v>455</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{5F7649BD-9B09-443B-A15E-279FA1245F38}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{5163A8F5-A10F-4EC3-A469-77136D6F7127}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8DEB3C-072D-413F-A1FC-29F518181FEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259E4333-7FA0-4E40-99AC-5C60EE8C53CB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" activeTab="3" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" firstSheet="20" activeTab="30" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
@@ -43,17 +43,18 @@
     <sheet name="Planning3" sheetId="16" r:id="rId28"/>
     <sheet name="Executing1" sheetId="15" r:id="rId29"/>
     <sheet name="Executing 3" sheetId="36" r:id="rId30"/>
-    <sheet name="Executing 2" sheetId="17" r:id="rId31"/>
-    <sheet name="Domain-Initiating" sheetId="18" r:id="rId32"/>
-    <sheet name="Domain-Planning" sheetId="12" r:id="rId33"/>
-    <sheet name="Domain-Executing" sheetId="13" r:id="rId34"/>
-    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId35"/>
-    <sheet name="Domain-Closing" sheetId="19" r:id="rId36"/>
-    <sheet name="Executing" sheetId="4" r:id="rId37"/>
-    <sheet name="Monitoring" sheetId="5" r:id="rId38"/>
-    <sheet name="Closing" sheetId="6" r:id="rId39"/>
-    <sheet name="Mock" sheetId="8" r:id="rId40"/>
-    <sheet name="Full Test" sheetId="9" r:id="rId41"/>
+    <sheet name="Executing 8" sheetId="44" r:id="rId31"/>
+    <sheet name="Executing 2" sheetId="17" r:id="rId32"/>
+    <sheet name="Domain-Initiating" sheetId="18" r:id="rId33"/>
+    <sheet name="Domain-Planning" sheetId="12" r:id="rId34"/>
+    <sheet name="Domain-Executing" sheetId="13" r:id="rId35"/>
+    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId36"/>
+    <sheet name="Domain-Closing" sheetId="19" r:id="rId37"/>
+    <sheet name="Executing" sheetId="4" r:id="rId38"/>
+    <sheet name="Monitoring" sheetId="5" r:id="rId39"/>
+    <sheet name="Closing" sheetId="6" r:id="rId40"/>
+    <sheet name="Mock" sheetId="8" r:id="rId41"/>
+    <sheet name="Full Test" sheetId="9" r:id="rId42"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="854">
   <si>
     <t>No</t>
   </si>
@@ -2754,6 +2755,72 @@
   </si>
   <si>
     <t>procurement được closed là 1 phần của monitoring and controlling</t>
+  </si>
+  <si>
+    <t>project phải được close out. Trường hợp bị terminate thì benefit of the closing is to gather lessons learned for the benefit of future project</t>
+  </si>
+  <si>
+    <t>formal sign-off and formal acceptance must be received from the customer in order for the project to be considered complete</t>
+  </si>
+  <si>
+    <t>Việc mà customer request additional scope to be added thì chỉ có thể giải thích là project chưa được close vì without gaining formal acceptance, formal acceptance from the customer was never received</t>
+  </si>
+  <si>
+    <t>Lessons learned can be documented throughout the project.</t>
+  </si>
+  <si>
+    <t>Note: influence and delegating là leadership style. Collaboration (hợp tác) and compromise (thỏa hiệp) là conflict resolution techniques. Recognition and rewards là tool of resource management. Nên việc common understanding and communication management là cách mà reduce misunderstanding on the project</t>
+  </si>
+  <si>
+    <t>reciprocal là communication method interactive</t>
+  </si>
+  <si>
+    <t>trong tình huống mà team member phản ảnh vấn đề communication với PM thì PM chỉ cần attending to the speak without distraction, confirming what the speaker says, and taking note of body language</t>
+  </si>
+  <si>
+    <t>manage team process</t>
+  </si>
+  <si>
+    <t>liên quan đến khái niệm communication blockers. What are the communication blockers that can get in the way of communication?
+Noisy surroundings
+distance
+improper encoding: mã hóa k đúng
+negative statement: report tiêu cực
+hostility: sự thù địch
+language: ngôn ngữ
+culture: văn hóa</t>
+  </si>
+  <si>
+    <t>Mục đích câu hỏi này là hỏi deliverable là input của process nào? Chỉ trong direct and manage project work mới có deliverable là input</t>
+  </si>
+  <si>
+    <t>direct and manage project work và monitor and control work là mất nhiều effort nhất dự án</t>
+  </si>
+  <si>
+    <t>The project manager's role in project executing is not just to manage the overall project effort. Individual attention must be paid to each knowledge area, and the impacts of each knowledge area on the others.</t>
+  </si>
+  <si>
+    <t>sai vớ vẩn vãi</t>
+  </si>
+  <si>
+    <t>output của direct and manage project work gồm: project management plan updates
+work performance data
+change request</t>
+  </si>
+  <si>
+    <t>push là sent to those who need to know the information. Pull là require that the recipient</t>
+  </si>
+  <si>
+    <t>Ignoring the request from PMI and lying for the project manager do not support PMI's request for information and are unethical actions</t>
+  </si>
+  <si>
+    <t>mày đang làm việc cho cty thiết bị y tế. Sản phẩm này quy định khá chặt chẽ, chi phí kiện cáo nếu thiết bị này lỗi trên thị trường là rất cao. Trong develop sản phẩm mới của mày, mày đã hoàn thành việc design product và đang testing thử mức độ nhỏ ở giai đoạn ban đầu. tỉ lệ lỗi cao hơn so với estimated. mày đang tìm một vài phương án thay thế gồm cả thay đổi design, thay đổi policy, procedures, standard. thứ tự xác định nếu thay đổi sẽ cung cấp một kết quả tích cực. mày đang sử dụng cái gì</t>
+  </si>
+  <si>
+    <t>manage quality process</t>
+  </si>
+  <si>
+    <t>trc khi đầu tư resource vào invesigate sự thay đổi ảnh hưởng tới project. Mày phải xác định xem cause của việc tỉ lệ lỗi cao. Mày sẽ thực hiện analysis root cause. Affinity diagram giúp mày tổ chức và group kết quả của root cause, nên câu trả lời là affinity diagram</t>
   </si>
 </sst>
 </file>
@@ -3441,6 +3508,14 @@
     <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3449,14 +3524,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3796,8 +3863,8 @@
   </sheetPr>
   <dimension ref="A1:Z1328"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -3927,7 +3994,7 @@
       <c r="Z3" s="56"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="92" t="s">
         <v>356</v>
       </c>
       <c r="B4" s="65">
@@ -4374,10 +4441,10 @@
       <c r="A15" s="93" t="s">
         <v>371</v>
       </c>
-      <c r="B15" s="111">
+      <c r="B15" s="107">
         <v>43473</v>
       </c>
-      <c r="C15" s="111" t="str">
+      <c r="C15" s="107" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -4416,8 +4483,8 @@
       <c r="A16" s="93" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4453,8 +4520,8 @@
       <c r="A17" s="93" t="s">
         <v>360</v>
       </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4573,11 +4640,11 @@
       <c r="A20" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="B20" s="111">
+      <c r="B20" s="107">
         <f>B19+1</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="111" t="str">
+      <c r="C20" s="107" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -4616,8 +4683,8 @@
       <c r="A21" s="93" t="s">
         <v>361</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
       <c r="D21" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4654,8 +4721,8 @@
       <c r="A22" s="93" t="s">
         <v>362</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4778,11 +4845,11 @@
       <c r="A25" s="93" t="s">
         <v>373</v>
       </c>
-      <c r="B25" s="113">
+      <c r="B25" s="109">
         <f>B24+1</f>
         <v>43481</v>
       </c>
-      <c r="C25" s="113" t="str">
+      <c r="C25" s="109" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 4</v>
       </c>
@@ -4821,8 +4888,8 @@
       <c r="A26" s="103" t="s">
         <v>363</v>
       </c>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
       <c r="D26" s="73">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4857,8 +4924,8 @@
       <c r="A27" s="93" t="s">
         <v>364</v>
       </c>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
       <c r="D27" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5068,11 +5135,11 @@
       <c r="A32" s="93" t="s">
         <v>366</v>
       </c>
-      <c r="B32" s="109">
+      <c r="B32" s="113">
         <f>B31+1</f>
         <v>43484</v>
       </c>
-      <c r="C32" s="109" t="str">
+      <c r="C32" s="113" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
@@ -5109,8 +5176,8 @@
       <c r="A33" s="94" t="s">
         <v>403</v>
       </c>
-      <c r="B33" s="110"/>
-      <c r="C33" s="110"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
       <c r="D33" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5147,8 +5214,8 @@
       <c r="A34" s="94" t="s">
         <v>404</v>
       </c>
-      <c r="B34" s="110"/>
-      <c r="C34" s="110"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
       <c r="D34" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5271,11 +5338,11 @@
       <c r="A37" s="94" t="s">
         <v>368</v>
       </c>
-      <c r="B37" s="109">
+      <c r="B37" s="113">
         <f>B36+1</f>
         <v>43486</v>
       </c>
-      <c r="C37" s="109" t="str">
+      <c r="C37" s="113" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 2</v>
       </c>
@@ -5313,8 +5380,8 @@
       <c r="A38" s="94" t="s">
         <v>405</v>
       </c>
-      <c r="B38" s="110"/>
-      <c r="C38" s="110"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
       <c r="D38" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5343,8 +5410,8 @@
       <c r="A39" s="94" t="s">
         <v>406</v>
       </c>
-      <c r="B39" s="110"/>
-      <c r="C39" s="110"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
       <c r="D39" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5445,11 +5512,11 @@
       <c r="A42" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="B42" s="107">
+      <c r="B42" s="111">
         <f>B36+3</f>
         <v>43488</v>
       </c>
-      <c r="C42" s="107" t="str">
+      <c r="C42" s="111" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 4</v>
       </c>
@@ -5480,8 +5547,8 @@
       <c r="A43" s="71" t="s">
         <v>407</v>
       </c>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
       <c r="D43" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5509,8 +5576,8 @@
       <c r="A44" s="71" t="s">
         <v>408</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
       <c r="D44" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -33565,18 +33632,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -33589,7 +33656,7 @@
   <hyperlinks>
     <hyperlink ref="A2" location="'Initiating 1'!A1" display="Initiating 1 - 25" xr:uid="{77D84CD8-3519-4656-85CA-8FD6258C03F0}"/>
     <hyperlink ref="A3" location="Planning1!A1" display="Planning 1 - 50" xr:uid="{70CF1339-9AAF-4511-86A0-602468723C3F}"/>
-    <hyperlink ref="A4" location="Executing 8!A1" display="Executing 8 - 25" xr:uid="{918B0592-3945-4475-8348-CD957086505B}"/>
+    <hyperlink ref="A4" location="'Executing 8'!A1" display="Executing 8 - 25" xr:uid="{918B0592-3945-4475-8348-CD957086505B}"/>
     <hyperlink ref="A5" location="Monitoring 1!A1" display="Monitoring 1 - 50" xr:uid="{FAB54166-DC7D-4347-BFF6-E47FC8AA0FFB}"/>
     <hyperlink ref="G1" location="Stakeholder!A1" display="Stakeholder" xr:uid="{8AF54F82-F3F8-4209-9442-121F0617BBDA}"/>
     <hyperlink ref="G2" location="Procurement!A1" display="Procurement " xr:uid="{52604B36-86C4-4EC0-B4A9-D56F02D4AD90}"/>
@@ -40577,7 +40644,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -44898,11 +44967,365 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574CC2A3-93D7-4AB9-83CF-AF68AB756A5A}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="78"/>
+    <col min="2" max="2" width="65.85546875" style="78" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="78" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="78" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="78" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="78"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="120">
+      <c r="A2" s="79">
+        <v>1</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="82" t="s">
+        <v>839</v>
+      </c>
+      <c r="F2" s="83"/>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="79">
+        <v>2</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="82" t="s">
+        <v>840</v>
+      </c>
+      <c r="F3" s="83"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="79">
+        <v>3</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+    </row>
+    <row r="5" spans="1:7" ht="75">
+      <c r="A5" s="79">
+        <v>4</v>
+      </c>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="79"/>
+      <c r="E5" s="82" t="s">
+        <v>841</v>
+      </c>
+      <c r="F5" s="83"/>
+      <c r="G5" s="78" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="165">
+      <c r="A6" s="79">
+        <v>5</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>694</v>
+      </c>
+      <c r="E6" s="82" t="s">
+        <v>843</v>
+      </c>
+      <c r="F6" s="83"/>
+      <c r="G6" s="78" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60">
+      <c r="A7" s="79">
+        <v>6</v>
+      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="79"/>
+      <c r="E7" s="82" t="s">
+        <v>844</v>
+      </c>
+      <c r="F7" s="83"/>
+    </row>
+    <row r="8" spans="1:7" ht="45">
+      <c r="A8" s="79">
+        <v>7</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="82" t="s">
+        <v>845</v>
+      </c>
+      <c r="F8" s="83"/>
+    </row>
+    <row r="9" spans="1:7" ht="90">
+      <c r="A9" s="79">
+        <v>8</v>
+      </c>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="82" t="s">
+        <v>846</v>
+      </c>
+      <c r="F9" s="83"/>
+    </row>
+    <row r="10" spans="1:7" ht="60">
+      <c r="A10" s="79">
+        <v>9</v>
+      </c>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>847</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>848</v>
+      </c>
+      <c r="F10" s="83"/>
+    </row>
+    <row r="11" spans="1:7" ht="45">
+      <c r="A11" s="79">
+        <v>10</v>
+      </c>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="79"/>
+      <c r="E11" s="82" t="s">
+        <v>849</v>
+      </c>
+      <c r="F11" s="83"/>
+    </row>
+    <row r="12" spans="1:7" ht="60">
+      <c r="A12" s="79">
+        <v>11</v>
+      </c>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="82" t="s">
+        <v>850</v>
+      </c>
+      <c r="F12" s="83"/>
+    </row>
+    <row r="13" spans="1:7" ht="195">
+      <c r="A13" s="79">
+        <v>12</v>
+      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="79" t="s">
+        <v>851</v>
+      </c>
+      <c r="E13" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="F13" s="83"/>
+      <c r="G13" s="78" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="79">
+        <v>13</v>
+      </c>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="79">
+        <v>14</v>
+      </c>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="79">
+        <v>15</v>
+      </c>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="83"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="79">
+        <v>16</v>
+      </c>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="79">
+        <v>17</v>
+      </c>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="79">
+        <v>18</v>
+      </c>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="79">
+        <v>19</v>
+      </c>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="79">
+        <v>20</v>
+      </c>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="79">
+        <v>21</v>
+      </c>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="79">
+        <v>22</v>
+      </c>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="79">
+        <v>23</v>
+      </c>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="79">
+        <v>24</v>
+      </c>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="79">
+        <v>25</v>
+      </c>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="83"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{36AB555F-E6F9-43E0-BD29-AA60C845A4B7}">
+      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{7605072B-A9F3-4F8F-9953-58CF13D4DAA6}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Executing'!A1" display="Domain" xr:uid="{B31650D3-4283-469C-9B06-59FA0084CBEF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFD739-AF93-4AA7-A2F1-3E80882A8922}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -45594,7 +46017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475F131D-CBCC-4B8F-BDF4-B1E2E34C7098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K9"/>
@@ -45772,7 +46195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K13"/>
@@ -46004,6 +46427,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -46011,18 +46440,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3A676-4755-49BB-A0B9-3FC0BA4B80B3}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:K7"/>
@@ -46139,151 +46562,6 @@
       </c>
       <c r="B7" s="115" t="s">
         <v>156</v>
-      </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="115" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="115" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="117"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="115" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="117"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="115" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="117"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="115" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="117"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="117"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="115" t="s">
-        <v>164</v>
       </c>
       <c r="C7" s="116"/>
       <c r="D7" s="116"/>
@@ -46311,6 +46589,151 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="117"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="117"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="117"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="115" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="117"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="115" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="117"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC2900-1516-4D11-BB5E-CB91221B0668}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K8"/>
@@ -46470,7 +46893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8370EABC-5FB0-46E3-AC0D-18A12C9132DD}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E26"/>
@@ -46757,7 +47180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C828-5E38-4F9B-89F5-DE7664E9E60A}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1"/>
@@ -46772,27 +47195,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
-  <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD3A80B-5C92-444C-86E6-05BC29695160}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -46894,32 +47302,42 @@
         <v>834</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="45">
       <c r="A8" s="27">
         <v>7</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="27"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45">
       <c r="A9" s="27">
         <v>8</v>
       </c>
       <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="C9" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="D9" s="27"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75">
       <c r="A10" s="27">
         <v>9</v>
       </c>
       <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="D10" s="27"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="27">
@@ -46928,7 +47346,9 @@
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="E11" s="27" t="s">
+        <v>838</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -46941,6 +47361,21 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1"/>
@@ -46953,7 +47388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1"/>

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259E4333-7FA0-4E40-99AC-5C60EE8C53CB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E1C8BA-CD3B-43D3-9B5B-2407A92B2AFC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" firstSheet="20" activeTab="30" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="856">
   <si>
     <t>No</t>
   </si>
@@ -2821,6 +2821,12 @@
   </si>
   <si>
     <t>trc khi đầu tư resource vào invesigate sự thay đổi ảnh hưởng tới project. Mày phải xác định xem cause của việc tỉ lệ lỗi cao. Mày sẽ thực hiện analysis root cause. Affinity diagram giúp mày tổ chức và group kết quả của root cause, nên câu trả lời là affinity diagram</t>
+  </si>
+  <si>
+    <t>Note: k đủ thời gian để phân bổ tương tác với các stakeholder. Mày sẽ thực hiện tương tác với bên stakeholder nào để biết: như vậy chỉ có the department manager là key stakeholder</t>
+  </si>
+  <si>
+    <t>stakeholder sastifaction là key objective of stakeholder management. Là 1 phần của stakeholer management effort, the project management needs to analyze stakeholder engagement and plan how to keep stakeholder at, or move them to, the desire level engagement which will ultimate lead to stakeholder sastifaction</t>
   </si>
 </sst>
 </file>
@@ -3508,6 +3514,14 @@
     <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3516,14 +3530,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4441,10 +4447,10 @@
       <c r="A15" s="93" t="s">
         <v>371</v>
       </c>
-      <c r="B15" s="107">
+      <c r="B15" s="111">
         <v>43473</v>
       </c>
-      <c r="C15" s="107" t="str">
+      <c r="C15" s="111" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -4483,8 +4489,8 @@
       <c r="A16" s="93" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4520,8 +4526,8 @@
       <c r="A17" s="93" t="s">
         <v>360</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4640,11 +4646,11 @@
       <c r="A20" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="B20" s="107">
+      <c r="B20" s="111">
         <f>B19+1</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="107" t="str">
+      <c r="C20" s="111" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -4683,8 +4689,8 @@
       <c r="A21" s="93" t="s">
         <v>361</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4721,8 +4727,8 @@
       <c r="A22" s="93" t="s">
         <v>362</v>
       </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4845,11 +4851,11 @@
       <c r="A25" s="93" t="s">
         <v>373</v>
       </c>
-      <c r="B25" s="109">
+      <c r="B25" s="113">
         <f>B24+1</f>
         <v>43481</v>
       </c>
-      <c r="C25" s="109" t="str">
+      <c r="C25" s="113" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 4</v>
       </c>
@@ -4888,8 +4894,8 @@
       <c r="A26" s="103" t="s">
         <v>363</v>
       </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="73">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4924,8 +4930,8 @@
       <c r="A27" s="93" t="s">
         <v>364</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5135,11 +5141,11 @@
       <c r="A32" s="93" t="s">
         <v>366</v>
       </c>
-      <c r="B32" s="113">
+      <c r="B32" s="109">
         <f>B31+1</f>
         <v>43484</v>
       </c>
-      <c r="C32" s="113" t="str">
+      <c r="C32" s="109" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 7</v>
       </c>
@@ -5176,8 +5182,8 @@
       <c r="A33" s="94" t="s">
         <v>403</v>
       </c>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
       <c r="D33" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5214,8 +5220,8 @@
       <c r="A34" s="94" t="s">
         <v>404</v>
       </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
       <c r="D34" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5338,11 +5344,11 @@
       <c r="A37" s="94" t="s">
         <v>368</v>
       </c>
-      <c r="B37" s="113">
+      <c r="B37" s="109">
         <f>B36+1</f>
         <v>43486</v>
       </c>
-      <c r="C37" s="113" t="str">
+      <c r="C37" s="109" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 2</v>
       </c>
@@ -5380,8 +5386,8 @@
       <c r="A38" s="94" t="s">
         <v>405</v>
       </c>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="110"/>
       <c r="D38" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5410,8 +5416,8 @@
       <c r="A39" s="94" t="s">
         <v>406</v>
       </c>
-      <c r="B39" s="114"/>
-      <c r="C39" s="114"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
       <c r="D39" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5512,11 +5518,11 @@
       <c r="A42" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="B42" s="111">
+      <c r="B42" s="107">
         <f>B36+3</f>
         <v>43488</v>
       </c>
-      <c r="C42" s="111" t="str">
+      <c r="C42" s="107" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 4</v>
       </c>
@@ -5547,8 +5553,8 @@
       <c r="A43" s="71" t="s">
         <v>407</v>
       </c>
-      <c r="B43" s="112"/>
-      <c r="C43" s="112"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="108"/>
       <c r="D43" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5576,8 +5582,8 @@
       <c r="A44" s="71" t="s">
         <v>408</v>
       </c>
-      <c r="B44" s="112"/>
-      <c r="C44" s="112"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
       <c r="D44" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -33632,18 +33638,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -44970,8 +44976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574CC2A3-93D7-4AB9-83CF-AF68AB756A5A}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45173,24 +45179,35 @@
         <v>852</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="75">
       <c r="A14" s="79">
         <v>13</v>
       </c>
       <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
+      <c r="C14" s="79" t="s">
+        <v>4</v>
+      </c>
       <c r="D14" s="79"/>
-      <c r="E14" s="82"/>
+      <c r="E14" s="82" t="s">
+        <v>854</v>
+      </c>
       <c r="F14" s="83"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="78" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="120">
       <c r="A15" s="79">
         <v>14</v>
       </c>
       <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
+      <c r="C15" s="79" t="s">
+        <v>4</v>
+      </c>
       <c r="D15" s="79"/>
-      <c r="E15" s="82"/>
+      <c r="E15" s="82" t="s">
+        <v>855</v>
+      </c>
       <c r="F15" s="83"/>
     </row>
     <row r="16" spans="1:7">
@@ -46427,12 +46444,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -46440,6 +46451,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1340601C-7E0A-4D5A-8AAD-686A2D98F572}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011FCD78-96DE-4E19-AB5C-0C54E0AFB1AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" activeTab="6" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <sheet name="Monitoring" sheetId="5" r:id="rId44"/>
     <sheet name="Closing" sheetId="6" r:id="rId45"/>
     <sheet name="Mock" sheetId="8" r:id="rId46"/>
-    <sheet name="Full Test" sheetId="9" r:id="rId47"/>
+    <sheet name="Full Test 4" sheetId="9" r:id="rId47"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="892">
   <si>
     <t>No</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>Cứ nhóm nào đang ở resisting, chuyển sang supportive luôn</t>
-  </si>
-  <si>
-    <t>risk register sẽ được update ở sequence activities và develop sequence process</t>
   </si>
   <si>
     <t>Hải</t>
@@ -2933,6 +2930,21 @@
   </si>
   <si>
     <t>resource optimization technique during control schedule cho phép pm schedule activity considering both resource avaialelity + project time</t>
+  </si>
+  <si>
+    <t>6 constraint là: scope, schedule, budget, resource, risk,quality. Procurement không phải là project competing constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">việc thời tiết điển hình của khu vực liên quan tới dự án thì cần phải reevaluating the project schedule sẽ cung cấp most reason and fastest </t>
+  </si>
+  <si>
+    <t>câu hỏi nói đến cả 2 technique compression schedule là fastracking vs crashing nên cứ chọn cả 2 bởi liên quan tới lý thuyết: fastracking involve result rework, crashing often result in increased cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: correct action là anything done đạt tới kỳ vọng theo project management plan. Nó là output của meeting. </t>
+  </si>
+  <si>
+    <t>lưu ý: leveling resource kỹ thuật. Sư dụng monte carlo để simulate. Monte carlo là dạng what if analysis</t>
   </si>
 </sst>
 </file>
@@ -3318,7 +3330,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3614,15 +3626,27 @@
     <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3639,9 +3663,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3661,6 +3682,86 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Callout: Line with Border and Accent Bar 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93AE9AA5-6FD2-499D-97BC-E3E527D3F4F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="4486274"/>
+          <a:ext cx="2924175" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentBorderCallout1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Cần</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> dừng lại để review trong tuần này bao gồm:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>+ Kiến thức + các bài tập</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3965,8 +4066,8 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -3979,28 +4080,28 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15">
       <c r="A1" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="C1" s="60" t="s">
         <v>350</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="D1" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="60" t="s">
-        <v>352</v>
-      </c>
       <c r="E1" s="60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1" s="60" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I1" s="56"/>
       <c r="J1" s="56"/>
@@ -4023,7 +4124,7 @@
     </row>
     <row r="2" spans="1:26" ht="15">
       <c r="A2" s="90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2" s="61">
         <v>43437</v>
@@ -4035,10 +4136,10 @@
       <c r="E2" s="63"/>
       <c r="F2" s="60"/>
       <c r="G2" s="60" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
@@ -4061,7 +4162,7 @@
     </row>
     <row r="3" spans="1:26" ht="15">
       <c r="A3" s="90" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B3" s="61">
         <v>43438</v>
@@ -4073,10 +4174,10 @@
       <c r="E3" s="63"/>
       <c r="F3" s="60"/>
       <c r="G3" s="60" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I3" s="56"/>
       <c r="J3" s="56"/>
@@ -4099,7 +4200,7 @@
     </row>
     <row r="4" spans="1:26" ht="15">
       <c r="A4" s="90" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B4" s="65">
         <v>43439</v>
@@ -4111,10 +4212,10 @@
       <c r="E4" s="63"/>
       <c r="F4" s="60"/>
       <c r="G4" s="60" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I4" s="56"/>
       <c r="J4" s="56"/>
@@ -4137,7 +4238,7 @@
     </row>
     <row r="5" spans="1:26" ht="15">
       <c r="A5" s="64" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B5" s="65">
         <v>43440</v>
@@ -4149,10 +4250,10 @@
       <c r="E5" s="63"/>
       <c r="F5" s="60"/>
       <c r="G5" s="60" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
@@ -4175,7 +4276,7 @@
     </row>
     <row r="6" spans="1:26" ht="15">
       <c r="A6" s="90" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B6" s="65">
         <v>43441</v>
@@ -4187,16 +4288,16 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H6" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
@@ -4219,7 +4320,7 @@
     </row>
     <row r="7" spans="1:26" ht="15">
       <c r="A7" s="90" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B7" s="65">
         <v>43442</v>
@@ -4231,10 +4332,10 @@
       <c r="E7" s="63"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
@@ -4257,7 +4358,7 @@
     </row>
     <row r="8" spans="1:26" ht="15">
       <c r="A8" s="90" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B8" s="65">
         <v>43443</v>
@@ -4269,16 +4370,16 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H8" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
@@ -4301,7 +4402,7 @@
     </row>
     <row r="9" spans="1:26" ht="15">
       <c r="A9" s="90" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B9" s="65">
         <v>43451</v>
@@ -4313,16 +4414,16 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G9" s="107" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
@@ -4345,7 +4446,7 @@
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="90" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B10" s="65">
         <f>B9+1</f>
@@ -4359,14 +4460,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F10" s="60"/>
       <c r="G10" s="60" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
@@ -4389,7 +4490,7 @@
     </row>
     <row r="11" spans="1:26" ht="15">
       <c r="A11" s="90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B11" s="65">
         <f>B10+1</f>
@@ -4403,11 +4504,11 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F11" s="60"/>
       <c r="G11" s="60" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H11" s="60"/>
       <c r="I11" s="56"/>
@@ -4431,7 +4532,7 @@
     </row>
     <row r="12" spans="1:26" ht="15">
       <c r="A12" s="90" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B12" s="65">
         <f>B11+1</f>
@@ -4445,11 +4546,11 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H12" s="60"/>
       <c r="I12" s="56"/>
@@ -4473,7 +4574,7 @@
     </row>
     <row r="13" spans="1:26" ht="15">
       <c r="A13" s="91" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B13" s="85">
         <v>43473</v>
@@ -4486,14 +4587,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E13" s="87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H13" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
@@ -4516,7 +4617,7 @@
     </row>
     <row r="14" spans="1:26" ht="15">
       <c r="A14" s="91" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B14" s="85">
         <v>43473</v>
@@ -4529,14 +4630,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E14" s="87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="60" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H14" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I14" s="56"/>
       <c r="J14" s="56"/>
@@ -4559,12 +4660,12 @@
     </row>
     <row r="15" spans="1:26" ht="15">
       <c r="A15" s="91" t="s">
-        <v>370</v>
-      </c>
-      <c r="B15" s="108">
+        <v>369</v>
+      </c>
+      <c r="B15" s="114">
         <v>43473</v>
       </c>
-      <c r="C15" s="108" t="str">
+      <c r="C15" s="114" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -4572,14 +4673,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E15" s="87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H15" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
@@ -4602,22 +4703,22 @@
     </row>
     <row r="16" spans="1:26" ht="15">
       <c r="A16" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
+        <v>357</v>
+      </c>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="86">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E16" s="87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H16" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
@@ -4640,22 +4741,22 @@
     </row>
     <row r="17" spans="1:26" ht="15">
       <c r="A17" s="91" t="s">
-        <v>359</v>
-      </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
+        <v>358</v>
+      </c>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="86">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E17" s="87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H17" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I17" s="56"/>
       <c r="J17" s="56"/>
@@ -4678,7 +4779,7 @@
     </row>
     <row r="18" spans="1:26" ht="15">
       <c r="A18" s="91" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B18" s="96">
         <v>43478</v>
@@ -4691,14 +4792,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E18" s="87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="60" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H18" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I18" s="56"/>
       <c r="J18" s="56"/>
@@ -4721,7 +4822,7 @@
     </row>
     <row r="19" spans="1:26" ht="15">
       <c r="A19" s="106" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B19" s="102">
         <v>43478</v>
@@ -4735,13 +4836,13 @@
       </c>
       <c r="E19" s="73"/>
       <c r="F19" s="60" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H19" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
@@ -4764,13 +4865,13 @@
     </row>
     <row r="20" spans="1:26" ht="15">
       <c r="A20" s="91" t="s">
-        <v>371</v>
-      </c>
-      <c r="B20" s="108">
+        <v>370</v>
+      </c>
+      <c r="B20" s="114">
         <f>B19+1</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="108" t="str">
+      <c r="C20" s="114" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -4778,14 +4879,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E20" s="87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H20" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I20" s="56"/>
       <c r="J20" s="56"/>
@@ -4808,21 +4909,21 @@
     </row>
     <row r="21" spans="1:26" ht="15">
       <c r="A21" s="91" t="s">
-        <v>360</v>
-      </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
+        <v>359</v>
+      </c>
+      <c r="B21" s="115"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="86">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E21" s="87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F21" s="60" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H21" s="60"/>
       <c r="I21" s="56"/>
@@ -4846,22 +4947,22 @@
     </row>
     <row r="22" spans="1:26" ht="15">
       <c r="A22" s="91" t="s">
-        <v>361</v>
-      </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
+        <v>360</v>
+      </c>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="86">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E22" s="87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F22" s="60"/>
       <c r="G22" s="60" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H22" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
@@ -4884,7 +4985,7 @@
     </row>
     <row r="23" spans="1:26" ht="15">
       <c r="A23" s="91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B23" s="98">
         <f>B20 + 1</f>
@@ -4898,14 +4999,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E23" s="87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="60" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H23" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
@@ -4928,7 +5029,7 @@
     </row>
     <row r="24" spans="1:26" ht="15">
       <c r="A24" s="99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B24" s="102">
         <f>B20 + 1</f>
@@ -4943,13 +5044,13 @@
       </c>
       <c r="E24" s="73"/>
       <c r="F24" s="60" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H24" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I24" s="56"/>
       <c r="J24" s="56"/>
@@ -4972,13 +5073,13 @@
     </row>
     <row r="25" spans="1:26" ht="15">
       <c r="A25" s="91" t="s">
-        <v>372</v>
-      </c>
-      <c r="B25" s="110">
+        <v>371</v>
+      </c>
+      <c r="B25" s="116">
         <f>B24+1</f>
         <v>43481</v>
       </c>
-      <c r="C25" s="110" t="str">
+      <c r="C25" s="116" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 4</v>
       </c>
@@ -4986,14 +5087,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E25" s="86" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="60" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H25" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I25" s="56"/>
       <c r="J25" s="56"/>
@@ -5016,22 +5117,22 @@
     </row>
     <row r="26" spans="1:26" ht="15">
       <c r="A26" s="99" t="s">
-        <v>362</v>
-      </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
+        <v>361</v>
+      </c>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
       <c r="D26" s="72">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E26" s="73"/>
       <c r="F26" s="60" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G26" s="60" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H26" s="60" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I26" s="56"/>
       <c r="J26" s="56"/>
@@ -5054,22 +5155,22 @@
     </row>
     <row r="27" spans="1:26" ht="15">
       <c r="A27" s="91" t="s">
-        <v>363</v>
-      </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
+        <v>362</v>
+      </c>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
       <c r="D27" s="86">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E27" s="86" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F27" s="60"/>
       <c r="G27" s="60" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H27" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I27" s="56"/>
       <c r="J27" s="56"/>
@@ -5091,29 +5192,29 @@
       <c r="Z27" s="56"/>
     </row>
     <row r="28" spans="1:26" ht="15">
-      <c r="A28" s="92" t="s">
-        <v>400</v>
-      </c>
-      <c r="B28" s="93">
+      <c r="A28" s="99" t="s">
+        <v>399</v>
+      </c>
+      <c r="B28" s="111">
         <f>B25 + 1</f>
         <v>43482</v>
       </c>
-      <c r="C28" s="93" t="str">
+      <c r="C28" s="111" t="str">
         <f t="shared" ref="C28:C32" si="4">IF(WEEKDAY(B28,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B28,1))</f>
         <v>Thứ 5</v>
       </c>
-      <c r="D28" s="94">
+      <c r="D28" s="72">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E28" s="95"/>
+      <c r="E28" s="73"/>
       <c r="F28" s="60" t="s">
-        <v>578</v>
+        <v>788</v>
       </c>
       <c r="G28" s="60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H28" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I28" s="56"/>
       <c r="J28" s="56"/>
@@ -5136,7 +5237,7 @@
     </row>
     <row r="29" spans="1:26" ht="15">
       <c r="A29" s="92" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B29" s="93">
         <f>B25 + 1</f>
@@ -5151,10 +5252,10 @@
       </c>
       <c r="E29" s="95"/>
       <c r="F29" s="60" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G29" s="60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H29" s="60"/>
       <c r="I29" s="56"/>
@@ -5177,29 +5278,29 @@
       <c r="Z29" s="56"/>
     </row>
     <row r="30" spans="1:26" ht="15">
-      <c r="A30" s="92" t="s">
-        <v>373</v>
-      </c>
-      <c r="B30" s="93">
+      <c r="A30" s="91" t="s">
+        <v>372</v>
+      </c>
+      <c r="B30" s="108">
         <f>B28 + 1</f>
         <v>43483</v>
       </c>
-      <c r="C30" s="93" t="str">
+      <c r="C30" s="108" t="str">
         <f t="shared" ref="C30" si="5">IF(WEEKDAY(B30,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B30,1))</f>
         <v>Thứ 6</v>
       </c>
-      <c r="D30" s="94">
+      <c r="D30" s="86">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E30" s="95"/>
+      <c r="E30" s="87"/>
       <c r="F30" s="60" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G30" s="60" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H30" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I30" s="56"/>
       <c r="J30" s="56"/>
@@ -5222,7 +5323,7 @@
     </row>
     <row r="31" spans="1:26" ht="15">
       <c r="A31" s="99" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B31" s="102">
         <f>B29 + 1</f>
@@ -5237,13 +5338,13 @@
       </c>
       <c r="E31" s="73"/>
       <c r="F31" s="60" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G31" s="60" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H31" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
@@ -5266,7 +5367,7 @@
     </row>
     <row r="32" spans="1:26" ht="15">
       <c r="A32" s="91" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B32" s="112">
         <f>B31+1</f>
@@ -5282,10 +5383,10 @@
       <c r="E32" s="86"/>
       <c r="F32" s="60"/>
       <c r="G32" s="60" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H32" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I32" s="56"/>
       <c r="J32" s="56"/>
@@ -5308,7 +5409,7 @@
     </row>
     <row r="33" spans="1:26" ht="15">
       <c r="A33" s="92" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B33" s="113"/>
       <c r="C33" s="113"/>
@@ -5317,13 +5418,13 @@
       </c>
       <c r="E33" s="95"/>
       <c r="F33" s="60" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G33" s="60" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H33" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I33" s="56"/>
       <c r="J33" s="56"/>
@@ -5346,7 +5447,7 @@
     </row>
     <row r="34" spans="1:26" ht="15">
       <c r="A34" s="92" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B34" s="113"/>
       <c r="C34" s="113"/>
@@ -5355,13 +5456,13 @@
       </c>
       <c r="E34" s="95"/>
       <c r="F34" s="60" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G34" s="60" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H34" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
@@ -5384,7 +5485,7 @@
     </row>
     <row r="35" spans="1:26" ht="15">
       <c r="A35" s="92" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B35" s="93">
         <f>B31+ 2</f>
@@ -5399,10 +5500,10 @@
       </c>
       <c r="E35" s="95"/>
       <c r="F35" s="60" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G35" s="60" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H35" s="60"/>
       <c r="I35" s="56"/>
@@ -5426,7 +5527,7 @@
     </row>
     <row r="36" spans="1:26" ht="15">
       <c r="A36" s="92" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B36" s="93">
         <f>B31+ 2</f>
@@ -5441,13 +5542,13 @@
       </c>
       <c r="E36" s="95"/>
       <c r="F36" s="60" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G36" s="60" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H36" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I36" s="56"/>
       <c r="J36" s="56"/>
@@ -5470,7 +5571,7 @@
     </row>
     <row r="37" spans="1:26" ht="15">
       <c r="A37" s="92" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B37" s="112">
         <f>B36+1</f>
@@ -5486,10 +5587,10 @@
       <c r="E37" s="95"/>
       <c r="F37" s="60"/>
       <c r="G37" s="60" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H37" s="60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I37" s="56"/>
       <c r="J37" s="56"/>
@@ -5512,7 +5613,7 @@
     </row>
     <row r="38" spans="1:26" ht="15">
       <c r="A38" s="92" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B38" s="113"/>
       <c r="C38" s="113"/>
@@ -5544,7 +5645,7 @@
     </row>
     <row r="39" spans="1:26" ht="15">
       <c r="A39" s="92" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B39" s="113"/>
       <c r="C39" s="113"/>
@@ -5576,7 +5677,7 @@
     </row>
     <row r="40" spans="1:26" ht="15">
       <c r="A40" s="92" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B40" s="100">
         <f>B36 + 2</f>
@@ -5614,7 +5715,7 @@
     </row>
     <row r="41" spans="1:26" ht="15">
       <c r="A41" s="92" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B41" s="103">
         <f>B36 + 2</f>
@@ -5652,7 +5753,7 @@
     </row>
     <row r="42" spans="1:26" ht="15">
       <c r="A42" s="92" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B42" s="112">
         <f>B36+3</f>
@@ -5690,7 +5791,7 @@
     </row>
     <row r="43" spans="1:26" ht="15">
       <c r="A43" s="92" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B43" s="113"/>
       <c r="C43" s="113"/>
@@ -5722,7 +5823,7 @@
     </row>
     <row r="44" spans="1:26" ht="15">
       <c r="A44" s="92" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B44" s="113"/>
       <c r="C44" s="113"/>
@@ -5754,7 +5855,7 @@
     </row>
     <row r="45" spans="1:26" ht="15">
       <c r="A45" s="92" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B45" s="103">
         <f>B42 + 1</f>
@@ -5792,7 +5893,7 @@
     </row>
     <row r="46" spans="1:26" ht="15">
       <c r="A46" s="92" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B46" s="103">
         <f>B42 + 1</f>
@@ -5830,7 +5931,7 @@
     </row>
     <row r="47" spans="1:26" ht="15">
       <c r="A47" s="92" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B47" s="103">
         <f>B46 + 1</f>
@@ -5868,7 +5969,7 @@
     </row>
     <row r="48" spans="1:26" ht="15">
       <c r="A48" s="92" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B48" s="103">
         <f>B46 + 1</f>
@@ -5906,7 +6007,7 @@
     </row>
     <row r="49" spans="1:26" ht="15">
       <c r="A49" s="92" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B49" s="103">
         <f>B46 +2</f>
@@ -5944,7 +6045,7 @@
     </row>
     <row r="50" spans="1:26" ht="15">
       <c r="A50" s="84" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B50" s="85">
         <f>B46 +2</f>
@@ -5958,7 +6059,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E50" s="87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F50" s="60"/>
       <c r="G50" s="60"/>
@@ -5984,7 +6085,7 @@
     </row>
     <row r="51" spans="1:26" ht="15">
       <c r="A51" s="70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B51" s="68">
         <f>B47 + 2</f>
@@ -6022,7 +6123,7 @@
     </row>
     <row r="52" spans="1:26" ht="15">
       <c r="A52" s="70" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B52" s="68">
         <f>B47 + 2</f>
@@ -6060,7 +6161,7 @@
     </row>
     <row r="53" spans="1:26" ht="15">
       <c r="A53" s="70" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B53" s="68">
         <f t="shared" ref="B53:B61" si="9">B49 + 2</f>
@@ -6098,7 +6199,7 @@
     </row>
     <row r="54" spans="1:26" ht="15">
       <c r="A54" s="84" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B54" s="101">
         <f t="shared" si="9"/>
@@ -6112,7 +6213,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E54" s="87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F54" s="60"/>
       <c r="G54" s="60"/>
@@ -6138,7 +6239,7 @@
     </row>
     <row r="55" spans="1:26" ht="15">
       <c r="A55" s="70" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B55" s="68">
         <f t="shared" si="9"/>
@@ -6176,7 +6277,7 @@
     </row>
     <row r="56" spans="1:26" ht="15">
       <c r="A56" s="70" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B56" s="68">
         <f t="shared" si="9"/>
@@ -6214,7 +6315,7 @@
     </row>
     <row r="57" spans="1:26" ht="15">
       <c r="A57" s="70" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B57" s="68">
         <f t="shared" si="9"/>
@@ -6252,7 +6353,7 @@
     </row>
     <row r="58" spans="1:26" ht="15">
       <c r="A58" s="70" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B58" s="68">
         <f t="shared" si="9"/>
@@ -6290,7 +6391,7 @@
     </row>
     <row r="59" spans="1:26" ht="15">
       <c r="A59" s="70" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B59" s="68">
         <f t="shared" si="9"/>
@@ -6328,7 +6429,7 @@
     </row>
     <row r="60" spans="1:26" ht="15">
       <c r="A60" s="70" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B60" s="68">
         <f t="shared" si="9"/>
@@ -6366,7 +6467,7 @@
     </row>
     <row r="61" spans="1:26" ht="15">
       <c r="A61" s="70" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B61" s="68">
         <f t="shared" si="9"/>
@@ -6404,7 +6505,7 @@
     </row>
     <row r="62" spans="1:26" ht="15">
       <c r="A62" s="70" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B62" s="68">
         <f>B58 + 3</f>
@@ -6442,7 +6543,7 @@
     </row>
     <row r="63" spans="1:26" ht="15">
       <c r="A63" s="70" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B63" s="68">
         <f>B59 +3</f>
@@ -6480,7 +6581,7 @@
     </row>
     <row r="64" spans="1:26" ht="15">
       <c r="A64" s="70" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B64" s="68">
         <f>B60 + 4</f>
@@ -6518,7 +6619,7 @@
     </row>
     <row r="65" spans="1:26" ht="15">
       <c r="A65" s="70" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B65" s="68">
         <f>B61 + 4</f>
@@ -6555,25 +6656,27 @@
       <c r="Z65" s="56"/>
     </row>
     <row r="66" spans="1:26" ht="15">
-      <c r="A66" s="70" t="s">
-        <v>391</v>
-      </c>
-      <c r="B66" s="68">
+      <c r="A66" s="84" t="s">
+        <v>390</v>
+      </c>
+      <c r="B66" s="110">
         <f>B62 + 4</f>
         <v>43502</v>
       </c>
-      <c r="C66" s="68" t="str">
+      <c r="C66" s="110" t="str">
         <f t="shared" si="8"/>
         <v>Thứ 4</v>
       </c>
-      <c r="D66" s="67">
+      <c r="D66" s="86">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E66" s="69"/>
-      <c r="F66" s="60"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="60" t="s">
+        <v>788</v>
+      </c>
       <c r="G66" s="60"/>
       <c r="H66" s="60"/>
-      <c r="I66" s="55"/>
+      <c r="I66" s="56"/>
       <c r="J66" s="56"/>
       <c r="K66" s="56"/>
       <c r="L66" s="56"/>
@@ -30019,18 +30122,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66" xr:uid="{D8B43D4D-3767-4D7F-B59B-D7BBE30CC025}">
@@ -30079,7 +30182,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -30119,7 +30223,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="90">
@@ -30130,7 +30234,7 @@
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
       <c r="E2" s="78" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F2" s="27"/>
     </row>
@@ -30142,7 +30246,7 @@
       <c r="C3" s="78"/>
       <c r="D3" s="78"/>
       <c r="E3" s="78" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F3" s="27"/>
     </row>
@@ -30166,7 +30270,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F5" s="27"/>
     </row>
@@ -30180,7 +30284,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F6" s="27"/>
     </row>
@@ -30192,7 +30296,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="104"/>
@@ -30227,7 +30331,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F10" s="105"/>
       <c r="G10" s="104"/>
@@ -30292,7 +30396,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -30306,7 +30410,7 @@
       <c r="D2" s="78"/>
       <c r="E2" s="81"/>
       <c r="F2" s="74" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
@@ -30319,10 +30423,10 @@
       </c>
       <c r="D3" s="78"/>
       <c r="E3" s="81" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F3" s="74" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -30332,11 +30436,11 @@
       <c r="B4" s="78"/>
       <c r="C4" s="78"/>
       <c r="D4" s="78" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E4" s="81"/>
       <c r="F4" s="74" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -30348,7 +30452,7 @@
       <c r="D5" s="78"/>
       <c r="E5" s="81"/>
       <c r="F5" s="74" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -30359,10 +30463,10 @@
       <c r="C6" s="78"/>
       <c r="D6" s="78"/>
       <c r="E6" s="81" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -30374,7 +30478,7 @@
       <c r="D7" s="78"/>
       <c r="E7" s="81"/>
       <c r="F7" s="74" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G7" s="83"/>
     </row>
@@ -30387,7 +30491,7 @@
       <c r="D8" s="78"/>
       <c r="E8" s="81"/>
       <c r="F8" s="88" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -30408,11 +30512,11 @@
         <v>4</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E10" s="81"/>
       <c r="F10" s="88" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G10" s="83"/>
     </row>
@@ -30425,7 +30529,7 @@
       <c r="D11" s="78"/>
       <c r="E11" s="81"/>
       <c r="F11" s="88" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -30437,13 +30541,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="78" t="s">
+        <v>527</v>
+      </c>
+      <c r="E12" s="81" t="s">
         <v>528</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="F12" s="83" t="s">
         <v>529</v>
-      </c>
-      <c r="F12" s="83" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -30457,7 +30561,7 @@
       <c r="D13" s="78"/>
       <c r="E13" s="81"/>
       <c r="F13" s="88" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -30469,7 +30573,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E14" s="81"/>
     </row>
@@ -30484,7 +30588,7 @@
       <c r="D15" s="78"/>
       <c r="E15" s="81"/>
       <c r="F15" s="88" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -30498,7 +30602,7 @@
       <c r="D16" s="78"/>
       <c r="E16" s="81"/>
       <c r="F16" s="88" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -30511,7 +30615,7 @@
       </c>
       <c r="D17" s="78"/>
       <c r="E17" s="81" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -30524,10 +30628,10 @@
       </c>
       <c r="D18" s="78"/>
       <c r="E18" s="81" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F18" s="74" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -30539,7 +30643,7 @@
       <c r="D19" s="78"/>
       <c r="E19" s="81"/>
       <c r="F19" s="89" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -30551,7 +30655,7 @@
       <c r="D20" s="78"/>
       <c r="E20" s="81"/>
       <c r="F20" s="74" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -30563,11 +30667,11 @@
         <v>4</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E21" s="81"/>
       <c r="F21" s="74" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -30581,7 +30685,7 @@
       <c r="D22" s="78"/>
       <c r="E22" s="81"/>
       <c r="F22" s="74" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30">
@@ -30592,10 +30696,10 @@
       <c r="C23" s="78"/>
       <c r="D23" s="78"/>
       <c r="E23" s="81" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F23" s="74" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -30607,7 +30711,7 @@
       <c r="D24" s="78"/>
       <c r="E24" s="81"/>
       <c r="F24" s="74" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -30901,7 +31005,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="240">
@@ -30914,7 +31018,7 @@
       </c>
       <c r="D2" s="78"/>
       <c r="E2" s="81" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -30936,7 +31040,7 @@
       </c>
       <c r="D4" s="78"/>
       <c r="E4" s="81" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -30967,7 +31071,7 @@
       <c r="C7" s="78"/>
       <c r="D7" s="78"/>
       <c r="E7" s="81" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G7" s="83"/>
     </row>
@@ -30979,7 +31083,7 @@
       <c r="C8" s="78"/>
       <c r="D8" s="78"/>
       <c r="E8" s="81" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
@@ -30991,10 +31095,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E9" s="81" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -31005,7 +31109,7 @@
       <c r="C10" s="78"/>
       <c r="D10" s="78"/>
       <c r="E10" s="81" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G10" s="83"/>
     </row>
@@ -31036,10 +31140,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="78" t="s">
+        <v>672</v>
+      </c>
+      <c r="E13" s="81" t="s">
         <v>673</v>
-      </c>
-      <c r="E13" s="81" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -31060,10 +31164,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="78" t="s">
+        <v>674</v>
+      </c>
+      <c r="E15" s="81" t="s">
         <v>675</v>
-      </c>
-      <c r="E15" s="81" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
@@ -31076,7 +31180,7 @@
       </c>
       <c r="D16" s="78"/>
       <c r="E16" s="81" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -31103,11 +31207,11 @@
       </c>
       <c r="B19" s="78"/>
       <c r="C19" s="78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="78"/>
       <c r="E19" s="81" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -31120,7 +31224,7 @@
       </c>
       <c r="D20" s="78"/>
       <c r="E20" s="81" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -31133,7 +31237,7 @@
       </c>
       <c r="D21" s="78"/>
       <c r="E21" s="81" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -31146,7 +31250,7 @@
       </c>
       <c r="D22" s="78"/>
       <c r="E22" s="81" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -31185,7 +31289,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="78" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E26" s="81"/>
     </row>
@@ -31207,10 +31311,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E28" s="81" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -31232,7 +31336,7 @@
       </c>
       <c r="D30" s="78"/>
       <c r="E30" s="81" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -31244,10 +31348,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="E31" s="81" t="s">
         <v>508</v>
-      </c>
-      <c r="E31" s="81" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -31270,10 +31374,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="78" t="s">
+        <v>509</v>
+      </c>
+      <c r="E33" s="81" t="s">
         <v>510</v>
-      </c>
-      <c r="E33" s="81" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -31313,7 +31417,7 @@
       </c>
       <c r="D37" s="78"/>
       <c r="E37" s="81" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -31326,7 +31430,7 @@
       </c>
       <c r="D38" s="78"/>
       <c r="E38" s="81" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -31363,7 +31467,7 @@
       <c r="B42" s="78"/>
       <c r="C42" s="78"/>
       <c r="D42" s="78" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E42" s="81"/>
     </row>
@@ -31394,10 +31498,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="78" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E45" s="81" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30">
@@ -31410,7 +31514,7 @@
       </c>
       <c r="D46" s="78"/>
       <c r="E46" s="81" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="105">
@@ -31422,10 +31526,10 @@
         <v>4</v>
       </c>
       <c r="D47" s="78" t="s">
+        <v>455</v>
+      </c>
+      <c r="E47" s="81" t="s">
         <v>456</v>
-      </c>
-      <c r="E47" s="81" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -31436,7 +31540,7 @@
       <c r="C48" s="78"/>
       <c r="D48" s="78"/>
       <c r="E48" s="81" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -31458,7 +31562,7 @@
       </c>
       <c r="D50" s="78"/>
       <c r="E50" s="81" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="75">
@@ -31469,7 +31573,7 @@
       <c r="C51" s="78"/>
       <c r="D51" s="78"/>
       <c r="E51" s="81" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -31521,7 +31625,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="225">
@@ -31534,7 +31638,7 @@
       </c>
       <c r="D2" s="78"/>
       <c r="E2" s="81" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -31556,7 +31660,7 @@
       </c>
       <c r="D4" s="78"/>
       <c r="E4" s="81" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -31587,7 +31691,7 @@
       <c r="C7" s="78"/>
       <c r="D7" s="78"/>
       <c r="E7" s="81" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G7" s="83"/>
     </row>
@@ -31599,7 +31703,7 @@
       <c r="C8" s="78"/>
       <c r="D8" s="78"/>
       <c r="E8" s="81" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
@@ -31611,10 +31715,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E9" s="81" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -31625,7 +31729,7 @@
       <c r="C10" s="78"/>
       <c r="D10" s="78"/>
       <c r="E10" s="81" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G10" s="83"/>
     </row>
@@ -31720,7 +31824,7 @@
       </c>
       <c r="D20" s="78"/>
       <c r="E20" s="81" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -31733,7 +31837,7 @@
       </c>
       <c r="D21" s="78"/>
       <c r="E21" s="81" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -31746,7 +31850,7 @@
       </c>
       <c r="D22" s="78"/>
       <c r="E22" s="81" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -31785,7 +31889,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="78" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E26" s="81"/>
     </row>
@@ -31807,10 +31911,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E28" s="81" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -31832,7 +31936,7 @@
       </c>
       <c r="D30" s="78"/>
       <c r="E30" s="81" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -31844,10 +31948,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="E31" s="81" t="s">
         <v>508</v>
-      </c>
-      <c r="E31" s="81" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -31870,10 +31974,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="78" t="s">
+        <v>509</v>
+      </c>
+      <c r="E33" s="81" t="s">
         <v>510</v>
-      </c>
-      <c r="E33" s="81" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -31913,7 +32017,7 @@
       </c>
       <c r="D37" s="78"/>
       <c r="E37" s="81" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -31926,7 +32030,7 @@
       </c>
       <c r="D38" s="78"/>
       <c r="E38" s="81" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -31963,7 +32067,7 @@
       <c r="B42" s="78"/>
       <c r="C42" s="78"/>
       <c r="D42" s="78" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E42" s="81"/>
     </row>
@@ -31994,10 +32098,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="78" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E45" s="81" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30">
@@ -32010,7 +32114,7 @@
       </c>
       <c r="D46" s="78"/>
       <c r="E46" s="81" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="105">
@@ -32022,10 +32126,10 @@
         <v>4</v>
       </c>
       <c r="D47" s="78" t="s">
+        <v>455</v>
+      </c>
+      <c r="E47" s="81" t="s">
         <v>456</v>
-      </c>
-      <c r="E47" s="81" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -32036,7 +32140,7 @@
       <c r="C48" s="78"/>
       <c r="D48" s="78"/>
       <c r="E48" s="81" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -32058,7 +32162,7 @@
       </c>
       <c r="D50" s="78"/>
       <c r="E50" s="81" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="75">
@@ -32069,7 +32173,7 @@
       <c r="C51" s="78"/>
       <c r="D51" s="78"/>
       <c r="E51" s="81" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -32119,7 +32223,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60">
@@ -32131,14 +32235,14 @@
         <v>4</v>
       </c>
       <c r="D2" s="78" t="s">
+        <v>691</v>
+      </c>
+      <c r="E2" s="81" t="s">
         <v>692</v>
-      </c>
-      <c r="E2" s="81" t="s">
-        <v>693</v>
       </c>
       <c r="F2" s="82"/>
       <c r="G2" s="83" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -32160,10 +32264,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="78" t="s">
+        <v>694</v>
+      </c>
+      <c r="E4" s="81" t="s">
         <v>695</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>696</v>
       </c>
       <c r="F4" s="82"/>
     </row>
@@ -32176,10 +32280,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="78" t="s">
+        <v>696</v>
+      </c>
+      <c r="E5" s="81" t="s">
         <v>697</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>698</v>
       </c>
       <c r="F5" s="82"/>
     </row>
@@ -32192,10 +32296,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="78" t="s">
+        <v>698</v>
+      </c>
+      <c r="E6" s="81" t="s">
         <v>699</v>
-      </c>
-      <c r="E6" s="81" t="s">
-        <v>700</v>
       </c>
       <c r="F6" s="82"/>
     </row>
@@ -32209,7 +32313,7 @@
       </c>
       <c r="D7" s="78"/>
       <c r="E7" s="81" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F7" s="82"/>
       <c r="G7" s="83"/>
@@ -32222,7 +32326,7 @@
       <c r="C8" s="78"/>
       <c r="D8" s="78"/>
       <c r="E8" s="81" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F8" s="82"/>
     </row>
@@ -32255,7 +32359,7 @@
       <c r="C11" s="78"/>
       <c r="D11" s="78"/>
       <c r="E11" s="81" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F11" s="82"/>
     </row>
@@ -32279,7 +32383,7 @@
       </c>
       <c r="D13" s="78"/>
       <c r="E13" s="81" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F13" s="82"/>
     </row>
@@ -32303,7 +32407,7 @@
       </c>
       <c r="D15" s="78"/>
       <c r="E15" s="81" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F15" s="82"/>
     </row>
@@ -32317,7 +32421,7 @@
       </c>
       <c r="D16" s="78"/>
       <c r="E16" s="81" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F16" s="82"/>
     </row>
@@ -32329,7 +32433,7 @@
       <c r="C17" s="78"/>
       <c r="D17" s="78"/>
       <c r="E17" s="81" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F17" s="82"/>
     </row>
@@ -32381,7 +32485,7 @@
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
       <c r="E22" s="81" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F22" s="82"/>
     </row>
@@ -32393,7 +32497,7 @@
       <c r="C23" s="78"/>
       <c r="D23" s="78"/>
       <c r="E23" s="81" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F23" s="82"/>
     </row>
@@ -32425,7 +32529,7 @@
       <c r="C26" s="78"/>
       <c r="D26" s="78"/>
       <c r="E26" s="81" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F26" s="82"/>
     </row>
@@ -32448,10 +32552,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="78" t="s">
+        <v>710</v>
+      </c>
+      <c r="E28" s="81" t="s">
         <v>711</v>
-      </c>
-      <c r="E28" s="81" t="s">
-        <v>712</v>
       </c>
       <c r="F28" s="82"/>
     </row>
@@ -32475,7 +32579,7 @@
       </c>
       <c r="D30" s="78"/>
       <c r="E30" s="81" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F30" s="82"/>
     </row>
@@ -32487,7 +32591,7 @@
       <c r="C31" s="78"/>
       <c r="D31" s="78"/>
       <c r="E31" s="81" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F31" s="82"/>
     </row>
@@ -32509,7 +32613,7 @@
       <c r="C33" s="78"/>
       <c r="D33" s="78"/>
       <c r="E33" s="81" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F33" s="82"/>
     </row>
@@ -32531,7 +32635,7 @@
       <c r="C35" s="78"/>
       <c r="D35" s="78"/>
       <c r="E35" s="81" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F35" s="82"/>
     </row>
@@ -32543,7 +32647,7 @@
       <c r="C36" s="78"/>
       <c r="D36" s="78"/>
       <c r="E36" s="81" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F36" s="82"/>
     </row>
@@ -32555,7 +32659,7 @@
       <c r="C37" s="78"/>
       <c r="D37" s="78"/>
       <c r="E37" s="81" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F37" s="82"/>
     </row>
@@ -32598,7 +32702,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E41" s="81"/>
       <c r="F41" s="82"/>
@@ -32613,7 +32717,7 @@
       </c>
       <c r="D42" s="78"/>
       <c r="E42" s="81" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F42" s="82"/>
     </row>
@@ -32627,7 +32731,7 @@
       </c>
       <c r="D43" s="78"/>
       <c r="E43" s="81" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F43" s="82"/>
     </row>
@@ -32641,7 +32745,7 @@
       </c>
       <c r="D44" s="78"/>
       <c r="E44" s="81" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F44" s="82"/>
     </row>
@@ -32653,7 +32757,7 @@
       <c r="C45" s="78"/>
       <c r="D45" s="78"/>
       <c r="E45" s="81" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F45" s="82"/>
     </row>
@@ -32767,7 +32871,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
@@ -32780,7 +32884,7 @@
       </c>
       <c r="D2" s="78"/>
       <c r="E2" s="81" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F2" s="82"/>
     </row>
@@ -32861,17 +32965,17 @@
       </c>
       <c r="B10" s="78"/>
       <c r="C10" s="78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="78" t="s">
+        <v>440</v>
+      </c>
+      <c r="E10" s="81" t="s">
         <v>441</v>
-      </c>
-      <c r="E10" s="81" t="s">
-        <v>442</v>
       </c>
       <c r="F10" s="82"/>
       <c r="G10" s="83" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -32893,10 +32997,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="78" t="s">
+        <v>443</v>
+      </c>
+      <c r="E12" s="81" t="s">
         <v>444</v>
-      </c>
-      <c r="E12" s="81" t="s">
-        <v>445</v>
       </c>
       <c r="F12" s="82"/>
     </row>
@@ -32940,11 +33044,11 @@
       </c>
       <c r="D16" s="78"/>
       <c r="E16" s="81" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F16" s="82"/>
       <c r="G16" s="74" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -33007,7 +33111,7 @@
       </c>
       <c r="D22" s="78"/>
       <c r="E22" s="81" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F22" s="82"/>
     </row>
@@ -33031,7 +33135,7 @@
       </c>
       <c r="D24" s="78"/>
       <c r="E24" s="81" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F24" s="82"/>
     </row>
@@ -33127,7 +33231,7 @@
       </c>
       <c r="D33" s="78"/>
       <c r="E33" s="81" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F33" s="82"/>
     </row>
@@ -33181,7 +33285,7 @@
       </c>
       <c r="D38" s="78"/>
       <c r="E38" s="81" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F38" s="82"/>
     </row>
@@ -33305,7 +33409,7 @@
       </c>
       <c r="D50" s="78"/>
       <c r="E50" s="81" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F50" s="82"/>
     </row>
@@ -33339,8 +33443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AD6CE4-A652-4BA6-AF5B-7B55F9607709}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33371,17 +33475,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45">
       <c r="A2" s="78">
         <v>1</v>
       </c>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
-      <c r="E2" s="81"/>
+      <c r="E2" s="81" t="s">
+        <v>888</v>
+      </c>
       <c r="F2" s="82"/>
     </row>
     <row r="3" spans="1:8">
@@ -33394,14 +33500,18 @@
       <c r="E3" s="81"/>
       <c r="F3" s="82"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="75">
       <c r="A4" s="78">
         <v>3</v>
       </c>
       <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
+      <c r="C4" s="78" t="s">
+        <v>4</v>
+      </c>
       <c r="D4" s="78"/>
-      <c r="E4" s="81"/>
+      <c r="E4" s="81" t="s">
+        <v>889</v>
+      </c>
       <c r="F4" s="82"/>
     </row>
     <row r="5" spans="1:8">
@@ -33414,24 +33524,32 @@
       <c r="E5" s="81"/>
       <c r="F5" s="82"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="45">
       <c r="A6" s="78">
         <v>5</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
+      <c r="C6" s="78" t="s">
+        <v>4</v>
+      </c>
       <c r="D6" s="78"/>
-      <c r="E6" s="81"/>
+      <c r="E6" s="81" t="s">
+        <v>890</v>
+      </c>
       <c r="F6" s="82"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="45">
       <c r="A7" s="78">
         <v>6</v>
       </c>
       <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
+      <c r="C7" s="78" t="s">
+        <v>4</v>
+      </c>
       <c r="D7" s="78"/>
-      <c r="E7" s="81"/>
+      <c r="E7" s="81" t="s">
+        <v>891</v>
+      </c>
       <c r="F7" s="82"/>
       <c r="G7" s="83"/>
     </row>
@@ -33930,7 +34048,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -34487,7 +34605,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30">
@@ -34498,7 +34616,7 @@
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
       <c r="E2" s="81" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F2" s="82"/>
     </row>
@@ -34510,7 +34628,7 @@
       <c r="C3" s="78"/>
       <c r="D3" s="78"/>
       <c r="E3" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F3" s="82"/>
     </row>
@@ -34532,7 +34650,7 @@
       <c r="C5" s="78"/>
       <c r="D5" s="78"/>
       <c r="E5" s="81" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F5" s="82"/>
     </row>
@@ -34546,7 +34664,7 @@
       </c>
       <c r="D6" s="78"/>
       <c r="E6" s="81" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F6" s="82"/>
     </row>
@@ -34560,7 +34678,7 @@
       </c>
       <c r="D7" s="78"/>
       <c r="E7" s="81" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F7" s="82"/>
       <c r="G7" s="83"/>
@@ -34583,7 +34701,7 @@
       <c r="C9" s="78"/>
       <c r="D9" s="78"/>
       <c r="E9" s="81" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F9" s="82"/>
     </row>
@@ -34607,10 +34725,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="78" t="s">
+        <v>742</v>
+      </c>
+      <c r="E11" s="81" t="s">
         <v>743</v>
-      </c>
-      <c r="E11" s="81" t="s">
-        <v>744</v>
       </c>
       <c r="F11" s="82"/>
       <c r="H11" s="83"/>
@@ -34625,11 +34743,11 @@
       </c>
       <c r="D12" s="78"/>
       <c r="E12" s="81" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F12" s="82"/>
       <c r="G12" s="81" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45">
@@ -34642,7 +34760,7 @@
       </c>
       <c r="D13" s="78"/>
       <c r="E13" s="81" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F13" s="82"/>
     </row>
@@ -34656,7 +34774,7 @@
       </c>
       <c r="D14" s="77"/>
       <c r="E14" s="81" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F14" s="82"/>
     </row>
@@ -34670,7 +34788,7 @@
       </c>
       <c r="D15" s="78"/>
       <c r="E15" s="81" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F15" s="82"/>
     </row>
@@ -34682,7 +34800,7 @@
       <c r="C16" s="78"/>
       <c r="D16" s="78"/>
       <c r="E16" s="81" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F16" s="82"/>
     </row>
@@ -34704,7 +34822,7 @@
       <c r="C18" s="78"/>
       <c r="D18" s="78"/>
       <c r="E18" s="81" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F18" s="82"/>
     </row>
@@ -34716,7 +34834,7 @@
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
       <c r="E19" s="81" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F19" s="82"/>
     </row>
@@ -34730,7 +34848,7 @@
       </c>
       <c r="D20" s="78"/>
       <c r="E20" s="81" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F20" s="82"/>
     </row>
@@ -34744,7 +34862,7 @@
       </c>
       <c r="D21" s="78"/>
       <c r="E21" s="81" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F21" s="82"/>
     </row>
@@ -34758,7 +34876,7 @@
       </c>
       <c r="D22" s="78"/>
       <c r="E22" s="81" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F22" s="82"/>
     </row>
@@ -34782,7 +34900,7 @@
       </c>
       <c r="D24" s="78"/>
       <c r="E24" s="81" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F24" s="82"/>
     </row>
@@ -34794,7 +34912,7 @@
       <c r="C25" s="78"/>
       <c r="D25" s="78"/>
       <c r="E25" s="81" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F25" s="82"/>
     </row>
@@ -34807,10 +34925,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="78" t="s">
+        <v>757</v>
+      </c>
+      <c r="E26" s="81" t="s">
         <v>758</v>
-      </c>
-      <c r="E26" s="81" t="s">
-        <v>759</v>
       </c>
       <c r="F26" s="82"/>
     </row>
@@ -34821,10 +34939,10 @@
       <c r="B27" s="78"/>
       <c r="C27" s="78"/>
       <c r="D27" s="78" t="s">
+        <v>759</v>
+      </c>
+      <c r="E27" s="81" t="s">
         <v>760</v>
-      </c>
-      <c r="E27" s="81" t="s">
-        <v>761</v>
       </c>
       <c r="F27" s="82"/>
     </row>
@@ -34838,7 +34956,7 @@
       </c>
       <c r="D28" s="78"/>
       <c r="E28" s="81" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F28" s="82"/>
     </row>
@@ -34850,7 +34968,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="78"/>
       <c r="E29" s="81" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F29" s="82"/>
     </row>
@@ -34862,7 +34980,7 @@
       <c r="C30" s="78"/>
       <c r="D30" s="78"/>
       <c r="E30" s="81" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F30" s="82"/>
     </row>
@@ -34884,7 +35002,7 @@
       <c r="C32" s="78"/>
       <c r="D32" s="78"/>
       <c r="E32" s="81" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F32" s="82"/>
     </row>
@@ -34897,10 +35015,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="78" t="s">
+        <v>765</v>
+      </c>
+      <c r="E33" s="81" t="s">
         <v>766</v>
-      </c>
-      <c r="E33" s="81" t="s">
-        <v>767</v>
       </c>
       <c r="F33" s="82"/>
     </row>
@@ -34922,7 +35040,7 @@
       <c r="C35" s="78"/>
       <c r="D35" s="78"/>
       <c r="E35" s="81" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F35" s="82"/>
     </row>
@@ -34946,7 +35064,7 @@
       </c>
       <c r="D37" s="78"/>
       <c r="E37" s="81" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F37" s="82"/>
     </row>
@@ -34959,10 +35077,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="78" t="s">
+        <v>769</v>
+      </c>
+      <c r="E38" s="81" t="s">
         <v>770</v>
-      </c>
-      <c r="E38" s="81" t="s">
-        <v>771</v>
       </c>
       <c r="F38" s="82"/>
     </row>
@@ -34975,10 +35093,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="78" t="s">
+        <v>771</v>
+      </c>
+      <c r="E39" s="81" t="s">
         <v>772</v>
-      </c>
-      <c r="E39" s="81" t="s">
-        <v>773</v>
       </c>
       <c r="F39" s="82"/>
     </row>
@@ -34991,7 +35109,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="78" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F40" s="82"/>
     </row>
@@ -35003,7 +35121,7 @@
       <c r="C41" s="78"/>
       <c r="D41" s="78"/>
       <c r="E41" s="81" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F41" s="82"/>
     </row>
@@ -35015,7 +35133,7 @@
       <c r="C42" s="78"/>
       <c r="D42" s="78"/>
       <c r="E42" s="81" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F42" s="82"/>
     </row>
@@ -35026,10 +35144,10 @@
       <c r="B43" s="78"/>
       <c r="C43" s="78"/>
       <c r="D43" s="78" t="s">
+        <v>776</v>
+      </c>
+      <c r="E43" s="81" t="s">
         <v>777</v>
-      </c>
-      <c r="E43" s="81" t="s">
-        <v>778</v>
       </c>
       <c r="F43" s="82"/>
     </row>
@@ -35051,7 +35169,7 @@
       <c r="C45" s="78"/>
       <c r="D45" s="78"/>
       <c r="E45" s="81" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F45" s="82"/>
     </row>
@@ -35065,7 +35183,7 @@
       </c>
       <c r="D46" s="78"/>
       <c r="E46" s="81" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F46" s="82"/>
     </row>
@@ -35099,7 +35217,7 @@
       </c>
       <c r="D49" s="78"/>
       <c r="E49" s="81" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F49" s="82"/>
     </row>
@@ -35113,7 +35231,7 @@
       </c>
       <c r="D50" s="78"/>
       <c r="E50" s="81" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F50" s="82"/>
     </row>
@@ -35127,7 +35245,7 @@
       </c>
       <c r="D51" s="78"/>
       <c r="E51" s="81" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F51" s="82"/>
     </row>
@@ -35179,7 +35297,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30">
@@ -35190,11 +35308,11 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -35207,7 +35325,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="28"/>
       <c r="G3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -35249,14 +35367,14 @@
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>425</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>426</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="71" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45">
@@ -35268,10 +35386,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>428</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>429</v>
       </c>
       <c r="F8" s="28"/>
     </row>
@@ -35281,13 +35399,13 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F9" s="28"/>
     </row>
@@ -35297,17 +35415,17 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>431</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>432</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="83" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="90">
@@ -35319,14 +35437,14 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>593</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>594</v>
       </c>
       <c r="F11" s="28"/>
       <c r="H11" s="83" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -35349,11 +35467,11 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30">
@@ -35366,11 +35484,11 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -35393,7 +35511,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F16" s="28"/>
     </row>
@@ -35425,7 +35543,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F19" s="28"/>
     </row>
@@ -35439,7 +35557,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F20" s="28"/>
     </row>
@@ -35473,11 +35591,11 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45">
@@ -35488,11 +35606,11 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="60">
@@ -35505,7 +35623,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F25" s="28"/>
     </row>
@@ -35519,7 +35637,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F26" s="28"/>
     </row>
@@ -35551,7 +35669,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F29" s="28"/>
     </row>
@@ -35565,7 +35683,7 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F30" s="28"/>
     </row>
@@ -35589,7 +35707,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F32" s="28"/>
     </row>
@@ -35613,7 +35731,7 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F34" s="28"/>
     </row>
@@ -35627,7 +35745,7 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F35" s="28"/>
     </row>
@@ -35641,7 +35759,7 @@
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F36" s="28"/>
     </row>
@@ -35675,7 +35793,7 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F39" s="28"/>
     </row>
@@ -35757,7 +35875,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F47" s="28"/>
     </row>
@@ -35768,7 +35886,7 @@
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="28"/>
@@ -35783,7 +35901,7 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F49" s="28"/>
     </row>
@@ -35803,11 +35921,11 @@
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F51" s="28"/>
     </row>
@@ -35863,7 +35981,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
@@ -35876,10 +35994,10 @@
       </c>
       <c r="D2" s="78"/>
       <c r="E2" s="81" t="s">
+        <v>579</v>
+      </c>
+      <c r="F2" s="74" t="s">
         <v>580</v>
-      </c>
-      <c r="F2" s="74" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="90">
@@ -35890,10 +36008,10 @@
       <c r="C3" s="78"/>
       <c r="D3" s="78"/>
       <c r="E3" s="81" t="s">
+        <v>581</v>
+      </c>
+      <c r="F3" s="74" t="s">
         <v>582</v>
-      </c>
-      <c r="F3" s="74" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
@@ -35905,13 +36023,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="78" t="s">
+        <v>583</v>
+      </c>
+      <c r="E4" s="81" t="s">
         <v>584</v>
       </c>
-      <c r="E4" s="81" t="s">
-        <v>585</v>
-      </c>
       <c r="F4" s="83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -35933,10 +36051,10 @@
       </c>
       <c r="D6" s="78"/>
       <c r="E6" s="81" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F6" s="88" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -35948,7 +36066,7 @@
       <c r="D7" s="78"/>
       <c r="E7" s="81"/>
       <c r="F7" s="88" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G7" s="83"/>
     </row>
@@ -35962,7 +36080,7 @@
       </c>
       <c r="D8" s="78"/>
       <c r="E8" s="81" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F8" s="88"/>
     </row>
@@ -35975,10 +36093,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E9" s="81" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
@@ -35990,10 +36108,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E10" s="81" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F10" s="88"/>
       <c r="G10" s="83"/>
@@ -36017,10 +36135,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="78" t="s">
+        <v>791</v>
+      </c>
+      <c r="E12" s="81" t="s">
         <v>792</v>
-      </c>
-      <c r="E12" s="81" t="s">
-        <v>793</v>
       </c>
       <c r="F12" s="83"/>
     </row>
@@ -36044,7 +36162,7 @@
       </c>
       <c r="D14" s="77"/>
       <c r="E14" s="81" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30">
@@ -36057,10 +36175,10 @@
       </c>
       <c r="D15" s="78"/>
       <c r="E15" s="81" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F15" s="88" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -36081,7 +36199,7 @@
       <c r="C17" s="78"/>
       <c r="D17" s="78"/>
       <c r="E17" s="81" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45">
@@ -36092,10 +36210,10 @@
       <c r="C18" s="78"/>
       <c r="D18" s="78"/>
       <c r="E18" s="81" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F18" s="74" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45">
@@ -36106,10 +36224,10 @@
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
       <c r="E19" s="81" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F19" s="89" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="75">
@@ -36122,7 +36240,7 @@
       </c>
       <c r="D20" s="78"/>
       <c r="E20" s="81" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60">
@@ -36134,10 +36252,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="78" t="s">
+        <v>800</v>
+      </c>
+      <c r="E21" s="81" t="s">
         <v>801</v>
-      </c>
-      <c r="E21" s="81" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -36166,7 +36284,7 @@
       <c r="C24" s="78"/>
       <c r="D24" s="78"/>
       <c r="E24" s="81" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30">
@@ -36179,7 +36297,7 @@
       </c>
       <c r="D25" s="78"/>
       <c r="E25" s="81" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45">
@@ -36192,10 +36310,10 @@
       </c>
       <c r="D26" s="78"/>
       <c r="E26" s="81" t="s">
+        <v>804</v>
+      </c>
+      <c r="F26" s="74" t="s">
         <v>805</v>
-      </c>
-      <c r="F26" s="74" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="75">
@@ -36208,7 +36326,7 @@
       </c>
       <c r="D27" s="78"/>
       <c r="E27" s="81" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="45">
@@ -36219,7 +36337,7 @@
       <c r="C28" s="78"/>
       <c r="D28" s="78"/>
       <c r="E28" s="81" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
@@ -36232,7 +36350,7 @@
       </c>
       <c r="D29" s="78"/>
       <c r="E29" s="81" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -36254,10 +36372,10 @@
       </c>
       <c r="D31" s="78"/>
       <c r="E31" s="81" t="s">
+        <v>809</v>
+      </c>
+      <c r="F31" s="74" t="s">
         <v>810</v>
-      </c>
-      <c r="F31" s="74" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="90">
@@ -36270,10 +36388,10 @@
       </c>
       <c r="D32" s="78"/>
       <c r="E32" s="81" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F32" s="74" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30">
@@ -36284,7 +36402,7 @@
       <c r="C33" s="78"/>
       <c r="D33" s="78"/>
       <c r="E33" s="81" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="60">
@@ -36295,7 +36413,7 @@
       <c r="C34" s="78"/>
       <c r="D34" s="78"/>
       <c r="E34" s="81" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -36308,7 +36426,7 @@
       </c>
       <c r="D35" s="78"/>
       <c r="E35" s="81" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -36337,10 +36455,10 @@
       <c r="C38" s="78"/>
       <c r="D38" s="78"/>
       <c r="E38" s="81" t="s">
+        <v>815</v>
+      </c>
+      <c r="F38" s="74" t="s">
         <v>816</v>
-      </c>
-      <c r="F38" s="74" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45">
@@ -36353,7 +36471,7 @@
       </c>
       <c r="D39" s="78"/>
       <c r="E39" s="81" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -36375,7 +36493,7 @@
       </c>
       <c r="D41" s="78"/>
       <c r="E41" s="81" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -36397,10 +36515,10 @@
       </c>
       <c r="D43" s="78"/>
       <c r="E43" s="81" t="s">
+        <v>819</v>
+      </c>
+      <c r="F43" s="74" t="s">
         <v>820</v>
-      </c>
-      <c r="F43" s="74" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -36421,10 +36539,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="78" t="s">
+        <v>821</v>
+      </c>
+      <c r="E45" s="81" t="s">
         <v>822</v>
-      </c>
-      <c r="E45" s="81" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="45">
@@ -36435,7 +36553,7 @@
       <c r="C46" s="78"/>
       <c r="D46" s="78"/>
       <c r="E46" s="81" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="75">
@@ -36446,7 +36564,7 @@
       <c r="C47" s="78"/>
       <c r="D47" s="78"/>
       <c r="E47" s="81" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30">
@@ -36457,7 +36575,7 @@
       <c r="C48" s="78"/>
       <c r="D48" s="78"/>
       <c r="E48" s="81" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -36533,7 +36651,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
@@ -36547,10 +36665,10 @@
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="F2" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H2" s="24"/>
     </row>
@@ -36569,10 +36687,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H3" s="24"/>
     </row>
@@ -36626,7 +36744,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="24"/>
@@ -36640,16 +36758,16 @@
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="24" t="s">
+      <c r="H8" s="24" t="s">
         <v>235</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -36661,13 +36779,13 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -36679,13 +36797,13 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -36701,13 +36819,13 @@
         <v>39</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H11" s="33" t="s">
         <v>239</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -36925,7 +37043,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -36936,7 +37054,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -36949,7 +37067,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -36971,7 +37089,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -37072,7 +37190,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
@@ -37085,7 +37203,7 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -37123,7 +37241,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="90">
@@ -37134,7 +37252,7 @@
       <c r="C8" s="27"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="105">
@@ -37145,7 +37263,7 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="105">
@@ -37156,7 +37274,7 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="150">
@@ -37167,7 +37285,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -37194,7 +37312,7 @@
     <col min="2" max="2" width="21.42578125" style="74" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="74" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="74" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="120" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="109" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="74"/>
   </cols>
   <sheetData>
@@ -37223,7 +37341,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -37252,7 +37370,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -37272,7 +37390,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -37310,7 +37428,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>
@@ -37439,7 +37557,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E10" s="27"/>
     </row>
@@ -37522,7 +37640,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -37652,7 +37770,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -37673,7 +37791,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F3" s="28"/>
     </row>
@@ -37703,13 +37821,13 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>310</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>311</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -37728,11 +37846,11 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F8" s="28"/>
     </row>
@@ -37746,7 +37864,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F9" s="28"/>
     </row>
@@ -37758,7 +37876,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F10" s="28"/>
     </row>
@@ -37768,13 +37886,13 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>306</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>307</v>
       </c>
       <c r="F11" s="28"/>
     </row>
@@ -37818,7 +37936,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F15" s="28"/>
     </row>
@@ -37831,7 +37949,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="28"/>
@@ -37990,7 +38108,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
@@ -38003,7 +38121,7 @@
       </c>
       <c r="D2" s="78"/>
       <c r="E2" s="81" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F2" s="82"/>
     </row>
@@ -38017,7 +38135,7 @@
       </c>
       <c r="D3" s="78"/>
       <c r="E3" s="81" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F3" s="82"/>
     </row>
@@ -38029,7 +38147,7 @@
       <c r="C4" s="78"/>
       <c r="D4" s="78"/>
       <c r="E4" s="81" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F4" s="82"/>
     </row>
@@ -38043,7 +38161,7 @@
       </c>
       <c r="D5" s="78"/>
       <c r="E5" s="81" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F5" s="82"/>
     </row>
@@ -38067,7 +38185,7 @@
       </c>
       <c r="D7" s="78"/>
       <c r="E7" s="77" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F7" s="82"/>
     </row>
@@ -38081,7 +38199,7 @@
       </c>
       <c r="D8" s="78"/>
       <c r="E8" s="81" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F8" s="82"/>
     </row>
@@ -38095,7 +38213,7 @@
       </c>
       <c r="D9" s="78"/>
       <c r="E9" s="81" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F9" s="82"/>
     </row>
@@ -38148,7 +38266,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F14" s="82"/>
     </row>
@@ -38169,7 +38287,7 @@
       <c r="C16" s="78"/>
       <c r="D16" s="78"/>
       <c r="E16" s="81" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F16" s="82"/>
     </row>
@@ -38181,7 +38299,7 @@
       <c r="C17" s="78"/>
       <c r="D17" s="78"/>
       <c r="E17" s="81" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F17" s="82"/>
     </row>
@@ -38215,7 +38333,7 @@
       </c>
       <c r="D20" s="78"/>
       <c r="E20" s="81" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F20" s="82"/>
     </row>
@@ -38227,7 +38345,7 @@
       <c r="C21" s="78"/>
       <c r="D21" s="78"/>
       <c r="E21" s="81" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F21" s="82"/>
     </row>
@@ -38271,7 +38389,7 @@
       </c>
       <c r="D25" s="78"/>
       <c r="E25" s="81" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F25" s="82"/>
     </row>
@@ -38337,7 +38455,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -38356,13 +38474,13 @@
       </c>
       <c r="B3" s="78"/>
       <c r="C3" s="78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="78" t="s">
+        <v>726</v>
+      </c>
+      <c r="E3" s="81" t="s">
         <v>727</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>728</v>
       </c>
       <c r="F3" s="82"/>
     </row>
@@ -38374,7 +38492,7 @@
       <c r="C4" s="78"/>
       <c r="D4" s="78"/>
       <c r="E4" s="81" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F4" s="82"/>
     </row>
@@ -38386,7 +38504,7 @@
       <c r="C5" s="78"/>
       <c r="D5" s="78"/>
       <c r="E5" s="81" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F5" s="82"/>
     </row>
@@ -38410,7 +38528,7 @@
       </c>
       <c r="D7" s="78"/>
       <c r="E7" s="77" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F7" s="82"/>
     </row>
@@ -38422,7 +38540,7 @@
       <c r="C8" s="78"/>
       <c r="D8" s="78"/>
       <c r="E8" s="81" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F8" s="82"/>
     </row>
@@ -38436,7 +38554,7 @@
       </c>
       <c r="D9" s="78"/>
       <c r="E9" s="81" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F9" s="82"/>
     </row>
@@ -38470,7 +38588,7 @@
       </c>
       <c r="D12" s="78"/>
       <c r="E12" s="81" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F12" s="82"/>
     </row>
@@ -38502,7 +38620,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="78" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F15" s="82"/>
     </row>
@@ -38524,7 +38642,7 @@
       <c r="C17" s="78"/>
       <c r="D17" s="78"/>
       <c r="E17" s="81" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F17" s="82"/>
     </row>
@@ -38536,7 +38654,7 @@
       <c r="C18" s="78"/>
       <c r="D18" s="78"/>
       <c r="E18" s="81" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F18" s="82"/>
     </row>
@@ -38558,7 +38676,7 @@
       <c r="C20" s="78"/>
       <c r="D20" s="78"/>
       <c r="E20" s="81" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F20" s="82"/>
     </row>
@@ -38580,7 +38698,7 @@
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
       <c r="E22" s="81" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F22" s="82"/>
     </row>
@@ -38679,7 +38797,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
@@ -38690,10 +38808,10 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -38705,7 +38823,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -38735,10 +38853,10 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -38759,7 +38877,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -38771,7 +38889,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -38784,10 +38902,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -38799,7 +38917,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -38810,7 +38928,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
@@ -38824,10 +38942,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F13" s="16"/>
     </row>
@@ -38838,7 +38956,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F14" s="16"/>
     </row>
@@ -38851,16 +38969,16 @@
         <v>4</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45">
@@ -38872,10 +38990,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>296</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -38887,7 +39005,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -38900,10 +39018,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>292</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>293</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -38915,7 +39033,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F19" s="16"/>
     </row>
@@ -38937,7 +39055,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -38949,7 +39067,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F22" s="16"/>
     </row>
@@ -38962,10 +39080,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>287</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>288</v>
       </c>
       <c r="F23" s="16"/>
     </row>
@@ -38976,10 +39094,10 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F24" s="16"/>
     </row>
@@ -38992,10 +39110,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -39008,13 +39126,13 @@
         <v>4</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -39079,7 +39197,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -39100,10 +39218,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -39123,7 +39241,7 @@
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -39135,10 +39253,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -39151,7 +39269,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60">
@@ -39164,7 +39282,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -39177,7 +39295,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -39214,7 +39332,7 @@
     <col min="2" max="2" width="21.42578125" style="74" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="74" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="74" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" style="120" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" style="109" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="74"/>
   </cols>
   <sheetData>
@@ -39235,7 +39353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90">
+    <row r="2" spans="1:5" ht="45">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -39243,10 +39361,10 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="150">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="90">
       <c r="A3" s="27">
         <v>2</v>
       </c>
@@ -39254,7 +39372,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -39284,7 +39402,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="120">
+    <row r="7" spans="1:5" ht="60">
       <c r="A7" s="27">
         <v>6</v>
       </c>
@@ -39292,7 +39410,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -39304,7 +39422,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="90">
+    <row r="9" spans="1:5" ht="45">
       <c r="A9" s="27">
         <v>8</v>
       </c>
@@ -39312,7 +39430,7 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -39324,7 +39442,7 @@
       <c r="D10" s="27"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="240">
+    <row r="11" spans="1:5" ht="135">
       <c r="A11" s="27">
         <v>10</v>
       </c>
@@ -39332,7 +39450,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -39471,10 +39589,10 @@
       <c r="B9" s="78"/>
       <c r="C9" s="78"/>
       <c r="D9" s="78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -39519,7 +39637,7 @@
       <c r="B13" s="78"/>
       <c r="C13" s="78"/>
       <c r="D13" s="78" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E13" s="78"/>
     </row>
@@ -39556,7 +39674,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E16" s="78"/>
     </row>
@@ -39600,13 +39718,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="78" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E20" s="78"/>
     </row>
@@ -39619,10 +39737,10 @@
         <v>23</v>
       </c>
       <c r="D21" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="78" t="s">
         <v>112</v>
-      </c>
-      <c r="E21" s="78" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="90">
@@ -39634,7 +39752,7 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E22" s="78"/>
     </row>
@@ -39647,7 +39765,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E23" s="78"/>
     </row>
@@ -39656,14 +39774,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="78" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="78"/>
       <c r="E24" s="78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="60">
@@ -39676,7 +39794,7 @@
       </c>
       <c r="D25" s="78"/>
       <c r="E25" s="78" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -39725,15 +39843,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
@@ -39757,7 +39875,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>1</v>
@@ -39777,19 +39895,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>4</v>
@@ -39806,10 +39924,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>4</v>
@@ -39823,20 +39941,20 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="60">
@@ -39847,26 +39965,26 @@
         <v>23</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="H6" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30">
@@ -39877,23 +39995,23 @@
         <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="75">
@@ -39904,12 +40022,12 @@
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="H8" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="93" customHeight="1">
@@ -39917,26 +40035,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -39948,10 +40066,10 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="H10" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -39963,7 +40081,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="H11" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="90">
@@ -39974,25 +40092,25 @@
         <v>4</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -40004,10 +40122,10 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="H13" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30">
@@ -40018,18 +40136,18 @@
         <v>23</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="H14" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -40041,7 +40159,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="H15" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -40053,7 +40171,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="H16" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="60">
@@ -40065,13 +40183,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="H17" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="45">
@@ -40082,28 +40200,28 @@
         <v>23</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -40114,14 +40232,14 @@
         <v>23</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="8"/>
       <c r="H19" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="45">
@@ -40133,13 +40251,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="H20" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45">
@@ -40151,11 +40269,11 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="8"/>
       <c r="H21" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="240">
@@ -40166,19 +40284,19 @@
         <v>4</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30">
@@ -40192,19 +40310,19 @@
         <v>23</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30">
@@ -40216,16 +40334,16 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -40237,7 +40355,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="H25" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45">
@@ -40248,19 +40366,19 @@
         <v>4</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -40271,10 +40389,10 @@
         <v>4</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="45">
@@ -40285,19 +40403,19 @@
         <v>4</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>4</v>
@@ -40308,7 +40426,7 @@
         <v>27</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -40316,7 +40434,7 @@
         <v>28</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -40324,7 +40442,7 @@
         <v>29</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="45">
@@ -40332,16 +40450,16 @@
         <v>30</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="75">
@@ -40352,16 +40470,16 @@
         <v>4</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30">
@@ -40369,10 +40487,10 @@
         <v>32</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="75">
@@ -40380,16 +40498,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -40400,10 +40518,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30">
@@ -40414,13 +40532,13 @@
         <v>4</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="75">
@@ -40431,25 +40549,25 @@
         <v>4</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="120">
@@ -40460,13 +40578,13 @@
         <v>4</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="195">
@@ -40477,13 +40595,13 @@
         <v>4</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -40491,7 +40609,7 @@
         <v>39</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -40499,10 +40617,10 @@
         <v>40</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="60">
@@ -40513,16 +40631,16 @@
         <v>4</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="105">
@@ -40533,19 +40651,19 @@
         <v>4</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="60">
@@ -40556,10 +40674,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="60">
@@ -40570,16 +40688,16 @@
         <v>4</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>4</v>
@@ -40593,10 +40711,10 @@
         <v>4</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="60">
@@ -40607,13 +40725,13 @@
         <v>4</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -40621,7 +40739,7 @@
         <v>47</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="45">
@@ -40632,16 +40750,16 @@
         <v>4</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H50" s="11"/>
     </row>
@@ -40650,7 +40768,7 @@
         <v>49</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -40734,7 +40852,7 @@
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F2" s="36"/>
       <c r="G2" s="37">
@@ -40744,10 +40862,10 @@
         <v>4</v>
       </c>
       <c r="I2" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="J2" s="36" t="s">
         <v>242</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1">
@@ -40791,7 +40909,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="32"/>
@@ -40802,10 +40920,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="32" t="s">
         <v>244</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51.75" thickBot="1">
@@ -40825,7 +40943,7 @@
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="204.75" thickBot="1">
@@ -40844,10 +40962,10 @@
         <v>4</v>
       </c>
       <c r="I7" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="J7" s="32" t="s">
         <v>247</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45.75" thickBot="1">
@@ -40887,13 +41005,13 @@
         <v>8</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J9" s="32" t="s">
         <v>249</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="39" thickBot="1">
@@ -40909,10 +41027,10 @@
         <v>9</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -40951,7 +41069,7 @@
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="157.5" thickBot="1">
@@ -40964,7 +41082,7 @@
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="40">
@@ -40975,7 +41093,7 @@
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1">
@@ -41020,20 +41138,20 @@
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="43">
         <v>15</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1">
@@ -41117,7 +41235,7 @@
       </c>
       <c r="I21" s="32"/>
       <c r="J21" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
@@ -41129,7 +41247,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E22" s="42"/>
       <c r="F22" s="30"/>
@@ -41169,13 +41287,13 @@
         <v>23</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="51.75" thickBot="1">
@@ -41187,7 +41305,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="32"/>
@@ -41199,7 +41317,7 @@
       </c>
       <c r="I25" s="32"/>
       <c r="J25" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
@@ -41227,7 +41345,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="32"/>
@@ -41238,7 +41356,7 @@
         <v>4</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J27" s="32"/>
     </row>
@@ -41251,7 +41369,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E28" s="42"/>
       <c r="F28" s="30"/>
@@ -41262,10 +41380,10 @@
         <v>4</v>
       </c>
       <c r="I28" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" s="30" t="s">
         <v>263</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="204.75" thickBot="1">
@@ -41278,7 +41396,7 @@
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="40">
@@ -41288,10 +41406,10 @@
         <v>4</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="255.75" thickBot="1">
@@ -41308,10 +41426,10 @@
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" s="30" t="s">
         <v>267</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1">
@@ -41348,10 +41466,10 @@
         <v>4</v>
       </c>
       <c r="I32" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" s="30" t="s">
         <v>269</v>
-      </c>
-      <c r="J32" s="30" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1">
@@ -41380,7 +41498,7 @@
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="43">
@@ -41432,7 +41550,7 @@
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="40">
@@ -41450,7 +41568,7 @@
       <c r="C38" s="29"/>
       <c r="D38" s="30"/>
       <c r="E38" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="43">
@@ -41470,7 +41588,7 @@
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="40">
@@ -41489,10 +41607,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="30" t="s">
         <v>275</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>276</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="43">
@@ -41544,7 +41662,7 @@
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="40">
@@ -41554,10 +41672,10 @@
         <v>4</v>
       </c>
       <c r="I43" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J43" s="32" t="s">
         <v>278</v>
-      </c>
-      <c r="J43" s="32" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="39" thickBot="1">
@@ -41576,10 +41694,10 @@
         <v>4</v>
       </c>
       <c r="I44" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="J44" s="30" t="s">
         <v>280</v>
-      </c>
-      <c r="J44" s="30" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1">
@@ -41640,7 +41758,7 @@
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="43">
@@ -41676,7 +41794,7 @@
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="43">
@@ -41692,10 +41810,10 @@
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>
@@ -41746,7 +41864,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.75" thickBot="1">
@@ -41758,11 +41876,11 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.25" thickBot="1">
@@ -41774,10 +41892,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>174</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>175</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -41790,10 +41908,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>176</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>177</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -41806,10 +41924,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>178</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>179</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -41823,7 +41941,7 @@
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -41847,7 +41965,7 @@
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -41861,7 +41979,7 @@
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -41875,7 +41993,7 @@
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -41889,7 +42007,7 @@
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -41903,7 +42021,7 @@
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -42036,7 +42154,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="15"/>
       <c r="F25" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -42048,7 +42166,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="15"/>
       <c r="F26" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -42060,7 +42178,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="15"/>
       <c r="F27" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -42072,7 +42190,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -42084,7 +42202,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="15"/>
       <c r="F29" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -42098,7 +42216,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -42110,7 +42228,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="15"/>
       <c r="F31" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -42122,7 +42240,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="15"/>
       <c r="F32" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30">
@@ -42134,13 +42252,13 @@
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>187</v>
-      </c>
       <c r="F33" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -42151,10 +42269,10 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -42166,7 +42284,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="60">
@@ -42178,11 +42296,11 @@
         <v>4</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30">
@@ -42194,13 +42312,13 @@
         <v>4</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>191</v>
-      </c>
       <c r="F37" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30">
@@ -42213,10 +42331,10 @@
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -42228,7 +42346,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30">
@@ -42241,10 +42359,10 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="45">
@@ -42257,10 +42375,10 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30">
@@ -42273,7 +42391,7 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F42" s="16"/>
     </row>
@@ -42286,13 +42404,13 @@
         <v>23</v>
       </c>
       <c r="D43" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>197</v>
-      </c>
       <c r="F43" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -42335,7 +42453,7 @@
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F47" s="16"/>
     </row>
@@ -42346,10 +42464,10 @@
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="15" t="s">
         <v>199</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="F48" s="16"/>
     </row>
@@ -42362,13 +42480,13 @@
         <v>4</v>
       </c>
       <c r="D49" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>202</v>
-      </c>
       <c r="F49" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30">
@@ -42381,7 +42499,7 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F50" s="16"/>
     </row>
@@ -42394,7 +42512,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -42449,7 +42567,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -42481,14 +42599,14 @@
         <v>4</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F4" s="82"/>
       <c r="G4" s="77" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="75">
@@ -42499,11 +42617,11 @@
       <c r="C5" s="78"/>
       <c r="D5" s="78"/>
       <c r="E5" s="81" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F5" s="82"/>
       <c r="G5" s="77" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
@@ -42516,7 +42634,7 @@
       </c>
       <c r="D6" s="78"/>
       <c r="E6" s="81" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F6" s="82"/>
     </row>
@@ -42540,7 +42658,7 @@
       </c>
       <c r="D8" s="78"/>
       <c r="E8" s="81" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F8" s="82"/>
     </row>
@@ -42554,7 +42672,7 @@
       </c>
       <c r="D9" s="78"/>
       <c r="E9" s="81" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F9" s="82"/>
     </row>
@@ -42565,10 +42683,10 @@
       <c r="B10" s="78"/>
       <c r="C10" s="78"/>
       <c r="D10" s="78" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E10" s="81" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F10" s="82"/>
     </row>
@@ -42580,7 +42698,7 @@
       <c r="C11" s="78"/>
       <c r="D11" s="78"/>
       <c r="E11" s="81" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F11" s="82"/>
     </row>
@@ -42594,7 +42712,7 @@
       </c>
       <c r="D12" s="78"/>
       <c r="E12" s="81" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F12" s="82"/>
     </row>
@@ -42606,7 +42724,7 @@
       <c r="C13" s="78"/>
       <c r="D13" s="78"/>
       <c r="E13" s="81" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F13" s="82"/>
     </row>
@@ -42627,7 +42745,7 @@
       <c r="C15" s="78"/>
       <c r="D15" s="78"/>
       <c r="E15" s="81" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F15" s="82"/>
     </row>
@@ -42641,7 +42759,7 @@
       </c>
       <c r="D16" s="78"/>
       <c r="E16" s="81" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F16" s="82"/>
     </row>
@@ -42655,7 +42773,7 @@
       </c>
       <c r="D17" s="78"/>
       <c r="E17" s="81" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F17" s="82"/>
     </row>
@@ -42689,7 +42807,7 @@
       </c>
       <c r="D20" s="78"/>
       <c r="E20" s="81" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F20" s="82"/>
     </row>
@@ -42703,7 +42821,7 @@
       </c>
       <c r="D21" s="78"/>
       <c r="E21" s="81" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F21" s="82"/>
     </row>
@@ -42715,7 +42833,7 @@
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
       <c r="E22" s="81" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F22" s="82"/>
     </row>
@@ -42749,7 +42867,7 @@
       </c>
       <c r="D25" s="78"/>
       <c r="E25" s="81" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F25" s="82"/>
     </row>
@@ -42791,7 +42909,7 @@
       <c r="C29" s="78"/>
       <c r="D29" s="78"/>
       <c r="E29" s="81" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F29" s="82"/>
     </row>
@@ -42803,7 +42921,7 @@
       <c r="C30" s="78"/>
       <c r="D30" s="78"/>
       <c r="E30" s="81" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F30" s="82"/>
     </row>
@@ -42817,7 +42935,7 @@
       </c>
       <c r="D31" s="78"/>
       <c r="E31" s="81" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F31" s="82"/>
     </row>
@@ -42829,7 +42947,7 @@
       <c r="C32" s="78"/>
       <c r="D32" s="78"/>
       <c r="E32" s="81" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F32" s="82"/>
     </row>
@@ -42843,7 +42961,7 @@
       </c>
       <c r="D33" s="78"/>
       <c r="E33" s="81" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F33" s="82"/>
     </row>
@@ -42857,7 +42975,7 @@
       <c r="E34" s="81"/>
       <c r="F34" s="82"/>
       <c r="G34" s="77" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -42880,7 +42998,7 @@
       </c>
       <c r="D36" s="78"/>
       <c r="E36" s="81" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F36" s="82"/>
     </row>
@@ -42892,7 +43010,7 @@
       <c r="C37" s="78"/>
       <c r="D37" s="78"/>
       <c r="E37" s="81" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F37" s="82"/>
     </row>
@@ -42906,7 +43024,7 @@
       </c>
       <c r="D38" s="78"/>
       <c r="E38" s="81" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F38" s="82"/>
     </row>
@@ -42930,7 +43048,7 @@
       </c>
       <c r="D40" s="78"/>
       <c r="E40" s="81" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F40" s="82"/>
     </row>
@@ -42944,7 +43062,7 @@
       </c>
       <c r="D41" s="78"/>
       <c r="E41" s="81" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F41" s="82"/>
     </row>
@@ -42958,7 +43076,7 @@
       </c>
       <c r="D42" s="78"/>
       <c r="E42" s="81" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F42" s="82"/>
     </row>
@@ -42970,7 +43088,7 @@
       <c r="C43" s="78"/>
       <c r="D43" s="78"/>
       <c r="E43" s="81" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F43" s="82"/>
     </row>
@@ -42984,7 +43102,7 @@
       </c>
       <c r="D44" s="78"/>
       <c r="E44" s="81" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F44" s="82"/>
     </row>
@@ -43008,7 +43126,7 @@
       </c>
       <c r="D46" s="78"/>
       <c r="E46" s="81" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F46" s="82"/>
     </row>
@@ -43020,7 +43138,7 @@
       <c r="C47" s="78"/>
       <c r="D47" s="78"/>
       <c r="E47" s="81" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F47" s="82"/>
     </row>
@@ -43034,7 +43152,7 @@
       </c>
       <c r="D48" s="78"/>
       <c r="E48" s="81" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F48" s="82"/>
     </row>
@@ -43047,7 +43165,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="78" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E49" s="81"/>
       <c r="F49" s="82"/>
@@ -43062,7 +43180,7 @@
       </c>
       <c r="D50" s="78"/>
       <c r="E50" s="81" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F50" s="82"/>
     </row>
@@ -43128,7 +43246,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="120">
@@ -43139,7 +43257,7 @@
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
       <c r="E2" s="81" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F2" s="82"/>
     </row>
@@ -43151,7 +43269,7 @@
       <c r="C3" s="78"/>
       <c r="D3" s="78"/>
       <c r="E3" s="81" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F3" s="82"/>
     </row>
@@ -43175,11 +43293,11 @@
       </c>
       <c r="D5" s="78"/>
       <c r="E5" s="81" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F5" s="82"/>
       <c r="G5" s="77" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="165">
@@ -43191,14 +43309,14 @@
         <v>4</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E6" s="81" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F6" s="82"/>
       <c r="G6" s="77" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60">
@@ -43211,7 +43329,7 @@
       </c>
       <c r="D7" s="78"/>
       <c r="E7" s="81" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F7" s="82"/>
     </row>
@@ -43223,7 +43341,7 @@
       <c r="C8" s="78"/>
       <c r="D8" s="78"/>
       <c r="E8" s="81" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F8" s="82"/>
     </row>
@@ -43235,7 +43353,7 @@
       <c r="C9" s="78"/>
       <c r="D9" s="78"/>
       <c r="E9" s="81" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F9" s="82"/>
     </row>
@@ -43248,10 +43366,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="78" t="s">
+        <v>844</v>
+      </c>
+      <c r="E10" s="81" t="s">
         <v>845</v>
-      </c>
-      <c r="E10" s="81" t="s">
-        <v>846</v>
       </c>
       <c r="F10" s="82"/>
     </row>
@@ -43265,7 +43383,7 @@
       </c>
       <c r="D11" s="78"/>
       <c r="E11" s="81" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F11" s="82"/>
     </row>
@@ -43277,7 +43395,7 @@
       <c r="C12" s="78"/>
       <c r="D12" s="78"/>
       <c r="E12" s="81" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F12" s="82"/>
     </row>
@@ -43290,14 +43408,14 @@
         <v>4</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F13" s="82"/>
       <c r="G13" s="77" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75">
@@ -43310,11 +43428,11 @@
       </c>
       <c r="D14" s="78"/>
       <c r="E14" s="81" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F14" s="82"/>
       <c r="G14" s="77" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="120">
@@ -43327,7 +43445,7 @@
       </c>
       <c r="D15" s="78"/>
       <c r="E15" s="81" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F15" s="82"/>
     </row>
@@ -43339,7 +43457,7 @@
       <c r="C16" s="78"/>
       <c r="D16" s="78"/>
       <c r="E16" s="81" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F16" s="82"/>
     </row>
@@ -43353,7 +43471,7 @@
       </c>
       <c r="D17" s="78"/>
       <c r="E17" s="81" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F17" s="82"/>
     </row>
@@ -43407,7 +43525,7 @@
       </c>
       <c r="D22" s="78"/>
       <c r="E22" s="81" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F22" s="82"/>
     </row>
@@ -43430,12 +43548,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E24" s="81"/>
       <c r="F24" s="82"/>
       <c r="G24" s="77" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45">
@@ -43447,7 +43565,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="78" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E25" s="81"/>
       <c r="F25" s="82"/>
@@ -43460,7 +43578,7 @@
       <c r="C26" s="78"/>
       <c r="D26" s="78"/>
       <c r="E26" s="81" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F26" s="82"/>
     </row>
@@ -43515,7 +43633,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -43527,7 +43645,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="15"/>
       <c r="F2" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -43539,7 +43657,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="105">
@@ -43550,7 +43668,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -43563,7 +43681,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
@@ -43587,10 +43705,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F7" s="16"/>
     </row>
@@ -43604,7 +43722,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F8" s="16"/>
     </row>
@@ -43618,7 +43736,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F9" s="16"/>
     </row>
@@ -43631,10 +43749,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F10" s="16"/>
     </row>
@@ -43657,10 +43775,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -43673,10 +43791,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>413</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>414</v>
       </c>
       <c r="F13" s="16"/>
     </row>
@@ -43708,10 +43826,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>415</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>416</v>
       </c>
       <c r="F16" s="16"/>
     </row>
@@ -43722,10 +43840,10 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>417</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>418</v>
       </c>
       <c r="F17" s="16"/>
     </row>
@@ -43739,7 +43857,7 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -43753,7 +43871,7 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F19" s="16"/>
     </row>
@@ -43765,7 +43883,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -43777,7 +43895,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F21" s="16"/>
     </row>
@@ -43801,7 +43919,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F23" s="16"/>
     </row>
@@ -43814,10 +43932,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>329</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>330</v>
       </c>
       <c r="F24" s="16"/>
     </row>
@@ -43830,10 +43948,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -43845,7 +43963,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F26" s="16"/>
     </row>
@@ -43858,13 +43976,13 @@
         <v>4</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>325</v>
-      </c>
       <c r="F27" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="60">
@@ -43875,7 +43993,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -43887,7 +44005,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -43901,7 +44019,7 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -43913,10 +44031,10 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45">
@@ -43928,13 +44046,13 @@
         <v>4</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>319</v>
-      </c>
       <c r="F32" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -43955,7 +44073,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F34" s="16"/>
     </row>
@@ -43967,7 +44085,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F35" s="16"/>
     </row>
@@ -43980,10 +44098,10 @@
         <v>4</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F36" s="16"/>
     </row>
@@ -43997,10 +44115,10 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30">
@@ -44011,7 +44129,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F38" s="16"/>
     </row>
@@ -44045,7 +44163,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F41" s="16"/>
     </row>
@@ -44067,7 +44185,7 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F43" s="16"/>
     </row>
@@ -44079,7 +44197,7 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F44" s="16"/>
     </row>
@@ -44103,7 +44221,7 @@
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F46" s="16"/>
     </row>
@@ -44127,7 +44245,7 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F48" s="16"/>
     </row>
@@ -44191,154 +44309,154 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="114" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+        <v>123</v>
+      </c>
+      <c r="B1" s="118" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="120"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="114" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
+        <v>125</v>
+      </c>
+      <c r="B2" s="118" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="114" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="116"/>
+        <v>127</v>
+      </c>
+      <c r="B3" s="118" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="120"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="114" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="116"/>
+        <v>129</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="120"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="114" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="116"/>
+        <v>131</v>
+      </c>
+      <c r="B5" s="118" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="120"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="114" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
+        <v>133</v>
+      </c>
+      <c r="B6" s="118" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="120"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="114" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="116"/>
+        <v>135</v>
+      </c>
+      <c r="B7" s="118" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="120"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="114" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="116"/>
+        <v>137</v>
+      </c>
+      <c r="B8" s="118" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="120"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="117" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="119"/>
+      <c r="B9" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -44367,233 +44485,227 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="114" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="120"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="114" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="116"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="120"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="114" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="116"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="120"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="114" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="116"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="120"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="114" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="120"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="114" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="116"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="120"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="116"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="120"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="114" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="116"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="120"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="118" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="114" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="116"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="120"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="118" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="114" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="116"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="120"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="118" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="114" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="116"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="120"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="118" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="114" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="116"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -44601,6 +44713,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44649,7 +44767,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -44660,7 +44778,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -44671,7 +44789,7 @@
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="120">
@@ -44684,7 +44802,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
@@ -44697,7 +44815,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -44710,7 +44828,7 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
@@ -44721,7 +44839,7 @@
       <c r="C8" s="27"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45">
@@ -44734,7 +44852,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="75">
@@ -44747,7 +44865,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -44758,7 +44876,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -44782,122 +44900,122 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="114" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+        <v>123</v>
+      </c>
+      <c r="B1" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="120"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="114" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
+        <v>125</v>
+      </c>
+      <c r="B2" s="118" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="114" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="116"/>
+        <v>127</v>
+      </c>
+      <c r="B3" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="120"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="114" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="116"/>
+        <v>129</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="120"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="114" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="116"/>
+        <v>131</v>
+      </c>
+      <c r="B5" s="118" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="120"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="114" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
+        <v>133</v>
+      </c>
+      <c r="B6" s="118" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="120"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="114" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="116"/>
+        <v>135</v>
+      </c>
+      <c r="B7" s="118" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -44927,122 +45045,122 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="114" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+        <v>123</v>
+      </c>
+      <c r="B1" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="120"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="114" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
+        <v>125</v>
+      </c>
+      <c r="B2" s="118" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="114" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="116"/>
+        <v>127</v>
+      </c>
+      <c r="B3" s="118" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="120"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="114" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="116"/>
+        <v>129</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="120"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="114" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="116"/>
+        <v>131</v>
+      </c>
+      <c r="B5" s="118" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="120"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="114" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
+        <v>133</v>
+      </c>
+      <c r="B6" s="118" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="120"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="114" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="116"/>
+        <v>135</v>
+      </c>
+      <c r="B7" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -45072,137 +45190,137 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="114" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+        <v>123</v>
+      </c>
+      <c r="B1" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="120"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="114" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
+        <v>125</v>
+      </c>
+      <c r="B2" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="114" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="116"/>
+        <v>127</v>
+      </c>
+      <c r="B3" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="120"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="114" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="116"/>
+        <v>129</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="120"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="114" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="116"/>
+        <v>131</v>
+      </c>
+      <c r="B5" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="120"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="114" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
+        <v>133</v>
+      </c>
+      <c r="B6" s="118" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="120"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="114" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="116"/>
+        <v>135</v>
+      </c>
+      <c r="B7" s="118" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="120"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="117" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="119"/>
+      <c r="B8" s="121" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -45554,18 +45672,10 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -45611,7 +45721,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -45632,10 +45742,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
@@ -45646,7 +45756,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
@@ -45659,7 +45769,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -45672,7 +45782,7 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -45683,7 +45793,7 @@
       <c r="C8" s="27"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45">
@@ -45694,7 +45804,7 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60">
@@ -45707,10 +45817,10 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F10" s="74" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -45720,10 +45830,10 @@
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -45779,7 +45889,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -45801,7 +45911,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90">
@@ -45814,7 +45924,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -45836,7 +45946,7 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -45849,7 +45959,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -45879,10 +45989,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>685</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -45899,8 +46009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC68079F-684B-43F0-8FD0-98B5FC1777B4}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45939,10 +46049,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>884</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
@@ -45955,7 +46065,7 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -45975,7 +46085,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -46023,14 +46133,18 @@
       <c r="D10" s="27"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="45">
       <c r="A11" s="27">
         <v>10</v>
       </c>
       <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="C11" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="D11" s="27"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>887</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -46085,7 +46199,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -46096,7 +46210,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -46154,7 +46268,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -46167,7 +46281,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -46180,7 +46294,7 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -46238,7 +46352,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -46251,7 +46365,7 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -46264,7 +46378,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -46277,7 +46391,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
@@ -46290,10 +46404,10 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="F6" s="74" t="s">
         <v>556</v>
-      </c>
-      <c r="F6" s="74" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -46306,10 +46420,10 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F7" s="74" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="120">
@@ -46322,7 +46436,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -46351,7 +46465,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE85BB-D82B-4E4D-94BF-F3F5E5D0078F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06DA9B9-115E-407D-84C1-BAC4206EE5D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" firstSheet="6" activeTab="15" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="899">
   <si>
     <t>No</t>
   </si>
@@ -2947,40 +2947,25 @@
     <t>lưu ý: leveling resource kỹ thuật. Sư dụng monte carlo để simulate. Monte carlo là dạng what if analysis</t>
   </si>
   <si>
-    <t>Stakeholder Area + exam</t>
-  </si>
-  <si>
-    <t>Procurement + Exam</t>
-  </si>
-  <si>
-    <t>Risk + Exam</t>
-  </si>
-  <si>
-    <t>Communication + Exam</t>
-  </si>
-  <si>
-    <t>Resource + Exam</t>
-  </si>
-  <si>
-    <t>Quality + Exam</t>
-  </si>
-  <si>
-    <t>Cost + Exam</t>
-  </si>
-  <si>
-    <t>Schedule + Exam</t>
-  </si>
-  <si>
-    <t>Scope + Exam</t>
-  </si>
-  <si>
-    <t>Intergrated + Exam</t>
-  </si>
-  <si>
-    <t>FW Project Management</t>
-  </si>
-  <si>
     <t>GOAL</t>
+  </si>
+  <si>
+    <t>Với yêu cầu phải reponse trước với new schedule khi thay đổi thì chỉ có sử dụng simulation technique such as monte carlo analysis để giả lập, tính toán cho total project. =&gt; cái này cần phải lựa chọn trước những option khác</t>
+  </si>
+  <si>
+    <t>Monitoring Process + exam</t>
+  </si>
+  <si>
+    <t>Executing process + Exam</t>
+  </si>
+  <si>
+    <t>Planning process + Exam</t>
+  </si>
+  <si>
+    <t>Initiating Process + Exam</t>
+  </si>
+  <si>
+    <t>Closing process + Exam</t>
   </si>
 </sst>
 </file>
@@ -3124,7 +3109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3183,6 +3168,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3535,7 +3526,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3884,6 +3875,21 @@
     </xf>
     <xf numFmtId="14" fontId="16" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="17" fillId="11" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4286,13 +4292,13 @@
   </sheetPr>
   <dimension ref="A1:AA1017"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="57" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="14.42578125" style="57"/>
     <col min="6" max="9" width="14.42578125" style="56"/>
     <col min="10" max="16384" width="14.42578125" style="57"/>
@@ -4318,7 +4324,7 @@
         <v>578</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="H1" s="60" t="s">
         <v>459</v>
@@ -5432,7 +5438,7 @@
       <c r="Z27" s="56"/>
       <c r="AA27" s="56"/>
     </row>
-    <row r="28" spans="1:27" ht="15">
+    <row r="28" spans="1:27" ht="15.75" thickBot="1">
       <c r="A28" s="109" t="s">
         <v>396</v>
       </c>
@@ -5477,20 +5483,20 @@
       <c r="AA28" s="56"/>
     </row>
     <row r="29" spans="1:27" ht="15">
-      <c r="A29" s="115" t="s">
-        <v>892</v>
-      </c>
-      <c r="B29" s="116">
+      <c r="A29" s="129" t="s">
+        <v>894</v>
+      </c>
+      <c r="B29" s="130">
         <v>43493</v>
       </c>
-      <c r="C29" s="116" t="str">
+      <c r="C29" s="130" t="str">
         <f>IF(WEEKDAY(B29,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B29,1))</f>
         <v>Thứ 2</v>
       </c>
-      <c r="D29" s="117">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E29" s="118"/>
+      <c r="D29" s="131">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E29" s="132"/>
       <c r="F29" s="119"/>
       <c r="G29" s="119"/>
       <c r="H29" s="119"/>
@@ -5603,7 +5609,7 @@
       <c r="Z31" s="56"/>
       <c r="AA31" s="56"/>
     </row>
-    <row r="32" spans="1:27" ht="15">
+    <row r="32" spans="1:27" ht="15.75" thickBot="1">
       <c r="A32" s="115" t="s">
         <v>361</v>
       </c>
@@ -5649,21 +5655,21 @@
       <c r="AA32" s="56"/>
     </row>
     <row r="33" spans="1:27" ht="15">
-      <c r="A33" s="115" t="s">
-        <v>893</v>
-      </c>
-      <c r="B33" s="116">
+      <c r="A33" s="129" t="s">
+        <v>895</v>
+      </c>
+      <c r="B33" s="130">
         <f>B30+ 1</f>
         <v>43494</v>
       </c>
-      <c r="C33" s="116" t="str">
+      <c r="C33" s="130" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D33" s="117">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E33" s="118"/>
+      <c r="D33" s="131">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E33" s="132"/>
       <c r="F33" s="119"/>
       <c r="G33" s="119"/>
       <c r="H33" s="119"/>
@@ -5730,7 +5736,7 @@
       <c r="Z34" s="56"/>
       <c r="AA34" s="56"/>
     </row>
-    <row r="35" spans="1:27" ht="15">
+    <row r="35" spans="1:27" ht="15.75" thickBot="1">
       <c r="A35" s="121" t="s">
         <v>372</v>
       </c>
@@ -5776,21 +5782,21 @@
       <c r="AA35" s="56"/>
     </row>
     <row r="36" spans="1:27" ht="15">
-      <c r="A36" s="121" t="s">
-        <v>894</v>
-      </c>
-      <c r="B36" s="116">
+      <c r="A36" s="133" t="s">
+        <v>896</v>
+      </c>
+      <c r="B36" s="130">
         <f>B30 + 2</f>
         <v>43495</v>
       </c>
-      <c r="C36" s="116" t="str">
+      <c r="C36" s="130" t="str">
         <f t="shared" si="5"/>
         <v>Thứ 4</v>
       </c>
-      <c r="D36" s="117">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="E36" s="118"/>
+      <c r="D36" s="131">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E36" s="132"/>
       <c r="F36" s="119"/>
       <c r="G36" s="119"/>
       <c r="H36" s="119"/>
@@ -5859,7 +5865,7 @@
       <c r="Z37" s="56"/>
       <c r="AA37" s="56"/>
     </row>
-    <row r="38" spans="1:27" ht="15">
+    <row r="38" spans="1:27" ht="15.75" thickBot="1">
       <c r="A38" s="121" t="s">
         <v>364</v>
       </c>
@@ -5903,21 +5909,21 @@
       <c r="AA38" s="56"/>
     </row>
     <row r="39" spans="1:27" ht="15">
-      <c r="A39" s="121" t="s">
-        <v>895</v>
-      </c>
-      <c r="B39" s="116">
+      <c r="A39" s="133" t="s">
+        <v>897</v>
+      </c>
+      <c r="B39" s="130">
         <f>B36 + 1</f>
         <v>43496</v>
       </c>
-      <c r="C39" s="116" t="str">
+      <c r="C39" s="130" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 5</v>
       </c>
-      <c r="D39" s="117">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="E39" s="117"/>
+      <c r="D39" s="131">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E39" s="132"/>
       <c r="F39" s="119"/>
       <c r="G39" s="119"/>
       <c r="H39" s="119"/>
@@ -5986,7 +5992,7 @@
       <c r="Z40" s="56"/>
       <c r="AA40" s="56"/>
     </row>
-    <row r="41" spans="1:27" ht="15">
+    <row r="41" spans="1:27" ht="15.75" thickBot="1">
       <c r="A41" s="115" t="s">
         <v>402</v>
       </c>
@@ -6032,21 +6038,21 @@
       <c r="AA41" s="56"/>
     </row>
     <row r="42" spans="1:27" ht="15">
-      <c r="A42" s="115" t="s">
-        <v>896</v>
-      </c>
-      <c r="B42" s="116">
+      <c r="A42" s="133" t="s">
+        <v>898</v>
+      </c>
+      <c r="B42" s="130">
         <f>B39 + 1</f>
         <v>43497</v>
       </c>
-      <c r="C42" s="116" t="str">
+      <c r="C42" s="130" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 6</v>
       </c>
-      <c r="D42" s="117">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="E42" s="118"/>
+      <c r="D42" s="131">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E42" s="132"/>
       <c r="F42" s="119"/>
       <c r="G42" s="119"/>
       <c r="H42" s="119"/>
@@ -6113,7 +6119,7 @@
       <c r="Z43" s="56"/>
       <c r="AA43" s="56"/>
     </row>
-    <row r="44" spans="1:27" ht="15">
+    <row r="44" spans="1:27" ht="15.75" thickBot="1">
       <c r="A44" s="115" t="s">
         <v>365</v>
       </c>
@@ -6159,21 +6165,21 @@
       <c r="AA44" s="56"/>
     </row>
     <row r="45" spans="1:27" ht="15">
-      <c r="A45" s="115" t="s">
+      <c r="A45" s="133" t="s">
         <v>897</v>
       </c>
-      <c r="B45" s="116">
+      <c r="B45" s="130">
         <f>B38+ 2</f>
         <v>43498</v>
       </c>
-      <c r="C45" s="116" t="str">
+      <c r="C45" s="130" t="str">
         <f t="shared" si="6"/>
         <v>Thứ 7</v>
       </c>
-      <c r="D45" s="117">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="E45" s="118"/>
+      <c r="D45" s="131">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E45" s="132"/>
       <c r="F45" s="119"/>
       <c r="G45" s="119"/>
       <c r="H45" s="119"/>
@@ -6240,7 +6246,7 @@
       <c r="Z46" s="56"/>
       <c r="AA46" s="56"/>
     </row>
-    <row r="47" spans="1:27" ht="15">
+    <row r="47" spans="1:27" ht="15.75" thickBot="1">
       <c r="A47" s="115" t="s">
         <v>403</v>
       </c>
@@ -6280,21 +6286,21 @@
       <c r="AA47" s="56"/>
     </row>
     <row r="48" spans="1:27" ht="15">
-      <c r="A48" s="115" t="s">
-        <v>898</v>
-      </c>
-      <c r="B48" s="128">
+      <c r="A48" s="133" t="s">
+        <v>896</v>
+      </c>
+      <c r="B48" s="130">
         <f>B45+1</f>
         <v>43499</v>
       </c>
-      <c r="C48" s="116" t="str">
+      <c r="C48" s="130" t="str">
         <f t="shared" si="6"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="D48" s="117">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="E48" s="118"/>
+      <c r="D48" s="131">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E48" s="132"/>
       <c r="F48" s="119"/>
       <c r="G48" s="119"/>
       <c r="H48" s="119"/>
@@ -6357,7 +6363,7 @@
       <c r="Z49" s="56"/>
       <c r="AA49" s="56"/>
     </row>
-    <row r="50" spans="1:27" ht="15">
+    <row r="50" spans="1:27" ht="15.75" thickBot="1">
       <c r="A50" s="115" t="s">
         <v>374</v>
       </c>
@@ -6397,21 +6403,21 @@
       <c r="AA50" s="56"/>
     </row>
     <row r="51" spans="1:27" ht="15">
-      <c r="A51" s="115" t="s">
-        <v>899</v>
-      </c>
-      <c r="B51" s="116">
+      <c r="A51" s="133" t="s">
+        <v>895</v>
+      </c>
+      <c r="B51" s="130">
         <f>B45 + 2</f>
         <v>43500</v>
       </c>
-      <c r="C51" s="116" t="str">
+      <c r="C51" s="130" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 2</v>
       </c>
-      <c r="D51" s="117">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="E51" s="118"/>
+      <c r="D51" s="131">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E51" s="132"/>
       <c r="F51" s="119"/>
       <c r="G51" s="119"/>
       <c r="H51" s="119"/>
@@ -6474,7 +6480,7 @@
       <c r="Z52" s="56"/>
       <c r="AA52" s="56"/>
     </row>
-    <row r="53" spans="1:27" ht="15">
+    <row r="53" spans="1:27" ht="15.75" thickBot="1">
       <c r="A53" s="115" t="s">
         <v>368</v>
       </c>
@@ -6514,21 +6520,21 @@
       <c r="AA53" s="56"/>
     </row>
     <row r="54" spans="1:27" ht="15">
-      <c r="A54" s="115" t="s">
-        <v>900</v>
-      </c>
-      <c r="B54" s="128">
+      <c r="A54" s="133" t="s">
+        <v>898</v>
+      </c>
+      <c r="B54" s="130">
         <f>B45+3</f>
         <v>43501</v>
       </c>
-      <c r="C54" s="116" t="str">
+      <c r="C54" s="130" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D54" s="117">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="E54" s="118"/>
+      <c r="D54" s="131">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E54" s="132"/>
       <c r="F54" s="119"/>
       <c r="G54" s="119"/>
       <c r="H54" s="119"/>
@@ -6591,7 +6597,7 @@
       <c r="Z55" s="56"/>
       <c r="AA55" s="56"/>
     </row>
-    <row r="56" spans="1:27" ht="15">
+    <row r="56" spans="1:27" ht="15.75" thickBot="1">
       <c r="A56" s="115" t="s">
         <v>406</v>
       </c>
@@ -6631,21 +6637,21 @@
       <c r="AA56" s="56"/>
     </row>
     <row r="57" spans="1:27" ht="15">
-      <c r="A57" s="115" t="s">
-        <v>901</v>
-      </c>
-      <c r="B57" s="116">
+      <c r="A57" s="133" t="s">
+        <v>894</v>
+      </c>
+      <c r="B57" s="130">
         <f>B54 + 1</f>
         <v>43502</v>
       </c>
-      <c r="C57" s="116" t="str">
+      <c r="C57" s="130" t="str">
         <f t="shared" si="7"/>
         <v>Thứ 4</v>
       </c>
-      <c r="D57" s="117">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="E57" s="118"/>
+      <c r="D57" s="131">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E57" s="132"/>
       <c r="F57" s="119"/>
       <c r="G57" s="119"/>
       <c r="H57" s="119"/>
@@ -6708,7 +6714,7 @@
       <c r="Z58" s="56"/>
       <c r="AA58" s="56"/>
     </row>
-    <row r="59" spans="1:27" ht="15">
+    <row r="59" spans="1:27" ht="15.75" thickBot="1">
       <c r="A59" s="115" t="s">
         <v>376</v>
       </c>
@@ -6748,21 +6754,21 @@
       <c r="AA59" s="56"/>
     </row>
     <row r="60" spans="1:27" ht="15">
-      <c r="A60" s="115" t="s">
-        <v>902</v>
-      </c>
-      <c r="B60" s="116">
+      <c r="A60" s="133" t="s">
+        <v>895</v>
+      </c>
+      <c r="B60" s="130">
         <f>B57 + 1</f>
         <v>43503</v>
       </c>
-      <c r="C60" s="116" t="str">
+      <c r="C60" s="130" t="str">
         <f t="shared" si="8"/>
         <v>Thứ 5</v>
       </c>
-      <c r="D60" s="117">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="E60" s="118"/>
+      <c r="D60" s="131">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E60" s="132"/>
       <c r="F60" s="119"/>
       <c r="G60" s="119"/>
       <c r="H60" s="119"/>
@@ -34313,8 +34319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AD6CE4-A652-4BA6-AF5B-7B55F9607709}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34423,14 +34429,18 @@
       <c r="F7" s="76"/>
       <c r="G7" s="77"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="90">
       <c r="A8" s="72">
         <v>7</v>
       </c>
       <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
+      <c r="C8" s="72" t="s">
+        <v>4</v>
+      </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="75"/>
+      <c r="E8" s="75" t="s">
+        <v>893</v>
+      </c>
       <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:8">

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06DA9B9-115E-407D-84C1-BAC4206EE5D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42BC3F1-CB89-4222-86D9-7FD9E20352B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" firstSheet="10" activeTab="15" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="900">
   <si>
     <t>No</t>
   </si>
@@ -2966,6 +2966,9 @@
   </si>
   <si>
     <t>Closing process + Exam</t>
+  </si>
+  <si>
+    <t>Milestones significant (đánh dấu) events within the project schedule. Chúng k phải là work activities. They have no duration</t>
   </si>
 </sst>
 </file>
@@ -3774,28 +3777,6 @@
     <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3890,6 +3871,28 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4292,8 +4295,8 @@
   </sheetPr>
   <dimension ref="A1:AA1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -4904,10 +4907,10 @@
       <c r="A15" s="84" t="s">
         <v>369</v>
       </c>
-      <c r="B15" s="93">
+      <c r="B15" s="126">
         <v>43473</v>
       </c>
-      <c r="C15" s="93" t="str">
+      <c r="C15" s="126" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -4948,8 +4951,8 @@
       <c r="A16" s="84" t="s">
         <v>357</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
       <c r="D16" s="79">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4987,8 +4990,8 @@
       <c r="A17" s="84" t="s">
         <v>358</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
       <c r="D17" s="79">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5067,26 +5070,26 @@
       <c r="AA18" s="56"/>
     </row>
     <row r="19" spans="1:27" ht="15">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="94" t="s">
         <v>396</v>
       </c>
-      <c r="B19" s="103">
+      <c r="B19" s="95">
         <v>43478</v>
       </c>
-      <c r="C19" s="103" t="str">
+      <c r="C19" s="95" t="str">
         <f t="shared" si="2"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E19" s="105"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106" t="s">
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98" t="s">
         <v>473</v>
       </c>
-      <c r="I19" s="106" t="s">
+      <c r="I19" s="98" t="s">
         <v>549</v>
       </c>
       <c r="J19" s="56"/>
@@ -5112,11 +5115,11 @@
       <c r="A20" s="84" t="s">
         <v>370</v>
       </c>
-      <c r="B20" s="93">
+      <c r="B20" s="126">
         <f>B19+1</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="93" t="str">
+      <c r="C20" s="126" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -5157,8 +5160,8 @@
       <c r="A21" s="84" t="s">
         <v>359</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
       <c r="D21" s="79">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5194,8 +5197,8 @@
       <c r="A22" s="84" t="s">
         <v>360</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
       <c r="D22" s="79">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5275,27 +5278,27 @@
       <c r="AA23" s="56"/>
     </row>
     <row r="24" spans="1:27" ht="15">
-      <c r="A24" s="107" t="s">
+      <c r="A24" s="99" t="s">
         <v>398</v>
       </c>
-      <c r="B24" s="103">
+      <c r="B24" s="95">
         <f>B20 + 1</f>
         <v>43480</v>
       </c>
-      <c r="C24" s="103" t="str">
+      <c r="C24" s="95" t="str">
         <f t="shared" si="3"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D24" s="104">
+      <c r="D24" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E24" s="105"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106" t="s">
+      <c r="E24" s="97"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98" t="s">
         <v>478</v>
       </c>
-      <c r="I24" s="106" t="s">
+      <c r="I24" s="98" t="s">
         <v>549</v>
       </c>
       <c r="J24" s="56"/>
@@ -5363,21 +5366,21 @@
       <c r="AA25" s="56"/>
     </row>
     <row r="26" spans="1:27" ht="15">
-      <c r="A26" s="107" t="s">
+      <c r="A26" s="99" t="s">
         <v>361</v>
       </c>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="104">
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E26" s="105"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106" t="s">
+      <c r="E26" s="97"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98" t="s">
         <v>480</v>
       </c>
-      <c r="I26" s="106" t="s">
+      <c r="I26" s="98" t="s">
         <v>860</v>
       </c>
       <c r="J26" s="56"/>
@@ -5439,28 +5442,28 @@
       <c r="AA27" s="56"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="101" t="s">
         <v>396</v>
       </c>
-      <c r="B28" s="110">
+      <c r="B28" s="102">
         <v>43493</v>
       </c>
-      <c r="C28" s="110" t="str">
+      <c r="C28" s="102" t="str">
         <f>IF(WEEKDAY(B28,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B28,1))</f>
         <v>Thứ 2</v>
       </c>
-      <c r="D28" s="111">
+      <c r="D28" s="103">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E28" s="112"/>
-      <c r="F28" s="113" t="s">
+      <c r="E28" s="104"/>
+      <c r="F28" s="105" t="s">
         <v>788</v>
       </c>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113" t="s">
+      <c r="G28" s="105"/>
+      <c r="H28" s="105" t="s">
         <v>473</v>
       </c>
-      <c r="I28" s="114" t="s">
+      <c r="I28" s="106" t="s">
         <v>549</v>
       </c>
       <c r="J28" s="56"/>
@@ -5483,24 +5486,24 @@
       <c r="AA28" s="56"/>
     </row>
     <row r="29" spans="1:27" ht="15">
-      <c r="A29" s="129" t="s">
+      <c r="A29" s="121" t="s">
         <v>894</v>
       </c>
-      <c r="B29" s="130">
+      <c r="B29" s="122">
         <v>43493</v>
       </c>
-      <c r="C29" s="130" t="str">
+      <c r="C29" s="122" t="str">
         <f>IF(WEEKDAY(B29,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B29,1))</f>
         <v>Thứ 2</v>
       </c>
-      <c r="D29" s="131">
+      <c r="D29" s="123">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E29" s="132"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="120"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="112"/>
       <c r="J29" s="56"/>
       <c r="K29" s="56"/>
       <c r="L29" s="56"/>
@@ -5521,28 +5524,28 @@
       <c r="AA29" s="56"/>
     </row>
     <row r="30" spans="1:27" ht="15">
-      <c r="A30" s="115" t="s">
+      <c r="A30" s="107" t="s">
         <v>399</v>
       </c>
-      <c r="B30" s="116">
+      <c r="B30" s="108">
         <v>43493</v>
       </c>
-      <c r="C30" s="116" t="str">
+      <c r="C30" s="108" t="str">
         <f t="shared" ref="C30:C42" si="4">IF(WEEKDAY(B30,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B30,1))</f>
         <v>Thứ 2</v>
       </c>
-      <c r="D30" s="117">
+      <c r="D30" s="109">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E30" s="118"/>
-      <c r="F30" s="119" t="s">
+      <c r="E30" s="110"/>
+      <c r="F30" s="111" t="s">
         <v>788</v>
       </c>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119" t="s">
+      <c r="G30" s="111"/>
+      <c r="H30" s="111" t="s">
         <v>482</v>
       </c>
-      <c r="I30" s="120" t="s">
+      <c r="I30" s="112" t="s">
         <v>549</v>
       </c>
       <c r="J30" s="56"/>
@@ -5565,29 +5568,29 @@
       <c r="AA30" s="56"/>
     </row>
     <row r="31" spans="1:27" ht="15">
-      <c r="A31" s="115" t="s">
+      <c r="A31" s="107" t="s">
         <v>398</v>
       </c>
-      <c r="B31" s="116">
+      <c r="B31" s="108">
         <f>B28+ 1</f>
         <v>43494</v>
       </c>
-      <c r="C31" s="116" t="str">
+      <c r="C31" s="108" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D31" s="117">
+      <c r="D31" s="109">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E31" s="118"/>
-      <c r="F31" s="119" t="s">
+      <c r="E31" s="110"/>
+      <c r="F31" s="111" t="s">
         <v>788</v>
       </c>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119" t="s">
+      <c r="G31" s="111"/>
+      <c r="H31" s="111" t="s">
         <v>478</v>
       </c>
-      <c r="I31" s="120" t="s">
+      <c r="I31" s="112" t="s">
         <v>549</v>
       </c>
       <c r="J31" s="56"/>
@@ -5610,29 +5613,29 @@
       <c r="AA31" s="56"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A32" s="115" t="s">
+      <c r="A32" s="107" t="s">
         <v>361</v>
       </c>
-      <c r="B32" s="116">
+      <c r="B32" s="108">
         <f>B29+ 1</f>
         <v>43494</v>
       </c>
-      <c r="C32" s="116" t="str">
+      <c r="C32" s="108" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D32" s="117">
+      <c r="D32" s="109">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E32" s="118"/>
-      <c r="F32" s="119" t="s">
+      <c r="E32" s="110"/>
+      <c r="F32" s="111" t="s">
         <v>788</v>
       </c>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119" t="s">
+      <c r="G32" s="111"/>
+      <c r="H32" s="111" t="s">
         <v>480</v>
       </c>
-      <c r="I32" s="120" t="s">
+      <c r="I32" s="112" t="s">
         <v>860</v>
       </c>
       <c r="J32" s="56"/>
@@ -5655,25 +5658,25 @@
       <c r="AA32" s="56"/>
     </row>
     <row r="33" spans="1:27" ht="15">
-      <c r="A33" s="129" t="s">
+      <c r="A33" s="121" t="s">
         <v>895</v>
       </c>
-      <c r="B33" s="130">
+      <c r="B33" s="122">
         <f>B30+ 1</f>
         <v>43494</v>
       </c>
-      <c r="C33" s="130" t="str">
+      <c r="C33" s="122" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D33" s="131">
+      <c r="D33" s="123">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E33" s="132"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="120"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="112"/>
       <c r="J33" s="56"/>
       <c r="K33" s="56"/>
       <c r="L33" s="56"/>
@@ -5694,29 +5697,29 @@
       <c r="AA33" s="56"/>
     </row>
     <row r="34" spans="1:27" ht="15">
-      <c r="A34" s="115" t="s">
+      <c r="A34" s="107" t="s">
         <v>400</v>
       </c>
-      <c r="B34" s="116">
+      <c r="B34" s="108">
         <f>B28 + 2</f>
         <v>43495</v>
       </c>
-      <c r="C34" s="116" t="str">
+      <c r="C34" s="108" t="str">
         <f>IF(WEEKDAY(B34,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B34,1))</f>
         <v>Thứ 4</v>
       </c>
-      <c r="D34" s="117">
+      <c r="D34" s="109">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E34" s="118"/>
-      <c r="F34" s="119" t="s">
+      <c r="E34" s="110"/>
+      <c r="F34" s="111" t="s">
         <v>577</v>
       </c>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119" t="s">
+      <c r="G34" s="111"/>
+      <c r="H34" s="111" t="s">
         <v>483</v>
       </c>
-      <c r="I34" s="120"/>
+      <c r="I34" s="112"/>
       <c r="J34" s="56"/>
       <c r="K34" s="56"/>
       <c r="L34" s="56"/>
@@ -5737,29 +5740,29 @@
       <c r="AA34" s="56"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A35" s="121" t="s">
+      <c r="A35" s="113" t="s">
         <v>372</v>
       </c>
-      <c r="B35" s="116">
+      <c r="B35" s="108">
         <f>B29 + 2</f>
         <v>43495</v>
       </c>
-      <c r="C35" s="116" t="str">
+      <c r="C35" s="108" t="str">
         <f t="shared" ref="C35:C36" si="5">IF(WEEKDAY(B35,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B35,1))</f>
         <v>Thứ 4</v>
       </c>
-      <c r="D35" s="117">
+      <c r="D35" s="109">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E35" s="118"/>
-      <c r="F35" s="119" t="s">
+      <c r="E35" s="110"/>
+      <c r="F35" s="111" t="s">
         <v>577</v>
       </c>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119" t="s">
+      <c r="G35" s="111"/>
+      <c r="H35" s="111" t="s">
         <v>484</v>
       </c>
-      <c r="I35" s="120" t="s">
+      <c r="I35" s="112" t="s">
         <v>549</v>
       </c>
       <c r="J35" s="56"/>
@@ -5782,25 +5785,25 @@
       <c r="AA35" s="56"/>
     </row>
     <row r="36" spans="1:27" ht="15">
-      <c r="A36" s="133" t="s">
+      <c r="A36" s="125" t="s">
         <v>896</v>
       </c>
-      <c r="B36" s="130">
+      <c r="B36" s="122">
         <f>B30 + 2</f>
         <v>43495</v>
       </c>
-      <c r="C36" s="130" t="str">
+      <c r="C36" s="122" t="str">
         <f t="shared" si="5"/>
         <v>Thứ 4</v>
       </c>
-      <c r="D36" s="131">
+      <c r="D36" s="123">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E36" s="132"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="120"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="112"/>
       <c r="J36" s="56"/>
       <c r="K36" s="56"/>
       <c r="L36" s="56"/>
@@ -5821,29 +5824,29 @@
       <c r="AA36" s="56"/>
     </row>
     <row r="37" spans="1:27" ht="15">
-      <c r="A37" s="115" t="s">
+      <c r="A37" s="107" t="s">
         <v>363</v>
       </c>
-      <c r="B37" s="116">
-        <f>B34 + 1</f>
+      <c r="B37" s="108">
+        <f t="shared" ref="B37:B42" si="6">B34 + 1</f>
         <v>43496</v>
       </c>
-      <c r="C37" s="116" t="str">
+      <c r="C37" s="108" t="str">
         <f>IF(WEEKDAY(B37,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B37,1))</f>
         <v>Thứ 5</v>
       </c>
-      <c r="D37" s="117">
+      <c r="D37" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E37" s="118"/>
-      <c r="F37" s="119" t="s">
+      <c r="E37" s="110"/>
+      <c r="F37" s="111" t="s">
         <v>788</v>
       </c>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119" t="s">
+      <c r="G37" s="111"/>
+      <c r="H37" s="111" t="s">
         <v>485</v>
       </c>
-      <c r="I37" s="120" t="s">
+      <c r="I37" s="112" t="s">
         <v>549</v>
       </c>
       <c r="J37" s="56"/>
@@ -5866,27 +5869,27 @@
       <c r="AA37" s="56"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A38" s="121" t="s">
+      <c r="A38" s="113" t="s">
         <v>364</v>
       </c>
-      <c r="B38" s="116">
-        <f>B35 + 1</f>
+      <c r="B38" s="108">
+        <f t="shared" si="6"/>
         <v>43496</v>
       </c>
-      <c r="C38" s="116" t="str">
+      <c r="C38" s="108" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 5</v>
       </c>
-      <c r="D38" s="117">
+      <c r="D38" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E38" s="117"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119" t="s">
+      <c r="E38" s="109"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111" t="s">
         <v>486</v>
       </c>
-      <c r="I38" s="120" t="s">
+      <c r="I38" s="112" t="s">
         <v>549</v>
       </c>
       <c r="J38" s="56"/>
@@ -5909,25 +5912,25 @@
       <c r="AA38" s="56"/>
     </row>
     <row r="39" spans="1:27" ht="15">
-      <c r="A39" s="133" t="s">
+      <c r="A39" s="125" t="s">
         <v>897</v>
       </c>
-      <c r="B39" s="130">
-        <f>B36 + 1</f>
+      <c r="B39" s="122">
+        <f t="shared" si="6"/>
         <v>43496</v>
       </c>
-      <c r="C39" s="130" t="str">
+      <c r="C39" s="122" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 5</v>
       </c>
-      <c r="D39" s="131">
+      <c r="D39" s="123">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E39" s="132"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="120"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="112"/>
       <c r="J39" s="56"/>
       <c r="K39" s="56"/>
       <c r="L39" s="56"/>
@@ -5948,29 +5951,29 @@
       <c r="AA39" s="56"/>
     </row>
     <row r="40" spans="1:27" ht="15">
-      <c r="A40" s="115" t="s">
+      <c r="A40" s="107" t="s">
         <v>401</v>
       </c>
-      <c r="B40" s="116">
-        <f>B37 + 1</f>
+      <c r="B40" s="108">
+        <f t="shared" si="6"/>
         <v>43497</v>
       </c>
-      <c r="C40" s="116" t="str">
+      <c r="C40" s="108" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 6</v>
       </c>
-      <c r="D40" s="117">
+      <c r="D40" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E40" s="118"/>
-      <c r="F40" s="119" t="s">
+      <c r="E40" s="110"/>
+      <c r="F40" s="111" t="s">
         <v>577</v>
       </c>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119" t="s">
+      <c r="G40" s="111"/>
+      <c r="H40" s="111" t="s">
         <v>487</v>
       </c>
-      <c r="I40" s="120" t="s">
+      <c r="I40" s="112" t="s">
         <v>549</v>
       </c>
       <c r="J40" s="56"/>
@@ -5993,29 +5996,29 @@
       <c r="AA40" s="56"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A41" s="115" t="s">
+      <c r="A41" s="107" t="s">
         <v>402</v>
       </c>
-      <c r="B41" s="116">
-        <f>B38 + 1</f>
+      <c r="B41" s="108">
+        <f t="shared" si="6"/>
         <v>43497</v>
       </c>
-      <c r="C41" s="116" t="str">
+      <c r="C41" s="108" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 6</v>
       </c>
-      <c r="D41" s="117">
+      <c r="D41" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E41" s="118"/>
-      <c r="F41" s="119" t="s">
+      <c r="E41" s="110"/>
+      <c r="F41" s="111" t="s">
         <v>577</v>
       </c>
-      <c r="G41" s="119"/>
-      <c r="H41" s="119" t="s">
+      <c r="G41" s="111"/>
+      <c r="H41" s="111" t="s">
         <v>488</v>
       </c>
-      <c r="I41" s="120" t="s">
+      <c r="I41" s="112" t="s">
         <v>549</v>
       </c>
       <c r="J41" s="56"/>
@@ -6038,25 +6041,25 @@
       <c r="AA41" s="56"/>
     </row>
     <row r="42" spans="1:27" ht="15">
-      <c r="A42" s="133" t="s">
+      <c r="A42" s="125" t="s">
         <v>898</v>
       </c>
-      <c r="B42" s="130">
-        <f>B39 + 1</f>
+      <c r="B42" s="122">
+        <f t="shared" si="6"/>
         <v>43497</v>
       </c>
-      <c r="C42" s="130" t="str">
+      <c r="C42" s="122" t="str">
         <f t="shared" si="4"/>
         <v>Thứ 6</v>
       </c>
-      <c r="D42" s="131">
+      <c r="D42" s="123">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E42" s="132"/>
-      <c r="F42" s="119"/>
-      <c r="G42" s="119"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="120"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="112"/>
       <c r="J42" s="56"/>
       <c r="K42" s="56"/>
       <c r="L42" s="56"/>
@@ -6077,29 +6080,29 @@
       <c r="AA42" s="56"/>
     </row>
     <row r="43" spans="1:27" ht="15">
-      <c r="A43" s="115" t="s">
+      <c r="A43" s="107" t="s">
         <v>373</v>
       </c>
-      <c r="B43" s="116">
+      <c r="B43" s="108">
         <f>B37+ 2</f>
         <v>43498</v>
       </c>
-      <c r="C43" s="116" t="str">
-        <f t="shared" ref="C43:C48" si="6">IF(WEEKDAY(B43,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B43,1))</f>
+      <c r="C43" s="108" t="str">
+        <f t="shared" ref="C43:C48" si="7">IF(WEEKDAY(B43,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B43,1))</f>
         <v>Thứ 7</v>
       </c>
-      <c r="D43" s="117">
+      <c r="D43" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E43" s="118"/>
-      <c r="F43" s="119" t="s">
+      <c r="E43" s="110"/>
+      <c r="F43" s="111" t="s">
         <v>577</v>
       </c>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119" t="s">
+      <c r="G43" s="111"/>
+      <c r="H43" s="111" t="s">
         <v>489</v>
       </c>
-      <c r="I43" s="120"/>
+      <c r="I43" s="112"/>
       <c r="J43" s="56"/>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
@@ -6120,29 +6123,29 @@
       <c r="AA43" s="56"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A44" s="115" t="s">
+      <c r="A44" s="107" t="s">
         <v>365</v>
       </c>
-      <c r="B44" s="116">
+      <c r="B44" s="108">
         <f>B37+ 2</f>
         <v>43498</v>
       </c>
-      <c r="C44" s="116" t="str">
-        <f t="shared" si="6"/>
+      <c r="C44" s="108" t="str">
+        <f t="shared" si="7"/>
         <v>Thứ 7</v>
       </c>
-      <c r="D44" s="117">
+      <c r="D44" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E44" s="118"/>
-      <c r="F44" s="119" t="s">
+      <c r="E44" s="110"/>
+      <c r="F44" s="111" t="s">
         <v>577</v>
       </c>
-      <c r="G44" s="119"/>
-      <c r="H44" s="119" t="s">
+      <c r="G44" s="111"/>
+      <c r="H44" s="111" t="s">
         <v>490</v>
       </c>
-      <c r="I44" s="120" t="s">
+      <c r="I44" s="112" t="s">
         <v>549</v>
       </c>
       <c r="J44" s="56"/>
@@ -6165,25 +6168,25 @@
       <c r="AA44" s="56"/>
     </row>
     <row r="45" spans="1:27" ht="15">
-      <c r="A45" s="133" t="s">
+      <c r="A45" s="125" t="s">
         <v>897</v>
       </c>
-      <c r="B45" s="130">
+      <c r="B45" s="122">
         <f>B38+ 2</f>
         <v>43498</v>
       </c>
-      <c r="C45" s="130" t="str">
-        <f t="shared" si="6"/>
+      <c r="C45" s="122" t="str">
+        <f t="shared" si="7"/>
         <v>Thứ 7</v>
       </c>
-      <c r="D45" s="131">
+      <c r="D45" s="123">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E45" s="132"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="120"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="112"/>
       <c r="J45" s="56"/>
       <c r="K45" s="56"/>
       <c r="L45" s="56"/>
@@ -6204,27 +6207,27 @@
       <c r="AA45" s="56"/>
     </row>
     <row r="46" spans="1:27" ht="15">
-      <c r="A46" s="115" t="s">
+      <c r="A46" s="107" t="s">
         <v>366</v>
       </c>
-      <c r="B46" s="128">
+      <c r="B46" s="120">
         <f>B44+1</f>
         <v>43499</v>
       </c>
-      <c r="C46" s="116" t="str">
-        <f t="shared" si="6"/>
+      <c r="C46" s="108" t="str">
+        <f t="shared" si="7"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="D46" s="117">
+      <c r="D46" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E46" s="118"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="119" t="s">
+      <c r="E46" s="110"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111" t="s">
         <v>491</v>
       </c>
-      <c r="I46" s="120" t="s">
+      <c r="I46" s="112" t="s">
         <v>549</v>
       </c>
       <c r="J46" s="56"/>
@@ -6247,25 +6250,25 @@
       <c r="AA46" s="56"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A47" s="115" t="s">
+      <c r="A47" s="107" t="s">
         <v>403</v>
       </c>
-      <c r="B47" s="128">
+      <c r="B47" s="120">
         <f>B45+1</f>
         <v>43499</v>
       </c>
-      <c r="C47" s="116" t="str">
-        <f t="shared" si="6"/>
+      <c r="C47" s="108" t="str">
+        <f t="shared" si="7"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="D47" s="117">
+      <c r="D47" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E47" s="118"/>
-      <c r="F47" s="119"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="120"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="112"/>
       <c r="J47" s="56"/>
       <c r="K47" s="56"/>
       <c r="L47" s="56"/>
@@ -6286,25 +6289,25 @@
       <c r="AA47" s="56"/>
     </row>
     <row r="48" spans="1:27" ht="15">
-      <c r="A48" s="133" t="s">
+      <c r="A48" s="125" t="s">
         <v>896</v>
       </c>
-      <c r="B48" s="130">
+      <c r="B48" s="122">
         <f>B45+1</f>
         <v>43499</v>
       </c>
-      <c r="C48" s="130" t="str">
-        <f t="shared" si="6"/>
+      <c r="C48" s="122" t="str">
+        <f t="shared" si="7"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="D48" s="131">
+      <c r="D48" s="123">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E48" s="132"/>
-      <c r="F48" s="119"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="119"/>
-      <c r="I48" s="120"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="111"/>
+      <c r="G48" s="111"/>
+      <c r="H48" s="111"/>
+      <c r="I48" s="112"/>
       <c r="J48" s="56"/>
       <c r="K48" s="56"/>
       <c r="L48" s="56"/>
@@ -6325,25 +6328,25 @@
       <c r="AA48" s="56"/>
     </row>
     <row r="49" spans="1:27" ht="15">
-      <c r="A49" s="115" t="s">
+      <c r="A49" s="107" t="s">
         <v>404</v>
       </c>
-      <c r="B49" s="116">
+      <c r="B49" s="108">
         <f>B43 + 2</f>
         <v>43500</v>
       </c>
-      <c r="C49" s="116" t="str">
-        <f t="shared" ref="C49:C57" si="7">IF(WEEKDAY(B49,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B49,1))</f>
+      <c r="C49" s="108" t="str">
+        <f t="shared" ref="C49:C57" si="8">IF(WEEKDAY(B49,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B49,1))</f>
         <v>Thứ 2</v>
       </c>
-      <c r="D49" s="117">
+      <c r="D49" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E49" s="118"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="120"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="112"/>
       <c r="J49" s="56"/>
       <c r="K49" s="56"/>
       <c r="L49" s="56"/>
@@ -6364,25 +6367,25 @@
       <c r="AA49" s="56"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A50" s="115" t="s">
+      <c r="A50" s="107" t="s">
         <v>374</v>
       </c>
-      <c r="B50" s="116">
+      <c r="B50" s="108">
         <f>B44 + 2</f>
         <v>43500</v>
       </c>
-      <c r="C50" s="116" t="str">
-        <f t="shared" si="7"/>
+      <c r="C50" s="108" t="str">
+        <f t="shared" si="8"/>
         <v>Thứ 2</v>
       </c>
-      <c r="D50" s="117">
+      <c r="D50" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E50" s="118"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="120"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="112"/>
       <c r="J50" s="56"/>
       <c r="K50" s="56"/>
       <c r="L50" s="56"/>
@@ -6403,25 +6406,25 @@
       <c r="AA50" s="56"/>
     </row>
     <row r="51" spans="1:27" ht="15">
-      <c r="A51" s="133" t="s">
+      <c r="A51" s="125" t="s">
         <v>895</v>
       </c>
-      <c r="B51" s="130">
+      <c r="B51" s="122">
         <f>B45 + 2</f>
         <v>43500</v>
       </c>
-      <c r="C51" s="130" t="str">
-        <f t="shared" si="7"/>
+      <c r="C51" s="122" t="str">
+        <f t="shared" si="8"/>
         <v>Thứ 2</v>
       </c>
-      <c r="D51" s="131">
+      <c r="D51" s="123">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E51" s="132"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="120"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="112"/>
       <c r="J51" s="56"/>
       <c r="K51" s="56"/>
       <c r="L51" s="56"/>
@@ -6442,25 +6445,25 @@
       <c r="AA51" s="56"/>
     </row>
     <row r="52" spans="1:27" ht="15">
-      <c r="A52" s="115" t="s">
+      <c r="A52" s="107" t="s">
         <v>367</v>
       </c>
-      <c r="B52" s="128">
+      <c r="B52" s="120">
         <f>B43+3</f>
         <v>43501</v>
       </c>
-      <c r="C52" s="116" t="str">
-        <f t="shared" si="7"/>
+      <c r="C52" s="108" t="str">
+        <f t="shared" si="8"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D52" s="117">
+      <c r="D52" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E52" s="118"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="120"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="111"/>
+      <c r="I52" s="112"/>
       <c r="J52" s="56"/>
       <c r="K52" s="56"/>
       <c r="L52" s="56"/>
@@ -6481,25 +6484,25 @@
       <c r="AA52" s="56"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A53" s="115" t="s">
+      <c r="A53" s="107" t="s">
         <v>368</v>
       </c>
-      <c r="B53" s="128">
+      <c r="B53" s="120">
         <f>B44+3</f>
         <v>43501</v>
       </c>
-      <c r="C53" s="116" t="str">
-        <f t="shared" si="7"/>
+      <c r="C53" s="108" t="str">
+        <f t="shared" si="8"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D53" s="117">
+      <c r="D53" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E53" s="118"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="120"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="111"/>
+      <c r="I53" s="112"/>
       <c r="J53" s="56"/>
       <c r="K53" s="56"/>
       <c r="L53" s="56"/>
@@ -6520,25 +6523,25 @@
       <c r="AA53" s="56"/>
     </row>
     <row r="54" spans="1:27" ht="15">
-      <c r="A54" s="133" t="s">
+      <c r="A54" s="125" t="s">
         <v>898</v>
       </c>
-      <c r="B54" s="130">
+      <c r="B54" s="122">
         <f>B45+3</f>
         <v>43501</v>
       </c>
-      <c r="C54" s="130" t="str">
-        <f t="shared" si="7"/>
+      <c r="C54" s="122" t="str">
+        <f t="shared" si="8"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D54" s="131">
+      <c r="D54" s="123">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E54" s="132"/>
-      <c r="F54" s="119"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="120"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="112"/>
       <c r="J54" s="56"/>
       <c r="K54" s="56"/>
       <c r="L54" s="56"/>
@@ -6559,25 +6562,25 @@
       <c r="AA54" s="56"/>
     </row>
     <row r="55" spans="1:27" ht="15">
-      <c r="A55" s="115" t="s">
+      <c r="A55" s="107" t="s">
         <v>405</v>
       </c>
-      <c r="B55" s="116">
-        <f>B52 + 1</f>
+      <c r="B55" s="108">
+        <f t="shared" ref="B55:B60" si="9">B52 + 1</f>
         <v>43502</v>
       </c>
-      <c r="C55" s="116" t="str">
-        <f t="shared" si="7"/>
+      <c r="C55" s="108" t="str">
+        <f t="shared" si="8"/>
         <v>Thứ 4</v>
       </c>
-      <c r="D55" s="117">
+      <c r="D55" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E55" s="118"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="120"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="111"/>
+      <c r="I55" s="112"/>
       <c r="J55" s="56"/>
       <c r="K55" s="56"/>
       <c r="L55" s="56"/>
@@ -6598,25 +6601,25 @@
       <c r="AA55" s="56"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A56" s="115" t="s">
+      <c r="A56" s="107" t="s">
         <v>406</v>
       </c>
-      <c r="B56" s="116">
-        <f>B53 + 1</f>
+      <c r="B56" s="108">
+        <f t="shared" si="9"/>
         <v>43502</v>
       </c>
-      <c r="C56" s="116" t="str">
-        <f t="shared" si="7"/>
+      <c r="C56" s="108" t="str">
+        <f t="shared" si="8"/>
         <v>Thứ 4</v>
       </c>
-      <c r="D56" s="117">
+      <c r="D56" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E56" s="118"/>
-      <c r="F56" s="119"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="120"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="111"/>
+      <c r="I56" s="112"/>
       <c r="J56" s="56"/>
       <c r="K56" s="56"/>
       <c r="L56" s="56"/>
@@ -6637,25 +6640,25 @@
       <c r="AA56" s="56"/>
     </row>
     <row r="57" spans="1:27" ht="15">
-      <c r="A57" s="133" t="s">
+      <c r="A57" s="125" t="s">
         <v>894</v>
       </c>
-      <c r="B57" s="130">
-        <f>B54 + 1</f>
+      <c r="B57" s="122">
+        <f t="shared" si="9"/>
         <v>43502</v>
       </c>
-      <c r="C57" s="130" t="str">
-        <f t="shared" si="7"/>
+      <c r="C57" s="122" t="str">
+        <f t="shared" si="8"/>
         <v>Thứ 4</v>
       </c>
-      <c r="D57" s="131">
+      <c r="D57" s="123">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E57" s="132"/>
-      <c r="F57" s="119"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="120"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="111"/>
+      <c r="I57" s="112"/>
       <c r="J57" s="56"/>
       <c r="K57" s="56"/>
       <c r="L57" s="56"/>
@@ -6676,25 +6679,25 @@
       <c r="AA57" s="56"/>
     </row>
     <row r="58" spans="1:27" ht="15">
-      <c r="A58" s="115" t="s">
+      <c r="A58" s="107" t="s">
         <v>375</v>
       </c>
-      <c r="B58" s="116">
-        <f>B55 + 1</f>
+      <c r="B58" s="108">
+        <f t="shared" si="9"/>
         <v>43503</v>
       </c>
-      <c r="C58" s="116" t="str">
-        <f t="shared" ref="C58:C80" si="8">IF(WEEKDAY(B58,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B58,1))</f>
+      <c r="C58" s="108" t="str">
+        <f t="shared" ref="C58:C80" si="10">IF(WEEKDAY(B58,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B58,1))</f>
         <v>Thứ 5</v>
       </c>
-      <c r="D58" s="117">
+      <c r="D58" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E58" s="118"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="119"/>
-      <c r="H58" s="119"/>
-      <c r="I58" s="120"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="112"/>
       <c r="J58" s="56"/>
       <c r="K58" s="56"/>
       <c r="L58" s="56"/>
@@ -6715,25 +6718,25 @@
       <c r="AA58" s="56"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A59" s="115" t="s">
+      <c r="A59" s="107" t="s">
         <v>376</v>
       </c>
-      <c r="B59" s="116">
-        <f>B56 + 1</f>
+      <c r="B59" s="108">
+        <f t="shared" si="9"/>
         <v>43503</v>
       </c>
-      <c r="C59" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C59" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Thứ 5</v>
       </c>
-      <c r="D59" s="117">
+      <c r="D59" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E59" s="118"/>
-      <c r="F59" s="119"/>
-      <c r="G59" s="119"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="120"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="111"/>
+      <c r="I59" s="112"/>
       <c r="J59" s="56"/>
       <c r="K59" s="56"/>
       <c r="L59" s="56"/>
@@ -6754,25 +6757,25 @@
       <c r="AA59" s="56"/>
     </row>
     <row r="60" spans="1:27" ht="15">
-      <c r="A60" s="133" t="s">
+      <c r="A60" s="125" t="s">
         <v>895</v>
       </c>
-      <c r="B60" s="130">
-        <f>B57 + 1</f>
+      <c r="B60" s="122">
+        <f t="shared" si="9"/>
         <v>43503</v>
       </c>
-      <c r="C60" s="130" t="str">
-        <f t="shared" si="8"/>
+      <c r="C60" s="122" t="str">
+        <f t="shared" si="10"/>
         <v>Thứ 5</v>
       </c>
-      <c r="D60" s="131">
+      <c r="D60" s="123">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E60" s="132"/>
-      <c r="F60" s="119"/>
-      <c r="G60" s="119"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="120"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="111"/>
+      <c r="G60" s="111"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="112"/>
       <c r="J60" s="56"/>
       <c r="K60" s="56"/>
       <c r="L60" s="56"/>
@@ -6793,25 +6796,25 @@
       <c r="AA60" s="56"/>
     </row>
     <row r="61" spans="1:27" ht="15">
-      <c r="A61" s="115" t="s">
+      <c r="A61" s="107" t="s">
         <v>377</v>
       </c>
-      <c r="B61" s="116">
+      <c r="B61" s="108">
         <f>B59 + 1</f>
         <v>43504</v>
       </c>
-      <c r="C61" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C61" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Thứ 6</v>
       </c>
-      <c r="D61" s="117">
+      <c r="D61" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E61" s="118"/>
-      <c r="F61" s="119"/>
-      <c r="G61" s="119"/>
-      <c r="H61" s="119"/>
-      <c r="I61" s="120"/>
+      <c r="E61" s="110"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="111"/>
+      <c r="I61" s="112"/>
       <c r="J61" s="56"/>
       <c r="K61" s="56"/>
       <c r="L61" s="56"/>
@@ -6832,27 +6835,27 @@
       <c r="AA61" s="56"/>
     </row>
     <row r="62" spans="1:27" ht="15">
-      <c r="A62" s="115" t="s">
+      <c r="A62" s="107" t="s">
         <v>407</v>
       </c>
-      <c r="B62" s="116">
+      <c r="B62" s="108">
         <f>B59 + 1</f>
         <v>43504</v>
       </c>
-      <c r="C62" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C62" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Thứ 6</v>
       </c>
-      <c r="D62" s="117">
+      <c r="D62" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E62" s="118"/>
-      <c r="F62" s="119"/>
-      <c r="G62" s="119"/>
-      <c r="H62" s="119"/>
-      <c r="I62" s="120"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="111"/>
+      <c r="G62" s="111"/>
+      <c r="H62" s="111"/>
+      <c r="I62" s="112"/>
       <c r="J62" s="56"/>
-      <c r="K62" s="101"/>
+      <c r="K62" s="93"/>
       <c r="L62" s="56"/>
       <c r="M62" s="56"/>
       <c r="N62" s="56"/>
@@ -6871,25 +6874,25 @@
       <c r="AA62" s="56"/>
     </row>
     <row r="63" spans="1:27" ht="15">
-      <c r="A63" s="115" t="s">
+      <c r="A63" s="107" t="s">
         <v>408</v>
       </c>
-      <c r="B63" s="116">
+      <c r="B63" s="108">
         <f>B59 +1</f>
         <v>43504</v>
       </c>
-      <c r="C63" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C63" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Thứ 6</v>
       </c>
-      <c r="D63" s="117">
+      <c r="D63" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E63" s="118"/>
-      <c r="F63" s="119"/>
-      <c r="G63" s="119"/>
-      <c r="H63" s="119"/>
-      <c r="I63" s="120"/>
+      <c r="E63" s="110"/>
+      <c r="F63" s="111"/>
+      <c r="G63" s="111"/>
+      <c r="H63" s="111"/>
+      <c r="I63" s="112"/>
       <c r="J63" s="56"/>
       <c r="K63" s="56"/>
       <c r="L63" s="56"/>
@@ -6910,27 +6913,27 @@
       <c r="AA63" s="56"/>
     </row>
     <row r="64" spans="1:27" ht="15">
-      <c r="A64" s="115" t="s">
+      <c r="A64" s="107" t="s">
         <v>378</v>
       </c>
-      <c r="B64" s="116">
+      <c r="B64" s="108">
         <f>B59 +2</f>
         <v>43505</v>
       </c>
-      <c r="C64" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C64" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Thứ 7</v>
       </c>
-      <c r="D64" s="117">
+      <c r="D64" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E64" s="118" t="s">
+      <c r="E64" s="110" t="s">
         <v>392</v>
       </c>
-      <c r="F64" s="119"/>
-      <c r="G64" s="119"/>
-      <c r="H64" s="119"/>
-      <c r="I64" s="120"/>
+      <c r="F64" s="111"/>
+      <c r="G64" s="111"/>
+      <c r="H64" s="111"/>
+      <c r="I64" s="112"/>
       <c r="J64" s="56"/>
       <c r="K64" s="56"/>
       <c r="L64" s="56"/>
@@ -6951,25 +6954,25 @@
       <c r="AA64" s="56"/>
     </row>
     <row r="65" spans="1:27" ht="15">
-      <c r="A65" s="115" t="s">
+      <c r="A65" s="107" t="s">
         <v>379</v>
       </c>
-      <c r="B65" s="116">
+      <c r="B65" s="108">
         <f>B61 + 1</f>
         <v>43505</v>
       </c>
-      <c r="C65" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C65" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Thứ 7</v>
       </c>
-      <c r="D65" s="117">
+      <c r="D65" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E65" s="118"/>
-      <c r="F65" s="119"/>
-      <c r="G65" s="119"/>
-      <c r="H65" s="119"/>
-      <c r="I65" s="120"/>
+      <c r="E65" s="110"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="111"/>
+      <c r="H65" s="111"/>
+      <c r="I65" s="112"/>
       <c r="J65" s="56"/>
       <c r="K65" s="56"/>
       <c r="L65" s="56"/>
@@ -6990,25 +6993,25 @@
       <c r="AA65" s="56"/>
     </row>
     <row r="66" spans="1:27" ht="15">
-      <c r="A66" s="115" t="s">
+      <c r="A66" s="107" t="s">
         <v>380</v>
       </c>
-      <c r="B66" s="116">
+      <c r="B66" s="108">
         <f>B61 +1</f>
         <v>43505</v>
       </c>
-      <c r="C66" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C66" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Thứ 7</v>
       </c>
-      <c r="D66" s="117">
+      <c r="D66" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E66" s="118"/>
-      <c r="F66" s="119"/>
-      <c r="G66" s="119"/>
-      <c r="H66" s="119"/>
-      <c r="I66" s="120"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="111"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="112"/>
       <c r="J66" s="56"/>
       <c r="K66" s="56"/>
       <c r="L66" s="56"/>
@@ -7029,25 +7032,25 @@
       <c r="AA66" s="56"/>
     </row>
     <row r="67" spans="1:27" ht="15">
-      <c r="A67" s="115" t="s">
+      <c r="A67" s="107" t="s">
         <v>409</v>
       </c>
-      <c r="B67" s="116">
-        <f t="shared" ref="B67:B75" si="9">B63 + 2</f>
+      <c r="B67" s="108">
+        <f t="shared" ref="B67:B73" si="11">B63 + 2</f>
         <v>43506</v>
       </c>
-      <c r="C67" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C67" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="D67" s="117">
+      <c r="D67" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E67" s="118"/>
-      <c r="F67" s="119"/>
-      <c r="G67" s="119"/>
-      <c r="H67" s="119"/>
-      <c r="I67" s="120"/>
+      <c r="E67" s="110"/>
+      <c r="F67" s="111"/>
+      <c r="G67" s="111"/>
+      <c r="H67" s="111"/>
+      <c r="I67" s="112"/>
       <c r="J67" s="56"/>
       <c r="K67" s="56"/>
       <c r="L67" s="56"/>
@@ -7068,27 +7071,27 @@
       <c r="AA67" s="56"/>
     </row>
     <row r="68" spans="1:27" ht="15">
-      <c r="A68" s="115" t="s">
+      <c r="A68" s="107" t="s">
         <v>354</v>
       </c>
-      <c r="B68" s="116">
+      <c r="B68" s="108">
         <f>B64 + 1</f>
         <v>43506</v>
       </c>
-      <c r="C68" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C68" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="D68" s="117">
+      <c r="D68" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E68" s="118" t="s">
+      <c r="E68" s="110" t="s">
         <v>392</v>
       </c>
-      <c r="F68" s="119"/>
-      <c r="G68" s="119"/>
-      <c r="H68" s="119"/>
-      <c r="I68" s="120"/>
+      <c r="F68" s="111"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="112"/>
       <c r="J68" s="56"/>
       <c r="K68" s="56"/>
       <c r="L68" s="56"/>
@@ -7109,25 +7112,25 @@
       <c r="AA68" s="56"/>
     </row>
     <row r="69" spans="1:27" ht="15">
-      <c r="A69" s="115" t="s">
+      <c r="A69" s="107" t="s">
         <v>381</v>
       </c>
-      <c r="B69" s="116">
+      <c r="B69" s="108">
         <f>B65 + 1</f>
         <v>43506</v>
       </c>
-      <c r="C69" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C69" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="D69" s="117">
+      <c r="D69" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E69" s="118"/>
-      <c r="F69" s="119"/>
-      <c r="G69" s="119"/>
-      <c r="H69" s="119"/>
-      <c r="I69" s="120"/>
+      <c r="E69" s="110"/>
+      <c r="F69" s="111"/>
+      <c r="G69" s="111"/>
+      <c r="H69" s="111"/>
+      <c r="I69" s="112"/>
       <c r="J69" s="56"/>
       <c r="K69" s="56"/>
       <c r="L69" s="56"/>
@@ -7148,25 +7151,25 @@
       <c r="AA69" s="56"/>
     </row>
     <row r="70" spans="1:27" ht="15">
-      <c r="A70" s="115" t="s">
+      <c r="A70" s="107" t="s">
         <v>382</v>
       </c>
-      <c r="B70" s="116">
-        <f t="shared" si="9"/>
+      <c r="B70" s="108">
+        <f t="shared" si="11"/>
         <v>43507</v>
       </c>
-      <c r="C70" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C70" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Thứ 2</v>
       </c>
-      <c r="D70" s="117">
+      <c r="D70" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E70" s="118"/>
-      <c r="F70" s="119"/>
-      <c r="G70" s="119"/>
-      <c r="H70" s="119"/>
-      <c r="I70" s="120"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="111"/>
+      <c r="G70" s="111"/>
+      <c r="H70" s="111"/>
+      <c r="I70" s="112"/>
       <c r="J70" s="56"/>
       <c r="K70" s="56"/>
       <c r="L70" s="56"/>
@@ -7187,25 +7190,25 @@
       <c r="AA70" s="56"/>
     </row>
     <row r="71" spans="1:27" ht="15">
-      <c r="A71" s="115" t="s">
+      <c r="A71" s="107" t="s">
         <v>383</v>
       </c>
-      <c r="B71" s="116">
+      <c r="B71" s="108">
         <f>B67 + 1</f>
         <v>43507</v>
       </c>
-      <c r="C71" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C71" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Thứ 2</v>
       </c>
-      <c r="D71" s="117">
+      <c r="D71" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E71" s="118"/>
-      <c r="F71" s="119"/>
-      <c r="G71" s="119"/>
-      <c r="H71" s="119"/>
-      <c r="I71" s="120"/>
+      <c r="E71" s="110"/>
+      <c r="F71" s="111"/>
+      <c r="G71" s="111"/>
+      <c r="H71" s="111"/>
+      <c r="I71" s="112"/>
       <c r="J71" s="56"/>
       <c r="K71" s="56"/>
       <c r="L71" s="56"/>
@@ -7226,25 +7229,25 @@
       <c r="AA71" s="56"/>
     </row>
     <row r="72" spans="1:27" ht="15">
-      <c r="A72" s="115" t="s">
+      <c r="A72" s="107" t="s">
         <v>410</v>
       </c>
-      <c r="B72" s="116">
+      <c r="B72" s="108">
         <f>B68 + 1</f>
         <v>43507</v>
       </c>
-      <c r="C72" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C72" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Thứ 2</v>
       </c>
-      <c r="D72" s="117">
+      <c r="D72" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E72" s="118"/>
-      <c r="F72" s="119"/>
-      <c r="G72" s="119"/>
-      <c r="H72" s="119"/>
-      <c r="I72" s="120"/>
+      <c r="E72" s="110"/>
+      <c r="F72" s="111"/>
+      <c r="G72" s="111"/>
+      <c r="H72" s="111"/>
+      <c r="I72" s="112"/>
       <c r="J72" s="56"/>
       <c r="K72" s="56"/>
       <c r="L72" s="56"/>
@@ -7265,25 +7268,25 @@
       <c r="AA72" s="56"/>
     </row>
     <row r="73" spans="1:27" ht="15">
-      <c r="A73" s="115" t="s">
+      <c r="A73" s="107" t="s">
         <v>411</v>
       </c>
-      <c r="B73" s="116">
-        <f t="shared" si="9"/>
+      <c r="B73" s="108">
+        <f t="shared" si="11"/>
         <v>43508</v>
       </c>
-      <c r="C73" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C73" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D73" s="117">
+      <c r="D73" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E73" s="118"/>
-      <c r="F73" s="119"/>
-      <c r="G73" s="119"/>
-      <c r="H73" s="119"/>
-      <c r="I73" s="120"/>
+      <c r="E73" s="110"/>
+      <c r="F73" s="111"/>
+      <c r="G73" s="111"/>
+      <c r="H73" s="111"/>
+      <c r="I73" s="112"/>
       <c r="J73" s="56"/>
       <c r="K73" s="56"/>
       <c r="L73" s="56"/>
@@ -7304,25 +7307,25 @@
       <c r="AA73" s="56"/>
     </row>
     <row r="74" spans="1:27" ht="15">
-      <c r="A74" s="115" t="s">
+      <c r="A74" s="107" t="s">
         <v>384</v>
       </c>
-      <c r="B74" s="116">
+      <c r="B74" s="108">
         <f>B70 + 1</f>
         <v>43508</v>
       </c>
-      <c r="C74" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C74" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D74" s="117">
+      <c r="D74" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E74" s="118"/>
-      <c r="F74" s="119"/>
-      <c r="G74" s="119"/>
-      <c r="H74" s="119"/>
-      <c r="I74" s="120"/>
+      <c r="E74" s="110"/>
+      <c r="F74" s="111"/>
+      <c r="G74" s="111"/>
+      <c r="H74" s="111"/>
+      <c r="I74" s="112"/>
       <c r="J74" s="56"/>
       <c r="K74" s="56"/>
       <c r="L74" s="56"/>
@@ -7343,25 +7346,25 @@
       <c r="AA74" s="56"/>
     </row>
     <row r="75" spans="1:27" ht="15">
-      <c r="A75" s="115" t="s">
+      <c r="A75" s="107" t="s">
         <v>385</v>
       </c>
-      <c r="B75" s="116">
+      <c r="B75" s="108">
         <f>B71 + 1</f>
         <v>43508</v>
       </c>
-      <c r="C75" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C75" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Thứ 3</v>
       </c>
-      <c r="D75" s="117">
+      <c r="D75" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E75" s="118"/>
-      <c r="F75" s="119"/>
-      <c r="G75" s="119"/>
-      <c r="H75" s="119"/>
-      <c r="I75" s="120"/>
+      <c r="E75" s="110"/>
+      <c r="F75" s="111"/>
+      <c r="G75" s="111"/>
+      <c r="H75" s="111"/>
+      <c r="I75" s="112"/>
       <c r="J75" s="56"/>
       <c r="K75" s="56"/>
       <c r="L75" s="56"/>
@@ -7382,25 +7385,25 @@
       <c r="AA75" s="56"/>
     </row>
     <row r="76" spans="1:27" ht="15">
-      <c r="A76" s="115" t="s">
+      <c r="A76" s="107" t="s">
         <v>386</v>
       </c>
-      <c r="B76" s="116">
+      <c r="B76" s="108">
         <f>B72 + 2</f>
         <v>43509</v>
       </c>
-      <c r="C76" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C76" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Thứ 4</v>
       </c>
-      <c r="D76" s="117">
+      <c r="D76" s="109">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E76" s="118"/>
-      <c r="F76" s="119"/>
-      <c r="G76" s="119"/>
-      <c r="H76" s="119"/>
-      <c r="I76" s="120"/>
+      <c r="E76" s="110"/>
+      <c r="F76" s="111"/>
+      <c r="G76" s="111"/>
+      <c r="H76" s="111"/>
+      <c r="I76" s="112"/>
       <c r="J76" s="56"/>
       <c r="K76" s="56"/>
       <c r="L76" s="56"/>
@@ -7421,25 +7424,25 @@
       <c r="AA76" s="56"/>
     </row>
     <row r="77" spans="1:27" ht="15">
-      <c r="A77" s="115" t="s">
+      <c r="A77" s="107" t="s">
         <v>387</v>
       </c>
-      <c r="B77" s="116">
+      <c r="B77" s="108">
         <f>B73 +2</f>
         <v>43510</v>
       </c>
-      <c r="C77" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C77" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Thứ 5</v>
       </c>
-      <c r="D77" s="117">
+      <c r="D77" s="109">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E77" s="118"/>
-      <c r="F77" s="119"/>
-      <c r="G77" s="119"/>
-      <c r="H77" s="119"/>
-      <c r="I77" s="120"/>
+      <c r="E77" s="110"/>
+      <c r="F77" s="111"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="112"/>
       <c r="J77" s="55"/>
       <c r="K77" s="56"/>
       <c r="L77" s="56"/>
@@ -7460,25 +7463,25 @@
       <c r="AA77" s="56"/>
     </row>
     <row r="78" spans="1:27" ht="15">
-      <c r="A78" s="115" t="s">
+      <c r="A78" s="107" t="s">
         <v>388</v>
       </c>
-      <c r="B78" s="116">
+      <c r="B78" s="108">
         <f>B73 + 3</f>
         <v>43511</v>
       </c>
-      <c r="C78" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C78" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Thứ 6</v>
       </c>
-      <c r="D78" s="117">
+      <c r="D78" s="109">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E78" s="118"/>
-      <c r="F78" s="119"/>
-      <c r="G78" s="119"/>
-      <c r="H78" s="119"/>
-      <c r="I78" s="120"/>
+      <c r="E78" s="110"/>
+      <c r="F78" s="111"/>
+      <c r="G78" s="111"/>
+      <c r="H78" s="111"/>
+      <c r="I78" s="112"/>
       <c r="J78" s="55"/>
       <c r="K78" s="56"/>
       <c r="L78" s="56"/>
@@ -7499,25 +7502,25 @@
       <c r="AA78" s="56"/>
     </row>
     <row r="79" spans="1:27" ht="15">
-      <c r="A79" s="115" t="s">
+      <c r="A79" s="107" t="s">
         <v>389</v>
       </c>
-      <c r="B79" s="116">
+      <c r="B79" s="108">
         <f>B75 + 4</f>
         <v>43512</v>
       </c>
-      <c r="C79" s="116" t="str">
-        <f t="shared" si="8"/>
+      <c r="C79" s="108" t="str">
+        <f t="shared" si="10"/>
         <v>Thứ 7</v>
       </c>
-      <c r="D79" s="117">
+      <c r="D79" s="109">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E79" s="118"/>
-      <c r="F79" s="119"/>
-      <c r="G79" s="119"/>
-      <c r="H79" s="119"/>
-      <c r="I79" s="120"/>
+      <c r="E79" s="110"/>
+      <c r="F79" s="111"/>
+      <c r="G79" s="111"/>
+      <c r="H79" s="111"/>
+      <c r="I79" s="112"/>
       <c r="J79" s="55"/>
       <c r="K79" s="56"/>
       <c r="L79" s="56"/>
@@ -7538,27 +7541,27 @@
       <c r="AA79" s="56"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A80" s="122" t="s">
+      <c r="A80" s="114" t="s">
         <v>390</v>
       </c>
-      <c r="B80" s="123">
+      <c r="B80" s="115">
         <f>B76 + 4</f>
         <v>43513</v>
       </c>
-      <c r="C80" s="123" t="str">
-        <f t="shared" si="8"/>
+      <c r="C80" s="115" t="str">
+        <f t="shared" si="10"/>
         <v>Chủ nhật</v>
       </c>
-      <c r="D80" s="124">
+      <c r="D80" s="116">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E80" s="125"/>
-      <c r="F80" s="126" t="s">
+      <c r="E80" s="117"/>
+      <c r="F80" s="118" t="s">
         <v>788</v>
       </c>
-      <c r="G80" s="126"/>
-      <c r="H80" s="126"/>
-      <c r="I80" s="127"/>
+      <c r="G80" s="118"/>
+      <c r="H80" s="118"/>
+      <c r="I80" s="119"/>
       <c r="J80" s="56"/>
       <c r="K80" s="56"/>
       <c r="L80" s="56"/>
@@ -34319,8 +34322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AD6CE4-A652-4BA6-AF5B-7B55F9607709}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34495,14 +34498,18 @@
       <c r="E13" s="75"/>
       <c r="F13" s="76"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="45">
       <c r="A14" s="72">
         <v>13</v>
       </c>
       <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
+      <c r="C14" s="72" t="s">
+        <v>4</v>
+      </c>
       <c r="D14" s="71"/>
-      <c r="E14" s="75"/>
+      <c r="E14" s="75" t="s">
+        <v>899</v>
+      </c>
       <c r="F14" s="76"/>
     </row>
     <row r="15" spans="1:8">
@@ -45189,152 +45196,152 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="130"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="128" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="130"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="128" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="130"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="130"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="128" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="97"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="130"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="128" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="130"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="128" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="130"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="128" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="97"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="130"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="131" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="100"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -45365,231 +45372,225 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="130"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="130"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="128" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="130"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="130"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="128" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="97"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="130"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="128" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="130"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="128" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="130"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="128" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="97"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="130"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="97"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="130"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="97"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="130"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="97"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="130"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="97"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="130"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="97"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -45597,6 +45598,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45778,120 +45785,120 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="130"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="130"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="130"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="128" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="130"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="97"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="130"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="130"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -45923,120 +45930,120 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="130"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="130"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="130"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="130"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="97"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="130"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="130"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -46068,135 +46075,135 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="128" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="130"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="128" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="130"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="128" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="130"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="128" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="130"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="128" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="97"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="130"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="128" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="130"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="128" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="130"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="131" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="100"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42BC3F1-CB89-4222-86D9-7FD9E20352B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FBE902-368B-429C-9140-91F23125A7D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" firstSheet="10" activeTab="15" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="906">
   <si>
     <t>No</t>
   </si>
@@ -2969,6 +2969,24 @@
   </si>
   <si>
     <t>Milestones significant (đánh dấu) events within the project schedule. Chúng k phải là work activities. They have no duration</t>
+  </si>
+  <si>
+    <t>first cần ngồi cùng với team để determine the impact on the project và evaluate alternative solutions. Khi đã come up with recommendations bạn có thể present them to management and customer</t>
+  </si>
+  <si>
+    <t>PM có trách nhiệm manage the project scope completion within budget including the contigency reserves allocates for this identified risk</t>
+  </si>
+  <si>
+    <t>PM cần phải obtain change control board approval to affect the change</t>
+  </si>
+  <si>
+    <t>nếu activity nằm trên critical path thì cần phải lựa chọn quyết định change hay không? Và cần phải có CCB approval. cần phải evaluate và identify options có sử dụng float. Nếu nó không nằm trên critical path thì cần tìm possibly look for time from another activity</t>
+  </si>
+  <si>
+    <t>có problem đầu tiên là phải evaluate. Việc xác định cost variance đầu tiên có thể đưa ra solution các activities can be done parallel</t>
+  </si>
+  <si>
+    <t>Network diagram thể hiện rõ ràng các interdependencies hơn bar chart</t>
   </si>
 </sst>
 </file>
@@ -34322,8 +34340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AD6CE4-A652-4BA6-AF5B-7B55F9607709}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34522,44 +34540,52 @@
       <c r="E15" s="75"/>
       <c r="F15" s="76"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="75">
       <c r="A16" s="72">
         <v>15</v>
       </c>
       <c r="B16" s="72"/>
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
-      <c r="E16" s="75"/>
+      <c r="E16" s="75" t="s">
+        <v>900</v>
+      </c>
       <c r="F16" s="76"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="60">
       <c r="A17" s="72">
         <v>16</v>
       </c>
       <c r="B17" s="72"/>
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
-      <c r="E17" s="75"/>
+      <c r="E17" s="75" t="s">
+        <v>901</v>
+      </c>
       <c r="F17" s="76"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="72">
         <v>17</v>
       </c>
       <c r="B18" s="72"/>
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
-      <c r="E18" s="75"/>
+      <c r="E18" s="75" t="s">
+        <v>902</v>
+      </c>
       <c r="F18" s="76"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="90">
       <c r="A19" s="72">
         <v>18</v>
       </c>
       <c r="B19" s="72"/>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
-      <c r="E19" s="75"/>
+      <c r="E19" s="75" t="s">
+        <v>903</v>
+      </c>
       <c r="F19" s="76"/>
     </row>
     <row r="20" spans="1:6">
@@ -34572,24 +34598,28 @@
       <c r="E20" s="75"/>
       <c r="F20" s="76"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="45">
       <c r="A21" s="72">
         <v>20</v>
       </c>
       <c r="B21" s="72"/>
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
-      <c r="E21" s="75"/>
+      <c r="E21" s="75" t="s">
+        <v>904</v>
+      </c>
       <c r="F21" s="76"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="30">
       <c r="A22" s="72">
         <v>21</v>
       </c>
       <c r="B22" s="72"/>
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
-      <c r="E22" s="75"/>
+      <c r="E22" s="75" t="s">
+        <v>905</v>
+      </c>
       <c r="F22" s="76"/>
     </row>
     <row r="23" spans="1:6">
@@ -45591,6 +45621,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -45598,12 +45634,6 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FBE902-368B-429C-9140-91F23125A7D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD146BE-E738-48EB-B141-8AB4DA10E3D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" firstSheet="10" activeTab="15" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="600" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="926">
   <si>
     <t>No</t>
   </si>
@@ -1817,9 +1817,6 @@
     <t>manage communication</t>
   </si>
   <si>
-    <t>plan risk response</t>
-  </si>
-  <si>
     <t>đọc sai</t>
   </si>
   <si>
@@ -1851,12 +1848,6 @@
   </si>
   <si>
     <t>Chưa biết thuộc process nào</t>
-  </si>
-  <si>
-    <t>Voice of the Customer thuộc phần backlog, user story</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Project Integration Management</t>
   </si>
   <si>
     <t>done</t>
@@ -2988,12 +2979,81 @@
   <si>
     <t>Network diagram thể hiện rõ ràng các interdependencies hơn bar chart</t>
   </si>
+  <si>
+    <t>EAC = ETC + AC tính toán sai</t>
+  </si>
+  <si>
+    <t>ETC là estimate số phần còn lại estmate based on new estimate. Đọc lại mục 4 kịch bản PMBOK tính ETC</t>
+  </si>
+  <si>
+    <t>Vấn đề đọc hiểu</t>
+  </si>
+  <si>
+    <t>closing</t>
+  </si>
+  <si>
+    <t>cho PMO nên là indirect</t>
+  </si>
+  <si>
+    <t>phân tích requirement communication của stakeholder</t>
+  </si>
+  <si>
+    <t>Monitoring cung cấp performance + healthy</t>
+  </si>
+  <si>
+    <t>PM phải cung cấp trung thực tiến độ của dự án</t>
+  </si>
+  <si>
+    <t>PM Ethic</t>
+  </si>
+  <si>
+    <t>Voice of the Customer thuộc phần backlog, user story =&gt; đọc lại phần Project quality</t>
+  </si>
+  <si>
+    <t>khái niệm scatter</t>
+  </si>
+  <si>
+    <t>cần notify lại stakeholder -&gt; code of ethic</t>
+  </si>
+  <si>
+    <t>sampling để reduce cost</t>
+  </si>
+  <si>
+    <t>Đọc lại phần hợp đồng</t>
+  </si>
+  <si>
+    <t>An Influence Diagram đọc lại phần influence diagram</t>
+  </si>
+  <si>
+    <t>Code of ethic. Duyệt chi phí</t>
+  </si>
+  <si>
+    <t>Công thức: ETC = BAC - EV</t>
+  </si>
+  <si>
+    <t>Tuân thủ = manage quality</t>
+  </si>
+  <si>
+    <t>Ý A bao gồm các ý B, D à chiến lược</t>
+  </si>
+  <si>
+    <t>ĐỌc lại input/output của phần direct &amp; manage product</t>
+  </si>
+  <si>
+    <t>Keyword: eliminate =&gt; avoid</t>
+  </si>
+  <si>
+    <t>Nhớ output của define scope</t>
+  </si>
+  <si>
+    <t>quản lý conflict là communication management</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3127,6 +3187,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3547,7 +3616,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3911,6 +3980,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4313,8 +4385,8 @@
   </sheetPr>
   <dimension ref="A1:AA1017"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -4342,16 +4414,16 @@
         <v>391</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="H1" s="60" t="s">
         <v>459</v>
       </c>
       <c r="I1" s="60" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="J1" s="56"/>
       <c r="K1" s="56"/>
@@ -4390,7 +4462,7 @@
         <v>460</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="J2" s="56"/>
       <c r="K2" s="56"/>
@@ -4429,7 +4501,7 @@
         <v>461</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
@@ -4468,7 +4540,7 @@
         <v>462</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J4" s="56"/>
       <c r="K4" s="56"/>
@@ -4507,7 +4579,7 @@
         <v>463</v>
       </c>
       <c r="I5" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J5" s="56"/>
       <c r="K5" s="56"/>
@@ -4530,7 +4602,7 @@
     </row>
     <row r="6" spans="1:27" ht="15">
       <c r="A6" s="83" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B6" s="65">
         <v>43441</v>
@@ -4545,14 +4617,14 @@
         <v>392</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G6" s="60"/>
       <c r="H6" s="60" t="s">
         <v>464</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
@@ -4575,7 +4647,7 @@
     </row>
     <row r="7" spans="1:27" ht="15">
       <c r="A7" s="83" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B7" s="65">
         <v>43442</v>
@@ -4591,7 +4663,7 @@
         <v>465</v>
       </c>
       <c r="I7" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
@@ -4614,7 +4686,7 @@
     </row>
     <row r="8" spans="1:27" ht="15">
       <c r="A8" s="83" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B8" s="65">
         <v>43443</v>
@@ -4629,14 +4701,14 @@
         <v>392</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G8" s="60"/>
       <c r="H8" s="60" t="s">
         <v>466</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
@@ -4659,7 +4731,7 @@
     </row>
     <row r="9" spans="1:27" ht="15">
       <c r="A9" s="83" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B9" s="65">
         <v>43451</v>
@@ -4674,14 +4746,14 @@
         <v>392</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G9" s="60"/>
       <c r="H9" s="90" t="s">
         <v>467</v>
       </c>
       <c r="I9" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J9" s="56"/>
       <c r="K9" s="56"/>
@@ -4704,7 +4776,7 @@
     </row>
     <row r="10" spans="1:27" ht="15">
       <c r="A10" s="83" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B10" s="65">
         <f>B9+1</f>
@@ -4726,7 +4798,7 @@
         <v>468</v>
       </c>
       <c r="I10" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
@@ -4856,7 +4928,7 @@
         <v>378</v>
       </c>
       <c r="I13" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
@@ -4900,7 +4972,7 @@
         <v>470</v>
       </c>
       <c r="I14" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J14" s="56"/>
       <c r="K14" s="56"/>
@@ -4944,7 +5016,7 @@
         <v>370</v>
       </c>
       <c r="I15" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
@@ -4983,7 +5055,7 @@
         <v>369</v>
       </c>
       <c r="I16" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
@@ -5022,7 +5094,7 @@
         <v>471</v>
       </c>
       <c r="I17" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J17" s="56"/>
       <c r="K17" s="56"/>
@@ -5066,7 +5138,7 @@
         <v>472</v>
       </c>
       <c r="I18" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J18" s="56"/>
       <c r="K18" s="56"/>
@@ -5108,7 +5180,7 @@
         <v>473</v>
       </c>
       <c r="I19" s="98" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J19" s="56"/>
       <c r="K19" s="56"/>
@@ -5153,7 +5225,7 @@
         <v>474</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J20" s="56"/>
       <c r="K20" s="56"/>
@@ -5229,7 +5301,7 @@
         <v>476</v>
       </c>
       <c r="I22" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J22" s="56"/>
       <c r="K22" s="56"/>
@@ -5274,7 +5346,7 @@
         <v>477</v>
       </c>
       <c r="I23" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J23" s="56"/>
       <c r="K23" s="56"/>
@@ -5317,7 +5389,7 @@
         <v>478</v>
       </c>
       <c r="I24" s="98" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J24" s="56"/>
       <c r="K24" s="56"/>
@@ -5362,7 +5434,7 @@
         <v>479</v>
       </c>
       <c r="I25" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J25" s="56"/>
       <c r="K25" s="56"/>
@@ -5399,7 +5471,7 @@
         <v>480</v>
       </c>
       <c r="I26" s="98" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J26" s="56"/>
       <c r="K26" s="56"/>
@@ -5438,7 +5510,7 @@
         <v>481</v>
       </c>
       <c r="I27" s="60" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J27" s="56"/>
       <c r="K27" s="56"/>
@@ -5475,14 +5547,14 @@
       </c>
       <c r="E28" s="104"/>
       <c r="F28" s="105" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G28" s="105"/>
       <c r="H28" s="105" t="s">
         <v>473</v>
       </c>
       <c r="I28" s="106" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J28" s="56"/>
       <c r="K28" s="56"/>
@@ -5505,7 +5577,7 @@
     </row>
     <row r="29" spans="1:27" ht="15">
       <c r="A29" s="121" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B29" s="122">
         <v>43493</v>
@@ -5557,14 +5629,14 @@
       </c>
       <c r="E30" s="110"/>
       <c r="F30" s="111" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G30" s="111"/>
       <c r="H30" s="111" t="s">
         <v>482</v>
       </c>
       <c r="I30" s="112" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J30" s="56"/>
       <c r="K30" s="56"/>
@@ -5602,14 +5674,14 @@
       </c>
       <c r="E31" s="110"/>
       <c r="F31" s="111" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G31" s="111"/>
       <c r="H31" s="111" t="s">
         <v>478</v>
       </c>
       <c r="I31" s="112" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J31" s="56"/>
       <c r="K31" s="56"/>
@@ -5647,14 +5719,14 @@
       </c>
       <c r="E32" s="110"/>
       <c r="F32" s="111" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G32" s="111"/>
       <c r="H32" s="111" t="s">
         <v>480</v>
       </c>
       <c r="I32" s="112" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J32" s="56"/>
       <c r="K32" s="56"/>
@@ -5677,7 +5749,7 @@
     </row>
     <row r="33" spans="1:27" ht="15">
       <c r="A33" s="121" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B33" s="122">
         <f>B30+ 1</f>
@@ -5731,7 +5803,7 @@
       </c>
       <c r="E34" s="110"/>
       <c r="F34" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G34" s="111"/>
       <c r="H34" s="111" t="s">
@@ -5774,14 +5846,14 @@
       </c>
       <c r="E35" s="110"/>
       <c r="F35" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G35" s="111"/>
       <c r="H35" s="111" t="s">
         <v>484</v>
       </c>
       <c r="I35" s="112" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J35" s="56"/>
       <c r="K35" s="56"/>
@@ -5804,7 +5876,7 @@
     </row>
     <row r="36" spans="1:27" ht="15">
       <c r="A36" s="125" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B36" s="122">
         <f>B30 + 2</f>
@@ -5858,14 +5930,14 @@
       </c>
       <c r="E37" s="110"/>
       <c r="F37" s="111" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G37" s="111"/>
       <c r="H37" s="111" t="s">
         <v>485</v>
       </c>
       <c r="I37" s="112" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J37" s="56"/>
       <c r="K37" s="56"/>
@@ -5908,7 +5980,7 @@
         <v>486</v>
       </c>
       <c r="I38" s="112" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J38" s="56"/>
       <c r="K38" s="56"/>
@@ -5931,7 +6003,7 @@
     </row>
     <row r="39" spans="1:27" ht="15">
       <c r="A39" s="125" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B39" s="122">
         <f t="shared" si="6"/>
@@ -5985,14 +6057,14 @@
       </c>
       <c r="E40" s="110"/>
       <c r="F40" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G40" s="111"/>
       <c r="H40" s="111" t="s">
         <v>487</v>
       </c>
       <c r="I40" s="112" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J40" s="56"/>
       <c r="K40" s="56"/>
@@ -6030,14 +6102,14 @@
       </c>
       <c r="E41" s="110"/>
       <c r="F41" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G41" s="111"/>
       <c r="H41" s="111" t="s">
         <v>488</v>
       </c>
       <c r="I41" s="112" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J41" s="56"/>
       <c r="K41" s="56"/>
@@ -6060,7 +6132,7 @@
     </row>
     <row r="42" spans="1:27" ht="15">
       <c r="A42" s="125" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B42" s="122">
         <f t="shared" si="6"/>
@@ -6114,7 +6186,7 @@
       </c>
       <c r="E43" s="110"/>
       <c r="F43" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G43" s="111"/>
       <c r="H43" s="111" t="s">
@@ -6157,14 +6229,14 @@
       </c>
       <c r="E44" s="110"/>
       <c r="F44" s="111" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G44" s="111"/>
       <c r="H44" s="111" t="s">
         <v>490</v>
       </c>
       <c r="I44" s="112" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J44" s="56"/>
       <c r="K44" s="56"/>
@@ -6187,7 +6259,7 @@
     </row>
     <row r="45" spans="1:27" ht="15">
       <c r="A45" s="125" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B45" s="122">
         <f>B38+ 2</f>
@@ -6246,7 +6318,7 @@
         <v>491</v>
       </c>
       <c r="I46" s="112" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J46" s="56"/>
       <c r="K46" s="56"/>
@@ -6308,7 +6380,7 @@
     </row>
     <row r="48" spans="1:27" ht="15">
       <c r="A48" s="125" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B48" s="122">
         <f>B45+1</f>
@@ -6425,7 +6497,7 @@
     </row>
     <row r="51" spans="1:27" ht="15">
       <c r="A51" s="125" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B51" s="122">
         <f>B45 + 2</f>
@@ -6542,7 +6614,7 @@
     </row>
     <row r="54" spans="1:27" ht="15">
       <c r="A54" s="125" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B54" s="122">
         <f>B45+3</f>
@@ -6659,7 +6731,7 @@
     </row>
     <row r="57" spans="1:27" ht="15">
       <c r="A57" s="125" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B57" s="122">
         <f t="shared" si="9"/>
@@ -6776,7 +6848,7 @@
     </row>
     <row r="60" spans="1:27" ht="15">
       <c r="A60" s="125" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B60" s="122">
         <f t="shared" si="9"/>
@@ -6931,7 +7003,7 @@
       <c r="AA63" s="56"/>
     </row>
     <row r="64" spans="1:27" ht="15">
-      <c r="A64" s="107" t="s">
+      <c r="A64" s="134" t="s">
         <v>378</v>
       </c>
       <c r="B64" s="108">
@@ -7575,7 +7647,7 @@
       </c>
       <c r="E80" s="117"/>
       <c r="F80" s="118" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G80" s="118"/>
       <c r="H80" s="118"/>
@@ -31076,6 +31148,7 @@
     <hyperlink ref="H9" location="scope!A1" display="Scope" xr:uid="{8291B043-DBDF-410A-837B-8F5204BBCF81}"/>
     <hyperlink ref="A28" location="'monitoring 4'!A1" display="Monitoring 4 - 50" xr:uid="{F5908317-7D0A-48FB-B37C-15E766CB4C78}"/>
     <hyperlink ref="A19" location="'monitoring 4'!A1" display="Monitoring 4 - 50" xr:uid="{278D60AC-D5ED-490A-8DF5-9A76F651917F}"/>
+    <hyperlink ref="A64" location="'Mock Exam 10'!A1" display="Mock Exam 10" xr:uid="{B9B7DEF5-96F2-41A3-BB52-CD18840B95F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31131,7 +31204,7 @@
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
       <c r="E2" s="72" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F2" s="27"/>
     </row>
@@ -31143,7 +31216,7 @@
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="72" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="F3" s="27"/>
     </row>
@@ -31167,7 +31240,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F5" s="27"/>
     </row>
@@ -31181,7 +31254,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="F6" s="27"/>
     </row>
@@ -31193,7 +31266,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="88"/>
@@ -31228,7 +31301,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="F10" s="89"/>
       <c r="G10" s="88"/>
@@ -31261,8 +31334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A78EF31-A47F-4412-A3CA-C438D7816DE2}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31305,7 +31378,9 @@
         <v>4</v>
       </c>
       <c r="D2" s="72"/>
-      <c r="E2" s="75"/>
+      <c r="E2" s="75" t="s">
+        <v>903</v>
+      </c>
       <c r="F2" s="68" t="s">
         <v>515</v>
       </c>
@@ -31326,7 +31401,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="45">
       <c r="A4" s="72">
         <v>3</v>
       </c>
@@ -31335,7 +31410,9 @@
       <c r="D4" s="72" t="s">
         <v>518</v>
       </c>
-      <c r="E4" s="75"/>
+      <c r="E4" s="75" t="s">
+        <v>904</v>
+      </c>
       <c r="F4" s="68" t="s">
         <v>515</v>
       </c>
@@ -31346,10 +31423,15 @@
       </c>
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="75"/>
+      <c r="D5" s="72" t="s">
+        <v>905</v>
+      </c>
+      <c r="E5" s="75" t="e">
+        <f>- It must be noted that the car has been built, and the Control Quality and Validate Scope processes have been performed for every deliverable. the question is asking about PRODUCT delivery, which occurs during the closing process</f>
+        <v>#NAME?</v>
+      </c>
       <c r="F5" s="68" t="s">
-        <v>519</v>
+        <v>906</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -31384,9 +31466,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
+      <c r="C8" s="72" t="s">
+        <v>4</v>
+      </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="75"/>
+      <c r="E8" s="75" t="s">
+        <v>907</v>
+      </c>
       <c r="F8" s="81" t="s">
         <v>523</v>
       </c>
@@ -31447,7 +31533,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="30">
       <c r="A13" s="72">
         <v>12</v>
       </c>
@@ -31456,10 +31542,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="81" t="s">
-        <v>530</v>
-      </c>
+      <c r="E13" s="75" t="s">
+        <v>908</v>
+      </c>
+      <c r="F13" s="81"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="72">
@@ -31470,7 +31556,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="71" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E14" s="75"/>
     </row>
@@ -31485,7 +31571,7 @@
       <c r="D15" s="72"/>
       <c r="E15" s="75"/>
       <c r="F15" s="81" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -31499,7 +31585,7 @@
       <c r="D16" s="72"/>
       <c r="E16" s="75"/>
       <c r="F16" s="81" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -31512,7 +31598,7 @@
       </c>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -31525,10 +31611,10 @@
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="75" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -31536,11 +31622,15 @@
         <v>18</v>
       </c>
       <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
+      <c r="C19" s="72" t="s">
+        <v>4</v>
+      </c>
       <c r="D19" s="72"/>
-      <c r="E19" s="75"/>
+      <c r="E19" s="75" t="s">
+        <v>909</v>
+      </c>
       <c r="F19" s="82" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -31552,7 +31642,7 @@
       <c r="D20" s="72"/>
       <c r="E20" s="75"/>
       <c r="F20" s="68" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -31564,11 +31654,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>539</v>
-      </c>
-      <c r="E21" s="75"/>
+        <v>538</v>
+      </c>
+      <c r="E21" s="75" t="s">
+        <v>910</v>
+      </c>
       <c r="F21" s="68" t="s">
-        <v>540</v>
+        <v>911</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -31582,7 +31674,7 @@
       <c r="D22" s="72"/>
       <c r="E22" s="75"/>
       <c r="F22" s="68" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30">
@@ -31593,10 +31685,7 @@
       <c r="C23" s="72"/>
       <c r="D23" s="72"/>
       <c r="E23" s="75" t="s">
-        <v>542</v>
-      </c>
-      <c r="F23" s="68" t="s">
-        <v>526</v>
+        <v>912</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -31606,9 +31695,8 @@
       <c r="B24" s="72"/>
       <c r="C24" s="72"/>
       <c r="D24" s="72"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="68" t="s">
-        <v>543</v>
+      <c r="E24" s="75" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -31627,7 +31715,9 @@
       <c r="B26" s="72"/>
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
-      <c r="E26" s="75"/>
+      <c r="E26" s="75" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="72">
@@ -31652,8 +31742,12 @@
         <v>28</v>
       </c>
       <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
+      <c r="C29" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>915</v>
+      </c>
       <c r="E29" s="75"/>
     </row>
     <row r="30" spans="1:6">
@@ -31679,9 +31773,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
+      <c r="C32" s="72" t="s">
+        <v>4</v>
+      </c>
       <c r="D32" s="72"/>
-      <c r="E32" s="75"/>
+      <c r="E32" s="75" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="72">
@@ -31701,23 +31799,33 @@
       <c r="D34" s="72"/>
       <c r="E34" s="75"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="30">
       <c r="A35" s="72">
         <v>34</v>
       </c>
       <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="75"/>
+      <c r="C35" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="72" t="s">
+        <v>917</v>
+      </c>
+      <c r="E35" s="72" t="s">
+        <v>917</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="72">
         <v>35</v>
       </c>
       <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
+      <c r="C36" s="72" t="s">
+        <v>4</v>
+      </c>
       <c r="D36" s="72"/>
-      <c r="E36" s="75"/>
+      <c r="E36" s="75" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="72">
@@ -31726,24 +31834,34 @@
       <c r="B37" s="72"/>
       <c r="C37" s="72"/>
       <c r="D37" s="72"/>
-      <c r="E37" s="75"/>
+      <c r="E37" s="75" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="72">
         <v>37</v>
       </c>
       <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
+      <c r="C38" s="72" t="s">
+        <v>4</v>
+      </c>
       <c r="D38" s="72"/>
-      <c r="E38" s="75"/>
+      <c r="E38" s="75" t="s">
+        <v>920</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="72">
         <v>38</v>
       </c>
       <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
+      <c r="C39" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="72" t="s">
+        <v>921</v>
+      </c>
       <c r="E39" s="75"/>
     </row>
     <row r="40" spans="1:5">
@@ -31755,13 +31873,17 @@
       <c r="D40" s="72"/>
       <c r="E40" s="75"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="30">
       <c r="A41" s="72">
         <v>40</v>
       </c>
       <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
+      <c r="C41" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="72" t="s">
+        <v>922</v>
+      </c>
       <c r="E41" s="75"/>
     </row>
     <row r="42" spans="1:5">
@@ -31769,8 +31891,12 @@
         <v>41</v>
       </c>
       <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
+      <c r="C42" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="72" t="s">
+        <v>923</v>
+      </c>
       <c r="E42" s="75"/>
     </row>
     <row r="43" spans="1:5">
@@ -31778,8 +31904,12 @@
         <v>42</v>
       </c>
       <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
+      <c r="C43" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="72" t="s">
+        <v>924</v>
+      </c>
       <c r="E43" s="75"/>
     </row>
     <row r="44" spans="1:5">
@@ -31814,8 +31944,12 @@
         <v>46</v>
       </c>
       <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
+      <c r="C47" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="72" t="s">
+        <v>925</v>
+      </c>
       <c r="E47" s="75"/>
     </row>
     <row r="48" spans="1:5">
@@ -31915,7 +32049,7 @@
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -31980,7 +32114,7 @@
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
@@ -32037,10 +32171,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E13" s="75" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -32061,10 +32195,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="72" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E15" s="75" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
@@ -32077,7 +32211,7 @@
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -32108,7 +32242,7 @@
       </c>
       <c r="D19" s="72"/>
       <c r="E19" s="75" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -32314,7 +32448,7 @@
       </c>
       <c r="D37" s="72"/>
       <c r="E37" s="75" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -33132,14 +33266,14 @@
         <v>4</v>
       </c>
       <c r="D2" s="72" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F2" s="76"/>
       <c r="G2" s="77" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -33161,10 +33295,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F4" s="76"/>
     </row>
@@ -33177,10 +33311,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F5" s="76"/>
     </row>
@@ -33193,10 +33327,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F6" s="76"/>
     </row>
@@ -33210,7 +33344,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="75" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F7" s="76"/>
       <c r="G7" s="77"/>
@@ -33223,7 +33357,7 @@
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -33256,7 +33390,7 @@
       <c r="C11" s="72"/>
       <c r="D11" s="72"/>
       <c r="E11" s="75" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F11" s="76"/>
     </row>
@@ -33280,7 +33414,7 @@
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="75" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F13" s="76"/>
     </row>
@@ -33304,7 +33438,7 @@
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="75" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F15" s="76"/>
     </row>
@@ -33318,7 +33452,7 @@
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F16" s="76"/>
     </row>
@@ -33330,7 +33464,7 @@
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F17" s="76"/>
     </row>
@@ -33382,7 +33516,7 @@
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F22" s="76"/>
     </row>
@@ -33394,7 +33528,7 @@
       <c r="C23" s="72"/>
       <c r="D23" s="72"/>
       <c r="E23" s="75" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F23" s="76"/>
     </row>
@@ -33426,7 +33560,7 @@
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
       <c r="E26" s="75" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F26" s="76"/>
     </row>
@@ -33449,10 +33583,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="72" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E28" s="75" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F28" s="76"/>
     </row>
@@ -33476,7 +33610,7 @@
       </c>
       <c r="D30" s="72"/>
       <c r="E30" s="75" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F30" s="76"/>
     </row>
@@ -33488,7 +33622,7 @@
       <c r="C31" s="72"/>
       <c r="D31" s="72"/>
       <c r="E31" s="75" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F31" s="76"/>
     </row>
@@ -33510,7 +33644,7 @@
       <c r="C33" s="72"/>
       <c r="D33" s="72"/>
       <c r="E33" s="75" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F33" s="76"/>
     </row>
@@ -33532,7 +33666,7 @@
       <c r="C35" s="72"/>
       <c r="D35" s="72"/>
       <c r="E35" s="75" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F35" s="76"/>
     </row>
@@ -33544,7 +33678,7 @@
       <c r="C36" s="72"/>
       <c r="D36" s="72"/>
       <c r="E36" s="75" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F36" s="76"/>
     </row>
@@ -33556,7 +33690,7 @@
       <c r="C37" s="72"/>
       <c r="D37" s="72"/>
       <c r="E37" s="75" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F37" s="76"/>
     </row>
@@ -33599,7 +33733,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="72" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E41" s="75"/>
       <c r="F41" s="76"/>
@@ -33614,7 +33748,7 @@
       </c>
       <c r="D42" s="72"/>
       <c r="E42" s="75" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F42" s="76"/>
     </row>
@@ -33628,7 +33762,7 @@
       </c>
       <c r="D43" s="72"/>
       <c r="E43" s="75" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F43" s="76"/>
     </row>
@@ -33642,7 +33776,7 @@
       </c>
       <c r="D44" s="72"/>
       <c r="E44" s="75" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F44" s="76"/>
     </row>
@@ -33654,7 +33788,7 @@
       <c r="C45" s="72"/>
       <c r="D45" s="72"/>
       <c r="E45" s="75" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F45" s="76"/>
     </row>
@@ -34340,8 +34474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AD6CE4-A652-4BA6-AF5B-7B55F9607709}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34383,7 +34517,7 @@
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="F2" s="76"/>
     </row>
@@ -34407,7 +34541,7 @@
       </c>
       <c r="D4" s="72"/>
       <c r="E4" s="75" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="F4" s="76"/>
     </row>
@@ -34431,7 +34565,7 @@
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="75" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="F6" s="76"/>
     </row>
@@ -34445,7 +34579,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="75" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F7" s="76"/>
       <c r="G7" s="77"/>
@@ -34460,7 +34594,7 @@
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -34526,7 +34660,7 @@
       </c>
       <c r="D14" s="71"/>
       <c r="E14" s="75" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="F14" s="76"/>
     </row>
@@ -34548,7 +34682,7 @@
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F16" s="76"/>
     </row>
@@ -34560,7 +34694,7 @@
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="F17" s="76"/>
     </row>
@@ -34572,7 +34706,7 @@
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
       <c r="E18" s="75" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="F18" s="76"/>
     </row>
@@ -34584,7 +34718,7 @@
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
       <c r="E19" s="75" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="F19" s="76"/>
     </row>
@@ -34606,7 +34740,7 @@
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
       <c r="E21" s="75" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="F21" s="76"/>
     </row>
@@ -34618,7 +34752,7 @@
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="F22" s="76"/>
     </row>
@@ -35533,7 +35667,7 @@
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F2" s="76"/>
     </row>
@@ -35545,7 +35679,7 @@
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="75" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F3" s="76"/>
     </row>
@@ -35567,7 +35701,7 @@
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F5" s="76"/>
     </row>
@@ -35581,7 +35715,7 @@
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="75" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F6" s="76"/>
     </row>
@@ -35595,7 +35729,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="75" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F7" s="76"/>
       <c r="G7" s="77"/>
@@ -35618,7 +35752,7 @@
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
       <c r="E9" s="75" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F9" s="76"/>
     </row>
@@ -35642,10 +35776,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E11" s="75" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F11" s="76"/>
       <c r="H11" s="77"/>
@@ -35660,11 +35794,11 @@
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F12" s="76"/>
       <c r="G12" s="75" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45">
@@ -35677,7 +35811,7 @@
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="75" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F13" s="76"/>
     </row>
@@ -35691,7 +35825,7 @@
       </c>
       <c r="D14" s="71"/>
       <c r="E14" s="75" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F14" s="76"/>
     </row>
@@ -35705,7 +35839,7 @@
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="75" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="F15" s="76"/>
     </row>
@@ -35717,7 +35851,7 @@
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F16" s="76"/>
     </row>
@@ -35739,7 +35873,7 @@
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
       <c r="E18" s="75" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F18" s="76"/>
     </row>
@@ -35751,7 +35885,7 @@
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
       <c r="E19" s="75" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F19" s="76"/>
     </row>
@@ -35765,7 +35899,7 @@
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="75" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="F20" s="76"/>
     </row>
@@ -35779,7 +35913,7 @@
       </c>
       <c r="D21" s="72"/>
       <c r="E21" s="75" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F21" s="76"/>
     </row>
@@ -35793,7 +35927,7 @@
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F22" s="76"/>
     </row>
@@ -35817,7 +35951,7 @@
       </c>
       <c r="D24" s="72"/>
       <c r="E24" s="75" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F24" s="76"/>
     </row>
@@ -35829,7 +35963,7 @@
       <c r="C25" s="72"/>
       <c r="D25" s="72"/>
       <c r="E25" s="75" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F25" s="76"/>
     </row>
@@ -35842,10 +35976,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="72" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E26" s="75" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F26" s="76"/>
     </row>
@@ -35856,10 +35990,10 @@
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
       <c r="D27" s="72" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E27" s="75" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F27" s="76"/>
     </row>
@@ -35873,7 +36007,7 @@
       </c>
       <c r="D28" s="72"/>
       <c r="E28" s="75" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F28" s="76"/>
     </row>
@@ -35885,7 +36019,7 @@
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
       <c r="E29" s="75" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F29" s="76"/>
     </row>
@@ -35897,7 +36031,7 @@
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
       <c r="E30" s="75" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F30" s="76"/>
     </row>
@@ -35919,7 +36053,7 @@
       <c r="C32" s="72"/>
       <c r="D32" s="72"/>
       <c r="E32" s="75" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F32" s="76"/>
     </row>
@@ -35932,10 +36066,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="72" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E33" s="75" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F33" s="76"/>
     </row>
@@ -35957,7 +36091,7 @@
       <c r="C35" s="72"/>
       <c r="D35" s="72"/>
       <c r="E35" s="75" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F35" s="76"/>
     </row>
@@ -35981,7 +36115,7 @@
       </c>
       <c r="D37" s="72"/>
       <c r="E37" s="75" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F37" s="76"/>
     </row>
@@ -35994,10 +36128,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="72" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E38" s="75" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F38" s="76"/>
     </row>
@@ -36010,10 +36144,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="72" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E39" s="75" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F39" s="76"/>
     </row>
@@ -36026,7 +36160,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="72" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F40" s="76"/>
     </row>
@@ -36038,7 +36172,7 @@
       <c r="C41" s="72"/>
       <c r="D41" s="72"/>
       <c r="E41" s="75" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F41" s="76"/>
     </row>
@@ -36050,7 +36184,7 @@
       <c r="C42" s="72"/>
       <c r="D42" s="72"/>
       <c r="E42" s="75" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F42" s="76"/>
     </row>
@@ -36061,10 +36195,10 @@
       <c r="B43" s="72"/>
       <c r="C43" s="72"/>
       <c r="D43" s="72" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E43" s="75" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F43" s="76"/>
     </row>
@@ -36086,7 +36220,7 @@
       <c r="C45" s="72"/>
       <c r="D45" s="72"/>
       <c r="E45" s="75" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F45" s="76"/>
     </row>
@@ -36100,7 +36234,7 @@
       </c>
       <c r="D46" s="72"/>
       <c r="E46" s="75" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F46" s="76"/>
     </row>
@@ -36134,7 +36268,7 @@
       </c>
       <c r="D49" s="72"/>
       <c r="E49" s="75" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="F49" s="76"/>
     </row>
@@ -36148,7 +36282,7 @@
       </c>
       <c r="D50" s="72"/>
       <c r="E50" s="75" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F50" s="76"/>
     </row>
@@ -36162,7 +36296,7 @@
       </c>
       <c r="D51" s="72"/>
       <c r="E51" s="75" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F51" s="76"/>
     </row>
@@ -36242,7 +36376,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="28"/>
       <c r="G3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -36319,7 +36453,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>429</v>
@@ -36342,7 +36476,7 @@
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="77" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="90">
@@ -36354,10 +36488,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F11" s="28"/>
       <c r="H11" s="77" t="s">
@@ -36384,11 +36518,11 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30">
@@ -36401,11 +36535,11 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="15" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -36428,7 +36562,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F16" s="28"/>
     </row>
@@ -36460,7 +36594,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F19" s="28"/>
     </row>
@@ -36474,7 +36608,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F20" s="28"/>
     </row>
@@ -36508,11 +36642,11 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45">
@@ -36523,11 +36657,11 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="60">
@@ -36540,7 +36674,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F25" s="28"/>
     </row>
@@ -36554,7 +36688,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F26" s="28"/>
     </row>
@@ -36586,7 +36720,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F29" s="28"/>
     </row>
@@ -36600,7 +36734,7 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F30" s="28"/>
     </row>
@@ -36624,7 +36758,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F32" s="28"/>
     </row>
@@ -36648,7 +36782,7 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F34" s="28"/>
     </row>
@@ -36662,7 +36796,7 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F35" s="28"/>
     </row>
@@ -36909,10 +37043,10 @@
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F2" s="68" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="90">
@@ -36923,10 +37057,10 @@
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="75" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F3" s="68" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
@@ -36938,13 +37072,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F4" s="77" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -36966,10 +37100,10 @@
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="75" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F6" s="81" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -36981,7 +37115,7 @@
       <c r="D7" s="72"/>
       <c r="E7" s="75"/>
       <c r="F7" s="81" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G7" s="77"/>
     </row>
@@ -36995,7 +37129,7 @@
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F8" s="81"/>
     </row>
@@ -37008,10 +37142,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
@@ -37023,10 +37157,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E10" s="75" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F10" s="81"/>
       <c r="G10" s="77"/>
@@ -37050,10 +37184,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E12" s="75" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F12" s="77"/>
     </row>
@@ -37077,7 +37211,7 @@
       </c>
       <c r="D14" s="71"/>
       <c r="E14" s="75" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30">
@@ -37090,7 +37224,7 @@
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="75" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F15" s="81" t="s">
         <v>519</v>
@@ -37114,7 +37248,7 @@
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45">
@@ -37125,10 +37259,10 @@
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
       <c r="E18" s="75" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45">
@@ -37139,10 +37273,10 @@
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
       <c r="E19" s="75" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="75">
@@ -37155,7 +37289,7 @@
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="75" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60">
@@ -37167,10 +37301,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E21" s="75" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -37199,7 +37333,7 @@
       <c r="C24" s="72"/>
       <c r="D24" s="72"/>
       <c r="E24" s="75" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30">
@@ -37212,7 +37346,7 @@
       </c>
       <c r="D25" s="72"/>
       <c r="E25" s="75" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45">
@@ -37225,10 +37359,10 @@
       </c>
       <c r="D26" s="72"/>
       <c r="E26" s="75" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="75">
@@ -37241,7 +37375,7 @@
       </c>
       <c r="D27" s="72"/>
       <c r="E27" s="75" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="45">
@@ -37252,7 +37386,7 @@
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
       <c r="E28" s="75" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
@@ -37265,7 +37399,7 @@
       </c>
       <c r="D29" s="72"/>
       <c r="E29" s="75" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -37287,10 +37421,10 @@
       </c>
       <c r="D31" s="72"/>
       <c r="E31" s="75" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="90">
@@ -37303,10 +37437,10 @@
       </c>
       <c r="D32" s="72"/>
       <c r="E32" s="75" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30">
@@ -37317,7 +37451,7 @@
       <c r="C33" s="72"/>
       <c r="D33" s="72"/>
       <c r="E33" s="75" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="60">
@@ -37328,7 +37462,7 @@
       <c r="C34" s="72"/>
       <c r="D34" s="72"/>
       <c r="E34" s="75" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -37341,7 +37475,7 @@
       </c>
       <c r="D35" s="72"/>
       <c r="E35" s="75" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -37370,10 +37504,10 @@
       <c r="C38" s="72"/>
       <c r="D38" s="72"/>
       <c r="E38" s="75" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45">
@@ -37386,7 +37520,7 @@
       </c>
       <c r="D39" s="72"/>
       <c r="E39" s="75" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -37408,7 +37542,7 @@
       </c>
       <c r="D41" s="72"/>
       <c r="E41" s="75" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -37430,10 +37564,10 @@
       </c>
       <c r="D43" s="72"/>
       <c r="E43" s="75" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="F43" s="68" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -37454,10 +37588,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="72" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E45" s="75" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="45">
@@ -37468,7 +37602,7 @@
       <c r="C46" s="72"/>
       <c r="D46" s="72"/>
       <c r="E46" s="75" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="75">
@@ -37479,7 +37613,7 @@
       <c r="C47" s="72"/>
       <c r="D47" s="72"/>
       <c r="E47" s="75" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30">
@@ -37490,7 +37624,7 @@
       <c r="C48" s="72"/>
       <c r="D48" s="72"/>
       <c r="E48" s="75" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -37958,7 +38092,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -37969,7 +38103,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -37982,7 +38116,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -38004,7 +38138,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -38105,7 +38239,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
@@ -38118,7 +38252,7 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -38156,7 +38290,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="90">
@@ -38167,7 +38301,7 @@
       <c r="C8" s="27"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="105">
@@ -38178,7 +38312,7 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="105">
@@ -38189,7 +38323,7 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="4" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="150">
@@ -38200,7 +38334,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="4" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -38256,7 +38390,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -38285,7 +38419,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -38305,7 +38439,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -38343,7 +38477,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -38472,7 +38606,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E10" s="27"/>
     </row>
@@ -39036,7 +39170,7 @@
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F2" s="76"/>
     </row>
@@ -39050,7 +39184,7 @@
       </c>
       <c r="D3" s="72"/>
       <c r="E3" s="75" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F3" s="76"/>
     </row>
@@ -39062,7 +39196,7 @@
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
       <c r="E4" s="75" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F4" s="76"/>
     </row>
@@ -39076,7 +39210,7 @@
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F5" s="76"/>
     </row>
@@ -39100,7 +39234,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="71" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F7" s="76"/>
     </row>
@@ -39114,7 +39248,7 @@
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -39128,7 +39262,7 @@
       </c>
       <c r="D9" s="72"/>
       <c r="E9" s="75" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F9" s="76"/>
     </row>
@@ -39181,7 +39315,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="72" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F14" s="76"/>
     </row>
@@ -39202,7 +39336,7 @@
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F16" s="76"/>
     </row>
@@ -39214,7 +39348,7 @@
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F17" s="76"/>
     </row>
@@ -39248,7 +39382,7 @@
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="75" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F20" s="76"/>
     </row>
@@ -39260,7 +39394,7 @@
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
       <c r="E21" s="75" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F21" s="76"/>
     </row>
@@ -39304,7 +39438,7 @@
       </c>
       <c r="D25" s="72"/>
       <c r="E25" s="75" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F25" s="76"/>
     </row>
@@ -39392,10 +39526,10 @@
         <v>57</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E3" s="75" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F3" s="76"/>
     </row>
@@ -39407,7 +39541,7 @@
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
       <c r="E4" s="75" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F4" s="76"/>
     </row>
@@ -39419,7 +39553,7 @@
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F5" s="76"/>
     </row>
@@ -39443,7 +39577,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="71" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F7" s="76"/>
     </row>
@@ -39455,7 +39589,7 @@
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -39469,7 +39603,7 @@
       </c>
       <c r="D9" s="72"/>
       <c r="E9" s="75" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F9" s="76"/>
     </row>
@@ -39503,7 +39637,7 @@
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F12" s="76"/>
     </row>
@@ -39535,7 +39669,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="72" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F15" s="76"/>
     </row>
@@ -39557,7 +39691,7 @@
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F17" s="76"/>
     </row>
@@ -39569,7 +39703,7 @@
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
       <c r="E18" s="75" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F18" s="76"/>
     </row>
@@ -39591,7 +39725,7 @@
       <c r="C20" s="72"/>
       <c r="D20" s="72"/>
       <c r="E20" s="75" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F20" s="76"/>
     </row>
@@ -39613,7 +39747,7 @@
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F22" s="76"/>
     </row>
@@ -40112,7 +40246,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -40133,10 +40267,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -40156,7 +40290,7 @@
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -40168,10 +40302,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -40184,7 +40318,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60">
@@ -40197,7 +40331,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -40210,7 +40344,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -40276,7 +40410,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="90">
@@ -40287,7 +40421,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -40325,7 +40459,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="4" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -40345,7 +40479,7 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -40365,7 +40499,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="4" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -40552,7 +40686,7 @@
       <c r="B13" s="72"/>
       <c r="C13" s="72"/>
       <c r="D13" s="72" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E13" s="72"/>
     </row>
@@ -40589,7 +40723,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E16" s="72"/>
     </row>
@@ -40680,7 +40814,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E23" s="72"/>
     </row>
@@ -40709,7 +40843,7 @@
       </c>
       <c r="D25" s="72"/>
       <c r="E25" s="72" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -43514,14 +43648,14 @@
         <v>4</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F4" s="76"/>
       <c r="G4" s="71" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="75">
@@ -43532,11 +43666,11 @@
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F5" s="76"/>
       <c r="G5" s="71" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
@@ -43549,7 +43683,7 @@
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="75" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F6" s="76"/>
     </row>
@@ -43573,7 +43707,7 @@
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -43587,7 +43721,7 @@
       </c>
       <c r="D9" s="72"/>
       <c r="E9" s="75" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F9" s="76"/>
     </row>
@@ -43598,10 +43732,10 @@
       <c r="B10" s="72"/>
       <c r="C10" s="72"/>
       <c r="D10" s="72" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E10" s="75" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F10" s="76"/>
     </row>
@@ -43613,7 +43747,7 @@
       <c r="C11" s="72"/>
       <c r="D11" s="72"/>
       <c r="E11" s="75" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F11" s="76"/>
     </row>
@@ -43627,7 +43761,7 @@
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F12" s="76"/>
     </row>
@@ -43639,7 +43773,7 @@
       <c r="C13" s="72"/>
       <c r="D13" s="72"/>
       <c r="E13" s="75" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F13" s="76"/>
     </row>
@@ -43660,7 +43794,7 @@
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
       <c r="E15" s="75" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F15" s="76"/>
     </row>
@@ -43674,7 +43808,7 @@
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F16" s="76"/>
     </row>
@@ -43688,7 +43822,7 @@
       </c>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F17" s="76"/>
     </row>
@@ -43722,7 +43856,7 @@
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="75" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F20" s="76"/>
     </row>
@@ -43736,7 +43870,7 @@
       </c>
       <c r="D21" s="72"/>
       <c r="E21" s="75" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F21" s="76"/>
     </row>
@@ -43748,7 +43882,7 @@
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F22" s="76"/>
     </row>
@@ -43782,7 +43916,7 @@
       </c>
       <c r="D25" s="72"/>
       <c r="E25" s="75" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F25" s="76"/>
     </row>
@@ -43824,7 +43958,7 @@
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
       <c r="E29" s="75" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F29" s="76"/>
     </row>
@@ -43836,7 +43970,7 @@
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
       <c r="E30" s="75" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F30" s="76"/>
     </row>
@@ -43850,7 +43984,7 @@
       </c>
       <c r="D31" s="72"/>
       <c r="E31" s="75" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F31" s="76"/>
     </row>
@@ -43862,7 +43996,7 @@
       <c r="C32" s="72"/>
       <c r="D32" s="72"/>
       <c r="E32" s="75" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F32" s="76"/>
     </row>
@@ -43876,7 +44010,7 @@
       </c>
       <c r="D33" s="72"/>
       <c r="E33" s="75" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F33" s="76"/>
     </row>
@@ -43890,7 +44024,7 @@
       <c r="E34" s="75"/>
       <c r="F34" s="76"/>
       <c r="G34" s="71" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -43913,7 +44047,7 @@
       </c>
       <c r="D36" s="72"/>
       <c r="E36" s="75" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F36" s="76"/>
     </row>
@@ -43925,7 +44059,7 @@
       <c r="C37" s="72"/>
       <c r="D37" s="72"/>
       <c r="E37" s="75" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F37" s="76"/>
     </row>
@@ -43939,7 +44073,7 @@
       </c>
       <c r="D38" s="72"/>
       <c r="E38" s="75" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F38" s="76"/>
     </row>
@@ -43963,7 +44097,7 @@
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="75" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F40" s="76"/>
     </row>
@@ -43977,7 +44111,7 @@
       </c>
       <c r="D41" s="72"/>
       <c r="E41" s="75" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F41" s="76"/>
     </row>
@@ -43991,7 +44125,7 @@
       </c>
       <c r="D42" s="72"/>
       <c r="E42" s="75" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F42" s="76"/>
     </row>
@@ -44003,7 +44137,7 @@
       <c r="C43" s="72"/>
       <c r="D43" s="72"/>
       <c r="E43" s="75" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F43" s="76"/>
     </row>
@@ -44017,7 +44151,7 @@
       </c>
       <c r="D44" s="72"/>
       <c r="E44" s="75" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F44" s="76"/>
     </row>
@@ -44041,7 +44175,7 @@
       </c>
       <c r="D46" s="72"/>
       <c r="E46" s="75" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F46" s="76"/>
     </row>
@@ -44053,7 +44187,7 @@
       <c r="C47" s="72"/>
       <c r="D47" s="72"/>
       <c r="E47" s="75" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F47" s="76"/>
     </row>
@@ -44067,7 +44201,7 @@
       </c>
       <c r="D48" s="72"/>
       <c r="E48" s="75" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F48" s="76"/>
     </row>
@@ -44080,7 +44214,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="72" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E49" s="75"/>
       <c r="F49" s="76"/>
@@ -44095,7 +44229,7 @@
       </c>
       <c r="D50" s="72"/>
       <c r="E50" s="75" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F50" s="76"/>
     </row>
@@ -44172,7 +44306,7 @@
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="F2" s="76"/>
     </row>
@@ -44184,7 +44318,7 @@
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="75" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F3" s="76"/>
     </row>
@@ -44208,11 +44342,11 @@
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="F5" s="76"/>
       <c r="G5" s="71" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="165">
@@ -44224,14 +44358,14 @@
         <v>4</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="F6" s="76"/>
       <c r="G6" s="71" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60">
@@ -44244,7 +44378,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="75" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F7" s="76"/>
     </row>
@@ -44256,7 +44390,7 @@
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -44268,7 +44402,7 @@
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
       <c r="E9" s="75" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F9" s="76"/>
     </row>
@@ -44281,10 +44415,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E10" s="75" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F10" s="76"/>
     </row>
@@ -44298,7 +44432,7 @@
       </c>
       <c r="D11" s="72"/>
       <c r="E11" s="75" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F11" s="76"/>
     </row>
@@ -44310,7 +44444,7 @@
       <c r="C12" s="72"/>
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F12" s="76"/>
     </row>
@@ -44323,14 +44457,14 @@
         <v>4</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E13" s="75" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F13" s="76"/>
       <c r="G13" s="71" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75">
@@ -44343,11 +44477,11 @@
       </c>
       <c r="D14" s="72"/>
       <c r="E14" s="75" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F14" s="76"/>
       <c r="G14" s="71" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="120">
@@ -44360,7 +44494,7 @@
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="75" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="F15" s="76"/>
     </row>
@@ -44372,7 +44506,7 @@
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F16" s="76"/>
     </row>
@@ -44386,7 +44520,7 @@
       </c>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F17" s="76"/>
     </row>
@@ -44440,7 +44574,7 @@
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F22" s="76"/>
     </row>
@@ -44463,12 +44597,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="72" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E24" s="75"/>
       <c r="F24" s="76"/>
       <c r="G24" s="71" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45">
@@ -44480,7 +44614,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="72" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E25" s="75"/>
       <c r="F25" s="76"/>
@@ -44493,7 +44627,7 @@
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
       <c r="E26" s="75" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F26" s="76"/>
     </row>
@@ -45621,12 +45755,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -45634,6 +45762,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45680,7 +45814,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -45691,7 +45825,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -45702,7 +45836,7 @@
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="120">
@@ -45715,7 +45849,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
@@ -45728,7 +45862,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -45741,7 +45875,7 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
@@ -45752,7 +45886,7 @@
       <c r="C8" s="27"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45">
@@ -45765,7 +45899,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="75">
@@ -45778,7 +45912,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -45789,7 +45923,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -46634,7 +46768,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -46655,10 +46789,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
@@ -46669,7 +46803,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
@@ -46682,7 +46816,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -46695,7 +46829,7 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -46706,7 +46840,7 @@
       <c r="C8" s="27"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45">
@@ -46717,7 +46851,7 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60">
@@ -46730,10 +46864,10 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -46743,10 +46877,10 @@
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -46802,7 +46936,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -46824,7 +46958,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="4" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90">
@@ -46837,7 +46971,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -46859,7 +46993,7 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -46872,7 +47006,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -46902,10 +47036,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -46962,10 +47096,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
@@ -46978,7 +47112,7 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -46998,7 +47132,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -47056,7 +47190,7 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="4" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -47112,7 +47246,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -47123,7 +47257,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -47181,7 +47315,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -47194,7 +47328,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -47207,7 +47341,7 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -47265,7 +47399,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -47278,7 +47412,7 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -47291,7 +47425,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -47304,7 +47438,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
@@ -47317,10 +47451,10 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -47333,10 +47467,10 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="120">
@@ -47349,7 +47483,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -47378,7 +47512,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CFECC8-CAE2-490F-ACBF-79819826F66A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08FD30E-C450-43C8-8DBA-0D314711D89A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="12" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
@@ -43,27 +43,28 @@
     <sheet name="Closing 1" sheetId="20" r:id="rId28"/>
     <sheet name="Initiating 2" sheetId="34" r:id="rId29"/>
     <sheet name="Initiating 3" sheetId="42" r:id="rId30"/>
-    <sheet name="Initiating 4" sheetId="54" r:id="rId31"/>
-    <sheet name="Initiating 1" sheetId="7" r:id="rId32"/>
-    <sheet name="Scope" sheetId="10" r:id="rId33"/>
-    <sheet name="Planning5" sheetId="3" r:id="rId34"/>
-    <sheet name="Planning1" sheetId="11" r:id="rId35"/>
-    <sheet name="Planning3" sheetId="16" r:id="rId36"/>
-    <sheet name="Executing1" sheetId="15" r:id="rId37"/>
-    <sheet name="Executing 4" sheetId="53" r:id="rId38"/>
-    <sheet name="Executing 3" sheetId="36" r:id="rId39"/>
-    <sheet name="Executing 8" sheetId="44" r:id="rId40"/>
-    <sheet name="Executing 2" sheetId="17" r:id="rId41"/>
-    <sheet name="Domain-Initiating" sheetId="18" r:id="rId42"/>
-    <sheet name="Domain-Planning" sheetId="12" r:id="rId43"/>
-    <sheet name="Domain-Executing" sheetId="13" r:id="rId44"/>
-    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId45"/>
-    <sheet name="Domain-Closing" sheetId="19" r:id="rId46"/>
-    <sheet name="Executing" sheetId="4" r:id="rId47"/>
-    <sheet name="Monitoring" sheetId="5" r:id="rId48"/>
-    <sheet name="Closing" sheetId="6" r:id="rId49"/>
-    <sheet name="Mock" sheetId="8" r:id="rId50"/>
-    <sheet name="Full Test 4" sheetId="9" r:id="rId51"/>
+    <sheet name="Initiating 5" sheetId="56" r:id="rId31"/>
+    <sheet name="Initiating 4" sheetId="54" r:id="rId32"/>
+    <sheet name="Initiating 1" sheetId="7" r:id="rId33"/>
+    <sheet name="Scope" sheetId="10" r:id="rId34"/>
+    <sheet name="Planning5" sheetId="3" r:id="rId35"/>
+    <sheet name="Planning1" sheetId="11" r:id="rId36"/>
+    <sheet name="Planning3" sheetId="16" r:id="rId37"/>
+    <sheet name="Executing1" sheetId="15" r:id="rId38"/>
+    <sheet name="Executing 4" sheetId="53" r:id="rId39"/>
+    <sheet name="Executing 3" sheetId="36" r:id="rId40"/>
+    <sheet name="Executing 8" sheetId="44" r:id="rId41"/>
+    <sheet name="Executing 2" sheetId="17" r:id="rId42"/>
+    <sheet name="Domain-Initiating" sheetId="18" r:id="rId43"/>
+    <sheet name="Domain-Planning" sheetId="12" r:id="rId44"/>
+    <sheet name="Domain-Executing" sheetId="13" r:id="rId45"/>
+    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId46"/>
+    <sheet name="Domain-Closing" sheetId="19" r:id="rId47"/>
+    <sheet name="Executing" sheetId="4" r:id="rId48"/>
+    <sheet name="Monitoring" sheetId="5" r:id="rId49"/>
+    <sheet name="Closing" sheetId="6" r:id="rId50"/>
+    <sheet name="Mock" sheetId="8" r:id="rId51"/>
+    <sheet name="Full Test 4" sheetId="9" r:id="rId52"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="1067">
   <si>
     <t>No</t>
   </si>
@@ -3432,6 +3433,49 @@
   </si>
   <si>
     <t>discount cash flow: dòng tiền chiết khấu. Pareto sử dụng để xác định most significant factors out of many( xác định các yếu tố quan trong nhất trong nhiều yếu tố), earned value management là monitor and controlling cost đang diễn ra (on going).monte carlo là technique để analysis risk</t>
+  </si>
+  <si>
+    <t>sponsor có thể help plan some of the activities nhưng nó không phải là their duty. Some project constraints từ sponsor nhưng nên được xem là necessary. The project management plan đc tạo ra với team và approved bơi sponsor and other management. Objective started trong project charter nên sponsor sẽ helping to prevent unnecessary change to project objectives</t>
+  </si>
+  <si>
+    <t>Note: project team knowledge ( recollection - hồi ức) đáng tin cậy hơn là document - trong văn cảnh này thì phải dựa vào project team knowledge</t>
+  </si>
+  <si>
+    <t>matrix organization là involves people nên communication là more complex</t>
+  </si>
+  <si>
+    <t>Do trong matrix organization team member phải report to PM và functional manager nên họ sẽ worried về vấn đề evaluated như là khoản fringe benefits</t>
+  </si>
+  <si>
+    <t>Nên đọc câu trả lời trc</t>
+  </si>
+  <si>
+    <t>Keyword: phải attempt to gain a complete product desciption before the project is initiated là chính xác</t>
+  </si>
+  <si>
+    <t>the project management process always includes the work of initiating, planning, executing, monitor &amp; controlling,  closing a project. This method là giống nhau cho tất cả các dự án</t>
+  </si>
+  <si>
+    <t>Stakeholders can be identified throughout the project</t>
+  </si>
+  <si>
+    <t>Ensuring continuing understanding of the work, removing roadblocks, and reviewing bids in order to select sellers all occur in project executing. Ensuring the product scope is as final as possible is done in project initiating.</t>
+  </si>
+  <si>
+    <t>create a detailed description of the project deliverable nằm trong planning, 1 phần của creating project scope statement.
+Root cause of problem in during monitoring and controlling, not initiating. Ensure all project management processes are complete in closing project</t>
+  </si>
+  <si>
+    <t>evaluate the effectiveness of risk responses and recommend changes and defect repair nằm trong monitoring and controlling. Update corporate processes and procedures based on lessons learned nằm trong closing project</t>
+  </si>
+  <si>
+    <t>Đặc điểm của project management processes là iterative (lặp đi lặp lại)</t>
+  </si>
+  <si>
+    <t>progressive elaboration means: project process are iterated as more information uncovered throughout project life cycle</t>
+  </si>
+  <si>
+    <t>Chưa làm</t>
   </si>
 </sst>
 </file>
@@ -4770,8 +4814,8 @@
   </sheetPr>
   <dimension ref="A1:AA1017"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -5648,7 +5692,9 @@
       <c r="H21" s="60" t="s">
         <v>475</v>
       </c>
-      <c r="I21" s="60"/>
+      <c r="I21" s="60" t="s">
+        <v>546</v>
+      </c>
       <c r="J21" s="56"/>
       <c r="K21" s="56"/>
       <c r="L21" s="56"/>
@@ -6229,10 +6275,10 @@
       <c r="D35" s="109">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E35" s="110"/>
-      <c r="F35" s="111" t="s">
-        <v>785</v>
-      </c>
+      <c r="E35" s="110" t="s">
+        <v>392</v>
+      </c>
+      <c r="F35" s="111"/>
       <c r="G35" s="111"/>
       <c r="H35" s="111" t="s">
         <v>484</v>
@@ -6299,7 +6345,7 @@
       <c r="AA36" s="56"/>
     </row>
     <row r="37" spans="1:27" ht="15">
-      <c r="A37" s="107" t="s">
+      <c r="A37" s="126" t="s">
         <v>363</v>
       </c>
       <c r="B37" s="108">
@@ -6313,10 +6359,10 @@
       <c r="D37" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E37" s="110"/>
-      <c r="F37" s="111" t="s">
-        <v>785</v>
-      </c>
+      <c r="E37" s="110" t="s">
+        <v>392</v>
+      </c>
+      <c r="F37" s="111"/>
       <c r="G37" s="111"/>
       <c r="H37" s="111" t="s">
         <v>485</v>
@@ -6699,7 +6745,9 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E46" s="110"/>
-      <c r="F46" s="111"/>
+      <c r="F46" s="111" t="s">
+        <v>546</v>
+      </c>
       <c r="G46" s="111"/>
       <c r="H46" s="111" t="s">
         <v>491</v>
@@ -6742,7 +6790,9 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E47" s="110"/>
-      <c r="F47" s="111"/>
+      <c r="F47" s="111" t="s">
+        <v>574</v>
+      </c>
       <c r="G47" s="111"/>
       <c r="H47" s="111"/>
       <c r="I47" s="112"/>
@@ -6820,7 +6870,9 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E49" s="110"/>
-      <c r="F49" s="111"/>
+      <c r="F49" s="111" t="s">
+        <v>574</v>
+      </c>
       <c r="G49" s="111"/>
       <c r="H49" s="111"/>
       <c r="I49" s="112"/>
@@ -6859,7 +6911,9 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E50" s="110"/>
-      <c r="F50" s="111"/>
+      <c r="F50" s="111" t="s">
+        <v>574</v>
+      </c>
       <c r="G50" s="111"/>
       <c r="H50" s="111"/>
       <c r="I50" s="112"/>
@@ -6937,7 +6991,9 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E52" s="110"/>
-      <c r="F52" s="111"/>
+      <c r="F52" s="111" t="s">
+        <v>1066</v>
+      </c>
       <c r="G52" s="111"/>
       <c r="H52" s="111"/>
       <c r="I52" s="112"/>
@@ -6976,7 +7032,9 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E53" s="110"/>
-      <c r="F53" s="111"/>
+      <c r="F53" s="111" t="s">
+        <v>546</v>
+      </c>
       <c r="G53" s="111"/>
       <c r="H53" s="111"/>
       <c r="I53" s="112"/>
@@ -7054,7 +7112,9 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E55" s="110"/>
-      <c r="F55" s="111"/>
+      <c r="F55" s="111" t="s">
+        <v>574</v>
+      </c>
       <c r="G55" s="111"/>
       <c r="H55" s="111"/>
       <c r="I55" s="112"/>
@@ -7093,7 +7153,9 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E56" s="110"/>
-      <c r="F56" s="111"/>
+      <c r="F56" s="111" t="s">
+        <v>574</v>
+      </c>
       <c r="G56" s="111"/>
       <c r="H56" s="111"/>
       <c r="I56" s="112"/>
@@ -31540,6 +31602,7 @@
     <hyperlink ref="A31" location="'Executing 4'!A1" display="Executing 4 - 50" xr:uid="{38A9238E-A836-47EC-AAAA-7B65A31FB899}"/>
     <hyperlink ref="A32" location="'Initiating 4'!A1" display="Initiating 4 - 25" xr:uid="{6A84B5A2-AB81-4C3F-AB87-82F3A6679E3B}"/>
     <hyperlink ref="A35" location="'Mock Exam 4'!A1" display="Mock Exam 4" xr:uid="{254B4A8E-2837-4015-8874-5E349804BC30}"/>
+    <hyperlink ref="A37" location="'Initiating 5'!A1" display="Initiating 5 - 25" xr:uid="{17043A15-97D7-4E15-8A7E-ECB8F04BD0E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33015,7 +33078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD440D0-468F-462B-9532-3FA36BB45DDC}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D44" activeCellId="1" sqref="E46 D44"/>
     </sheetView>
   </sheetViews>
@@ -41708,11 +41771,355 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E7F72C-8763-4FD0-9393-7A7E1BDC492D}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="71"/>
+    <col min="2" max="2" width="65.85546875" style="71" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="71" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="71" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="71" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="71"/>
+    <col min="7" max="7" width="29.7109375" style="71" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="72">
+        <v>1</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="72">
+        <v>2</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="72">
+        <v>3</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+    </row>
+    <row r="5" spans="1:6" ht="150">
+      <c r="A5" s="72">
+        <v>4</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="75" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F5" s="76"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="72">
+        <v>5</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
+    </row>
+    <row r="7" spans="1:6" ht="60">
+      <c r="A7" s="72">
+        <v>6</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="71" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F7" s="76"/>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="72">
+        <v>7</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="75" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F8" s="76"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="72">
+        <v>8</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="72">
+        <v>9</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+    </row>
+    <row r="11" spans="1:6" ht="60">
+      <c r="A11" s="72">
+        <v>10</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="72"/>
+      <c r="E11" s="75" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F11" s="76"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="72">
+        <v>11</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="75" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F12" s="76"/>
+    </row>
+    <row r="13" spans="1:6" ht="45">
+      <c r="A13" s="72">
+        <v>12</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="72"/>
+      <c r="E13" s="75" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F13" s="76"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="72">
+        <v>13</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="76"/>
+    </row>
+    <row r="15" spans="1:6" ht="75">
+      <c r="A15" s="72">
+        <v>14</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F15" s="76"/>
+    </row>
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16" s="72">
+        <v>15</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="75" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F16" s="76"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="72">
+        <v>16</v>
+      </c>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="72">
+        <v>17</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="76"/>
+    </row>
+    <row r="19" spans="1:6" ht="90">
+      <c r="A19" s="72">
+        <v>18</v>
+      </c>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="72"/>
+      <c r="E19" s="75" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F19" s="76"/>
+    </row>
+    <row r="20" spans="1:6" ht="105">
+      <c r="A20" s="72">
+        <v>19</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="75" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F20" s="76"/>
+    </row>
+    <row r="21" spans="1:6" ht="90">
+      <c r="A21" s="72">
+        <v>20</v>
+      </c>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="75" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F21" s="76"/>
+    </row>
+    <row r="22" spans="1:6" ht="30">
+      <c r="A22" s="72">
+        <v>21</v>
+      </c>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="72"/>
+      <c r="E22" s="75" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F22" s="76"/>
+    </row>
+    <row r="23" spans="1:6" ht="45">
+      <c r="A23" s="72">
+        <v>22</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="75" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F23" s="76"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="72">
+        <v>23</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="76"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="72">
+        <v>24</v>
+      </c>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="72">
+        <v>25</v>
+      </c>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="76"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26" xr:uid="{79DFBE3C-4481-4C95-B99D-8546E6AE3B3F}">
+      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7, Task 8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C26" xr:uid="{B5660EDC-ABE6-43C4-8718-E55E85DFCB39}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Initiating'!A1" display="Domain" xr:uid="{38E319FA-B19C-4937-88A6-EA1BC07324E4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29A3CE1-998F-4ACC-B0C1-F793A7B2A89D}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42057,7 +42464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67830A5-61CE-4324-A223-E0E1F9224A73}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
@@ -42450,7 +42857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F5D74C-E5D9-45C3-98E4-07977C9F0161}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E11"/>
@@ -42596,7 +43003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C982353-CA8A-4388-8859-7413C89A9E50}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E26"/>
@@ -42949,7 +43356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E4B6E-32AB-4F9F-9656-4C5398F92691}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L52"/>
@@ -43928,7 +44335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC2793-45B1-4029-830E-35CE2386D9D1}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J51"/>
@@ -44965,7 +45372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0762741B-203C-43CC-95E6-55D0B96E24E3}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F51"/>
@@ -45667,7 +46074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C21AC00-F23C-4DDA-9EE8-A43E265F9EB8}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -46315,7 +46722,172 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD3A80B-5C92-444C-86E6-05BC29695160}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="68"/>
+    <col min="2" max="2" width="21.42578125" style="68" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="68" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="68" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="68" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="4" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="4" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{A5DEE7C1-57C2-47E9-BB78-F7A901A4DFD7}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B485323A-E48D-48D5-A059-00902955E19C}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -46994,170 +47566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD3A80B-5C92-444C-86E6-05BC29695160}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="68"/>
-    <col min="2" max="2" width="21.42578125" style="68" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="68" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="68" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" style="68" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="68"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="27">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="27">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="27">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="120">
-      <c r="A5" s="27">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="4" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="27">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="4" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="27">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="27">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45">
-      <c r="A9" s="27">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="4" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="75">
-      <c r="A10" s="27">
-        <v>9</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="4" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="27">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27" t="s">
-        <v>832</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{A5DEE7C1-57C2-47E9-BB78-F7A901A4DFD7}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574CC2A3-93D7-4AB9-83CF-AF68AB756A5A}">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -47545,7 +47954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFD739-AF93-4AA7-A2F1-3E80882A8922}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F51"/>
@@ -48242,7 +48651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475F131D-CBCC-4B8F-BDF4-B1E2E34C7098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K9"/>
@@ -48420,7 +48829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K13"/>
@@ -48652,6 +49061,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -48659,18 +49074,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3A676-4755-49BB-A0B9-3FC0BA4B80B3}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:K7"/>
@@ -48787,151 +49196,6 @@
       </c>
       <c r="B7" s="129" t="s">
         <v>154</v>
-      </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="131"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="129" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="131"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="131"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="129" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="129" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="131"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="129" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="131"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="129" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="131"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="129" t="s">
-        <v>162</v>
       </c>
       <c r="C7" s="130"/>
       <c r="D7" s="130"/>
@@ -48959,6 +49223,151 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="131"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="131"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="129" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="131"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="129" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="131"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="129" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="131"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="131"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="129" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC2900-1516-4D11-BB5E-CB91221B0668}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K8"/>
@@ -49118,7 +49527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8370EABC-5FB0-46E3-AC0D-18A12C9132DD}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E26"/>
@@ -49405,28 +49814,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C828-5E38-4F9B-89F5-DE7664E9E60A}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
-  <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49602,6 +49996,21 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1"/>
@@ -49614,7 +50023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1"/>

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08FD30E-C450-43C8-8DBA-0D314711D89A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20C3C4B-6EFC-4EA1-9E0B-E4E084F0139E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="40" activeTab="45" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
@@ -4814,8 +4814,8 @@
   </sheetPr>
   <dimension ref="A1:AA1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -39470,7 +39470,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -42469,8 +42471,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -48657,7 +48659,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -48834,7 +48836,9 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -49061,12 +49065,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -49074,6 +49072,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49084,7 +49088,9 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -49227,8 +49233,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08FD30E-C450-43C8-8DBA-0D314711D89A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099D8BD8-1268-43B9-A8CB-63CB7A8110B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
@@ -4814,8 +4814,8 @@
   </sheetPr>
   <dimension ref="A1:AA1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="F11" s="60"/>
       <c r="G11" s="60"/>
-      <c r="H11" s="60" t="s">
+      <c r="H11" s="90" t="s">
         <v>469</v>
       </c>
       <c r="I11" s="60"/>
@@ -6222,12 +6222,12 @@
         <v>400</v>
       </c>
       <c r="B34" s="108">
-        <f>B28 + 2</f>
-        <v>43501</v>
+        <f>B28 + 10</f>
+        <v>43509</v>
       </c>
       <c r="C34" s="108" t="str">
         <f>IF(WEEKDAY(B34,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B34,1))</f>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D34" s="109">
         <v>4.1666666666666664E-2</v>
@@ -6265,12 +6265,12 @@
         <v>372</v>
       </c>
       <c r="B35" s="108">
-        <f>B29 + 2</f>
-        <v>43501</v>
+        <f>B29 + 10</f>
+        <v>43509</v>
       </c>
       <c r="C35" s="108" t="str">
         <f t="shared" ref="C35:C36" si="5">IF(WEEKDAY(B35,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B35,1))</f>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D35" s="109">
         <v>4.1666666666666664E-2</v>
@@ -6310,12 +6310,12 @@
         <v>893</v>
       </c>
       <c r="B36" s="122">
-        <f>B30 + 2</f>
-        <v>43501</v>
+        <f>B30 + 10</f>
+        <v>43509</v>
       </c>
       <c r="C36" s="122" t="str">
         <f t="shared" si="5"/>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D36" s="123">
         <v>8.3333333333333329E-2</v>
@@ -6350,11 +6350,11 @@
       </c>
       <c r="B37" s="108">
         <f t="shared" ref="B37:B42" si="6">B34 + 1</f>
-        <v>43502</v>
+        <v>43510</v>
       </c>
       <c r="C37" s="108" t="str">
         <f>IF(WEEKDAY(B37,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B37,1))</f>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D37" s="109">
         <v>4.1666666666666699E-2</v>
@@ -6395,11 +6395,11 @@
       </c>
       <c r="B38" s="108">
         <f t="shared" si="6"/>
-        <v>43502</v>
+        <v>43510</v>
       </c>
       <c r="C38" s="108" t="str">
         <f t="shared" si="4"/>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D38" s="109">
         <v>4.1666666666666699E-2</v>
@@ -6440,11 +6440,11 @@
       </c>
       <c r="B39" s="122">
         <f t="shared" si="6"/>
-        <v>43502</v>
+        <v>43510</v>
       </c>
       <c r="C39" s="122" t="str">
         <f t="shared" si="4"/>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D39" s="123">
         <v>8.3333333333333329E-2</v>
@@ -6479,11 +6479,11 @@
       </c>
       <c r="B40" s="108">
         <f t="shared" si="6"/>
-        <v>43503</v>
+        <v>43511</v>
       </c>
       <c r="C40" s="108" t="str">
         <f t="shared" si="4"/>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D40" s="109">
         <v>4.1666666666666699E-2</v>
@@ -6524,11 +6524,11 @@
       </c>
       <c r="B41" s="108">
         <f t="shared" si="6"/>
-        <v>43503</v>
+        <v>43511</v>
       </c>
       <c r="C41" s="108" t="str">
         <f t="shared" si="4"/>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D41" s="109">
         <v>4.1666666666666699E-2</v>
@@ -6569,11 +6569,11 @@
       </c>
       <c r="B42" s="122">
         <f t="shared" si="6"/>
-        <v>43503</v>
+        <v>43511</v>
       </c>
       <c r="C42" s="122" t="str">
         <f t="shared" si="4"/>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D42" s="123">
         <v>8.3333333333333329E-2</v>
@@ -6608,11 +6608,11 @@
       </c>
       <c r="B43" s="108">
         <f>B37+ 2</f>
-        <v>43504</v>
+        <v>43512</v>
       </c>
       <c r="C43" s="108" t="str">
         <f t="shared" ref="C43:C48" si="7">IF(WEEKDAY(B43,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B43,1))</f>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D43" s="109">
         <v>4.1666666666666699E-2</v>
@@ -6651,11 +6651,11 @@
       </c>
       <c r="B44" s="108">
         <f>B37+ 2</f>
-        <v>43504</v>
+        <v>43512</v>
       </c>
       <c r="C44" s="108" t="str">
         <f t="shared" si="7"/>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D44" s="109">
         <v>4.1666666666666699E-2</v>
@@ -6696,11 +6696,11 @@
       </c>
       <c r="B45" s="122">
         <f>B38+ 2</f>
-        <v>43504</v>
+        <v>43512</v>
       </c>
       <c r="C45" s="122" t="str">
         <f t="shared" si="7"/>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D45" s="123">
         <v>8.3333333333333329E-2</v>
@@ -6735,11 +6735,11 @@
       </c>
       <c r="B46" s="120">
         <f>B44+1</f>
-        <v>43505</v>
+        <v>43513</v>
       </c>
       <c r="C46" s="108" t="str">
         <f t="shared" si="7"/>
-        <v>Thứ 7</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D46" s="109">
         <v>4.1666666666666699E-2</v>
@@ -6780,11 +6780,11 @@
       </c>
       <c r="B47" s="120">
         <f>B45+1</f>
-        <v>43505</v>
+        <v>43513</v>
       </c>
       <c r="C47" s="108" t="str">
         <f t="shared" si="7"/>
-        <v>Thứ 7</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D47" s="109">
         <v>4.1666666666666699E-2</v>
@@ -6821,11 +6821,11 @@
       </c>
       <c r="B48" s="122">
         <f>B45+1</f>
-        <v>43505</v>
+        <v>43513</v>
       </c>
       <c r="C48" s="122" t="str">
         <f t="shared" si="7"/>
-        <v>Thứ 7</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D48" s="123">
         <v>8.3333333333333329E-2</v>
@@ -6860,11 +6860,11 @@
       </c>
       <c r="B49" s="108">
         <f>B43 + 2</f>
-        <v>43506</v>
+        <v>43514</v>
       </c>
       <c r="C49" s="108" t="str">
         <f t="shared" ref="C49:C57" si="8">IF(WEEKDAY(B49,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B49,1))</f>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D49" s="109">
         <v>4.1666666666666699E-2</v>
@@ -6901,11 +6901,11 @@
       </c>
       <c r="B50" s="108">
         <f>B44 + 2</f>
-        <v>43506</v>
+        <v>43514</v>
       </c>
       <c r="C50" s="108" t="str">
         <f t="shared" si="8"/>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D50" s="109">
         <v>4.1666666666666699E-2</v>
@@ -6942,11 +6942,11 @@
       </c>
       <c r="B51" s="122">
         <f>B45 + 2</f>
-        <v>43506</v>
+        <v>43514</v>
       </c>
       <c r="C51" s="122" t="str">
         <f t="shared" si="8"/>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D51" s="123">
         <v>8.3333333333333329E-2</v>
@@ -6981,11 +6981,11 @@
       </c>
       <c r="B52" s="120">
         <f>B43+3</f>
-        <v>43507</v>
+        <v>43515</v>
       </c>
       <c r="C52" s="108" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 2</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D52" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7022,11 +7022,11 @@
       </c>
       <c r="B53" s="120">
         <f>B44+3</f>
-        <v>43507</v>
+        <v>43515</v>
       </c>
       <c r="C53" s="108" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 2</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D53" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7063,11 +7063,11 @@
       </c>
       <c r="B54" s="122">
         <f>B45+3</f>
-        <v>43507</v>
+        <v>43515</v>
       </c>
       <c r="C54" s="122" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 2</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D54" s="123">
         <v>8.3333333333333329E-2</v>
@@ -7102,11 +7102,11 @@
       </c>
       <c r="B55" s="108">
         <f t="shared" ref="B55:B60" si="9">B52 + 1</f>
-        <v>43508</v>
+        <v>43516</v>
       </c>
       <c r="C55" s="108" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D55" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7143,11 +7143,11 @@
       </c>
       <c r="B56" s="108">
         <f t="shared" si="9"/>
-        <v>43508</v>
+        <v>43516</v>
       </c>
       <c r="C56" s="108" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D56" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7184,11 +7184,11 @@
       </c>
       <c r="B57" s="122">
         <f t="shared" si="9"/>
-        <v>43508</v>
+        <v>43516</v>
       </c>
       <c r="C57" s="122" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D57" s="123">
         <v>8.3333333333333329E-2</v>
@@ -7223,11 +7223,11 @@
       </c>
       <c r="B58" s="108">
         <f t="shared" si="9"/>
-        <v>43509</v>
+        <v>43517</v>
       </c>
       <c r="C58" s="108" t="str">
         <f t="shared" ref="C58:C80" si="10">IF(WEEKDAY(B58,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B58,1))</f>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D58" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7262,11 +7262,11 @@
       </c>
       <c r="B59" s="108">
         <f t="shared" si="9"/>
-        <v>43509</v>
+        <v>43517</v>
       </c>
       <c r="C59" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D59" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7301,11 +7301,11 @@
       </c>
       <c r="B60" s="122">
         <f t="shared" si="9"/>
-        <v>43509</v>
+        <v>43517</v>
       </c>
       <c r="C60" s="122" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D60" s="123">
         <v>8.3333333333333329E-2</v>
@@ -7340,11 +7340,11 @@
       </c>
       <c r="B61" s="108">
         <f>B59 + 1</f>
-        <v>43510</v>
+        <v>43518</v>
       </c>
       <c r="C61" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D61" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7379,11 +7379,11 @@
       </c>
       <c r="B62" s="108">
         <f>B59 + 1</f>
-        <v>43510</v>
+        <v>43518</v>
       </c>
       <c r="C62" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D62" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7418,11 +7418,11 @@
       </c>
       <c r="B63" s="108">
         <f>B59 +1</f>
-        <v>43510</v>
+        <v>43518</v>
       </c>
       <c r="C63" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D63" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7457,11 +7457,11 @@
       </c>
       <c r="B64" s="108">
         <f>B59 +2</f>
-        <v>43511</v>
+        <v>43519</v>
       </c>
       <c r="C64" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D64" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7498,11 +7498,11 @@
       </c>
       <c r="B65" s="108">
         <f>B61 + 1</f>
-        <v>43511</v>
+        <v>43519</v>
       </c>
       <c r="C65" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D65" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7537,11 +7537,11 @@
       </c>
       <c r="B66" s="108">
         <f>B61 +1</f>
-        <v>43511</v>
+        <v>43519</v>
       </c>
       <c r="C66" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D66" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7576,11 +7576,11 @@
       </c>
       <c r="B67" s="108">
         <f t="shared" ref="B67:B73" si="11">B63 + 2</f>
-        <v>43512</v>
+        <v>43520</v>
       </c>
       <c r="C67" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 7</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D67" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7615,11 +7615,11 @@
       </c>
       <c r="B68" s="108">
         <f>B64 + 1</f>
-        <v>43512</v>
+        <v>43520</v>
       </c>
       <c r="C68" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 7</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D68" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7656,11 +7656,11 @@
       </c>
       <c r="B69" s="108">
         <f>B65 + 1</f>
-        <v>43512</v>
+        <v>43520</v>
       </c>
       <c r="C69" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 7</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D69" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7695,11 +7695,11 @@
       </c>
       <c r="B70" s="108">
         <f t="shared" si="11"/>
-        <v>43513</v>
+        <v>43521</v>
       </c>
       <c r="C70" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D70" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7734,11 +7734,11 @@
       </c>
       <c r="B71" s="108">
         <f>B67 + 1</f>
-        <v>43513</v>
+        <v>43521</v>
       </c>
       <c r="C71" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D71" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7773,11 +7773,11 @@
       </c>
       <c r="B72" s="108">
         <f>B68 + 1</f>
-        <v>43513</v>
+        <v>43521</v>
       </c>
       <c r="C72" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D72" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7812,11 +7812,11 @@
       </c>
       <c r="B73" s="108">
         <f t="shared" si="11"/>
-        <v>43514</v>
+        <v>43522</v>
       </c>
       <c r="C73" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 2</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D73" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7851,11 +7851,11 @@
       </c>
       <c r="B74" s="108">
         <f>B70 + 1</f>
-        <v>43514</v>
+        <v>43522</v>
       </c>
       <c r="C74" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 2</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D74" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7890,11 +7890,11 @@
       </c>
       <c r="B75" s="108">
         <f>B71 + 1</f>
-        <v>43514</v>
+        <v>43522</v>
       </c>
       <c r="C75" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 2</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D75" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7929,11 +7929,11 @@
       </c>
       <c r="B76" s="108">
         <f>B72 + 2</f>
-        <v>43515</v>
+        <v>43523</v>
       </c>
       <c r="C76" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D76" s="109">
         <v>8.3333333333333329E-2</v>
@@ -7968,11 +7968,11 @@
       </c>
       <c r="B77" s="108">
         <f>B73 +2</f>
-        <v>43516</v>
+        <v>43524</v>
       </c>
       <c r="C77" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D77" s="109">
         <v>8.3333333333333329E-2</v>
@@ -8007,11 +8007,11 @@
       </c>
       <c r="B78" s="108">
         <f>B73 + 3</f>
-        <v>43517</v>
+        <v>43525</v>
       </c>
       <c r="C78" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D78" s="109">
         <v>8.3333333333333329E-2</v>
@@ -8046,11 +8046,11 @@
       </c>
       <c r="B79" s="108">
         <f>B75 + 4</f>
-        <v>43518</v>
+        <v>43526</v>
       </c>
       <c r="C79" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D79" s="109">
         <v>8.3333333333333329E-2</v>
@@ -8085,11 +8085,11 @@
       </c>
       <c r="B80" s="115">
         <f>B76 + 4</f>
-        <v>43519</v>
+        <v>43527</v>
       </c>
       <c r="C80" s="115" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 7</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D80" s="116">
         <v>8.3333333333333329E-2</v>
@@ -31603,6 +31603,7 @@
     <hyperlink ref="A32" location="'Initiating 4'!A1" display="Initiating 4 - 25" xr:uid="{6A84B5A2-AB81-4C3F-AB87-82F3A6679E3B}"/>
     <hyperlink ref="A35" location="'Mock Exam 4'!A1" display="Mock Exam 4" xr:uid="{254B4A8E-2837-4015-8874-5E349804BC30}"/>
     <hyperlink ref="A37" location="'Initiating 5'!A1" display="Initiating 5 - 25" xr:uid="{17043A15-97D7-4E15-8A7E-ECB8F04BD0E9}"/>
+    <hyperlink ref="H11" location="Framework!A1" display="Framework " xr:uid="{769B2EC7-A588-4250-A8E0-1374EF83BA05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -39470,13 +39471,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="7"/>
   </cols>
   <sheetData>
@@ -39518,7 +39521,7 @@
       </c>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="45">
       <c r="A3" s="27">
         <v>2</v>
       </c>
@@ -39529,7 +39532,7 @@
       <c r="D3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="28" t="s">
@@ -39552,7 +39555,7 @@
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="27">
         <v>4</v>
       </c>
@@ -39563,7 +39566,7 @@
       <c r="D5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="28"/>
@@ -39582,28 +39585,28 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="60">
       <c r="A7" s="27">
         <v>6</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="4" t="s">
         <v>232</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="45">
       <c r="A8" s="27">
         <v>7</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="4" t="s">
         <v>233</v>
       </c>
       <c r="F8" s="28" t="s">
@@ -39652,7 +39655,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="30">
       <c r="A11" s="27">
         <v>10</v>
       </c>
@@ -39661,7 +39664,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="27"/>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="28" t="s">
@@ -49061,12 +49064,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -49074,6 +49071,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -50200,7 +50203,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20C3C4B-6EFC-4EA1-9E0B-E4E084F0139E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490AB5D2-CE5F-4B86-98E9-5453A2FD5704}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="40" activeTab="45" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="1072">
   <si>
     <t>No</t>
   </si>
@@ -1702,9 +1702,6 @@
     <t>Initiating 1</t>
   </si>
   <si>
-    <t>Note: sử dụng fix price contract khi mà biết được số lượng thực tế công việc. Không thay đổi yêu cầu</t>
-  </si>
-  <si>
     <t>Note: fishbone diagram, control chart, histogram đều là tool của quality management tool.
 Phân biệt. 
 Histogram: là dạng biểu đồ dạng cột thể hiện thuộc tính dưới dạng cột, chiều cao của từng cột thể hiện giá trị hiển thị
@@ -3476,6 +3473,24 @@
   </si>
   <si>
     <t>Chưa làm</t>
+  </si>
+  <si>
+    <t>Khái niệm của progressive elaboration: indicates tat planning and document are iterative or ongoing activities</t>
+  </si>
+  <si>
+    <t>Việc quan trọng nhất của việc manage knowledge là phải có bầu không khí tin cậy để mọi ng chia sẻ. Ngay cả knowledge management system ineffective nếu như k có sự chia sẻ knowledge trong team</t>
+  </si>
+  <si>
+    <t>Note: sử dụng fix price contract khi mà biết được số lượng thực tế công việc. Không thay đổi yêu cầu. Yêu cầu được xác định rõ ràng và không thay đổi</t>
+  </si>
+  <si>
+    <t>những cái mà liên quan tới policy organization thì là nằm trong OPA</t>
+  </si>
+  <si>
+    <t>Vai trò của PM không thay đổi đối với life cycle, PM phải thích ứng với tool and techniques used in both approaches</t>
+  </si>
+  <si>
+    <t>FP-EPA fixed price with economic price adjustment</t>
   </si>
 </sst>
 </file>
@@ -3628,7 +3643,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3693,6 +3708,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -4045,7 +4066,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4412,6 +4433,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4814,8 +4838,8 @@
   </sheetPr>
   <dimension ref="A1:AA1017"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -4843,16 +4867,16 @@
         <v>391</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>889</v>
-      </c>
-      <c r="H1" s="60" t="s">
+        <v>888</v>
+      </c>
+      <c r="H1" s="135" t="s">
         <v>459</v>
       </c>
       <c r="I1" s="60" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J1" s="56"/>
       <c r="K1" s="56"/>
@@ -4887,11 +4911,11 @@
       <c r="E2" s="63"/>
       <c r="F2" s="60"/>
       <c r="G2" s="60"/>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="135" t="s">
         <v>460</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J2" s="56"/>
       <c r="K2" s="56"/>
@@ -4930,7 +4954,7 @@
         <v>461</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
@@ -4969,7 +4993,7 @@
         <v>462</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J4" s="56"/>
       <c r="K4" s="56"/>
@@ -5008,7 +5032,7 @@
         <v>463</v>
       </c>
       <c r="I5" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J5" s="56"/>
       <c r="K5" s="56"/>
@@ -5031,7 +5055,7 @@
     </row>
     <row r="6" spans="1:27" ht="15">
       <c r="A6" s="83" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B6" s="65">
         <v>43441</v>
@@ -5046,14 +5070,14 @@
         <v>392</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G6" s="60"/>
       <c r="H6" s="60" t="s">
         <v>464</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
@@ -5076,7 +5100,7 @@
     </row>
     <row r="7" spans="1:27" ht="15">
       <c r="A7" s="83" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B7" s="65">
         <v>43442</v>
@@ -5092,7 +5116,7 @@
         <v>465</v>
       </c>
       <c r="I7" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
@@ -5115,7 +5139,7 @@
     </row>
     <row r="8" spans="1:27" ht="15">
       <c r="A8" s="83" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B8" s="65">
         <v>43443</v>
@@ -5130,14 +5154,14 @@
         <v>392</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G8" s="60"/>
       <c r="H8" s="60" t="s">
         <v>466</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
@@ -5160,7 +5184,7 @@
     </row>
     <row r="9" spans="1:27" ht="15">
       <c r="A9" s="83" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B9" s="65">
         <v>43451</v>
@@ -5175,14 +5199,14 @@
         <v>392</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G9" s="60"/>
       <c r="H9" s="90" t="s">
         <v>467</v>
       </c>
       <c r="I9" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J9" s="56"/>
       <c r="K9" s="56"/>
@@ -5205,7 +5229,7 @@
     </row>
     <row r="10" spans="1:27" ht="15">
       <c r="A10" s="83" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B10" s="65">
         <f>B9+1</f>
@@ -5227,7 +5251,7 @@
         <v>468</v>
       </c>
       <c r="I10" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
@@ -5268,10 +5292,12 @@
       </c>
       <c r="F11" s="60"/>
       <c r="G11" s="60"/>
-      <c r="H11" s="60" t="s">
+      <c r="H11" s="135" t="s">
         <v>469</v>
       </c>
-      <c r="I11" s="60"/>
+      <c r="I11" s="60" t="s">
+        <v>545</v>
+      </c>
       <c r="J11" s="56"/>
       <c r="K11" s="56"/>
       <c r="L11" s="56"/>
@@ -5357,7 +5383,7 @@
         <v>378</v>
       </c>
       <c r="I13" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
@@ -5401,7 +5427,7 @@
         <v>470</v>
       </c>
       <c r="I14" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J14" s="56"/>
       <c r="K14" s="56"/>
@@ -5445,7 +5471,7 @@
         <v>370</v>
       </c>
       <c r="I15" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
@@ -5484,7 +5510,7 @@
         <v>369</v>
       </c>
       <c r="I16" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
@@ -5523,7 +5549,7 @@
         <v>471</v>
       </c>
       <c r="I17" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J17" s="56"/>
       <c r="K17" s="56"/>
@@ -5567,7 +5593,7 @@
         <v>472</v>
       </c>
       <c r="I18" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J18" s="56"/>
       <c r="K18" s="56"/>
@@ -5609,7 +5635,7 @@
         <v>473</v>
       </c>
       <c r="I19" s="98" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J19" s="56"/>
       <c r="K19" s="56"/>
@@ -5654,7 +5680,7 @@
         <v>474</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J20" s="56"/>
       <c r="K20" s="56"/>
@@ -5693,7 +5719,7 @@
         <v>475</v>
       </c>
       <c r="I21" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J21" s="56"/>
       <c r="K21" s="56"/>
@@ -5732,7 +5758,7 @@
         <v>476</v>
       </c>
       <c r="I22" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J22" s="56"/>
       <c r="K22" s="56"/>
@@ -5777,7 +5803,7 @@
         <v>477</v>
       </c>
       <c r="I23" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J23" s="56"/>
       <c r="K23" s="56"/>
@@ -5820,7 +5846,7 @@
         <v>478</v>
       </c>
       <c r="I24" s="98" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J24" s="56"/>
       <c r="K24" s="56"/>
@@ -5865,7 +5891,7 @@
         <v>479</v>
       </c>
       <c r="I25" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J25" s="56"/>
       <c r="K25" s="56"/>
@@ -5902,7 +5928,7 @@
         <v>480</v>
       </c>
       <c r="I26" s="98" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J26" s="56"/>
       <c r="K26" s="56"/>
@@ -5941,7 +5967,7 @@
         <v>481</v>
       </c>
       <c r="I27" s="60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J27" s="56"/>
       <c r="K27" s="56"/>
@@ -5985,7 +6011,7 @@
         <v>473</v>
       </c>
       <c r="I28" s="106" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J28" s="56"/>
       <c r="K28" s="56"/>
@@ -6008,7 +6034,7 @@
     </row>
     <row r="29" spans="1:27" ht="15">
       <c r="A29" s="121" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B29" s="122">
         <v>43499</v>
@@ -6067,7 +6093,7 @@
         <v>482</v>
       </c>
       <c r="I30" s="112" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J30" s="56"/>
       <c r="K30" s="56"/>
@@ -6112,7 +6138,7 @@
         <v>478</v>
       </c>
       <c r="I31" s="112" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J31" s="56"/>
       <c r="K31" s="56"/>
@@ -6157,7 +6183,7 @@
         <v>480</v>
       </c>
       <c r="I32" s="112" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J32" s="56"/>
       <c r="K32" s="56"/>
@@ -6180,7 +6206,7 @@
     </row>
     <row r="33" spans="1:27" ht="15">
       <c r="A33" s="121" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B33" s="122">
         <f>B30+ 1</f>
@@ -6222,19 +6248,19 @@
         <v>400</v>
       </c>
       <c r="B34" s="108">
-        <f>B28 + 2</f>
-        <v>43501</v>
+        <f>B28 + 10</f>
+        <v>43509</v>
       </c>
       <c r="C34" s="108" t="str">
         <f>IF(WEEKDAY(B34,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B34,1))</f>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D34" s="109">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E34" s="110"/>
       <c r="F34" s="111" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G34" s="111"/>
       <c r="H34" s="111" t="s">
@@ -6265,12 +6291,12 @@
         <v>372</v>
       </c>
       <c r="B35" s="108">
-        <f>B29 + 2</f>
-        <v>43501</v>
+        <f>B29 + 10</f>
+        <v>43509</v>
       </c>
       <c r="C35" s="108" t="str">
         <f t="shared" ref="C35:C36" si="5">IF(WEEKDAY(B35,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B35,1))</f>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D35" s="109">
         <v>4.1666666666666664E-2</v>
@@ -6284,7 +6310,7 @@
         <v>484</v>
       </c>
       <c r="I35" s="112" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J35" s="56"/>
       <c r="K35" s="56"/>
@@ -6307,15 +6333,15 @@
     </row>
     <row r="36" spans="1:27" ht="15">
       <c r="A36" s="125" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B36" s="122">
-        <f>B30 + 2</f>
-        <v>43501</v>
+        <f>B30 + 10</f>
+        <v>43509</v>
       </c>
       <c r="C36" s="122" t="str">
         <f t="shared" si="5"/>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D36" s="123">
         <v>8.3333333333333329E-2</v>
@@ -6350,11 +6376,11 @@
       </c>
       <c r="B37" s="108">
         <f t="shared" ref="B37:B42" si="6">B34 + 1</f>
-        <v>43502</v>
+        <v>43510</v>
       </c>
       <c r="C37" s="108" t="str">
         <f>IF(WEEKDAY(B37,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B37,1))</f>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D37" s="109">
         <v>4.1666666666666699E-2</v>
@@ -6368,7 +6394,7 @@
         <v>485</v>
       </c>
       <c r="I37" s="112" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J37" s="56"/>
       <c r="K37" s="56"/>
@@ -6395,11 +6421,11 @@
       </c>
       <c r="B38" s="108">
         <f t="shared" si="6"/>
-        <v>43502</v>
+        <v>43510</v>
       </c>
       <c r="C38" s="108" t="str">
         <f t="shared" si="4"/>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D38" s="109">
         <v>4.1666666666666699E-2</v>
@@ -6413,7 +6439,7 @@
         <v>486</v>
       </c>
       <c r="I38" s="112" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J38" s="56"/>
       <c r="K38" s="56"/>
@@ -6436,15 +6462,15 @@
     </row>
     <row r="39" spans="1:27" ht="15">
       <c r="A39" s="125" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B39" s="122">
         <f t="shared" si="6"/>
-        <v>43502</v>
+        <v>43510</v>
       </c>
       <c r="C39" s="122" t="str">
         <f t="shared" si="4"/>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D39" s="123">
         <v>8.3333333333333329E-2</v>
@@ -6479,25 +6505,25 @@
       </c>
       <c r="B40" s="108">
         <f t="shared" si="6"/>
-        <v>43503</v>
+        <v>43511</v>
       </c>
       <c r="C40" s="108" t="str">
         <f t="shared" si="4"/>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D40" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E40" s="110"/>
       <c r="F40" s="111" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G40" s="111"/>
       <c r="H40" s="111" t="s">
         <v>487</v>
       </c>
       <c r="I40" s="112" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J40" s="56"/>
       <c r="K40" s="56"/>
@@ -6524,25 +6550,25 @@
       </c>
       <c r="B41" s="108">
         <f t="shared" si="6"/>
-        <v>43503</v>
+        <v>43511</v>
       </c>
       <c r="C41" s="108" t="str">
         <f t="shared" si="4"/>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D41" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E41" s="110"/>
       <c r="F41" s="111" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G41" s="111"/>
       <c r="H41" s="111" t="s">
         <v>488</v>
       </c>
       <c r="I41" s="112" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J41" s="56"/>
       <c r="K41" s="56"/>
@@ -6565,15 +6591,15 @@
     </row>
     <row r="42" spans="1:27" ht="15">
       <c r="A42" s="125" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B42" s="122">
         <f t="shared" si="6"/>
-        <v>43503</v>
+        <v>43511</v>
       </c>
       <c r="C42" s="122" t="str">
         <f t="shared" si="4"/>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D42" s="123">
         <v>8.3333333333333329E-2</v>
@@ -6608,18 +6634,18 @@
       </c>
       <c r="B43" s="108">
         <f>B37+ 2</f>
-        <v>43504</v>
+        <v>43512</v>
       </c>
       <c r="C43" s="108" t="str">
         <f t="shared" ref="C43:C48" si="7">IF(WEEKDAY(B43,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B43,1))</f>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D43" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E43" s="110"/>
       <c r="F43" s="111" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G43" s="111"/>
       <c r="H43" s="111" t="s">
@@ -6651,25 +6677,25 @@
       </c>
       <c r="B44" s="108">
         <f>B37+ 2</f>
-        <v>43504</v>
+        <v>43512</v>
       </c>
       <c r="C44" s="108" t="str">
         <f t="shared" si="7"/>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D44" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E44" s="110"/>
       <c r="F44" s="111" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G44" s="111"/>
       <c r="H44" s="111" t="s">
         <v>490</v>
       </c>
       <c r="I44" s="112" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J44" s="56"/>
       <c r="K44" s="56"/>
@@ -6692,15 +6718,15 @@
     </row>
     <row r="45" spans="1:27" ht="15">
       <c r="A45" s="125" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B45" s="122">
         <f>B38+ 2</f>
-        <v>43504</v>
+        <v>43512</v>
       </c>
       <c r="C45" s="122" t="str">
         <f t="shared" si="7"/>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D45" s="123">
         <v>8.3333333333333329E-2</v>
@@ -6735,25 +6761,25 @@
       </c>
       <c r="B46" s="120">
         <f>B44+1</f>
-        <v>43505</v>
+        <v>43513</v>
       </c>
       <c r="C46" s="108" t="str">
         <f t="shared" si="7"/>
-        <v>Thứ 7</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D46" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E46" s="110"/>
       <c r="F46" s="111" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G46" s="111"/>
       <c r="H46" s="111" t="s">
         <v>491</v>
       </c>
       <c r="I46" s="112" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J46" s="56"/>
       <c r="K46" s="56"/>
@@ -6780,18 +6806,18 @@
       </c>
       <c r="B47" s="120">
         <f>B45+1</f>
-        <v>43505</v>
+        <v>43513</v>
       </c>
       <c r="C47" s="108" t="str">
         <f t="shared" si="7"/>
-        <v>Thứ 7</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D47" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E47" s="110"/>
       <c r="F47" s="111" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G47" s="111"/>
       <c r="H47" s="111"/>
@@ -6817,15 +6843,15 @@
     </row>
     <row r="48" spans="1:27" ht="15">
       <c r="A48" s="125" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B48" s="122">
         <f>B45+1</f>
-        <v>43505</v>
+        <v>43513</v>
       </c>
       <c r="C48" s="122" t="str">
         <f t="shared" si="7"/>
-        <v>Thứ 7</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D48" s="123">
         <v>8.3333333333333329E-2</v>
@@ -6860,18 +6886,18 @@
       </c>
       <c r="B49" s="108">
         <f>B43 + 2</f>
-        <v>43506</v>
+        <v>43514</v>
       </c>
       <c r="C49" s="108" t="str">
         <f t="shared" ref="C49:C57" si="8">IF(WEEKDAY(B49,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B49,1))</f>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D49" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E49" s="110"/>
       <c r="F49" s="111" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G49" s="111"/>
       <c r="H49" s="111"/>
@@ -6901,18 +6927,18 @@
       </c>
       <c r="B50" s="108">
         <f>B44 + 2</f>
-        <v>43506</v>
+        <v>43514</v>
       </c>
       <c r="C50" s="108" t="str">
         <f t="shared" si="8"/>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D50" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E50" s="110"/>
       <c r="F50" s="111" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G50" s="111"/>
       <c r="H50" s="111"/>
@@ -6938,15 +6964,15 @@
     </row>
     <row r="51" spans="1:27" ht="15">
       <c r="A51" s="125" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B51" s="122">
         <f>B45 + 2</f>
-        <v>43506</v>
+        <v>43514</v>
       </c>
       <c r="C51" s="122" t="str">
         <f t="shared" si="8"/>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D51" s="123">
         <v>8.3333333333333329E-2</v>
@@ -6981,18 +7007,18 @@
       </c>
       <c r="B52" s="120">
         <f>B43+3</f>
-        <v>43507</v>
+        <v>43515</v>
       </c>
       <c r="C52" s="108" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 2</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D52" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E52" s="110"/>
       <c r="F52" s="111" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G52" s="111"/>
       <c r="H52" s="111"/>
@@ -7022,18 +7048,18 @@
       </c>
       <c r="B53" s="120">
         <f>B44+3</f>
-        <v>43507</v>
+        <v>43515</v>
       </c>
       <c r="C53" s="108" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 2</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D53" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E53" s="110"/>
       <c r="F53" s="111" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G53" s="111"/>
       <c r="H53" s="111"/>
@@ -7059,15 +7085,15 @@
     </row>
     <row r="54" spans="1:27" ht="15">
       <c r="A54" s="125" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B54" s="122">
         <f>B45+3</f>
-        <v>43507</v>
+        <v>43515</v>
       </c>
       <c r="C54" s="122" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 2</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D54" s="123">
         <v>8.3333333333333329E-2</v>
@@ -7102,18 +7128,18 @@
       </c>
       <c r="B55" s="108">
         <f t="shared" ref="B55:B60" si="9">B52 + 1</f>
-        <v>43508</v>
+        <v>43516</v>
       </c>
       <c r="C55" s="108" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D55" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E55" s="110"/>
       <c r="F55" s="111" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G55" s="111"/>
       <c r="H55" s="111"/>
@@ -7143,18 +7169,18 @@
       </c>
       <c r="B56" s="108">
         <f t="shared" si="9"/>
-        <v>43508</v>
+        <v>43516</v>
       </c>
       <c r="C56" s="108" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D56" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="E56" s="110"/>
       <c r="F56" s="111" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G56" s="111"/>
       <c r="H56" s="111"/>
@@ -7180,15 +7206,15 @@
     </row>
     <row r="57" spans="1:27" ht="15">
       <c r="A57" s="125" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B57" s="122">
         <f t="shared" si="9"/>
-        <v>43508</v>
+        <v>43516</v>
       </c>
       <c r="C57" s="122" t="str">
         <f t="shared" si="8"/>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D57" s="123">
         <v>8.3333333333333329E-2</v>
@@ -7223,11 +7249,11 @@
       </c>
       <c r="B58" s="108">
         <f t="shared" si="9"/>
-        <v>43509</v>
+        <v>43517</v>
       </c>
       <c r="C58" s="108" t="str">
         <f t="shared" ref="C58:C80" si="10">IF(WEEKDAY(B58,1)=1,"Chủ nhật","Thứ "&amp;WEEKDAY(B58,1))</f>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D58" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7262,11 +7288,11 @@
       </c>
       <c r="B59" s="108">
         <f t="shared" si="9"/>
-        <v>43509</v>
+        <v>43517</v>
       </c>
       <c r="C59" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D59" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7297,15 +7323,15 @@
     </row>
     <row r="60" spans="1:27" ht="15">
       <c r="A60" s="125" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B60" s="122">
         <f t="shared" si="9"/>
-        <v>43509</v>
+        <v>43517</v>
       </c>
       <c r="C60" s="122" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D60" s="123">
         <v>8.3333333333333329E-2</v>
@@ -7340,11 +7366,11 @@
       </c>
       <c r="B61" s="108">
         <f>B59 + 1</f>
-        <v>43510</v>
+        <v>43518</v>
       </c>
       <c r="C61" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D61" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7379,11 +7405,11 @@
       </c>
       <c r="B62" s="108">
         <f>B59 + 1</f>
-        <v>43510</v>
+        <v>43518</v>
       </c>
       <c r="C62" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D62" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7418,11 +7444,11 @@
       </c>
       <c r="B63" s="108">
         <f>B59 +1</f>
-        <v>43510</v>
+        <v>43518</v>
       </c>
       <c r="C63" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D63" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7457,11 +7483,11 @@
       </c>
       <c r="B64" s="108">
         <f>B59 +2</f>
-        <v>43511</v>
+        <v>43519</v>
       </c>
       <c r="C64" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D64" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7498,11 +7524,11 @@
       </c>
       <c r="B65" s="108">
         <f>B61 + 1</f>
-        <v>43511</v>
+        <v>43519</v>
       </c>
       <c r="C65" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D65" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7537,11 +7563,11 @@
       </c>
       <c r="B66" s="108">
         <f>B61 +1</f>
-        <v>43511</v>
+        <v>43519</v>
       </c>
       <c r="C66" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D66" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7576,11 +7602,11 @@
       </c>
       <c r="B67" s="108">
         <f t="shared" ref="B67:B73" si="11">B63 + 2</f>
-        <v>43512</v>
+        <v>43520</v>
       </c>
       <c r="C67" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 7</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D67" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7615,11 +7641,11 @@
       </c>
       <c r="B68" s="108">
         <f>B64 + 1</f>
-        <v>43512</v>
+        <v>43520</v>
       </c>
       <c r="C68" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 7</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D68" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7656,11 +7682,11 @@
       </c>
       <c r="B69" s="108">
         <f>B65 + 1</f>
-        <v>43512</v>
+        <v>43520</v>
       </c>
       <c r="C69" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 7</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D69" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7695,11 +7721,11 @@
       </c>
       <c r="B70" s="108">
         <f t="shared" si="11"/>
-        <v>43513</v>
+        <v>43521</v>
       </c>
       <c r="C70" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D70" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7734,11 +7760,11 @@
       </c>
       <c r="B71" s="108">
         <f>B67 + 1</f>
-        <v>43513</v>
+        <v>43521</v>
       </c>
       <c r="C71" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D71" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7773,11 +7799,11 @@
       </c>
       <c r="B72" s="108">
         <f>B68 + 1</f>
-        <v>43513</v>
+        <v>43521</v>
       </c>
       <c r="C72" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Chủ nhật</v>
+        <v>Thứ 2</v>
       </c>
       <c r="D72" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7812,11 +7838,11 @@
       </c>
       <c r="B73" s="108">
         <f t="shared" si="11"/>
-        <v>43514</v>
+        <v>43522</v>
       </c>
       <c r="C73" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 2</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D73" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7851,11 +7877,11 @@
       </c>
       <c r="B74" s="108">
         <f>B70 + 1</f>
-        <v>43514</v>
+        <v>43522</v>
       </c>
       <c r="C74" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 2</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D74" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7890,11 +7916,11 @@
       </c>
       <c r="B75" s="108">
         <f>B71 + 1</f>
-        <v>43514</v>
+        <v>43522</v>
       </c>
       <c r="C75" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 2</v>
+        <v>Thứ 3</v>
       </c>
       <c r="D75" s="109">
         <v>4.1666666666666699E-2</v>
@@ -7929,11 +7955,11 @@
       </c>
       <c r="B76" s="108">
         <f>B72 + 2</f>
-        <v>43515</v>
+        <v>43523</v>
       </c>
       <c r="C76" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 3</v>
+        <v>Thứ 4</v>
       </c>
       <c r="D76" s="109">
         <v>8.3333333333333329E-2</v>
@@ -7968,11 +7994,11 @@
       </c>
       <c r="B77" s="108">
         <f>B73 +2</f>
-        <v>43516</v>
+        <v>43524</v>
       </c>
       <c r="C77" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 4</v>
+        <v>Thứ 5</v>
       </c>
       <c r="D77" s="109">
         <v>8.3333333333333329E-2</v>
@@ -8007,11 +8033,11 @@
       </c>
       <c r="B78" s="108">
         <f>B73 + 3</f>
-        <v>43517</v>
+        <v>43525</v>
       </c>
       <c r="C78" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 5</v>
+        <v>Thứ 6</v>
       </c>
       <c r="D78" s="109">
         <v>8.3333333333333329E-2</v>
@@ -8046,11 +8072,11 @@
       </c>
       <c r="B79" s="108">
         <f>B75 + 4</f>
-        <v>43518</v>
+        <v>43526</v>
       </c>
       <c r="C79" s="108" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 6</v>
+        <v>Thứ 7</v>
       </c>
       <c r="D79" s="109">
         <v>8.3333333333333329E-2</v>
@@ -8085,18 +8111,18 @@
       </c>
       <c r="B80" s="115">
         <f>B76 + 4</f>
-        <v>43519</v>
+        <v>43527</v>
       </c>
       <c r="C80" s="115" t="str">
         <f t="shared" si="10"/>
-        <v>Thứ 7</v>
+        <v>Chủ nhật</v>
       </c>
       <c r="D80" s="116">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E80" s="117"/>
       <c r="F80" s="118" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G80" s="118"/>
       <c r="H80" s="118"/>
@@ -31603,6 +31629,7 @@
     <hyperlink ref="A32" location="'Initiating 4'!A1" display="Initiating 4 - 25" xr:uid="{6A84B5A2-AB81-4C3F-AB87-82F3A6679E3B}"/>
     <hyperlink ref="A35" location="'Mock Exam 4'!A1" display="Mock Exam 4" xr:uid="{254B4A8E-2837-4015-8874-5E349804BC30}"/>
     <hyperlink ref="A37" location="'Initiating 5'!A1" display="Initiating 5 - 25" xr:uid="{17043A15-97D7-4E15-8A7E-ECB8F04BD0E9}"/>
+    <hyperlink ref="H11" location="Framework!A1" display="Framework " xr:uid="{E1316AC4-182C-4499-84E7-3E56A48AF86B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31658,7 +31685,7 @@
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
       <c r="E2" s="72" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F2" s="27"/>
     </row>
@@ -31670,7 +31697,7 @@
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="72" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F3" s="27"/>
     </row>
@@ -31694,7 +31721,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F5" s="27"/>
     </row>
@@ -31708,7 +31735,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F6" s="27"/>
     </row>
@@ -31720,7 +31747,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="88"/>
@@ -31755,7 +31782,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F10" s="89"/>
       <c r="G10" s="88"/>
@@ -31833,10 +31860,10 @@
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F2" s="68" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
@@ -31849,10 +31876,10 @@
       </c>
       <c r="D3" s="72"/>
       <c r="E3" s="75" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F3" s="68" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
@@ -31862,13 +31889,13 @@
       <c r="B4" s="72"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -31878,14 +31905,14 @@
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
       <c r="D5" s="72" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E5" s="75" t="e">
         <f>- It must be noted that the car has been built, and the Control Quality and Validate Scope processes have been performed for every deliverable. the question is asking about PRODUCT delivery, which occurs during the closing process</f>
         <v>#NAME?</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -31896,10 +31923,10 @@
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
       <c r="E6" s="75" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -31911,7 +31938,7 @@
       <c r="D7" s="72"/>
       <c r="E7" s="75"/>
       <c r="F7" s="68" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G7" s="77"/>
     </row>
@@ -31925,10 +31952,10 @@
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F8" s="81" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -31949,11 +31976,11 @@
         <v>4</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E10" s="75"/>
       <c r="F10" s="81" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G10" s="77"/>
     </row>
@@ -31966,7 +31993,7 @@
       <c r="D11" s="72"/>
       <c r="E11" s="75"/>
       <c r="F11" s="81" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -31978,13 +32005,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="72" t="s">
+        <v>526</v>
+      </c>
+      <c r="E12" s="75" t="s">
         <v>527</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="F12" s="77" t="s">
         <v>528</v>
-      </c>
-      <c r="F12" s="77" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
@@ -31997,7 +32024,7 @@
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="75" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F13" s="81"/>
     </row>
@@ -32010,7 +32037,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="71" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E14" s="75"/>
     </row>
@@ -32025,7 +32052,7 @@
       <c r="D15" s="72"/>
       <c r="E15" s="75"/>
       <c r="F15" s="81" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -32039,7 +32066,7 @@
       <c r="D16" s="72"/>
       <c r="E16" s="75"/>
       <c r="F16" s="81" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -32052,7 +32079,7 @@
       </c>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -32065,10 +32092,10 @@
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="75" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -32081,10 +32108,10 @@
       </c>
       <c r="D19" s="72"/>
       <c r="E19" s="75" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -32096,7 +32123,7 @@
       <c r="D20" s="72"/>
       <c r="E20" s="75"/>
       <c r="F20" s="68" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -32108,13 +32135,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E21" s="75" t="s">
+        <v>909</v>
+      </c>
+      <c r="F21" s="68" t="s">
         <v>910</v>
-      </c>
-      <c r="F21" s="68" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -32128,7 +32155,7 @@
       <c r="D22" s="72"/>
       <c r="E22" s="75"/>
       <c r="F22" s="68" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30">
@@ -32139,7 +32166,7 @@
       <c r="C23" s="72"/>
       <c r="D23" s="72"/>
       <c r="E23" s="75" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -32150,7 +32177,7 @@
       <c r="C24" s="72"/>
       <c r="D24" s="72"/>
       <c r="E24" s="75" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -32170,7 +32197,7 @@
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
       <c r="E26" s="75" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -32200,7 +32227,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="72" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E29" s="75"/>
     </row>
@@ -32232,7 +32259,7 @@
       </c>
       <c r="D32" s="72"/>
       <c r="E32" s="75" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -32262,10 +32289,10 @@
         <v>4</v>
       </c>
       <c r="D35" s="72" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E35" s="72" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -32278,7 +32305,7 @@
       </c>
       <c r="D36" s="72"/>
       <c r="E36" s="75" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -32289,7 +32316,7 @@
       <c r="C37" s="72"/>
       <c r="D37" s="72"/>
       <c r="E37" s="75" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -32302,7 +32329,7 @@
       </c>
       <c r="D38" s="72"/>
       <c r="E38" s="75" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -32314,7 +32341,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="72" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E39" s="75"/>
     </row>
@@ -32336,7 +32363,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="72" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E41" s="75"/>
     </row>
@@ -32349,7 +32376,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="72" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E42" s="75"/>
     </row>
@@ -32362,7 +32389,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="72" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E43" s="75"/>
     </row>
@@ -32402,7 +32429,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="72" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E47" s="75"/>
     </row>
@@ -32460,7 +32487,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2583E3-9850-4500-BEA4-2CD763A9903C}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -32503,7 +32532,7 @@
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -32525,7 +32554,7 @@
       </c>
       <c r="D4" s="72"/>
       <c r="E4" s="75" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -32556,7 +32585,7 @@
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
       <c r="E7" s="75" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G7" s="77"/>
     </row>
@@ -32568,7 +32597,7 @@
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
@@ -32580,10 +32609,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -32594,7 +32623,7 @@
       <c r="C10" s="72"/>
       <c r="D10" s="72"/>
       <c r="E10" s="75" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G10" s="77"/>
     </row>
@@ -32625,10 +32654,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="72" t="s">
+        <v>668</v>
+      </c>
+      <c r="E13" s="75" t="s">
         <v>669</v>
-      </c>
-      <c r="E13" s="75" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -32649,10 +32678,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="72" t="s">
+        <v>670</v>
+      </c>
+      <c r="E15" s="75" t="s">
         <v>671</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
@@ -32665,7 +32694,7 @@
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -32696,7 +32725,7 @@
       </c>
       <c r="D19" s="72"/>
       <c r="E19" s="75" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -32709,7 +32738,7 @@
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="75" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -32722,7 +32751,7 @@
       </c>
       <c r="D21" s="72"/>
       <c r="E21" s="75" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -32735,7 +32764,7 @@
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -32774,7 +32803,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="72" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E26" s="75"/>
     </row>
@@ -32796,10 +32825,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="72" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E28" s="75" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -32821,7 +32850,7 @@
       </c>
       <c r="D30" s="72"/>
       <c r="E30" s="75" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -32833,10 +32862,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="72" t="s">
+        <v>506</v>
+      </c>
+      <c r="E31" s="75" t="s">
         <v>507</v>
-      </c>
-      <c r="E31" s="75" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -32859,10 +32888,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="72" t="s">
+        <v>508</v>
+      </c>
+      <c r="E33" s="75" t="s">
         <v>509</v>
-      </c>
-      <c r="E33" s="75" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -32902,7 +32931,7 @@
       </c>
       <c r="D37" s="72"/>
       <c r="E37" s="75" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -32915,7 +32944,7 @@
       </c>
       <c r="D38" s="72"/>
       <c r="E38" s="75" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -32952,7 +32981,7 @@
       <c r="B42" s="72"/>
       <c r="C42" s="72"/>
       <c r="D42" s="72" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E42" s="75"/>
     </row>
@@ -32983,7 +33012,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="72" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E45" s="75" t="s">
         <v>458</v>
@@ -33150,7 +33179,7 @@
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="75">
@@ -33163,7 +33192,7 @@
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="75" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45">
@@ -33174,7 +33203,7 @@
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
       <c r="E7" s="75" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G7" s="77"/>
     </row>
@@ -33197,7 +33226,7 @@
       </c>
       <c r="D9" s="72"/>
       <c r="E9" s="75" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -33227,7 +33256,7 @@
       <c r="C12" s="72"/>
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -33249,7 +33278,7 @@
       </c>
       <c r="D14" s="71"/>
       <c r="E14" s="75" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -33269,7 +33298,7 @@
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="105">
@@ -33282,7 +33311,7 @@
       </c>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -33322,7 +33351,7 @@
       </c>
       <c r="D21" s="72"/>
       <c r="E21" s="75" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -33353,7 +33382,7 @@
       </c>
       <c r="D24" s="72"/>
       <c r="E24" s="75" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45">
@@ -33366,7 +33395,7 @@
       </c>
       <c r="D25" s="72"/>
       <c r="E25" s="75" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="60">
@@ -33379,7 +33408,7 @@
       </c>
       <c r="D26" s="72"/>
       <c r="E26" s="75" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45">
@@ -33390,7 +33419,7 @@
       <c r="C27" s="72"/>
       <c r="D27" s="72"/>
       <c r="E27" s="75" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="45">
@@ -33401,7 +33430,7 @@
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
       <c r="E28" s="75" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -33421,7 +33450,7 @@
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
       <c r="E30" s="75" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -33470,7 +33499,7 @@
       </c>
       <c r="D35" s="72"/>
       <c r="E35" s="75" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="45">
@@ -33483,7 +33512,7 @@
       </c>
       <c r="D36" s="72"/>
       <c r="E36" s="75" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30">
@@ -33496,7 +33525,7 @@
       </c>
       <c r="D37" s="72"/>
       <c r="E37" s="75" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="60">
@@ -33509,7 +33538,7 @@
       </c>
       <c r="D38" s="72"/>
       <c r="E38" s="75" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="120">
@@ -33522,7 +33551,7 @@
       </c>
       <c r="D39" s="72"/>
       <c r="E39" s="75" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30">
@@ -33535,7 +33564,7 @@
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="75" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -33557,7 +33586,7 @@
       </c>
       <c r="D42" s="72"/>
       <c r="E42" s="75" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="105">
@@ -33570,7 +33599,7 @@
       </c>
       <c r="D43" s="72"/>
       <c r="E43" s="75" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -33612,7 +33641,7 @@
       </c>
       <c r="D47" s="72"/>
       <c r="E47" s="75" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="45">
@@ -33625,7 +33654,7 @@
       </c>
       <c r="D48" s="72"/>
       <c r="E48" s="75" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="105">
@@ -33637,10 +33666,10 @@
         <v>4</v>
       </c>
       <c r="D49" s="72" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E49" s="75" t="s">
         <v>1046</v>
-      </c>
-      <c r="E49" s="75" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="60">
@@ -33653,7 +33682,7 @@
       </c>
       <c r="D50" s="72"/>
       <c r="E50" s="75" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="120">
@@ -33665,10 +33694,10 @@
         <v>4</v>
       </c>
       <c r="D51" s="72" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E51" s="75" t="s">
         <v>1043</v>
-      </c>
-      <c r="E51" s="75" t="s">
-        <v>1044</v>
       </c>
     </row>
   </sheetData>
@@ -33734,7 +33763,7 @@
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -33756,7 +33785,7 @@
       </c>
       <c r="D4" s="72"/>
       <c r="E4" s="75" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -33787,7 +33816,7 @@
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
       <c r="E7" s="75" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G7" s="77"/>
     </row>
@@ -33799,7 +33828,7 @@
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
@@ -33811,10 +33840,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -33825,7 +33854,7 @@
       <c r="C10" s="72"/>
       <c r="D10" s="72"/>
       <c r="E10" s="75" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G10" s="77"/>
     </row>
@@ -33920,7 +33949,7 @@
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="75" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -33933,7 +33962,7 @@
       </c>
       <c r="D21" s="72"/>
       <c r="E21" s="75" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -33946,7 +33975,7 @@
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -33985,7 +34014,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="72" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E26" s="75"/>
     </row>
@@ -34007,10 +34036,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="72" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E28" s="75" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -34032,7 +34061,7 @@
       </c>
       <c r="D30" s="72"/>
       <c r="E30" s="75" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -34044,10 +34073,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="72" t="s">
+        <v>506</v>
+      </c>
+      <c r="E31" s="75" t="s">
         <v>507</v>
-      </c>
-      <c r="E31" s="75" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -34070,10 +34099,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="72" t="s">
+        <v>508</v>
+      </c>
+      <c r="E33" s="75" t="s">
         <v>509</v>
-      </c>
-      <c r="E33" s="75" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -34113,7 +34142,7 @@
       </c>
       <c r="D37" s="72"/>
       <c r="E37" s="75" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -34126,7 +34155,7 @@
       </c>
       <c r="D38" s="72"/>
       <c r="E38" s="75" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -34163,7 +34192,7 @@
       <c r="B42" s="72"/>
       <c r="C42" s="72"/>
       <c r="D42" s="72" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E42" s="75"/>
     </row>
@@ -34194,7 +34223,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="72" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E45" s="75" t="s">
         <v>458</v>
@@ -34331,14 +34360,14 @@
         <v>4</v>
       </c>
       <c r="D2" s="72" t="s">
+        <v>687</v>
+      </c>
+      <c r="E2" s="75" t="s">
         <v>688</v>
-      </c>
-      <c r="E2" s="75" t="s">
-        <v>689</v>
       </c>
       <c r="F2" s="76"/>
       <c r="G2" s="77" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -34360,10 +34389,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="72" t="s">
+        <v>690</v>
+      </c>
+      <c r="E4" s="75" t="s">
         <v>691</v>
-      </c>
-      <c r="E4" s="75" t="s">
-        <v>692</v>
       </c>
       <c r="F4" s="76"/>
     </row>
@@ -34376,10 +34405,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="72" t="s">
+        <v>692</v>
+      </c>
+      <c r="E5" s="75" t="s">
         <v>693</v>
-      </c>
-      <c r="E5" s="75" t="s">
-        <v>694</v>
       </c>
       <c r="F5" s="76"/>
     </row>
@@ -34392,10 +34421,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="72" t="s">
+        <v>694</v>
+      </c>
+      <c r="E6" s="75" t="s">
         <v>695</v>
-      </c>
-      <c r="E6" s="75" t="s">
-        <v>696</v>
       </c>
       <c r="F6" s="76"/>
     </row>
@@ -34409,7 +34438,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="75" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F7" s="76"/>
       <c r="G7" s="77"/>
@@ -34422,7 +34451,7 @@
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -34455,7 +34484,7 @@
       <c r="C11" s="72"/>
       <c r="D11" s="72"/>
       <c r="E11" s="75" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F11" s="76"/>
     </row>
@@ -34479,7 +34508,7 @@
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="75" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F13" s="76"/>
     </row>
@@ -34503,7 +34532,7 @@
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="75" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F15" s="76"/>
     </row>
@@ -34517,7 +34546,7 @@
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F16" s="76"/>
     </row>
@@ -34529,7 +34558,7 @@
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F17" s="76"/>
     </row>
@@ -34581,7 +34610,7 @@
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F22" s="76"/>
     </row>
@@ -34593,7 +34622,7 @@
       <c r="C23" s="72"/>
       <c r="D23" s="72"/>
       <c r="E23" s="75" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F23" s="76"/>
     </row>
@@ -34625,7 +34654,7 @@
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
       <c r="E26" s="75" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F26" s="76"/>
     </row>
@@ -34648,10 +34677,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="72" t="s">
+        <v>706</v>
+      </c>
+      <c r="E28" s="75" t="s">
         <v>707</v>
-      </c>
-      <c r="E28" s="75" t="s">
-        <v>708</v>
       </c>
       <c r="F28" s="76"/>
     </row>
@@ -34675,7 +34704,7 @@
       </c>
       <c r="D30" s="72"/>
       <c r="E30" s="75" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F30" s="76"/>
     </row>
@@ -34687,7 +34716,7 @@
       <c r="C31" s="72"/>
       <c r="D31" s="72"/>
       <c r="E31" s="75" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F31" s="76"/>
     </row>
@@ -34709,7 +34738,7 @@
       <c r="C33" s="72"/>
       <c r="D33" s="72"/>
       <c r="E33" s="75" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F33" s="76"/>
     </row>
@@ -34731,7 +34760,7 @@
       <c r="C35" s="72"/>
       <c r="D35" s="72"/>
       <c r="E35" s="75" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F35" s="76"/>
     </row>
@@ -34743,7 +34772,7 @@
       <c r="C36" s="72"/>
       <c r="D36" s="72"/>
       <c r="E36" s="75" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F36" s="76"/>
     </row>
@@ -34755,7 +34784,7 @@
       <c r="C37" s="72"/>
       <c r="D37" s="72"/>
       <c r="E37" s="75" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F37" s="76"/>
     </row>
@@ -34798,7 +34827,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="72" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E41" s="75"/>
       <c r="F41" s="76"/>
@@ -34813,7 +34842,7 @@
       </c>
       <c r="D42" s="72"/>
       <c r="E42" s="75" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F42" s="76"/>
     </row>
@@ -34827,7 +34856,7 @@
       </c>
       <c r="D43" s="72"/>
       <c r="E43" s="75" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F43" s="76"/>
     </row>
@@ -34841,7 +34870,7 @@
       </c>
       <c r="D44" s="72"/>
       <c r="E44" s="75" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F44" s="76"/>
     </row>
@@ -34853,7 +34882,7 @@
       <c r="C45" s="72"/>
       <c r="D45" s="72"/>
       <c r="E45" s="75" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F45" s="76"/>
     </row>
@@ -35584,7 +35613,7 @@
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F2" s="76"/>
     </row>
@@ -35598,7 +35627,7 @@
       </c>
       <c r="D3" s="72"/>
       <c r="E3" s="75" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F3" s="76"/>
     </row>
@@ -35620,7 +35649,7 @@
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F5" s="76"/>
     </row>
@@ -35632,7 +35661,7 @@
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
       <c r="E6" s="75" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F6" s="76"/>
     </row>
@@ -35645,10 +35674,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="72" t="s">
+        <v>948</v>
+      </c>
+      <c r="E7" s="75" t="s">
         <v>949</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>950</v>
       </c>
       <c r="F7" s="76"/>
       <c r="G7" s="77"/>
@@ -35663,7 +35692,7 @@
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -35675,7 +35704,7 @@
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
       <c r="E9" s="75" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F9" s="76"/>
     </row>
@@ -35710,10 +35739,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="72" t="s">
+        <v>952</v>
+      </c>
+      <c r="E12" s="75" t="s">
         <v>953</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>954</v>
       </c>
       <c r="F12" s="76"/>
     </row>
@@ -35777,7 +35806,7 @@
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="75" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F18" s="76"/>
     </row>
@@ -35811,7 +35840,7 @@
       </c>
       <c r="D21" s="72"/>
       <c r="E21" s="75" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F21" s="76"/>
     </row>
@@ -35845,7 +35874,7 @@
       </c>
       <c r="D24" s="72"/>
       <c r="E24" s="75" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F24" s="76"/>
     </row>
@@ -35856,7 +35885,7 @@
       <c r="B25" s="72"/>
       <c r="C25" s="72"/>
       <c r="D25" s="72" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E25" s="75"/>
       <c r="F25" s="76"/>
@@ -35879,7 +35908,7 @@
       <c r="C27" s="72"/>
       <c r="D27" s="72"/>
       <c r="E27" s="75" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F27" s="76"/>
     </row>
@@ -35893,7 +35922,7 @@
       </c>
       <c r="D28" s="72"/>
       <c r="E28" s="75" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F28" s="76"/>
     </row>
@@ -35907,7 +35936,7 @@
       </c>
       <c r="D29" s="72"/>
       <c r="E29" s="75" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F29" s="76"/>
     </row>
@@ -35919,7 +35948,7 @@
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
       <c r="E30" s="75" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F30" s="76"/>
     </row>
@@ -35943,7 +35972,7 @@
       </c>
       <c r="D32" s="72"/>
       <c r="E32" s="75" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F32" s="76"/>
     </row>
@@ -35955,7 +35984,7 @@
       <c r="C33" s="72"/>
       <c r="D33" s="72"/>
       <c r="E33" s="75" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F33" s="76"/>
     </row>
@@ -35969,7 +35998,7 @@
       </c>
       <c r="D34" s="72"/>
       <c r="E34" s="75" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F34" s="76"/>
     </row>
@@ -35993,7 +36022,7 @@
       </c>
       <c r="D36" s="72"/>
       <c r="E36" s="75" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F36" s="76"/>
     </row>
@@ -36037,7 +36066,7 @@
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="75" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F40" s="76"/>
     </row>
@@ -36050,7 +36079,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="72" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E41" s="75"/>
       <c r="F41" s="76"/>
@@ -36065,7 +36094,7 @@
       </c>
       <c r="D42" s="72"/>
       <c r="E42" s="75" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F42" s="76"/>
     </row>
@@ -36079,7 +36108,7 @@
       </c>
       <c r="D43" s="72"/>
       <c r="E43" s="75" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F43" s="76"/>
     </row>
@@ -36093,7 +36122,7 @@
       </c>
       <c r="D44" s="72"/>
       <c r="E44" s="75" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F44" s="76"/>
     </row>
@@ -36107,7 +36136,7 @@
       </c>
       <c r="D45" s="72"/>
       <c r="E45" s="75" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F45" s="76"/>
     </row>
@@ -36140,7 +36169,7 @@
       </c>
       <c r="D48" s="72"/>
       <c r="E48" s="75" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F48" s="76"/>
     </row>
@@ -36154,7 +36183,7 @@
       </c>
       <c r="D49" s="72"/>
       <c r="E49" s="75" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F49" s="76"/>
     </row>
@@ -36168,7 +36197,7 @@
       </c>
       <c r="D50" s="72"/>
       <c r="E50" s="75" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F50" s="76"/>
     </row>
@@ -36182,7 +36211,7 @@
       </c>
       <c r="D51" s="72"/>
       <c r="E51" s="75" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F51" s="76"/>
     </row>
@@ -36247,7 +36276,7 @@
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F2" s="76"/>
     </row>
@@ -36271,7 +36300,7 @@
       </c>
       <c r="D4" s="72"/>
       <c r="E4" s="75" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F4" s="76"/>
     </row>
@@ -36295,7 +36324,7 @@
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="75" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F6" s="76"/>
     </row>
@@ -36309,7 +36338,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="75" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F7" s="76"/>
       <c r="G7" s="77"/>
@@ -36324,7 +36353,7 @@
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -36390,7 +36419,7 @@
       </c>
       <c r="D14" s="71"/>
       <c r="E14" s="75" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F14" s="76"/>
     </row>
@@ -36412,7 +36441,7 @@
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F16" s="76"/>
     </row>
@@ -36424,7 +36453,7 @@
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F17" s="76"/>
     </row>
@@ -36436,7 +36465,7 @@
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
       <c r="E18" s="75" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F18" s="76"/>
     </row>
@@ -36448,7 +36477,7 @@
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
       <c r="E19" s="75" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F19" s="76"/>
     </row>
@@ -36470,7 +36499,7 @@
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
       <c r="E21" s="75" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F21" s="76"/>
     </row>
@@ -36482,7 +36511,7 @@
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F22" s="76"/>
     </row>
@@ -36496,7 +36525,7 @@
       </c>
       <c r="D23" s="72"/>
       <c r="E23" s="75" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F23" s="76"/>
     </row>
@@ -36510,7 +36539,7 @@
       </c>
       <c r="D24" s="72"/>
       <c r="E24" s="75" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F24" s="76"/>
     </row>
@@ -36534,7 +36563,7 @@
       </c>
       <c r="D26" s="72"/>
       <c r="E26" s="75" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F26" s="76"/>
     </row>
@@ -36548,7 +36577,7 @@
       </c>
       <c r="D27" s="72"/>
       <c r="E27" s="75" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F27" s="76"/>
     </row>
@@ -36572,7 +36601,7 @@
       </c>
       <c r="D29" s="72"/>
       <c r="E29" s="75" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F29" s="76"/>
     </row>
@@ -36586,7 +36615,7 @@
       </c>
       <c r="D30" s="72"/>
       <c r="E30" s="75" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F30" s="76"/>
     </row>
@@ -36610,7 +36639,7 @@
       </c>
       <c r="D32" s="72"/>
       <c r="E32" s="75" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F32" s="76"/>
     </row>
@@ -36636,7 +36665,7 @@
       </c>
       <c r="D34" s="72"/>
       <c r="E34" s="75" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F34" s="76"/>
     </row>
@@ -36670,7 +36699,7 @@
       </c>
       <c r="D37" s="72"/>
       <c r="E37" s="75" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F37" s="76"/>
     </row>
@@ -36691,10 +36720,10 @@
       <c r="B39" s="72"/>
       <c r="C39" s="72"/>
       <c r="D39" s="72" t="s">
+        <v>934</v>
+      </c>
+      <c r="E39" s="75" t="s">
         <v>935</v>
-      </c>
-      <c r="E39" s="75" t="s">
-        <v>936</v>
       </c>
       <c r="F39" s="76"/>
     </row>
@@ -36708,7 +36737,7 @@
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="75" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F40" s="76"/>
     </row>
@@ -36722,7 +36751,7 @@
       </c>
       <c r="D41" s="72"/>
       <c r="E41" s="75" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F41" s="76"/>
     </row>
@@ -36734,7 +36763,7 @@
       <c r="C42" s="72"/>
       <c r="D42" s="72"/>
       <c r="E42" s="75" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F42" s="76"/>
     </row>
@@ -36768,7 +36797,7 @@
       </c>
       <c r="D45" s="72"/>
       <c r="E45" s="75" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F45" s="76"/>
     </row>
@@ -36782,7 +36811,7 @@
       </c>
       <c r="D46" s="72"/>
       <c r="E46" s="75" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F46" s="76"/>
     </row>
@@ -36803,7 +36832,7 @@
       <c r="C48" s="72"/>
       <c r="D48" s="72"/>
       <c r="E48" s="75" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F48" s="76"/>
     </row>
@@ -36817,7 +36846,7 @@
       </c>
       <c r="D49" s="72"/>
       <c r="E49" s="75" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F49" s="76"/>
     </row>
@@ -36829,7 +36858,7 @@
       <c r="C50" s="72"/>
       <c r="D50" s="72"/>
       <c r="E50" s="75" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F50" s="76"/>
     </row>
@@ -37465,10 +37494,10 @@
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
+        <v>575</v>
+      </c>
+      <c r="F2" s="68" t="s">
         <v>576</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="90">
@@ -37479,10 +37508,10 @@
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="75" t="s">
+        <v>577</v>
+      </c>
+      <c r="F3" s="68" t="s">
         <v>578</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
@@ -37494,13 +37523,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="72" t="s">
+        <v>579</v>
+      </c>
+      <c r="E4" s="75" t="s">
         <v>580</v>
       </c>
-      <c r="E4" s="75" t="s">
-        <v>581</v>
-      </c>
       <c r="F4" s="77" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -37522,10 +37551,10 @@
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="75" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F6" s="81" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -37537,7 +37566,7 @@
       <c r="D7" s="72"/>
       <c r="E7" s="75"/>
       <c r="F7" s="81" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G7" s="77"/>
     </row>
@@ -37551,7 +37580,7 @@
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F8" s="81"/>
     </row>
@@ -37564,10 +37593,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
@@ -37579,10 +37608,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E10" s="75" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F10" s="81"/>
       <c r="G10" s="77"/>
@@ -37606,10 +37635,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="72" t="s">
+        <v>787</v>
+      </c>
+      <c r="E12" s="75" t="s">
         <v>788</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>789</v>
       </c>
       <c r="F12" s="77"/>
     </row>
@@ -37633,7 +37662,7 @@
       </c>
       <c r="D14" s="71"/>
       <c r="E14" s="75" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30">
@@ -37646,10 +37675,10 @@
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="75" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F15" s="81" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -37670,7 +37699,7 @@
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45">
@@ -37681,10 +37710,10 @@
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
       <c r="E18" s="75" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45">
@@ -37695,10 +37724,10 @@
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
       <c r="E19" s="75" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="75">
@@ -37711,7 +37740,7 @@
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="75" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60">
@@ -37723,10 +37752,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="72" t="s">
+        <v>796</v>
+      </c>
+      <c r="E21" s="75" t="s">
         <v>797</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -37755,7 +37784,7 @@
       <c r="C24" s="72"/>
       <c r="D24" s="72"/>
       <c r="E24" s="75" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30">
@@ -37768,7 +37797,7 @@
       </c>
       <c r="D25" s="72"/>
       <c r="E25" s="75" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45">
@@ -37781,10 +37810,10 @@
       </c>
       <c r="D26" s="72"/>
       <c r="E26" s="75" t="s">
+        <v>800</v>
+      </c>
+      <c r="F26" s="68" t="s">
         <v>801</v>
-      </c>
-      <c r="F26" s="68" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="75">
@@ -37797,7 +37826,7 @@
       </c>
       <c r="D27" s="72"/>
       <c r="E27" s="75" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="45">
@@ -37808,7 +37837,7 @@
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
       <c r="E28" s="75" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
@@ -37821,7 +37850,7 @@
       </c>
       <c r="D29" s="72"/>
       <c r="E29" s="75" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -37843,10 +37872,10 @@
       </c>
       <c r="D31" s="72"/>
       <c r="E31" s="75" t="s">
+        <v>805</v>
+      </c>
+      <c r="F31" s="68" t="s">
         <v>806</v>
-      </c>
-      <c r="F31" s="68" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="90">
@@ -37859,10 +37888,10 @@
       </c>
       <c r="D32" s="72"/>
       <c r="E32" s="75" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30">
@@ -37873,7 +37902,7 @@
       <c r="C33" s="72"/>
       <c r="D33" s="72"/>
       <c r="E33" s="75" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="60">
@@ -37884,7 +37913,7 @@
       <c r="C34" s="72"/>
       <c r="D34" s="72"/>
       <c r="E34" s="75" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -37897,7 +37926,7 @@
       </c>
       <c r="D35" s="72"/>
       <c r="E35" s="75" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -37926,10 +37955,10 @@
       <c r="C38" s="72"/>
       <c r="D38" s="72"/>
       <c r="E38" s="75" t="s">
+        <v>811</v>
+      </c>
+      <c r="F38" s="68" t="s">
         <v>812</v>
-      </c>
-      <c r="F38" s="68" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45">
@@ -37942,7 +37971,7 @@
       </c>
       <c r="D39" s="72"/>
       <c r="E39" s="75" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -37964,7 +37993,7 @@
       </c>
       <c r="D41" s="72"/>
       <c r="E41" s="75" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -37986,10 +38015,10 @@
       </c>
       <c r="D43" s="72"/>
       <c r="E43" s="75" t="s">
+        <v>815</v>
+      </c>
+      <c r="F43" s="68" t="s">
         <v>816</v>
-      </c>
-      <c r="F43" s="68" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -38010,10 +38039,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="72" t="s">
+        <v>817</v>
+      </c>
+      <c r="E45" s="75" t="s">
         <v>818</v>
-      </c>
-      <c r="E45" s="75" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="45">
@@ -38024,7 +38053,7 @@
       <c r="C46" s="72"/>
       <c r="D46" s="72"/>
       <c r="E46" s="75" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="75">
@@ -38035,7 +38064,7 @@
       <c r="C47" s="72"/>
       <c r="D47" s="72"/>
       <c r="E47" s="75" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30">
@@ -38046,7 +38075,7 @@
       <c r="C48" s="72"/>
       <c r="D48" s="72"/>
       <c r="E48" s="75" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -38136,7 +38165,7 @@
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F2" s="76"/>
     </row>
@@ -38148,7 +38177,7 @@
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="75" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F3" s="76"/>
     </row>
@@ -38170,7 +38199,7 @@
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F5" s="76"/>
     </row>
@@ -38184,7 +38213,7 @@
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="75" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F6" s="76"/>
     </row>
@@ -38198,7 +38227,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="75" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F7" s="76"/>
       <c r="G7" s="77"/>
@@ -38221,7 +38250,7 @@
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
       <c r="E9" s="75" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F9" s="76"/>
     </row>
@@ -38245,10 +38274,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="72" t="s">
+        <v>738</v>
+      </c>
+      <c r="E11" s="75" t="s">
         <v>739</v>
-      </c>
-      <c r="E11" s="75" t="s">
-        <v>740</v>
       </c>
       <c r="F11" s="76"/>
       <c r="H11" s="77"/>
@@ -38263,11 +38292,11 @@
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F12" s="76"/>
       <c r="G12" s="75" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45">
@@ -38280,7 +38309,7 @@
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="75" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F13" s="76"/>
     </row>
@@ -38294,7 +38323,7 @@
       </c>
       <c r="D14" s="71"/>
       <c r="E14" s="75" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F14" s="76"/>
     </row>
@@ -38308,7 +38337,7 @@
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="75" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F15" s="76"/>
     </row>
@@ -38320,7 +38349,7 @@
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F16" s="76"/>
     </row>
@@ -38342,7 +38371,7 @@
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
       <c r="E18" s="75" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F18" s="76"/>
     </row>
@@ -38354,7 +38383,7 @@
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
       <c r="E19" s="75" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F19" s="76"/>
     </row>
@@ -38368,7 +38397,7 @@
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="75" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F20" s="76"/>
     </row>
@@ -38382,7 +38411,7 @@
       </c>
       <c r="D21" s="72"/>
       <c r="E21" s="75" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F21" s="76"/>
     </row>
@@ -38396,7 +38425,7 @@
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F22" s="76"/>
     </row>
@@ -38420,7 +38449,7 @@
       </c>
       <c r="D24" s="72"/>
       <c r="E24" s="75" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F24" s="76"/>
     </row>
@@ -38432,7 +38461,7 @@
       <c r="C25" s="72"/>
       <c r="D25" s="72"/>
       <c r="E25" s="75" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F25" s="76"/>
     </row>
@@ -38445,10 +38474,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="72" t="s">
+        <v>753</v>
+      </c>
+      <c r="E26" s="75" t="s">
         <v>754</v>
-      </c>
-      <c r="E26" s="75" t="s">
-        <v>755</v>
       </c>
       <c r="F26" s="76"/>
     </row>
@@ -38459,10 +38488,10 @@
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
       <c r="D27" s="72" t="s">
+        <v>755</v>
+      </c>
+      <c r="E27" s="75" t="s">
         <v>756</v>
-      </c>
-      <c r="E27" s="75" t="s">
-        <v>757</v>
       </c>
       <c r="F27" s="76"/>
     </row>
@@ -38476,7 +38505,7 @@
       </c>
       <c r="D28" s="72"/>
       <c r="E28" s="75" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F28" s="76"/>
     </row>
@@ -38488,7 +38517,7 @@
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
       <c r="E29" s="75" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F29" s="76"/>
     </row>
@@ -38500,7 +38529,7 @@
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
       <c r="E30" s="75" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F30" s="76"/>
     </row>
@@ -38522,7 +38551,7 @@
       <c r="C32" s="72"/>
       <c r="D32" s="72"/>
       <c r="E32" s="75" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F32" s="76"/>
     </row>
@@ -38535,10 +38564,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="72" t="s">
+        <v>761</v>
+      </c>
+      <c r="E33" s="75" t="s">
         <v>762</v>
-      </c>
-      <c r="E33" s="75" t="s">
-        <v>763</v>
       </c>
       <c r="F33" s="76"/>
     </row>
@@ -38560,7 +38589,7 @@
       <c r="C35" s="72"/>
       <c r="D35" s="72"/>
       <c r="E35" s="75" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F35" s="76"/>
     </row>
@@ -38584,7 +38613,7 @@
       </c>
       <c r="D37" s="72"/>
       <c r="E37" s="75" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F37" s="76"/>
     </row>
@@ -38597,10 +38626,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="72" t="s">
+        <v>765</v>
+      </c>
+      <c r="E38" s="75" t="s">
         <v>766</v>
-      </c>
-      <c r="E38" s="75" t="s">
-        <v>767</v>
       </c>
       <c r="F38" s="76"/>
     </row>
@@ -38613,10 +38642,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="72" t="s">
+        <v>767</v>
+      </c>
+      <c r="E39" s="75" t="s">
         <v>768</v>
-      </c>
-      <c r="E39" s="75" t="s">
-        <v>769</v>
       </c>
       <c r="F39" s="76"/>
     </row>
@@ -38629,7 +38658,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="72" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F40" s="76"/>
     </row>
@@ -38641,7 +38670,7 @@
       <c r="C41" s="72"/>
       <c r="D41" s="72"/>
       <c r="E41" s="75" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F41" s="76"/>
     </row>
@@ -38653,7 +38682,7 @@
       <c r="C42" s="72"/>
       <c r="D42" s="72"/>
       <c r="E42" s="75" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F42" s="76"/>
     </row>
@@ -38664,10 +38693,10 @@
       <c r="B43" s="72"/>
       <c r="C43" s="72"/>
       <c r="D43" s="72" t="s">
+        <v>772</v>
+      </c>
+      <c r="E43" s="75" t="s">
         <v>773</v>
-      </c>
-      <c r="E43" s="75" t="s">
-        <v>774</v>
       </c>
       <c r="F43" s="76"/>
     </row>
@@ -38689,7 +38718,7 @@
       <c r="C45" s="72"/>
       <c r="D45" s="72"/>
       <c r="E45" s="75" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F45" s="76"/>
     </row>
@@ -38703,7 +38732,7 @@
       </c>
       <c r="D46" s="72"/>
       <c r="E46" s="75" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F46" s="76"/>
     </row>
@@ -38737,7 +38766,7 @@
       </c>
       <c r="D49" s="72"/>
       <c r="E49" s="75" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F49" s="76"/>
     </row>
@@ -38751,7 +38780,7 @@
       </c>
       <c r="D50" s="72"/>
       <c r="E50" s="75" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F50" s="76"/>
     </row>
@@ -38765,7 +38794,7 @@
       </c>
       <c r="D51" s="72"/>
       <c r="E51" s="75" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F51" s="76"/>
     </row>
@@ -38845,7 +38874,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="28"/>
       <c r="G3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -38922,7 +38951,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>429</v>
@@ -38945,7 +38974,7 @@
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="77" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="90">
@@ -38957,10 +38986,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>589</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>590</v>
       </c>
       <c r="F11" s="28"/>
       <c r="H11" s="77" t="s">
@@ -38987,11 +39016,11 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30">
@@ -39004,11 +39033,11 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -39031,7 +39060,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F16" s="28"/>
     </row>
@@ -39063,7 +39092,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F19" s="28"/>
     </row>
@@ -39077,7 +39106,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F20" s="28"/>
     </row>
@@ -39111,11 +39140,11 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45">
@@ -39126,11 +39155,11 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="60">
@@ -39143,7 +39172,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F25" s="28"/>
     </row>
@@ -39157,7 +39186,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F26" s="28"/>
     </row>
@@ -39189,7 +39218,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F29" s="28"/>
     </row>
@@ -39203,7 +39232,7 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F30" s="28"/>
     </row>
@@ -39227,7 +39256,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F32" s="28"/>
     </row>
@@ -39251,7 +39280,7 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F34" s="28"/>
     </row>
@@ -39265,7 +39294,7 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F35" s="28"/>
     </row>
@@ -39470,9 +39499,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -39891,7 +39918,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -39902,7 +39929,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -39915,7 +39942,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -39937,7 +39964,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -40038,7 +40065,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
@@ -40051,7 +40078,7 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -40089,7 +40116,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="90">
@@ -40100,7 +40127,7 @@
       <c r="C8" s="27"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="105">
@@ -40111,7 +40138,7 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="105">
@@ -40122,7 +40149,7 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="150">
@@ -40133,7 +40160,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -40189,7 +40216,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -40218,7 +40245,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -40238,7 +40265,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -40276,7 +40303,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -40405,7 +40432,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E10" s="27"/>
     </row>
@@ -40433,14 +40460,16 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25">
@@ -40478,7 +40507,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="60">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -40487,11 +40516,11 @@
         <v>4</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -40500,7 +40529,9 @@
         <v>4</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>1069</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="135">
       <c r="A6" s="3">
@@ -40543,14 +40574,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
@@ -40561,14 +40596,16 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>1071</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -40969,7 +41006,7 @@
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F2" s="76"/>
     </row>
@@ -40983,7 +41020,7 @@
       </c>
       <c r="D3" s="72"/>
       <c r="E3" s="75" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F3" s="76"/>
     </row>
@@ -40995,7 +41032,7 @@
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
       <c r="E4" s="75" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F4" s="76"/>
     </row>
@@ -41009,7 +41046,7 @@
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F5" s="76"/>
     </row>
@@ -41033,7 +41070,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="71" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F7" s="76"/>
     </row>
@@ -41047,7 +41084,7 @@
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -41061,7 +41098,7 @@
       </c>
       <c r="D9" s="72"/>
       <c r="E9" s="75" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F9" s="76"/>
     </row>
@@ -41114,7 +41151,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="72" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F14" s="76"/>
     </row>
@@ -41135,7 +41172,7 @@
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F16" s="76"/>
     </row>
@@ -41147,7 +41184,7 @@
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F17" s="76"/>
     </row>
@@ -41181,7 +41218,7 @@
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="75" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F20" s="76"/>
     </row>
@@ -41193,7 +41230,7 @@
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
       <c r="E21" s="75" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F21" s="76"/>
     </row>
@@ -41237,7 +41274,7 @@
       </c>
       <c r="D25" s="72"/>
       <c r="E25" s="75" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F25" s="76"/>
     </row>
@@ -41313,7 +41350,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -41334,10 +41371,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -41357,7 +41394,7 @@
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -41369,10 +41406,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -41385,7 +41422,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60">
@@ -41398,7 +41435,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -41411,7 +41448,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -41490,10 +41527,10 @@
         <v>57</v>
       </c>
       <c r="D3" s="72" t="s">
+        <v>722</v>
+      </c>
+      <c r="E3" s="75" t="s">
         <v>723</v>
-      </c>
-      <c r="E3" s="75" t="s">
-        <v>724</v>
       </c>
       <c r="F3" s="76"/>
     </row>
@@ -41505,7 +41542,7 @@
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
       <c r="E4" s="75" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F4" s="76"/>
     </row>
@@ -41517,7 +41554,7 @@
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F5" s="76"/>
     </row>
@@ -41541,7 +41578,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="71" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F7" s="76"/>
     </row>
@@ -41553,7 +41590,7 @@
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -41567,7 +41604,7 @@
       </c>
       <c r="D9" s="72"/>
       <c r="E9" s="75" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F9" s="76"/>
     </row>
@@ -41601,7 +41638,7 @@
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F12" s="76"/>
     </row>
@@ -41633,7 +41670,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="72" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F15" s="76"/>
     </row>
@@ -41655,7 +41692,7 @@
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F17" s="76"/>
     </row>
@@ -41667,7 +41704,7 @@
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
       <c r="E18" s="75" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F18" s="76"/>
     </row>
@@ -41689,7 +41726,7 @@
       <c r="C20" s="72"/>
       <c r="D20" s="72"/>
       <c r="E20" s="75" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F20" s="76"/>
     </row>
@@ -41711,7 +41748,7 @@
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F22" s="76"/>
     </row>
@@ -41776,7 +41813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E7F72C-8763-4FD0-9393-7A7E1BDC492D}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -41850,7 +41887,7 @@
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F5" s="76"/>
     </row>
@@ -41874,7 +41911,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="71" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F7" s="76"/>
     </row>
@@ -41886,7 +41923,7 @@
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -41920,7 +41957,7 @@
       </c>
       <c r="D11" s="72"/>
       <c r="E11" s="75" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F11" s="76"/>
     </row>
@@ -41932,7 +41969,7 @@
       <c r="C12" s="72"/>
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F12" s="76"/>
     </row>
@@ -41946,7 +41983,7 @@
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="75" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F13" s="76"/>
     </row>
@@ -41969,7 +42006,7 @@
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="72" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F15" s="76"/>
     </row>
@@ -41981,7 +42018,7 @@
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F16" s="76"/>
     </row>
@@ -42015,7 +42052,7 @@
       </c>
       <c r="D19" s="72"/>
       <c r="E19" s="75" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F19" s="76"/>
     </row>
@@ -42027,7 +42064,7 @@
       <c r="C20" s="72"/>
       <c r="D20" s="72"/>
       <c r="E20" s="75" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F20" s="76"/>
     </row>
@@ -42039,7 +42076,7 @@
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
       <c r="E21" s="75" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F21" s="76"/>
     </row>
@@ -42053,7 +42090,7 @@
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F22" s="76"/>
     </row>
@@ -42065,7 +42102,7 @@
       <c r="C23" s="72"/>
       <c r="D23" s="72"/>
       <c r="E23" s="75" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F23" s="76"/>
     </row>
@@ -42164,7 +42201,7 @@
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F2" s="76"/>
     </row>
@@ -42176,7 +42213,7 @@
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="75" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F3" s="76"/>
     </row>
@@ -42188,7 +42225,7 @@
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
       <c r="E4" s="75" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F4" s="76"/>
     </row>
@@ -42200,7 +42237,7 @@
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F5" s="76"/>
     </row>
@@ -42224,7 +42261,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="71" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F7" s="76"/>
     </row>
@@ -42236,7 +42273,7 @@
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -42260,7 +42297,7 @@
       </c>
       <c r="D10" s="72"/>
       <c r="E10" s="75" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F10" s="76"/>
     </row>
@@ -42284,7 +42321,7 @@
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F12" s="76"/>
     </row>
@@ -42296,7 +42333,7 @@
       <c r="C13" s="72"/>
       <c r="D13" s="72"/>
       <c r="E13" s="75" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F13" s="76"/>
     </row>
@@ -42307,7 +42344,7 @@
       <c r="B14" s="72"/>
       <c r="C14" s="72"/>
       <c r="E14" s="72" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F14" s="76"/>
     </row>
@@ -42321,7 +42358,7 @@
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F15" s="76"/>
     </row>
@@ -42364,10 +42401,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E19" s="75" t="s">
         <v>1019</v>
-      </c>
-      <c r="E19" s="75" t="s">
-        <v>1020</v>
       </c>
       <c r="F19" s="76"/>
     </row>
@@ -42381,7 +42418,7 @@
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="75" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F20" s="76"/>
     </row>
@@ -42415,7 +42452,7 @@
       </c>
       <c r="D23" s="72"/>
       <c r="E23" s="75" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F23" s="76"/>
     </row>
@@ -42864,9 +42901,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -42903,7 +42938,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="90">
@@ -42914,7 +42949,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -42952,7 +42987,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -42972,7 +43007,7 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -42992,7 +43027,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -43179,7 +43214,7 @@
       <c r="B13" s="72"/>
       <c r="C13" s="72"/>
       <c r="D13" s="72" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E13" s="72"/>
     </row>
@@ -43216,7 +43251,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E16" s="72"/>
     </row>
@@ -43307,7 +43342,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E23" s="72"/>
     </row>
@@ -43336,7 +43371,7 @@
       </c>
       <c r="D25" s="72"/>
       <c r="E25" s="72" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -46131,10 +46166,10 @@
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E3" s="75" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F3" s="76"/>
     </row>
@@ -46176,7 +46211,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="75" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F7" s="76"/>
     </row>
@@ -46188,7 +46223,7 @@
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -46200,7 +46235,7 @@
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
       <c r="E9" s="75" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F9" s="76"/>
     </row>
@@ -46224,7 +46259,7 @@
       </c>
       <c r="D11" s="72"/>
       <c r="E11" s="75" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F11" s="76"/>
     </row>
@@ -46238,7 +46273,7 @@
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F12" s="76"/>
     </row>
@@ -46281,7 +46316,7 @@
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F16" s="76"/>
     </row>
@@ -46293,7 +46328,7 @@
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F17" s="76"/>
     </row>
@@ -46307,7 +46342,7 @@
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="75" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F18" s="76"/>
     </row>
@@ -46331,7 +46366,7 @@
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="75" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F20" s="76"/>
     </row>
@@ -46345,7 +46380,7 @@
       </c>
       <c r="D21" s="72"/>
       <c r="E21" s="75" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F21" s="76"/>
     </row>
@@ -46359,7 +46394,7 @@
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F22" s="76"/>
     </row>
@@ -46393,7 +46428,7 @@
       </c>
       <c r="D25" s="72"/>
       <c r="E25" s="75" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F25" s="76"/>
     </row>
@@ -46407,7 +46442,7 @@
       </c>
       <c r="D26" s="72"/>
       <c r="E26" s="75" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F26" s="76"/>
     </row>
@@ -46419,7 +46454,7 @@
       <c r="C27" s="72"/>
       <c r="D27" s="72"/>
       <c r="E27" s="75" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F27" s="76"/>
     </row>
@@ -46431,7 +46466,7 @@
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
       <c r="E28" s="75" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F28" s="76"/>
     </row>
@@ -46445,7 +46480,7 @@
       </c>
       <c r="D29" s="72"/>
       <c r="E29" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F29" s="76"/>
     </row>
@@ -46467,7 +46502,7 @@
       <c r="C31" s="72"/>
       <c r="D31" s="72"/>
       <c r="E31" s="75" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F31" s="76"/>
     </row>
@@ -46481,7 +46516,7 @@
       </c>
       <c r="D32" s="72"/>
       <c r="E32" s="75" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F32" s="76"/>
     </row>
@@ -46544,7 +46579,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="72" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E38" s="75"/>
       <c r="F38" s="76"/>
@@ -46559,7 +46594,7 @@
       </c>
       <c r="D39" s="72"/>
       <c r="E39" s="75" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F39" s="76"/>
     </row>
@@ -46573,7 +46608,7 @@
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="75" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F40" s="76"/>
     </row>
@@ -46587,7 +46622,7 @@
       </c>
       <c r="D41" s="72"/>
       <c r="E41" s="75" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F41" s="76"/>
     </row>
@@ -46609,7 +46644,7 @@
       <c r="C43" s="72"/>
       <c r="D43" s="72"/>
       <c r="E43" s="75" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F43" s="76"/>
     </row>
@@ -46621,7 +46656,7 @@
       <c r="C44" s="72"/>
       <c r="D44" s="72"/>
       <c r="E44" s="75" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F44" s="76"/>
     </row>
@@ -46633,7 +46668,7 @@
       <c r="C45" s="72"/>
       <c r="D45" s="72"/>
       <c r="E45" s="75" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F45" s="76"/>
     </row>
@@ -46667,7 +46702,7 @@
       </c>
       <c r="D48" s="72"/>
       <c r="E48" s="75" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F48" s="76"/>
     </row>
@@ -46679,7 +46714,7 @@
       <c r="C49" s="72"/>
       <c r="D49" s="72"/>
       <c r="E49" s="75" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F49" s="76"/>
     </row>
@@ -46691,7 +46726,7 @@
       <c r="C50" s="72"/>
       <c r="D50" s="72"/>
       <c r="E50" s="75" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F50" s="76"/>
     </row>
@@ -46703,7 +46738,7 @@
       <c r="C51" s="72"/>
       <c r="D51" s="72"/>
       <c r="E51" s="75" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F51" s="76"/>
     </row>
@@ -46767,7 +46802,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
@@ -46778,7 +46813,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
@@ -46789,7 +46824,7 @@
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="120">
@@ -46802,7 +46837,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
@@ -46815,7 +46850,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
@@ -46828,7 +46863,7 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
@@ -46839,7 +46874,7 @@
       <c r="C8" s="27"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45">
@@ -46852,7 +46887,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="75">
@@ -46865,7 +46900,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
@@ -46876,7 +46911,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -46956,14 +46991,14 @@
         <v>4</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F4" s="76"/>
       <c r="G4" s="71" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="75">
@@ -46974,11 +47009,11 @@
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F5" s="76"/>
       <c r="G5" s="71" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
@@ -46991,7 +47026,7 @@
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="75" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F6" s="76"/>
     </row>
@@ -47015,7 +47050,7 @@
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -47029,7 +47064,7 @@
       </c>
       <c r="D9" s="72"/>
       <c r="E9" s="75" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F9" s="76"/>
     </row>
@@ -47040,10 +47075,10 @@
       <c r="B10" s="72"/>
       <c r="C10" s="72"/>
       <c r="D10" s="72" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E10" s="75" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F10" s="76"/>
     </row>
@@ -47055,7 +47090,7 @@
       <c r="C11" s="72"/>
       <c r="D11" s="72"/>
       <c r="E11" s="75" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F11" s="76"/>
     </row>
@@ -47069,7 +47104,7 @@
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F12" s="76"/>
     </row>
@@ -47081,7 +47116,7 @@
       <c r="C13" s="72"/>
       <c r="D13" s="72"/>
       <c r="E13" s="75" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F13" s="76"/>
     </row>
@@ -47102,7 +47137,7 @@
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
       <c r="E15" s="75" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F15" s="76"/>
     </row>
@@ -47116,7 +47151,7 @@
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F16" s="76"/>
     </row>
@@ -47130,7 +47165,7 @@
       </c>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F17" s="76"/>
     </row>
@@ -47164,7 +47199,7 @@
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="75" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F20" s="76"/>
     </row>
@@ -47178,7 +47213,7 @@
       </c>
       <c r="D21" s="72"/>
       <c r="E21" s="75" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F21" s="76"/>
     </row>
@@ -47190,7 +47225,7 @@
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F22" s="76"/>
     </row>
@@ -47224,7 +47259,7 @@
       </c>
       <c r="D25" s="72"/>
       <c r="E25" s="75" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F25" s="76"/>
     </row>
@@ -47266,7 +47301,7 @@
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
       <c r="E29" s="75" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F29" s="76"/>
     </row>
@@ -47278,7 +47313,7 @@
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
       <c r="E30" s="75" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F30" s="76"/>
     </row>
@@ -47292,7 +47327,7 @@
       </c>
       <c r="D31" s="72"/>
       <c r="E31" s="75" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F31" s="76"/>
     </row>
@@ -47304,7 +47339,7 @@
       <c r="C32" s="72"/>
       <c r="D32" s="72"/>
       <c r="E32" s="75" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F32" s="76"/>
     </row>
@@ -47318,7 +47353,7 @@
       </c>
       <c r="D33" s="72"/>
       <c r="E33" s="75" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F33" s="76"/>
     </row>
@@ -47332,7 +47367,7 @@
       <c r="E34" s="75"/>
       <c r="F34" s="76"/>
       <c r="G34" s="71" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -47355,7 +47390,7 @@
       </c>
       <c r="D36" s="72"/>
       <c r="E36" s="75" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F36" s="76"/>
     </row>
@@ -47367,7 +47402,7 @@
       <c r="C37" s="72"/>
       <c r="D37" s="72"/>
       <c r="E37" s="75" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F37" s="76"/>
     </row>
@@ -47381,7 +47416,7 @@
       </c>
       <c r="D38" s="72"/>
       <c r="E38" s="75" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F38" s="76"/>
     </row>
@@ -47405,7 +47440,7 @@
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="75" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F40" s="76"/>
     </row>
@@ -47419,7 +47454,7 @@
       </c>
       <c r="D41" s="72"/>
       <c r="E41" s="75" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F41" s="76"/>
     </row>
@@ -47433,7 +47468,7 @@
       </c>
       <c r="D42" s="72"/>
       <c r="E42" s="75" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F42" s="76"/>
     </row>
@@ -47445,7 +47480,7 @@
       <c r="C43" s="72"/>
       <c r="D43" s="72"/>
       <c r="E43" s="75" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F43" s="76"/>
     </row>
@@ -47459,7 +47494,7 @@
       </c>
       <c r="D44" s="72"/>
       <c r="E44" s="75" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F44" s="76"/>
     </row>
@@ -47483,7 +47518,7 @@
       </c>
       <c r="D46" s="72"/>
       <c r="E46" s="75" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F46" s="76"/>
     </row>
@@ -47495,7 +47530,7 @@
       <c r="C47" s="72"/>
       <c r="D47" s="72"/>
       <c r="E47" s="75" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F47" s="76"/>
     </row>
@@ -47509,7 +47544,7 @@
       </c>
       <c r="D48" s="72"/>
       <c r="E48" s="75" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F48" s="76"/>
     </row>
@@ -47522,7 +47557,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="72" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E49" s="75"/>
       <c r="F49" s="76"/>
@@ -47537,7 +47572,7 @@
       </c>
       <c r="D50" s="72"/>
       <c r="E50" s="75" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F50" s="76"/>
     </row>
@@ -47614,7 +47649,7 @@
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F2" s="76"/>
     </row>
@@ -47626,7 +47661,7 @@
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="75" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F3" s="76"/>
     </row>
@@ -47650,11 +47685,11 @@
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F5" s="76"/>
       <c r="G5" s="71" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="165">
@@ -47666,14 +47701,14 @@
         <v>4</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F6" s="76"/>
       <c r="G6" s="71" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60">
@@ -47686,7 +47721,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="75" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F7" s="76"/>
     </row>
@@ -47698,7 +47733,7 @@
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -47710,7 +47745,7 @@
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
       <c r="E9" s="75" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F9" s="76"/>
     </row>
@@ -47723,10 +47758,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="72" t="s">
+        <v>840</v>
+      </c>
+      <c r="E10" s="75" t="s">
         <v>841</v>
-      </c>
-      <c r="E10" s="75" t="s">
-        <v>842</v>
       </c>
       <c r="F10" s="76"/>
     </row>
@@ -47740,7 +47775,7 @@
       </c>
       <c r="D11" s="72"/>
       <c r="E11" s="75" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F11" s="76"/>
     </row>
@@ -47752,7 +47787,7 @@
       <c r="C12" s="72"/>
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F12" s="76"/>
     </row>
@@ -47765,14 +47800,14 @@
         <v>4</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E13" s="75" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F13" s="76"/>
       <c r="G13" s="71" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75">
@@ -47785,11 +47820,11 @@
       </c>
       <c r="D14" s="72"/>
       <c r="E14" s="75" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F14" s="76"/>
       <c r="G14" s="71" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="120">
@@ -47802,7 +47837,7 @@
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="75" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F15" s="76"/>
     </row>
@@ -47814,7 +47849,7 @@
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F16" s="76"/>
     </row>
@@ -47828,7 +47863,7 @@
       </c>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F17" s="76"/>
     </row>
@@ -47882,7 +47917,7 @@
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F22" s="76"/>
     </row>
@@ -47905,12 +47940,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="72" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E24" s="75"/>
       <c r="F24" s="76"/>
       <c r="G24" s="71" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45">
@@ -47922,7 +47957,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="72" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E25" s="75"/>
       <c r="F25" s="76"/>
@@ -47935,7 +47970,7 @@
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
       <c r="E26" s="75" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F26" s="76"/>
     </row>
@@ -49065,6 +49100,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -49072,12 +49113,6 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49233,8 +49268,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49876,7 +49911,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -49897,10 +49932,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
@@ -49911,7 +49946,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
@@ -49924,7 +49959,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -49937,7 +49972,7 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -49948,7 +49983,7 @@
       <c r="C8" s="27"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45">
@@ -49959,7 +49994,7 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60">
@@ -49972,10 +50007,10 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -49985,10 +50020,10 @@
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -50085,7 +50120,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -50107,7 +50142,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90">
@@ -50120,7 +50155,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -50142,7 +50177,7 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -50155,7 +50190,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -50185,10 +50220,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
+        <v>680</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>681</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -50206,7 +50241,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50245,10 +50280,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="27" t="s">
+        <v>879</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>880</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
@@ -50261,7 +50296,7 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -50281,7 +50316,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -50311,23 +50346,31 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="45">
       <c r="A9" s="27">
         <v>8</v>
       </c>
       <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="C9" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="D9" s="27"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="4" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75">
       <c r="A10" s="27">
         <v>9</v>
       </c>
       <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="D10" s="27"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>1067</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="45">
       <c r="A11" s="27">
@@ -50339,7 +50382,7 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -50395,7 +50438,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -50406,7 +50449,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -50464,7 +50507,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -50477,7 +50520,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -50490,7 +50533,7 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -50548,7 +50591,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -50561,7 +50604,7 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -50574,7 +50617,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -50587,7 +50630,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
@@ -50600,10 +50643,10 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="F6" s="68" t="s">
         <v>552</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -50616,10 +50659,10 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="120">
@@ -50632,7 +50675,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -50661,7 +50704,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099D8BD8-1268-43B9-A8CB-63CB7A8110B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005E6114-BBE7-404E-B319-280CB85A2E5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="1074">
   <si>
     <t>No</t>
   </si>
@@ -2653,9 +2653,6 @@
 cost of conformance: rework, scrap, warranty work, </t>
   </si>
   <si>
-    <t>cái nào cho phép cách tiếp cận hỗ trợ việc quản lý risk mơ hồ</t>
-  </si>
-  <si>
     <t>ambiguity risk là viêc thiếu hụt (deficit) kiến thức hoặc hiểu sai dẫn đến cần có sự expert external input or bench marking against best practice</t>
   </si>
   <si>
@@ -3369,9 +3366,6 @@
     <t>Note: khi đã nhận được kết quả project charter đã approve thì việc tiếp theo cần phải thông báo cho các stakeholder. Project manager's responsibility to inform all key stakeholser of the approved project charter và ensure common understanding of the key deliverable, milestones, their roles and responsibility</t>
   </si>
   <si>
-    <t>Note: nếu contract có 1 change request bị reject sớm trong process. Bạn có thể có 1 record  như là request changes trong project's correspondence  with the customer in this case</t>
-  </si>
-  <si>
     <t>Contract FFP không nên được sử dụng trừ khi mà  scope of work và specifications được document lại chính xác. Trong trường hợp này có thể sử dụng T&amp;M Contract hoặc cost-plus nếu mà contractor có requested amendments to their contact. Trường hợp mà scope k rõ ràng nhưng lại sử dụng FFP contract thì có thể sẽ dẫn đến disputes and future claims</t>
   </si>
   <si>
@@ -3476,6 +3470,33 @@
   </si>
   <si>
     <t>Chưa làm</t>
+  </si>
+  <si>
+    <t>PMO cần điều chỉnh mục tiêu của dự án theo chiến lược của công ty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: nếu contract có 1 change request bị reject sớm trong process. Bạn có thể có 1 record  như là request changes trong project's correspondence  with the customer in this case </t>
+  </si>
+  <si>
+    <t>work performance report là output của project intergration management process</t>
+  </si>
+  <si>
+    <t>đọc lại nội dung informal và unofficial</t>
+  </si>
+  <si>
+    <t>Vấn đề đọc hiểu tiếng anh.</t>
+  </si>
+  <si>
+    <t>đọc lại discount cash flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cái nào cho phép cách tiếp cận hỗ trợ việc quản lý risk mơ hồ. </t>
+  </si>
+  <si>
+    <t>đọc lại nội dung câu project final report</t>
+  </si>
+  <si>
+    <t>xem lại</t>
   </si>
 </sst>
 </file>
@@ -4814,8 +4835,8 @@
   </sheetPr>
   <dimension ref="A1:AA1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -4846,7 +4867,7 @@
         <v>575</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1" s="60" t="s">
         <v>459</v>
@@ -5902,7 +5923,7 @@
         <v>480</v>
       </c>
       <c r="I26" s="98" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J26" s="56"/>
       <c r="K26" s="56"/>
@@ -6008,7 +6029,7 @@
     </row>
     <row r="29" spans="1:27" ht="15">
       <c r="A29" s="121" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B29" s="122">
         <v>43499</v>
@@ -6157,7 +6178,7 @@
         <v>480</v>
       </c>
       <c r="I32" s="112" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J32" s="56"/>
       <c r="K32" s="56"/>
@@ -6180,7 +6201,7 @@
     </row>
     <row r="33" spans="1:27" ht="15">
       <c r="A33" s="121" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B33" s="122">
         <f>B30+ 1</f>
@@ -6307,7 +6328,7 @@
     </row>
     <row r="36" spans="1:27" ht="15">
       <c r="A36" s="125" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B36" s="122">
         <f>B30 + 10</f>
@@ -6436,7 +6457,7 @@
     </row>
     <row r="39" spans="1:27" ht="15">
       <c r="A39" s="125" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B39" s="122">
         <f t="shared" si="6"/>
@@ -6565,7 +6586,7 @@
     </row>
     <row r="42" spans="1:27" ht="15">
       <c r="A42" s="125" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B42" s="122">
         <f t="shared" si="6"/>
@@ -6692,7 +6713,7 @@
     </row>
     <row r="45" spans="1:27" ht="15">
       <c r="A45" s="125" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B45" s="122">
         <f>B38+ 2</f>
@@ -6817,7 +6838,7 @@
     </row>
     <row r="48" spans="1:27" ht="15">
       <c r="A48" s="125" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B48" s="122">
         <f>B45+1</f>
@@ -6938,7 +6959,7 @@
     </row>
     <row r="51" spans="1:27" ht="15">
       <c r="A51" s="125" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B51" s="122">
         <f>B45 + 2</f>
@@ -6992,7 +7013,7 @@
       </c>
       <c r="E52" s="110"/>
       <c r="F52" s="111" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="G52" s="111"/>
       <c r="H52" s="111"/>
@@ -7059,7 +7080,7 @@
     </row>
     <row r="54" spans="1:27" ht="15">
       <c r="A54" s="125" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B54" s="122">
         <f>B45+3</f>
@@ -7180,7 +7201,7 @@
     </row>
     <row r="57" spans="1:27" ht="15">
       <c r="A57" s="125" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B57" s="122">
         <f t="shared" si="9"/>
@@ -7297,7 +7318,7 @@
     </row>
     <row r="60" spans="1:27" ht="15">
       <c r="A60" s="125" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B60" s="122">
         <f t="shared" si="9"/>
@@ -31659,7 +31680,7 @@
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
       <c r="E2" s="72" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F2" s="27"/>
     </row>
@@ -31671,7 +31692,7 @@
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="72" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F3" s="27"/>
     </row>
@@ -31695,7 +31716,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F5" s="27"/>
     </row>
@@ -31709,7 +31730,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F6" s="27"/>
     </row>
@@ -31721,7 +31742,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="88"/>
@@ -31756,7 +31777,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F10" s="89"/>
       <c r="G10" s="88"/>
@@ -31834,7 +31855,7 @@
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F2" s="68" t="s">
         <v>515</v>
@@ -31866,7 +31887,7 @@
         <v>518</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>515</v>
@@ -31879,14 +31900,14 @@
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
       <c r="D5" s="72" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E5" s="75" t="e">
         <f>- It must be noted that the car has been built, and the Control Quality and Validate Scope processes have been performed for every deliverable. the question is asking about PRODUCT delivery, which occurs during the closing process</f>
         <v>#NAME?</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -31926,7 +31947,7 @@
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F8" s="81" t="s">
         <v>523</v>
@@ -31998,7 +32019,7 @@
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="75" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F13" s="81"/>
     </row>
@@ -32082,7 +32103,7 @@
       </c>
       <c r="D19" s="72"/>
       <c r="E19" s="75" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F19" s="82" t="s">
         <v>536</v>
@@ -32112,10 +32133,10 @@
         <v>538</v>
       </c>
       <c r="E21" s="75" t="s">
+        <v>909</v>
+      </c>
+      <c r="F21" s="68" t="s">
         <v>910</v>
-      </c>
-      <c r="F21" s="68" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -32140,7 +32161,7 @@
       <c r="C23" s="72"/>
       <c r="D23" s="72"/>
       <c r="E23" s="75" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -32151,7 +32172,7 @@
       <c r="C24" s="72"/>
       <c r="D24" s="72"/>
       <c r="E24" s="75" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -32171,7 +32192,7 @@
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
       <c r="E26" s="75" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -32201,7 +32222,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="72" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E29" s="75"/>
     </row>
@@ -32233,7 +32254,7 @@
       </c>
       <c r="D32" s="72"/>
       <c r="E32" s="75" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -32263,10 +32284,10 @@
         <v>4</v>
       </c>
       <c r="D35" s="72" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E35" s="72" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -32279,7 +32300,7 @@
       </c>
       <c r="D36" s="72"/>
       <c r="E36" s="75" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -32290,7 +32311,7 @@
       <c r="C37" s="72"/>
       <c r="D37" s="72"/>
       <c r="E37" s="75" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -32303,7 +32324,7 @@
       </c>
       <c r="D38" s="72"/>
       <c r="E38" s="75" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -32315,7 +32336,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="72" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E39" s="75"/>
     </row>
@@ -32337,7 +32358,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="72" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E41" s="75"/>
     </row>
@@ -32350,7 +32371,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="72" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E42" s="75"/>
     </row>
@@ -32363,7 +32384,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="72" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E43" s="75"/>
     </row>
@@ -32403,7 +32424,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="72" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E47" s="75"/>
     </row>
@@ -33079,8 +33100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD440D0-468F-462B-9532-3FA36BB45DDC}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D44" activeCellId="1" sqref="E46 D44"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33151,7 +33172,7 @@
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="75">
@@ -33164,7 +33185,7 @@
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="75" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45">
@@ -33175,7 +33196,7 @@
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
       <c r="E7" s="75" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G7" s="77"/>
     </row>
@@ -33198,7 +33219,7 @@
       </c>
       <c r="D9" s="72"/>
       <c r="E9" s="75" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -33228,7 +33249,7 @@
       <c r="C12" s="72"/>
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -33250,7 +33271,7 @@
       </c>
       <c r="D14" s="71"/>
       <c r="E14" s="75" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -33270,7 +33291,7 @@
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="105">
@@ -33283,7 +33304,7 @@
       </c>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -33295,14 +33316,16 @@
       <c r="D18" s="72"/>
       <c r="E18" s="75"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" s="72">
         <v>18</v>
       </c>
       <c r="B19" s="72"/>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
-      <c r="E19" s="75"/>
+      <c r="E19" s="75" t="s">
+        <v>1065</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="72">
@@ -33321,9 +33344,11 @@
       <c r="C21" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="72"/>
+      <c r="D21" s="72" t="s">
+        <v>76</v>
+      </c>
       <c r="E21" s="75" t="s">
-        <v>1031</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -33354,7 +33379,7 @@
       </c>
       <c r="D24" s="72"/>
       <c r="E24" s="75" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45">
@@ -33367,7 +33392,7 @@
       </c>
       <c r="D25" s="72"/>
       <c r="E25" s="75" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="60">
@@ -33378,9 +33403,11 @@
       <c r="C26" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="72"/>
+      <c r="D26" s="72" t="s">
+        <v>1067</v>
+      </c>
       <c r="E26" s="75" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45">
@@ -33391,7 +33418,7 @@
       <c r="C27" s="72"/>
       <c r="D27" s="72"/>
       <c r="E27" s="75" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="45">
@@ -33402,7 +33429,7 @@
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
       <c r="E28" s="75" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -33422,7 +33449,7 @@
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
       <c r="E30" s="75" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -33471,7 +33498,7 @@
       </c>
       <c r="D35" s="72"/>
       <c r="E35" s="75" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="45">
@@ -33484,7 +33511,7 @@
       </c>
       <c r="D36" s="72"/>
       <c r="E36" s="75" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30">
@@ -33495,9 +33522,11 @@
       <c r="C37" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="72"/>
+      <c r="D37" s="72" t="s">
+        <v>1068</v>
+      </c>
       <c r="E37" s="75" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="60">
@@ -33510,7 +33539,7 @@
       </c>
       <c r="D38" s="72"/>
       <c r="E38" s="75" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="120">
@@ -33523,7 +33552,7 @@
       </c>
       <c r="D39" s="72"/>
       <c r="E39" s="75" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30">
@@ -33534,9 +33563,11 @@
       <c r="C40" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="72"/>
+      <c r="D40" s="72" t="s">
+        <v>1069</v>
+      </c>
       <c r="E40" s="75" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -33558,7 +33589,7 @@
       </c>
       <c r="D42" s="72"/>
       <c r="E42" s="75" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="105">
@@ -33569,9 +33600,11 @@
       <c r="C43" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="72"/>
+      <c r="D43" s="72" t="s">
+        <v>1070</v>
+      </c>
       <c r="E43" s="75" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -33613,7 +33646,7 @@
       </c>
       <c r="D47" s="72"/>
       <c r="E47" s="75" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="45">
@@ -33626,7 +33659,7 @@
       </c>
       <c r="D48" s="72"/>
       <c r="E48" s="75" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="105">
@@ -33638,10 +33671,10 @@
         <v>4</v>
       </c>
       <c r="D49" s="72" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E49" s="75" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="60">
@@ -33654,7 +33687,7 @@
       </c>
       <c r="D50" s="72"/>
       <c r="E50" s="75" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="120">
@@ -33666,10 +33699,10 @@
         <v>4</v>
       </c>
       <c r="D51" s="72" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E51" s="75" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
   </sheetData>
@@ -35585,7 +35618,7 @@
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F2" s="76"/>
     </row>
@@ -35599,7 +35632,7 @@
       </c>
       <c r="D3" s="72"/>
       <c r="E3" s="75" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F3" s="76"/>
     </row>
@@ -35621,7 +35654,7 @@
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F5" s="76"/>
     </row>
@@ -35633,7 +35666,7 @@
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
       <c r="E6" s="75" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F6" s="76"/>
     </row>
@@ -35646,10 +35679,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="72" t="s">
+        <v>948</v>
+      </c>
+      <c r="E7" s="75" t="s">
         <v>949</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>950</v>
       </c>
       <c r="F7" s="76"/>
       <c r="G7" s="77"/>
@@ -35664,7 +35697,7 @@
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -35676,7 +35709,7 @@
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
       <c r="E9" s="75" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F9" s="76"/>
     </row>
@@ -35711,10 +35744,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="72" t="s">
+        <v>952</v>
+      </c>
+      <c r="E12" s="75" t="s">
         <v>953</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>954</v>
       </c>
       <c r="F12" s="76"/>
     </row>
@@ -35778,7 +35811,7 @@
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="75" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F18" s="76"/>
     </row>
@@ -35812,7 +35845,7 @@
       </c>
       <c r="D21" s="72"/>
       <c r="E21" s="75" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F21" s="76"/>
     </row>
@@ -35846,7 +35879,7 @@
       </c>
       <c r="D24" s="72"/>
       <c r="E24" s="75" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F24" s="76"/>
     </row>
@@ -35857,7 +35890,7 @@
       <c r="B25" s="72"/>
       <c r="C25" s="72"/>
       <c r="D25" s="72" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E25" s="75"/>
       <c r="F25" s="76"/>
@@ -35880,7 +35913,7 @@
       <c r="C27" s="72"/>
       <c r="D27" s="72"/>
       <c r="E27" s="75" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F27" s="76"/>
     </row>
@@ -35894,7 +35927,7 @@
       </c>
       <c r="D28" s="72"/>
       <c r="E28" s="75" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F28" s="76"/>
     </row>
@@ -35908,7 +35941,7 @@
       </c>
       <c r="D29" s="72"/>
       <c r="E29" s="75" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F29" s="76"/>
     </row>
@@ -35920,7 +35953,7 @@
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
       <c r="E30" s="75" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F30" s="76"/>
     </row>
@@ -35944,7 +35977,7 @@
       </c>
       <c r="D32" s="72"/>
       <c r="E32" s="75" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F32" s="76"/>
     </row>
@@ -35956,7 +35989,7 @@
       <c r="C33" s="72"/>
       <c r="D33" s="72"/>
       <c r="E33" s="75" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F33" s="76"/>
     </row>
@@ -35970,7 +36003,7 @@
       </c>
       <c r="D34" s="72"/>
       <c r="E34" s="75" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F34" s="76"/>
     </row>
@@ -35994,7 +36027,7 @@
       </c>
       <c r="D36" s="72"/>
       <c r="E36" s="75" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F36" s="76"/>
     </row>
@@ -36038,7 +36071,7 @@
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="75" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F40" s="76"/>
     </row>
@@ -36051,7 +36084,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="72" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E41" s="75"/>
       <c r="F41" s="76"/>
@@ -36066,7 +36099,7 @@
       </c>
       <c r="D42" s="72"/>
       <c r="E42" s="75" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F42" s="76"/>
     </row>
@@ -36080,7 +36113,7 @@
       </c>
       <c r="D43" s="72"/>
       <c r="E43" s="75" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F43" s="76"/>
     </row>
@@ -36094,7 +36127,7 @@
       </c>
       <c r="D44" s="72"/>
       <c r="E44" s="75" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F44" s="76"/>
     </row>
@@ -36108,7 +36141,7 @@
       </c>
       <c r="D45" s="72"/>
       <c r="E45" s="75" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F45" s="76"/>
     </row>
@@ -36141,7 +36174,7 @@
       </c>
       <c r="D48" s="72"/>
       <c r="E48" s="75" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F48" s="76"/>
     </row>
@@ -36155,7 +36188,7 @@
       </c>
       <c r="D49" s="72"/>
       <c r="E49" s="75" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F49" s="76"/>
     </row>
@@ -36169,7 +36202,7 @@
       </c>
       <c r="D50" s="72"/>
       <c r="E50" s="75" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F50" s="76"/>
     </row>
@@ -36183,7 +36216,7 @@
       </c>
       <c r="D51" s="72"/>
       <c r="E51" s="75" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F51" s="76"/>
     </row>
@@ -36248,7 +36281,7 @@
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F2" s="76"/>
     </row>
@@ -36272,7 +36305,7 @@
       </c>
       <c r="D4" s="72"/>
       <c r="E4" s="75" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F4" s="76"/>
     </row>
@@ -36296,7 +36329,7 @@
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="75" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F6" s="76"/>
     </row>
@@ -36310,7 +36343,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="75" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F7" s="76"/>
       <c r="G7" s="77"/>
@@ -36325,7 +36358,7 @@
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -36391,7 +36424,7 @@
       </c>
       <c r="D14" s="71"/>
       <c r="E14" s="75" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F14" s="76"/>
     </row>
@@ -36413,7 +36446,7 @@
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F16" s="76"/>
     </row>
@@ -36425,7 +36458,7 @@
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F17" s="76"/>
     </row>
@@ -36437,7 +36470,7 @@
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
       <c r="E18" s="75" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F18" s="76"/>
     </row>
@@ -36449,7 +36482,7 @@
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
       <c r="E19" s="75" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F19" s="76"/>
     </row>
@@ -36471,7 +36504,7 @@
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
       <c r="E21" s="75" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F21" s="76"/>
     </row>
@@ -36483,7 +36516,7 @@
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F22" s="76"/>
     </row>
@@ -36497,7 +36530,7 @@
       </c>
       <c r="D23" s="72"/>
       <c r="E23" s="75" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F23" s="76"/>
     </row>
@@ -36511,7 +36544,7 @@
       </c>
       <c r="D24" s="72"/>
       <c r="E24" s="75" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F24" s="76"/>
     </row>
@@ -36535,7 +36568,7 @@
       </c>
       <c r="D26" s="72"/>
       <c r="E26" s="75" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F26" s="76"/>
     </row>
@@ -36549,7 +36582,7 @@
       </c>
       <c r="D27" s="72"/>
       <c r="E27" s="75" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F27" s="76"/>
     </row>
@@ -36573,7 +36606,7 @@
       </c>
       <c r="D29" s="72"/>
       <c r="E29" s="75" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F29" s="76"/>
     </row>
@@ -36587,7 +36620,7 @@
       </c>
       <c r="D30" s="72"/>
       <c r="E30" s="75" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F30" s="76"/>
     </row>
@@ -36611,7 +36644,7 @@
       </c>
       <c r="D32" s="72"/>
       <c r="E32" s="75" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F32" s="76"/>
     </row>
@@ -36637,7 +36670,7 @@
       </c>
       <c r="D34" s="72"/>
       <c r="E34" s="75" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F34" s="76"/>
     </row>
@@ -36671,7 +36704,7 @@
       </c>
       <c r="D37" s="72"/>
       <c r="E37" s="75" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F37" s="76"/>
     </row>
@@ -36692,10 +36725,10 @@
       <c r="B39" s="72"/>
       <c r="C39" s="72"/>
       <c r="D39" s="72" t="s">
+        <v>934</v>
+      </c>
+      <c r="E39" s="75" t="s">
         <v>935</v>
-      </c>
-      <c r="E39" s="75" t="s">
-        <v>936</v>
       </c>
       <c r="F39" s="76"/>
     </row>
@@ -36709,7 +36742,7 @@
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="75" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F40" s="76"/>
     </row>
@@ -36723,7 +36756,7 @@
       </c>
       <c r="D41" s="72"/>
       <c r="E41" s="75" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F41" s="76"/>
     </row>
@@ -36735,7 +36768,7 @@
       <c r="C42" s="72"/>
       <c r="D42" s="72"/>
       <c r="E42" s="75" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F42" s="76"/>
     </row>
@@ -36769,7 +36802,7 @@
       </c>
       <c r="D45" s="72"/>
       <c r="E45" s="75" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F45" s="76"/>
     </row>
@@ -36783,7 +36816,7 @@
       </c>
       <c r="D46" s="72"/>
       <c r="E46" s="75" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F46" s="76"/>
     </row>
@@ -36804,7 +36837,7 @@
       <c r="C48" s="72"/>
       <c r="D48" s="72"/>
       <c r="E48" s="75" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F48" s="76"/>
     </row>
@@ -36818,7 +36851,7 @@
       </c>
       <c r="D49" s="72"/>
       <c r="E49" s="75" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F49" s="76"/>
     </row>
@@ -36830,7 +36863,7 @@
       <c r="C50" s="72"/>
       <c r="D50" s="72"/>
       <c r="E50" s="75" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F50" s="76"/>
     </row>
@@ -37423,7 +37456,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03EE777-7A71-4ABF-B428-9DD9FC79554D}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -37724,10 +37759,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="72" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E21" s="75" t="s">
         <v>797</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -37756,7 +37791,7 @@
       <c r="C24" s="72"/>
       <c r="D24" s="72"/>
       <c r="E24" s="75" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30">
@@ -37769,7 +37804,7 @@
       </c>
       <c r="D25" s="72"/>
       <c r="E25" s="75" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45">
@@ -37782,10 +37817,10 @@
       </c>
       <c r="D26" s="72"/>
       <c r="E26" s="75" t="s">
+        <v>800</v>
+      </c>
+      <c r="F26" s="68" t="s">
         <v>801</v>
-      </c>
-      <c r="F26" s="68" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="75">
@@ -37796,9 +37831,11 @@
       <c r="C27" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="72"/>
+      <c r="D27" s="72" t="s">
+        <v>1072</v>
+      </c>
       <c r="E27" s="75" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="45">
@@ -37809,7 +37846,7 @@
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
       <c r="E28" s="75" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
@@ -37822,7 +37859,7 @@
       </c>
       <c r="D29" s="72"/>
       <c r="E29" s="75" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -37844,10 +37881,10 @@
       </c>
       <c r="D31" s="72"/>
       <c r="E31" s="75" t="s">
+        <v>805</v>
+      </c>
+      <c r="F31" s="68" t="s">
         <v>806</v>
-      </c>
-      <c r="F31" s="68" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="90">
@@ -37860,7 +37897,7 @@
       </c>
       <c r="D32" s="72"/>
       <c r="E32" s="75" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F32" s="68" t="s">
         <v>554</v>
@@ -37874,7 +37911,7 @@
       <c r="C33" s="72"/>
       <c r="D33" s="72"/>
       <c r="E33" s="75" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="60">
@@ -37885,7 +37922,7 @@
       <c r="C34" s="72"/>
       <c r="D34" s="72"/>
       <c r="E34" s="75" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -37898,7 +37935,7 @@
       </c>
       <c r="D35" s="72"/>
       <c r="E35" s="75" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -37916,7 +37953,9 @@
       </c>
       <c r="B37" s="72"/>
       <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
+      <c r="D37" s="72" t="s">
+        <v>1073</v>
+      </c>
       <c r="E37" s="75"/>
     </row>
     <row r="38" spans="1:6" ht="45">
@@ -37927,10 +37966,10 @@
       <c r="C38" s="72"/>
       <c r="D38" s="72"/>
       <c r="E38" s="75" t="s">
+        <v>811</v>
+      </c>
+      <c r="F38" s="68" t="s">
         <v>812</v>
-      </c>
-      <c r="F38" s="68" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45">
@@ -37943,7 +37982,7 @@
       </c>
       <c r="D39" s="72"/>
       <c r="E39" s="75" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -37965,7 +38004,7 @@
       </c>
       <c r="D41" s="72"/>
       <c r="E41" s="75" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -37987,10 +38026,10 @@
       </c>
       <c r="D43" s="72"/>
       <c r="E43" s="75" t="s">
+        <v>815</v>
+      </c>
+      <c r="F43" s="68" t="s">
         <v>816</v>
-      </c>
-      <c r="F43" s="68" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -38011,10 +38050,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="72" t="s">
+        <v>817</v>
+      </c>
+      <c r="E45" s="75" t="s">
         <v>818</v>
-      </c>
-      <c r="E45" s="75" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="45">
@@ -38025,7 +38064,7 @@
       <c r="C46" s="72"/>
       <c r="D46" s="72"/>
       <c r="E46" s="75" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="75">
@@ -38036,7 +38075,7 @@
       <c r="C47" s="72"/>
       <c r="D47" s="72"/>
       <c r="E47" s="75" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30">
@@ -38047,7 +38086,7 @@
       <c r="C48" s="72"/>
       <c r="D48" s="72"/>
       <c r="E48" s="75" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -40039,7 +40078,7 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
@@ -40052,7 +40091,7 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -40090,7 +40129,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="90">
@@ -40101,7 +40140,7 @@
       <c r="C8" s="27"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="105">
@@ -40112,7 +40151,7 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="105">
@@ -40123,7 +40162,7 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="150">
@@ -40134,7 +40173,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -40190,7 +40229,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -40219,7 +40258,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -40239,7 +40278,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -40277,7 +40316,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -41851,7 +41890,7 @@
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F5" s="76"/>
     </row>
@@ -41875,7 +41914,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="71" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F7" s="76"/>
     </row>
@@ -41887,7 +41926,7 @@
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -41921,7 +41960,7 @@
       </c>
       <c r="D11" s="72"/>
       <c r="E11" s="75" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F11" s="76"/>
     </row>
@@ -41933,7 +41972,7 @@
       <c r="C12" s="72"/>
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F12" s="76"/>
     </row>
@@ -41947,7 +41986,7 @@
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="75" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F13" s="76"/>
     </row>
@@ -41970,7 +42009,7 @@
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="72" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F15" s="76"/>
     </row>
@@ -41982,7 +42021,7 @@
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F16" s="76"/>
     </row>
@@ -42016,7 +42055,7 @@
       </c>
       <c r="D19" s="72"/>
       <c r="E19" s="75" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F19" s="76"/>
     </row>
@@ -42028,7 +42067,7 @@
       <c r="C20" s="72"/>
       <c r="D20" s="72"/>
       <c r="E20" s="75" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F20" s="76"/>
     </row>
@@ -42040,7 +42079,7 @@
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
       <c r="E21" s="75" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F21" s="76"/>
     </row>
@@ -42054,7 +42093,7 @@
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F22" s="76"/>
     </row>
@@ -42066,7 +42105,7 @@
       <c r="C23" s="72"/>
       <c r="D23" s="72"/>
       <c r="E23" s="75" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F23" s="76"/>
     </row>
@@ -42165,7 +42204,7 @@
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F2" s="76"/>
     </row>
@@ -42177,7 +42216,7 @@
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="75" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F3" s="76"/>
     </row>
@@ -42189,7 +42228,7 @@
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
       <c r="E4" s="75" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F4" s="76"/>
     </row>
@@ -42201,7 +42240,7 @@
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F5" s="76"/>
     </row>
@@ -42225,7 +42264,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="71" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F7" s="76"/>
     </row>
@@ -42237,7 +42276,7 @@
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -42261,7 +42300,7 @@
       </c>
       <c r="D10" s="72"/>
       <c r="E10" s="75" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F10" s="76"/>
     </row>
@@ -42285,7 +42324,7 @@
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F12" s="76"/>
     </row>
@@ -42297,7 +42336,7 @@
       <c r="C13" s="72"/>
       <c r="D13" s="72"/>
       <c r="E13" s="75" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F13" s="76"/>
     </row>
@@ -42308,7 +42347,7 @@
       <c r="B14" s="72"/>
       <c r="C14" s="72"/>
       <c r="E14" s="72" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F14" s="76"/>
     </row>
@@ -42322,7 +42361,7 @@
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F15" s="76"/>
     </row>
@@ -42365,10 +42404,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E19" s="75" t="s">
         <v>1019</v>
-      </c>
-      <c r="E19" s="75" t="s">
-        <v>1020</v>
       </c>
       <c r="F19" s="76"/>
     </row>
@@ -42382,7 +42421,7 @@
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="75" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F20" s="76"/>
     </row>
@@ -42416,7 +42455,7 @@
       </c>
       <c r="D23" s="72"/>
       <c r="E23" s="75" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F23" s="76"/>
     </row>
@@ -42904,7 +42943,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="90">
@@ -42915,7 +42954,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -42953,7 +42992,7 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -42973,7 +43012,7 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -42993,7 +43032,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -46132,10 +46171,10 @@
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E3" s="75" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F3" s="76"/>
     </row>
@@ -46177,7 +46216,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="75" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F7" s="76"/>
     </row>
@@ -46189,7 +46228,7 @@
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -46201,7 +46240,7 @@
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
       <c r="E9" s="75" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F9" s="76"/>
     </row>
@@ -46225,7 +46264,7 @@
       </c>
       <c r="D11" s="72"/>
       <c r="E11" s="75" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F11" s="76"/>
     </row>
@@ -46239,7 +46278,7 @@
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F12" s="76"/>
     </row>
@@ -46282,7 +46321,7 @@
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F16" s="76"/>
     </row>
@@ -46294,7 +46333,7 @@
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F17" s="76"/>
     </row>
@@ -46308,7 +46347,7 @@
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="75" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F18" s="76"/>
     </row>
@@ -46332,7 +46371,7 @@
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="75" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F20" s="76"/>
     </row>
@@ -46346,7 +46385,7 @@
       </c>
       <c r="D21" s="72"/>
       <c r="E21" s="75" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F21" s="76"/>
     </row>
@@ -46360,7 +46399,7 @@
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F22" s="76"/>
     </row>
@@ -46394,7 +46433,7 @@
       </c>
       <c r="D25" s="72"/>
       <c r="E25" s="75" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F25" s="76"/>
     </row>
@@ -46408,7 +46447,7 @@
       </c>
       <c r="D26" s="72"/>
       <c r="E26" s="75" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F26" s="76"/>
     </row>
@@ -46420,7 +46459,7 @@
       <c r="C27" s="72"/>
       <c r="D27" s="72"/>
       <c r="E27" s="75" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F27" s="76"/>
     </row>
@@ -46432,7 +46471,7 @@
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
       <c r="E28" s="75" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F28" s="76"/>
     </row>
@@ -46446,7 +46485,7 @@
       </c>
       <c r="D29" s="72"/>
       <c r="E29" s="75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F29" s="76"/>
     </row>
@@ -46468,7 +46507,7 @@
       <c r="C31" s="72"/>
       <c r="D31" s="72"/>
       <c r="E31" s="75" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F31" s="76"/>
     </row>
@@ -46482,7 +46521,7 @@
       </c>
       <c r="D32" s="72"/>
       <c r="E32" s="75" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F32" s="76"/>
     </row>
@@ -46545,7 +46584,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="72" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E38" s="75"/>
       <c r="F38" s="76"/>
@@ -46560,7 +46599,7 @@
       </c>
       <c r="D39" s="72"/>
       <c r="E39" s="75" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F39" s="76"/>
     </row>
@@ -46574,7 +46613,7 @@
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="75" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F40" s="76"/>
     </row>
@@ -46588,7 +46627,7 @@
       </c>
       <c r="D41" s="72"/>
       <c r="E41" s="75" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F41" s="76"/>
     </row>
@@ -46610,7 +46649,7 @@
       <c r="C43" s="72"/>
       <c r="D43" s="72"/>
       <c r="E43" s="75" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F43" s="76"/>
     </row>
@@ -46622,7 +46661,7 @@
       <c r="C44" s="72"/>
       <c r="D44" s="72"/>
       <c r="E44" s="75" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F44" s="76"/>
     </row>
@@ -46634,7 +46673,7 @@
       <c r="C45" s="72"/>
       <c r="D45" s="72"/>
       <c r="E45" s="75" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F45" s="76"/>
     </row>
@@ -46668,7 +46707,7 @@
       </c>
       <c r="D48" s="72"/>
       <c r="E48" s="75" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F48" s="76"/>
     </row>
@@ -46680,7 +46719,7 @@
       <c r="C49" s="72"/>
       <c r="D49" s="72"/>
       <c r="E49" s="75" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F49" s="76"/>
     </row>
@@ -46692,7 +46731,7 @@
       <c r="C50" s="72"/>
       <c r="D50" s="72"/>
       <c r="E50" s="75" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F50" s="76"/>
     </row>
@@ -46704,7 +46743,7 @@
       <c r="C51" s="72"/>
       <c r="D51" s="72"/>
       <c r="E51" s="75" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F51" s="76"/>
     </row>
@@ -46768,7 +46807,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
@@ -46779,7 +46818,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
@@ -46790,7 +46829,7 @@
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="120">
@@ -46803,7 +46842,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
@@ -46816,7 +46855,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
@@ -46829,7 +46868,7 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
@@ -46840,7 +46879,7 @@
       <c r="C8" s="27"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45">
@@ -46853,7 +46892,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="75">
@@ -46866,7 +46905,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
@@ -46877,7 +46916,7 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -47615,7 +47654,7 @@
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
       <c r="E2" s="75" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F2" s="76"/>
     </row>
@@ -47627,7 +47666,7 @@
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="75" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F3" s="76"/>
     </row>
@@ -47651,11 +47690,11 @@
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="75" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F5" s="76"/>
       <c r="G5" s="71" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="165">
@@ -47670,7 +47709,7 @@
         <v>688</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F6" s="76"/>
       <c r="G6" s="71" t="s">
@@ -47687,7 +47726,7 @@
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="75" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F7" s="76"/>
     </row>
@@ -47699,7 +47738,7 @@
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
       <c r="E8" s="75" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F8" s="76"/>
     </row>
@@ -47711,7 +47750,7 @@
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
       <c r="E9" s="75" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F9" s="76"/>
     </row>
@@ -47724,10 +47763,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="72" t="s">
+        <v>840</v>
+      </c>
+      <c r="E10" s="75" t="s">
         <v>841</v>
-      </c>
-      <c r="E10" s="75" t="s">
-        <v>842</v>
       </c>
       <c r="F10" s="76"/>
     </row>
@@ -47741,7 +47780,7 @@
       </c>
       <c r="D11" s="72"/>
       <c r="E11" s="75" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F11" s="76"/>
     </row>
@@ -47753,7 +47792,7 @@
       <c r="C12" s="72"/>
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F12" s="76"/>
     </row>
@@ -47766,14 +47805,14 @@
         <v>4</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E13" s="75" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F13" s="76"/>
       <c r="G13" s="71" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75">
@@ -47786,7 +47825,7 @@
       </c>
       <c r="D14" s="72"/>
       <c r="E14" s="75" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F14" s="76"/>
       <c r="G14" s="71" t="s">
@@ -47803,7 +47842,7 @@
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="75" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F15" s="76"/>
     </row>
@@ -47815,7 +47854,7 @@
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="75" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F16" s="76"/>
     </row>
@@ -47829,7 +47868,7 @@
       </c>
       <c r="D17" s="72"/>
       <c r="E17" s="75" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F17" s="76"/>
     </row>
@@ -47883,7 +47922,7 @@
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="75" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F22" s="76"/>
     </row>
@@ -47906,12 +47945,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="72" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E24" s="75"/>
       <c r="F24" s="76"/>
       <c r="G24" s="71" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45">
@@ -47923,7 +47962,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="72" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E25" s="75"/>
       <c r="F25" s="76"/>
@@ -47936,7 +47975,7 @@
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
       <c r="E26" s="75" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F26" s="76"/>
     </row>
@@ -49064,6 +49103,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -49071,12 +49116,6 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -50242,10 +50281,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="27" t="s">
+        <v>879</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>880</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
@@ -50258,7 +50297,7 @@
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -50278,7 +50317,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -50336,7 +50375,7 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005E6114-BBE7-404E-B319-280CB85A2E5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF538CC-2839-456C-A026-F013D2C5D761}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="1075">
   <si>
     <t>No</t>
   </si>
@@ -3497,6 +3497,9 @@
   </si>
   <si>
     <t>xem lại</t>
+  </si>
+  <si>
+    <t>Chưa review</t>
   </si>
 </sst>
 </file>
@@ -4835,8 +4838,8 @@
   </sheetPr>
   <dimension ref="A1:AA1017"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -6255,7 +6258,7 @@
       </c>
       <c r="E34" s="110"/>
       <c r="F34" s="111" t="s">
-        <v>574</v>
+        <v>1074</v>
       </c>
       <c r="G34" s="111"/>
       <c r="H34" s="111" t="s">
@@ -37456,7 +37459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03EE777-7A71-4ABF-B428-9DD9FC79554D}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -49103,12 +49106,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -49116,6 +49113,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
+++ b/10_Management/Exam_PMP_TangToc_07032019 - TrungLV_Updated.xlsx
@@ -1,70 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490AB5D2-CE5F-4B86-98E9-5453A2FD5704}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA587693-7C95-4473-B7EB-975233E4F896}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
-    <sheet name="Mock Exam 3" sheetId="33" r:id="rId2"/>
-    <sheet name="Closing 2" sheetId="35" r:id="rId3"/>
-    <sheet name="Closing 5" sheetId="43" r:id="rId4"/>
-    <sheet name="Closing 4" sheetId="39" r:id="rId5"/>
-    <sheet name="Closing 3" sheetId="32" r:id="rId6"/>
-    <sheet name="Framework" sheetId="51" r:id="rId7"/>
-    <sheet name="Quality" sheetId="31" r:id="rId8"/>
-    <sheet name="Resource" sheetId="30" r:id="rId9"/>
-    <sheet name="Monitoring 11" sheetId="45" r:id="rId10"/>
-    <sheet name="Mock Exam 10" sheetId="27" r:id="rId11"/>
-    <sheet name="Mock Exam 2" sheetId="38" r:id="rId12"/>
-    <sheet name="Mock Exam 4" sheetId="55" r:id="rId13"/>
-    <sheet name="Mock Exam 1" sheetId="25" r:id="rId14"/>
-    <sheet name="Planning 2" sheetId="40" r:id="rId15"/>
-    <sheet name="Planning 4" sheetId="24" r:id="rId16"/>
-    <sheet name="monitoring 5" sheetId="52" r:id="rId17"/>
-    <sheet name="monitoring 4" sheetId="37" r:id="rId18"/>
-    <sheet name="monitoring 1" sheetId="46" r:id="rId19"/>
-    <sheet name="monitoring 2" sheetId="41" r:id="rId20"/>
-    <sheet name="monitoring 3" sheetId="23" r:id="rId21"/>
-    <sheet name="Stakeholder" sheetId="1" r:id="rId22"/>
-    <sheet name="Communication" sheetId="29" r:id="rId23"/>
-    <sheet name="Intergrated" sheetId="47" r:id="rId24"/>
-    <sheet name="Cost" sheetId="48" r:id="rId25"/>
-    <sheet name="Risk" sheetId="28" r:id="rId26"/>
-    <sheet name="Procurement" sheetId="2" r:id="rId27"/>
-    <sheet name="Closing 1" sheetId="20" r:id="rId28"/>
-    <sheet name="Initiating 2" sheetId="34" r:id="rId29"/>
-    <sheet name="Initiating 3" sheetId="42" r:id="rId30"/>
-    <sheet name="Initiating 5" sheetId="56" r:id="rId31"/>
-    <sheet name="Initiating 4" sheetId="54" r:id="rId32"/>
-    <sheet name="Initiating 1" sheetId="7" r:id="rId33"/>
-    <sheet name="Scope" sheetId="10" r:id="rId34"/>
-    <sheet name="Planning5" sheetId="3" r:id="rId35"/>
-    <sheet name="Planning1" sheetId="11" r:id="rId36"/>
-    <sheet name="Planning3" sheetId="16" r:id="rId37"/>
-    <sheet name="Executing1" sheetId="15" r:id="rId38"/>
-    <sheet name="Executing 4" sheetId="53" r:id="rId39"/>
-    <sheet name="Executing 3" sheetId="36" r:id="rId40"/>
-    <sheet name="Executing 8" sheetId="44" r:id="rId41"/>
-    <sheet name="Executing 2" sheetId="17" r:id="rId42"/>
-    <sheet name="Domain-Initiating" sheetId="18" r:id="rId43"/>
-    <sheet name="Domain-Planning" sheetId="12" r:id="rId44"/>
-    <sheet name="Domain-Executing" sheetId="13" r:id="rId45"/>
-    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId46"/>
-    <sheet name="Domain-Closing" sheetId="19" r:id="rId47"/>
-    <sheet name="Executing" sheetId="4" r:id="rId48"/>
-    <sheet name="Monitoring" sheetId="5" r:id="rId49"/>
-    <sheet name="Closing" sheetId="6" r:id="rId50"/>
-    <sheet name="Mock" sheetId="8" r:id="rId51"/>
-    <sheet name="Full Test 4" sheetId="9" r:id="rId52"/>
+    <sheet name="Mock Exam 5" sheetId="57" r:id="rId2"/>
+    <sheet name="Mock Exam 3" sheetId="33" r:id="rId3"/>
+    <sheet name="Closing 2" sheetId="35" r:id="rId4"/>
+    <sheet name="Closing 5" sheetId="43" r:id="rId5"/>
+    <sheet name="Closing 4" sheetId="39" r:id="rId6"/>
+    <sheet name="Closing 3" sheetId="32" r:id="rId7"/>
+    <sheet name="Framework" sheetId="51" r:id="rId8"/>
+    <sheet name="Quality" sheetId="31" r:id="rId9"/>
+    <sheet name="Resource" sheetId="30" r:id="rId10"/>
+    <sheet name="Monitoring 11" sheetId="45" r:id="rId11"/>
+    <sheet name="Mock Exam 10" sheetId="27" r:id="rId12"/>
+    <sheet name="Mock Exam 2" sheetId="38" r:id="rId13"/>
+    <sheet name="Mock Exam 4" sheetId="55" r:id="rId14"/>
+    <sheet name="Mock Exam 1" sheetId="25" r:id="rId15"/>
+    <sheet name="Planning 2" sheetId="40" r:id="rId16"/>
+    <sheet name="Planning 4" sheetId="24" r:id="rId17"/>
+    <sheet name="monitoring 5" sheetId="52" r:id="rId18"/>
+    <sheet name="monitoring 4" sheetId="37" r:id="rId19"/>
+    <sheet name="monitoring 1" sheetId="46" r:id="rId20"/>
+    <sheet name="monitoring 2" sheetId="41" r:id="rId21"/>
+    <sheet name="monitoring 3" sheetId="23" r:id="rId22"/>
+    <sheet name="Stakeholder" sheetId="1" r:id="rId23"/>
+    <sheet name="Communication" sheetId="29" r:id="rId24"/>
+    <sheet name="Intergrated" sheetId="47" r:id="rId25"/>
+    <sheet name="Cost" sheetId="48" r:id="rId26"/>
+    <sheet name="Risk" sheetId="28" r:id="rId27"/>
+    <sheet name="Procurement" sheetId="2" r:id="rId28"/>
+    <sheet name="Closing 1" sheetId="20" r:id="rId29"/>
+    <sheet name="Initiating 2" sheetId="34" r:id="rId30"/>
+    <sheet name="Initiating 3" sheetId="42" r:id="rId31"/>
+    <sheet name="Initiating 5" sheetId="56" r:id="rId32"/>
+    <sheet name="Initiating 4" sheetId="54" r:id="rId33"/>
+    <sheet name="Initiating 1" sheetId="7" r:id="rId34"/>
+    <sheet name="Scope" sheetId="10" r:id="rId35"/>
+    <sheet name="Planning5" sheetId="3" r:id="rId36"/>
+    <sheet name="Planning1" sheetId="11" r:id="rId37"/>
+    <sheet name="Planning3" sheetId="16" r:id="rId38"/>
+    <sheet name="Executing1" sheetId="15" r:id="rId39"/>
+    <sheet name="Executing 4" sheetId="53" r:id="rId40"/>
+    <sheet name="Executing 3" sheetId="36" r:id="rId41"/>
+    <sheet name="Executing 8" sheetId="44" r:id="rId42"/>
+    <sheet name="Executing 2" sheetId="17" r:id="rId43"/>
+    <sheet name="Domain-Initiating" sheetId="18" r:id="rId44"/>
+    <sheet name="Domain-Planning" sheetId="12" r:id="rId45"/>
+    <sheet name="Domain-Executing" sheetId="13" r:id="rId46"/>
+    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId47"/>
+    <sheet name="Domain-Closing" sheetId="19" r:id="rId48"/>
+    <sheet name="Executing" sheetId="4" r:id="rId49"/>
+    <sheet name="Monitoring" sheetId="5" r:id="rId50"/>
+    <sheet name="Closing" sheetId="6" r:id="rId51"/>
+    <sheet name="Mock" sheetId="8" r:id="rId52"/>
+    <sheet name="Full Test 4" sheetId="9" r:id="rId53"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="1091">
   <si>
     <t>No</t>
   </si>
@@ -3491,6 +3492,67 @@
   </si>
   <si>
     <t>FP-EPA fixed price with economic price adjustment</t>
+  </si>
+  <si>
+    <t>Tìm all key stakeholder vẫn là tìm trong project charter</t>
+  </si>
+  <si>
+    <t>RACI: tìm hiểu</t>
+  </si>
+  <si>
+    <t>đọc kỹ nội dung câu hỏi</t>
+  </si>
+  <si>
+    <t>khi thuê ngoài thì cần phải training cho team.
+Tool techni trong develop team:
+co-location, virtual team, communication technology, interpersonal and team skill, training, recognition and rewards</t>
+  </si>
+  <si>
+    <t>hiểu không đúng bản chất rule 100%. Hiểu sai câu trả lời</t>
+  </si>
+  <si>
+    <t>Dù có phân rã tới mức nhỏ bao nhiêu thì vẫn không phá vỡ quy tắc rule 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMV là công thức trong risk không phải sử dụng để đo lường </t>
+  </si>
+  <si>
+    <t>Rough order of magnitude (ROM) -25% -&gt; 75% =&gt; tương tự estimate analogous -&gt; initiating
+budget estimate -10% =&gt; 25% during project planning
+definitive estimate -5%-10%</t>
+  </si>
+  <si>
+    <t>Đầu tiên là đưa ra yêu cầu sửa đổi contract khi mà scope tăng, nếu mà cả 2 bên không đồng thuận thì sẽ đưa ra tòa ADR</t>
+  </si>
+  <si>
+    <t>Đọc sai câu hỏi</t>
+  </si>
+  <si>
+    <t>Đọc sai câu hỏi.  Which of the following is not a fundamental attribute of effective communication?</t>
+  </si>
+  <si>
+    <t>The fundamental attributes of effective communication include clarity on the purpose, understanding communication needs and requirements, and monitoring communications.</t>
+  </si>
+  <si>
+    <t>tài liệu chung nhất giữa buyer và seller là hợp đồng agreement</t>
+  </si>
+  <si>
+    <t>EAC = AC + (BAC - EV) = AC + ETC</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại nội dung Risk Register gồm những nội dung gì và output từ những process nào</t>
+  </si>
+  <si>
+    <t>The critical path method is a schedule network analysis technique that is performed using the schedule model.</t>
+  </si>
+  <si>
+    <t>đối với những dự án đã diễn ra quá dài, cần phải conduct trend analysis</t>
+  </si>
+  <si>
+    <t>hỏi lại Bình</t>
+  </si>
+  <si>
+    <t>trình tự decomposed: controlAccount -&gt; workpackage-&gt;activities</t>
   </si>
 </sst>
 </file>
@@ -4412,6 +4474,9 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4433,9 +4498,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4838,8 +4900,8 @@
   </sheetPr>
   <dimension ref="A1:AA1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -4872,7 +4934,7 @@
       <c r="G1" s="60" t="s">
         <v>888</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="127" t="s">
         <v>459</v>
       </c>
       <c r="I1" s="60" t="s">
@@ -4911,7 +4973,7 @@
       <c r="E2" s="63"/>
       <c r="F2" s="60"/>
       <c r="G2" s="60"/>
-      <c r="H2" s="135" t="s">
+      <c r="H2" s="127" t="s">
         <v>460</v>
       </c>
       <c r="I2" s="60" t="s">
@@ -5292,7 +5354,7 @@
       </c>
       <c r="F11" s="60"/>
       <c r="G11" s="60"/>
-      <c r="H11" s="135" t="s">
+      <c r="H11" s="127" t="s">
         <v>469</v>
       </c>
       <c r="I11" s="60" t="s">
@@ -5452,10 +5514,10 @@
       <c r="A15" s="84" t="s">
         <v>369</v>
       </c>
-      <c r="B15" s="127">
+      <c r="B15" s="128">
         <v>43473</v>
       </c>
-      <c r="C15" s="127" t="str">
+      <c r="C15" s="128" t="str">
         <f t="shared" si="1"/>
         <v>Thứ 3</v>
       </c>
@@ -5496,8 +5558,8 @@
       <c r="A16" s="84" t="s">
         <v>357</v>
       </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
       <c r="D16" s="79">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5535,8 +5597,8 @@
       <c r="A17" s="84" t="s">
         <v>358</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
       <c r="D17" s="79">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5660,11 +5722,11 @@
       <c r="A20" s="84" t="s">
         <v>370</v>
       </c>
-      <c r="B20" s="127">
+      <c r="B20" s="128">
         <f>B19+1</f>
         <v>43479</v>
       </c>
-      <c r="C20" s="127" t="str">
+      <c r="C20" s="128" t="str">
         <f t="shared" si="2"/>
         <v>Thứ 2</v>
       </c>
@@ -5705,8 +5767,8 @@
       <c r="A21" s="84" t="s">
         <v>359</v>
       </c>
-      <c r="B21" s="128"/>
-      <c r="C21" s="128"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
       <c r="D21" s="79">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5744,8 +5806,8 @@
       <c r="A22" s="84" t="s">
         <v>360</v>
       </c>
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="79">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -6643,7 +6705,9 @@
       <c r="D43" s="109">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E43" s="110"/>
+      <c r="E43" s="110" t="s">
+        <v>392</v>
+      </c>
       <c r="F43" s="111" t="s">
         <v>573</v>
       </c>
@@ -31630,6 +31694,7 @@
     <hyperlink ref="A35" location="'Mock Exam 4'!A1" display="Mock Exam 4" xr:uid="{254B4A8E-2837-4015-8874-5E349804BC30}"/>
     <hyperlink ref="A37" location="'Initiating 5'!A1" display="Initiating 5 - 25" xr:uid="{17043A15-97D7-4E15-8A7E-ECB8F04BD0E9}"/>
     <hyperlink ref="H11" location="Framework!A1" display="Framework " xr:uid="{E1316AC4-182C-4499-84E7-3E56A48AF86B}"/>
+    <hyperlink ref="A43" location="'Mock Exam 5'!A1" display="Mock Exam 5" xr:uid="{D3590123-5AE8-4351-85A8-BF567DD5BA2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31639,6 +31704,177 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7AA35E-BA94-465D-947F-048E2F692024}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="68"/>
+    <col min="2" max="2" width="21.42578125" style="68" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="68" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="68" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="68" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="120">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27" t="s">
+        <v>556</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{990F738F-95B8-418E-A433-42A014F7A5A1}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0EA51E-E33E-4C4C-AD48-50E43566C8D1}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -31811,7 +32047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A78EF31-A47F-4412-A3CA-C438D7816DE2}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -32483,7 +32719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2583E3-9850-4500-BEA4-2CD763A9903C}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -33103,7 +33339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD440D0-468F-462B-9532-3FA36BB45DDC}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -33714,7 +33950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50057963-75E5-4253-A7F5-E58A81C4C7B8}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -34314,7 +34550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF518E94-DEA8-4256-BBA2-A9B8503A0CD1}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -34962,7 +35198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB690D-227C-45AA-9C93-A22E8FEE0210}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -35564,7 +35800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC84D3F-832A-445E-B66B-013E6A0F573C}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -36231,7 +36467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AD6CE4-A652-4BA6-AF5B-7B55F9607709}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -36888,7 +37124,575 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C66373A-941A-4A53-B10D-6CDA563BDAF2}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="68"/>
+    <col min="2" max="2" width="33.140625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="68" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="68" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="68" customWidth="1"/>
+    <col min="6" max="6" width="79" style="68" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="72">
+        <v>1</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E2" s="75"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="72">
+        <v>2</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E3" s="75"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="72">
+        <v>3</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="75"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="72">
+        <v>4</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="75"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="72">
+        <v>5</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="75"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="72">
+        <v>6</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="75"/>
+      <c r="G7" s="77"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="72">
+        <v>7</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="75"/>
+    </row>
+    <row r="9" spans="1:7" ht="75">
+      <c r="A9" s="72">
+        <v>8</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="72">
+        <v>9</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="75"/>
+      <c r="G10" s="77"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="72">
+        <v>10</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="75"/>
+    </row>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="72">
+        <v>11</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="72">
+        <v>12</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E13" s="75"/>
+    </row>
+    <row r="14" spans="1:7" ht="75">
+      <c r="A14" s="72">
+        <v>13</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E14" s="75"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="72">
+        <v>14</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="75"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="72">
+        <v>15</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="75"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="72">
+        <v>16</v>
+      </c>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="72">
+        <v>17</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="75"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="72">
+        <v>18</v>
+      </c>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="75"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="72">
+        <v>19</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="75"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="72">
+        <v>20</v>
+      </c>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="75"/>
+    </row>
+    <row r="22" spans="1:5" ht="45">
+      <c r="A22" s="72">
+        <v>21</v>
+      </c>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="72"/>
+      <c r="E22" s="75" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="75">
+      <c r="A23" s="72">
+        <v>22</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E23" s="75" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="72">
+        <v>23</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="75"/>
+    </row>
+    <row r="25" spans="1:5" ht="30">
+      <c r="A25" s="72">
+        <v>24</v>
+      </c>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E25" s="75"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="72">
+        <v>25</v>
+      </c>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="75"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="72">
+        <v>26</v>
+      </c>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="75"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="72">
+        <v>27</v>
+      </c>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="72" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E28" s="75"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="72">
+        <v>28</v>
+      </c>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="75"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="72">
+        <v>29</v>
+      </c>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="75"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="72">
+        <v>30</v>
+      </c>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="75"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="72">
+        <v>31</v>
+      </c>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="75"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="72">
+        <v>32</v>
+      </c>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="75"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="72">
+        <v>33</v>
+      </c>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="75"/>
+    </row>
+    <row r="35" spans="1:5" ht="30">
+      <c r="A35" s="72">
+        <v>34</v>
+      </c>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E35" s="75"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="72">
+        <v>35</v>
+      </c>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="75"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="72">
+        <v>36</v>
+      </c>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="75"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="72">
+        <v>37</v>
+      </c>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="75"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="72">
+        <v>38</v>
+      </c>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="75"/>
+    </row>
+    <row r="40" spans="1:5" ht="45">
+      <c r="A40" s="72">
+        <v>39</v>
+      </c>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E40" s="75"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="72">
+        <v>40</v>
+      </c>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="75"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="72">
+        <v>41</v>
+      </c>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="75"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="72">
+        <v>42</v>
+      </c>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="75"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="72">
+        <v>43</v>
+      </c>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="75"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="72">
+        <v>44</v>
+      </c>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="75"/>
+    </row>
+    <row r="46" spans="1:5" ht="30">
+      <c r="A46" s="72">
+        <v>45</v>
+      </c>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="72" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E46" s="75"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="72">
+        <v>46</v>
+      </c>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="75"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="72">
+        <v>47</v>
+      </c>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="75"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="72">
+        <v>48</v>
+      </c>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="72" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E49" s="75"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="72">
+        <v>49</v>
+      </c>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="75"/>
+    </row>
+    <row r="51" spans="1:5" ht="30">
+      <c r="A51" s="72">
+        <v>50</v>
+      </c>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="72" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E51" s="75" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{5E0198DC-2E00-4E81-9909-39D77FF80EE9}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{4B2071FA-337D-4BE3-8895-A265FBAFA04F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C855FF4-BDF1-4910-B0A9-D7158B045C46}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -37447,679 +38251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03EE777-7A71-4ABF-B428-9DD9FC79554D}">
-  <dimension ref="A1:G51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="68"/>
-    <col min="2" max="2" width="33.140625" style="68" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="68" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="68" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" style="68" customWidth="1"/>
-    <col min="6" max="6" width="79" style="68" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="68"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="74" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="72">
-        <v>1</v>
-      </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="75" t="s">
-        <v>575</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="90">
-      <c r="A3" s="72">
-        <v>2</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="75" t="s">
-        <v>577</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="72">
-        <v>3</v>
-      </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>579</v>
-      </c>
-      <c r="E4" s="75" t="s">
-        <v>580</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="72">
-        <v>4</v>
-      </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="75"/>
-    </row>
-    <row r="6" spans="1:7" ht="45">
-      <c r="A6" s="72">
-        <v>5</v>
-      </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="75" t="s">
-        <v>581</v>
-      </c>
-      <c r="F6" s="81" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="72">
-        <v>6</v>
-      </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="81" t="s">
-        <v>582</v>
-      </c>
-      <c r="G7" s="77"/>
-    </row>
-    <row r="8" spans="1:7" ht="45">
-      <c r="A8" s="72">
-        <v>7</v>
-      </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="75" t="s">
-        <v>583</v>
-      </c>
-      <c r="F8" s="81"/>
-    </row>
-    <row r="9" spans="1:7" ht="60">
-      <c r="A9" s="72">
-        <v>8</v>
-      </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="72" t="s">
-        <v>785</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="72">
-        <v>9</v>
-      </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>687</v>
-      </c>
-      <c r="E10" s="75" t="s">
-        <v>786</v>
-      </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="77"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="72">
-        <v>10</v>
-      </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="81"/>
-    </row>
-    <row r="12" spans="1:7" ht="165">
-      <c r="A12" s="72">
-        <v>11</v>
-      </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>787</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>788</v>
-      </c>
-      <c r="F12" s="77"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="72">
-        <v>12</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="81"/>
-    </row>
-    <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="72">
-        <v>13</v>
-      </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="75" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30">
-      <c r="A15" s="72">
-        <v>14</v>
-      </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="75" t="s">
-        <v>790</v>
-      </c>
-      <c r="F15" s="81" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="72">
-        <v>15</v>
-      </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="81"/>
-    </row>
-    <row r="17" spans="1:6" ht="90">
-      <c r="A17" s="72">
-        <v>16</v>
-      </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="75" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45">
-      <c r="A18" s="72">
-        <v>17</v>
-      </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="75" t="s">
-        <v>792</v>
-      </c>
-      <c r="F18" s="68" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45">
-      <c r="A19" s="72">
-        <v>18</v>
-      </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="75" t="s">
-        <v>794</v>
-      </c>
-      <c r="F19" s="82" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="75">
-      <c r="A20" s="72">
-        <v>19</v>
-      </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="75" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="60">
-      <c r="A21" s="72">
-        <v>20</v>
-      </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>796</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="72">
-        <v>21</v>
-      </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="75"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="72">
-        <v>22</v>
-      </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="75"/>
-    </row>
-    <row r="24" spans="1:6" ht="30">
-      <c r="A24" s="72">
-        <v>23</v>
-      </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="75" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="72">
-        <v>24</v>
-      </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="75" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="45">
-      <c r="A26" s="72">
-        <v>25</v>
-      </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="75" t="s">
-        <v>800</v>
-      </c>
-      <c r="F26" s="68" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="75">
-      <c r="A27" s="72">
-        <v>26</v>
-      </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="75" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="45">
-      <c r="A28" s="72">
-        <v>27</v>
-      </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="75" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30">
-      <c r="A29" s="72">
-        <v>28</v>
-      </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="75" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="72">
-        <v>29</v>
-      </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="75"/>
-    </row>
-    <row r="31" spans="1:6" ht="60">
-      <c r="A31" s="72">
-        <v>30</v>
-      </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="75" t="s">
-        <v>805</v>
-      </c>
-      <c r="F31" s="68" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="90">
-      <c r="A32" s="72">
-        <v>31</v>
-      </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="75" t="s">
-        <v>807</v>
-      </c>
-      <c r="F32" s="68" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30">
-      <c r="A33" s="72">
-        <v>32</v>
-      </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="75" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="60">
-      <c r="A34" s="72">
-        <v>33</v>
-      </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="75" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="72">
-        <v>34</v>
-      </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="75" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="72">
-        <v>35</v>
-      </c>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="75"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="72">
-        <v>36</v>
-      </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="75"/>
-    </row>
-    <row r="38" spans="1:6" ht="45">
-      <c r="A38" s="72">
-        <v>37</v>
-      </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="75" t="s">
-        <v>811</v>
-      </c>
-      <c r="F38" s="68" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="45">
-      <c r="A39" s="72">
-        <v>38</v>
-      </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="72"/>
-      <c r="E39" s="75" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="72">
-        <v>39</v>
-      </c>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="75"/>
-    </row>
-    <row r="41" spans="1:6" ht="75">
-      <c r="A41" s="72">
-        <v>40</v>
-      </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="75" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="72">
-        <v>41</v>
-      </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="75"/>
-    </row>
-    <row r="43" spans="1:6" ht="45">
-      <c r="A43" s="72">
-        <v>42</v>
-      </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="72"/>
-      <c r="E43" s="75" t="s">
-        <v>815</v>
-      </c>
-      <c r="F43" s="68" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="72">
-        <v>43</v>
-      </c>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="75"/>
-    </row>
-    <row r="45" spans="1:6" ht="45">
-      <c r="A45" s="72">
-        <v>44</v>
-      </c>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="72" t="s">
-        <v>817</v>
-      </c>
-      <c r="E45" s="75" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="45">
-      <c r="A46" s="72">
-        <v>45</v>
-      </c>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="75" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="75">
-      <c r="A47" s="72">
-        <v>46</v>
-      </c>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="75" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="30">
-      <c r="A48" s="72">
-        <v>47</v>
-      </c>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="75" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="72">
-        <v>48</v>
-      </c>
-      <c r="B49" s="72"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="75"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="72">
-        <v>49</v>
-      </c>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="75"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="72">
-        <v>50</v>
-      </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="75"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{4FE8A252-954C-419D-A8FB-D3F34E393847}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{C77349D5-2B19-498C-A49A-53558815CFE2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7271A84-E4BF-4C3C-A529-C79AE0E90AA3}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -38814,7 +38946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BF44A-91AF-4F6D-AE5E-E58F57961686}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -39494,7 +39626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FD89E-6595-4ED6-8407-B1A3D616014F}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H52"/>
@@ -39875,7 +40007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34A5403-C026-4AEF-975E-5986F7A3547D}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -40022,7 +40154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2406BFC1-FDEC-47D4-ABA3-CB9662BD9EDB}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -40173,7 +40305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC095154-264D-4CD0-92FD-11A8104E004E}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -40316,7 +40448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9696DCF4-14CB-44B7-90D8-B8204394C5DB}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -40455,7 +40587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3370A11-AD88-47EC-B564-C7B459D1B3C6}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E11"/>
@@ -40533,7 +40665,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="135">
+    <row r="6" spans="1:5" ht="45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -40557,7 +40689,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="195">
+    <row r="8" spans="1:5" ht="60">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -40617,7 +40749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3E9025-2166-405B-928B-811F653123F3}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:F26"/>
@@ -40958,7 +41090,679 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03EE777-7A71-4ABF-B428-9DD9FC79554D}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="68"/>
+    <col min="2" max="2" width="33.140625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="68" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="68" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="68" customWidth="1"/>
+    <col min="6" max="6" width="79" style="68" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="72">
+        <v>1</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="72"/>
+      <c r="E2" s="75" t="s">
+        <v>575</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="90">
+      <c r="A3" s="72">
+        <v>2</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="75" t="s">
+        <v>577</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="72">
+        <v>3</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>579</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>580</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="72">
+        <v>4</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="75"/>
+    </row>
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6" s="72">
+        <v>5</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="72">
+        <v>6</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="81" t="s">
+        <v>582</v>
+      </c>
+      <c r="G7" s="77"/>
+    </row>
+    <row r="8" spans="1:7" ht="45">
+      <c r="A8" s="72">
+        <v>7</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="72"/>
+      <c r="E8" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="F8" s="81"/>
+    </row>
+    <row r="9" spans="1:7" ht="60">
+      <c r="A9" s="72">
+        <v>8</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>785</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="72">
+        <v>9</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>687</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>786</v>
+      </c>
+      <c r="F10" s="81"/>
+      <c r="G10" s="77"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="72">
+        <v>10</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="1:7" ht="165">
+      <c r="A12" s="72">
+        <v>11</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>787</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>788</v>
+      </c>
+      <c r="F12" s="77"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="72">
+        <v>12</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="72">
+        <v>13</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="71"/>
+      <c r="E14" s="75" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30">
+      <c r="A15" s="72">
+        <v>14</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="72"/>
+      <c r="E15" s="75" t="s">
+        <v>790</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="72">
+        <v>15</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="81"/>
+    </row>
+    <row r="17" spans="1:6" ht="90">
+      <c r="A17" s="72">
+        <v>16</v>
+      </c>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="75" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45">
+      <c r="A18" s="72">
+        <v>17</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="75" t="s">
+        <v>792</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45">
+      <c r="A19" s="72">
+        <v>18</v>
+      </c>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="75" t="s">
+        <v>794</v>
+      </c>
+      <c r="F19" s="82" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="75">
+      <c r="A20" s="72">
+        <v>19</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="72"/>
+      <c r="E20" s="75" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="60">
+      <c r="A21" s="72">
+        <v>20</v>
+      </c>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>796</v>
+      </c>
+      <c r="E21" s="75" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="72">
+        <v>21</v>
+      </c>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="75"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="72">
+        <v>22</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="75"/>
+    </row>
+    <row r="24" spans="1:6" ht="30">
+      <c r="A24" s="72">
+        <v>23</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="75" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30">
+      <c r="A25" s="72">
+        <v>24</v>
+      </c>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="72"/>
+      <c r="E25" s="75" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45">
+      <c r="A26" s="72">
+        <v>25</v>
+      </c>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="75" t="s">
+        <v>800</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="75">
+      <c r="A27" s="72">
+        <v>26</v>
+      </c>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="72"/>
+      <c r="E27" s="75" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45">
+      <c r="A28" s="72">
+        <v>27</v>
+      </c>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="75" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30">
+      <c r="A29" s="72">
+        <v>28</v>
+      </c>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="72"/>
+      <c r="E29" s="75" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="72">
+        <v>29</v>
+      </c>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="75"/>
+    </row>
+    <row r="31" spans="1:6" ht="60">
+      <c r="A31" s="72">
+        <v>30</v>
+      </c>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="72"/>
+      <c r="E31" s="75" t="s">
+        <v>805</v>
+      </c>
+      <c r="F31" s="68" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="90">
+      <c r="A32" s="72">
+        <v>31</v>
+      </c>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="72"/>
+      <c r="E32" s="75" t="s">
+        <v>807</v>
+      </c>
+      <c r="F32" s="68" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30">
+      <c r="A33" s="72">
+        <v>32</v>
+      </c>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="75" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="60">
+      <c r="A34" s="72">
+        <v>33</v>
+      </c>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="75" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="72">
+        <v>34</v>
+      </c>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="72"/>
+      <c r="E35" s="75" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="72">
+        <v>35</v>
+      </c>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="75"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="72">
+        <v>36</v>
+      </c>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="75"/>
+    </row>
+    <row r="38" spans="1:6" ht="45">
+      <c r="A38" s="72">
+        <v>37</v>
+      </c>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="75" t="s">
+        <v>811</v>
+      </c>
+      <c r="F38" s="68" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="45">
+      <c r="A39" s="72">
+        <v>38</v>
+      </c>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="72"/>
+      <c r="E39" s="75" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="72">
+        <v>39</v>
+      </c>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="75"/>
+    </row>
+    <row r="41" spans="1:6" ht="75">
+      <c r="A41" s="72">
+        <v>40</v>
+      </c>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="72"/>
+      <c r="E41" s="75" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="72">
+        <v>41</v>
+      </c>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="75"/>
+    </row>
+    <row r="43" spans="1:6" ht="45">
+      <c r="A43" s="72">
+        <v>42</v>
+      </c>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="72"/>
+      <c r="E43" s="75" t="s">
+        <v>815</v>
+      </c>
+      <c r="F43" s="68" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="72">
+        <v>43</v>
+      </c>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="75"/>
+    </row>
+    <row r="45" spans="1:6" ht="45">
+      <c r="A45" s="72">
+        <v>44</v>
+      </c>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="72" t="s">
+        <v>817</v>
+      </c>
+      <c r="E45" s="75" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="45">
+      <c r="A46" s="72">
+        <v>45</v>
+      </c>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="75" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="75">
+      <c r="A47" s="72">
+        <v>46</v>
+      </c>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="75" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30">
+      <c r="A48" s="72">
+        <v>47</v>
+      </c>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="75" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="72">
+        <v>48</v>
+      </c>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="75"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="72">
+        <v>49</v>
+      </c>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="75"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="72">
+        <v>50</v>
+      </c>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="75"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{4FE8A252-954C-419D-A8FB-D3F34E393847}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{C77349D5-2B19-498C-A49A-53558815CFE2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FC4E90-A86A-42A7-A5A8-760D17A592B6}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -41305,172 +42109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B5154B-FB7F-4C88-AD8C-C645C7E775BC}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="68"/>
-    <col min="2" max="2" width="21.42578125" style="68" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="68" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="68" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" style="68" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="68"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="27">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="27">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="27">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>621</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="27">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="27">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="4" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="27">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>624</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="27">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60">
-      <c r="A9" s="27">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="4" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="27">
-        <v>9</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="27">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{9FC3A50F-2D3E-4ACB-A502-5909BAB5A31B}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5096C7F6-304A-4696-AB04-B782ECAE35C0}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -41809,7 +42448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E7F72C-8763-4FD0-9393-7A7E1BDC492D}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -42153,7 +42792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29A3CE1-998F-4ACC-B0C1-F793A7B2A89D}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -42503,7 +43142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67830A5-61CE-4324-A223-E0E1F9224A73}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
@@ -42896,7 +43535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F5D74C-E5D9-45C3-98E4-07977C9F0161}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E11"/>
@@ -43040,7 +43679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C982353-CA8A-4388-8859-7413C89A9E50}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E26"/>
@@ -43393,7 +44032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E4B6E-32AB-4F9F-9656-4C5398F92691}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L52"/>
@@ -44372,7 +45011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC2793-45B1-4029-830E-35CE2386D9D1}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J51"/>
@@ -45409,7 +46048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0762741B-203C-43CC-95E6-55D0B96E24E3}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F51"/>
@@ -46111,7 +46750,172 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B5154B-FB7F-4C88-AD8C-C645C7E775BC}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="68"/>
+    <col min="2" max="2" width="21.42578125" style="68" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="68" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="68" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="68" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>621</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{9FC3A50F-2D3E-4ACB-A502-5909BAB5A31B}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C21AC00-F23C-4DDA-9EE8-A43E265F9EB8}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -46759,172 +47563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD3A80B-5C92-444C-86E6-05BC29695160}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="68"/>
-    <col min="2" max="2" width="21.42578125" style="68" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="68" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="68" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" style="68" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="68"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="60">
-      <c r="A2" s="27">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="4" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60">
-      <c r="A3" s="27">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="4" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="27">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="4" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="120">
-      <c r="A5" s="27">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="4" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="27">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="4" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="27">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="4" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="27">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45">
-      <c r="A9" s="27">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="4" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="75">
-      <c r="A10" s="27">
-        <v>9</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="4" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="27">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="4" t="s">
-        <v>831</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{A5DEE7C1-57C2-47E9-BB78-F7A901A4DFD7}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B485323A-E48D-48D5-A059-00902955E19C}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -47603,7 +48242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574CC2A3-93D7-4AB9-83CF-AF68AB756A5A}">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -47991,12 +48630,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFD739-AF93-4AA7-A2F1-3E80882A8922}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -48688,7 +49327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475F131D-CBCC-4B8F-BDF4-B1E2E34C7098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K9"/>
@@ -48703,152 +49342,152 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="130" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="132"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="130" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="132"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="130" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="130" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="132"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="130" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="132"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="130" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="130" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="132"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="130" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="132"/>
     </row>
     <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="133" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -48866,7 +49505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K13"/>
@@ -48881,222 +49520,222 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="132"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="130" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="132"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="132"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="130" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="132"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="132"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="132"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="132"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="132"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="132"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="132"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -49118,7 +49757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3A676-4755-49BB-A0B9-3FC0BA4B80B3}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:K7"/>
@@ -49133,265 +49772,120 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="132"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="132"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="132"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="132"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="130" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="131"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="129" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="131"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="131"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="129" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="129" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="131"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="129" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="131"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="129" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="131"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="129" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -49409,6 +49903,151 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="130" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="132"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="132"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="130" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="132"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="130" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="132"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="130" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="132"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="132"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC2900-1516-4D11-BB5E-CB91221B0668}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K8"/>
@@ -49423,135 +50062,135 @@
       <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="130" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="132"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="130" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="132"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="130" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="132"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="130" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="132"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="130" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="130" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="132"/>
     </row>
     <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="133" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -49568,7 +50207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8370EABC-5FB0-46E3-AC0D-18A12C9132DD}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E26"/>
@@ -49855,7 +50494,172 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD3A80B-5C92-444C-86E6-05BC29695160}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="68"/>
+    <col min="2" max="2" width="21.42578125" style="68" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="68" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="68" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="68" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="4" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="4" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="4" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{A5DEE7C1-57C2-47E9-BB78-F7A901A4DFD7}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C828-5E38-4F9B-89F5-DE7664E9E60A}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1"/>
@@ -49870,7 +50674,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E23C0DE-7C2A-4965-86C8-62DEFBCE1853}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -50036,48 +50881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
-  <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
-  <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDFCA0E-15B1-4FCC-89C5-A148D6AA017A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -50236,7 +51040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC68079F-684B-43F0-8FD0-98B5FC1777B4}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -50395,7 +51199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F25227D-57C1-4CE8-91AC-A7B1D986105A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -50544,175 +51348,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7AA35E-BA94-465D-947F-048E2F692024}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="68"/>
-    <col min="2" max="2" width="21.42578125" style="68" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="68" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="68" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" style="68" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="68"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="27">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="27">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="27">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="27">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45">
-      <c r="A6" s="27">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="27">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27" t="s">
-        <v>554</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="120">
-      <c r="A8" s="27">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="27">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="27">
-        <v>9</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="27">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27" t="s">
-        <v>556</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{990F738F-95B8-418E-A433-42A014F7A5A1}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>